--- a/Office Statement Expense & Expenditure.xlsx
+++ b/Office Statement Expense & Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Najeeb Associates\000FFICE\Office Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B372DEF-0373-4B5F-AE31-74BC45DB799A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44346256-99AB-473F-8761-95DBF7EAC959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="904" activeTab="15" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
   </bookViews>
@@ -29,6 +29,7 @@
     <sheet name="Mazhar" sheetId="11" r:id="rId14"/>
     <sheet name="BWC" sheetId="26" r:id="rId15"/>
     <sheet name="GT Calc" sheetId="24" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="29" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Old Record'!$A$78:$G$115</definedName>
@@ -190,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="434">
   <si>
     <t>Opning Balance</t>
   </si>
@@ -1476,7 +1477,22 @@
     <t>G-15/1</t>
   </si>
   <si>
-    <t>7m old 10x</t>
+    <t>Dringking Water Office - Un-Paid Rs.100</t>
+  </si>
+  <si>
+    <t>Tea for G16 dealer Waseem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 Marla Old </t>
+  </si>
+  <si>
+    <t>3 Marla Awami</t>
+  </si>
+  <si>
+    <t>Imran</t>
+  </si>
+  <si>
+    <t>Pir</t>
   </si>
 </sst>
 </file>
@@ -3309,8 +3325,8 @@
   </sheetPr>
   <dimension ref="A1:N893"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView topLeftCell="A141" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -6777,9 +6793,7 @@
       <c r="N148" s="8"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A149" s="226">
-        <v>5</v>
-      </c>
+      <c r="A149" s="226"/>
       <c r="B149" s="39"/>
       <c r="C149" s="1"/>
       <c r="D149" s="40"/>
@@ -6920,9 +6934,15 @@
       <c r="C155" s="1"/>
       <c r="D155" s="40"/>
       <c r="E155" s="38"/>
-      <c r="F155" s="226"/>
-      <c r="G155" s="39"/>
-      <c r="H155" s="1"/>
+      <c r="F155" s="226">
+        <v>9</v>
+      </c>
+      <c r="G155" s="39">
+        <v>44274</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="I155" s="40"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
@@ -6936,9 +6956,15 @@
       <c r="C156" s="1"/>
       <c r="D156" s="40"/>
       <c r="E156" s="38"/>
-      <c r="F156" s="226"/>
-      <c r="G156" s="39"/>
-      <c r="H156" s="1"/>
+      <c r="F156" s="226">
+        <v>10</v>
+      </c>
+      <c r="G156" s="39">
+        <v>44274</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="I156" s="40"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
@@ -6954,8 +6980,12 @@
       <c r="E157" s="38"/>
       <c r="F157" s="226"/>
       <c r="G157" s="39"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="40"/>
+      <c r="H157" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I157" s="40">
+        <v>30</v>
+      </c>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
@@ -7028,7 +7058,7 @@
       <c r="H161" s="264"/>
       <c r="I161" s="44">
         <f>SUM(I143:I160)</f>
-        <v>5809</v>
+        <v>5839</v>
       </c>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
@@ -7081,7 +7111,7 @@
       </c>
       <c r="D164" s="58">
         <f>I161</f>
-        <v>5809</v>
+        <v>5839</v>
       </c>
       <c r="E164" s="8"/>
       <c r="F164" s="53"/>
@@ -7118,7 +7148,7 @@
       </c>
       <c r="D166" s="62">
         <f>D163-D164</f>
-        <v>1433289</v>
+        <v>1433259</v>
       </c>
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
@@ -24188,7 +24218,7 @@
   <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -24198,10 +24228,10 @@
     <col min="4" max="4" width="12.5859375" customWidth="1"/>
     <col min="5" max="5" width="10.703125" customWidth="1"/>
     <col min="6" max="6" width="11.52734375" style="72" customWidth="1"/>
-    <col min="7" max="7" width="3" customWidth="1"/>
+    <col min="7" max="7" width="4.46875" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="9.17578125" customWidth="1"/>
-    <col min="10" max="10" width="3.5859375" customWidth="1"/>
+    <col min="10" max="10" width="1.76171875" customWidth="1"/>
     <col min="12" max="13" width="8.87890625" style="72"/>
   </cols>
   <sheetData>
@@ -24211,13 +24241,13 @@
       </c>
       <c r="C2" s="179">
         <f>BOFC!D166</f>
-        <v>1433289</v>
+        <v>1433259</v>
       </c>
       <c r="E2" t="s">
         <v>311</v>
       </c>
       <c r="F2" s="72">
-        <v>85000</v>
+        <v>110000</v>
       </c>
       <c r="H2" s="72"/>
     </row>
@@ -24233,7 +24263,7 @@
         <v>179</v>
       </c>
       <c r="F3" s="72">
-        <v>5000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.5">
@@ -24248,7 +24278,7 @@
         <v>261</v>
       </c>
       <c r="F4" s="72">
-        <v>3700</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.5">
@@ -24301,6 +24331,12 @@
         <f>Kamil!D60</f>
         <v>0</v>
       </c>
+      <c r="E9" t="s">
+        <v>432</v>
+      </c>
+      <c r="F9" s="72">
+        <v>194500</v>
+      </c>
       <c r="H9" s="180"/>
       <c r="I9" s="181"/>
     </row>
@@ -24312,9 +24348,6 @@
         <f>Kamil!D78</f>
         <v>0</v>
       </c>
-      <c r="F10" s="72">
-        <v>-80000</v>
-      </c>
       <c r="K10" s="72"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.5">
@@ -24326,10 +24359,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F11" s="72">
-        <v>595000</v>
+        <v>282000</v>
       </c>
       <c r="L11" s="72">
         <v>507</v>
@@ -24342,6 +24375,9 @@
       <c r="C12" s="72">
         <f>Kamil!D96</f>
         <v>0</v>
+      </c>
+      <c r="F12" s="72">
+        <v>-1600</v>
       </c>
       <c r="K12" s="80" t="s">
         <v>369</v>
@@ -24378,7 +24414,7 @@
       </c>
       <c r="I14" s="181">
         <f>C19-F19</f>
-        <v>89520</v>
+        <v>79140</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.5">
@@ -24407,8 +24443,8 @@
         <v>307</v>
       </c>
       <c r="C17" s="179">
-        <f>'Najeeb New'!D53</f>
-        <v>-63310</v>
+        <f>'Najeeb New'!D52</f>
+        <v>-59710</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.5">
@@ -24420,7 +24456,7 @@
       </c>
       <c r="C19" s="253">
         <f>SUM(C2:C18)</f>
-        <v>1563220</v>
+        <v>1566790</v>
       </c>
       <c r="D19" s="252"/>
       <c r="E19" s="252" t="s">
@@ -24428,7 +24464,7 @@
       </c>
       <c r="F19" s="253">
         <f>SUM(F2:F18)</f>
-        <v>1473700</v>
+        <v>1487650</v>
       </c>
       <c r="L19" s="72">
         <v>956</v>
@@ -24444,6 +24480,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BA9BFA-17B0-4682-BC89-677BD0B4C364}">
+  <dimension ref="E4:H9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D2" zoomScale="122" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="5" max="5" width="34.9375" customWidth="1"/>
+    <col min="7" max="7" width="7.3515625" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="E4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F4">
+        <v>60000</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <f>F4*G4</f>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="E5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F5">
+        <v>28000</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f>F5*G5</f>
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="H7">
+        <v>-280000</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="H8">
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="H9">
+        <v>-49000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -31465,21 +31566,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE5270A-1461-405D-B543-E3C5A2961C03}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="5.703125" style="80" customWidth="1"/>
     <col min="2" max="2" width="15.234375" style="207" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="10.41015625" style="189" customWidth="1"/>
-    <col min="5" max="5" width="12" style="72" customWidth="1"/>
+    <col min="3" max="3" width="49.76171875" customWidth="1"/>
+    <col min="4" max="4" width="10.9375" style="189" customWidth="1"/>
+    <col min="5" max="5" width="11.1171875" style="72" customWidth="1"/>
     <col min="6" max="6" width="4.87890625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="4.52734375" customWidth="1"/>
+    <col min="7" max="7" width="3.87890625" customWidth="1"/>
     <col min="8" max="8" width="10.17578125" style="237" customWidth="1"/>
     <col min="9" max="9" width="37.05859375" customWidth="1"/>
     <col min="10" max="10" width="9.76171875" customWidth="1"/>
@@ -31715,10 +31816,18 @@
       <c r="C10" s="214"/>
       <c r="D10" s="210"/>
       <c r="E10" s="272"/>
-      <c r="G10" s="230"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="40"/>
+      <c r="G10" s="230">
+        <v>5</v>
+      </c>
+      <c r="H10" s="39">
+        <v>44274</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J10" s="40">
+        <v>3600</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -31867,7 +31976,7 @@
       <c r="I18" s="263"/>
       <c r="J18" s="44">
         <f>SUM(J4:J17)</f>
-        <v>5360</v>
+        <v>8960</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -32351,7 +32460,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="79"/>
       <c r="B46" s="239"/>
       <c r="C46" s="8"/>
@@ -32365,11 +32474,16 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A47" s="79"/>
       <c r="B47" s="239"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="240"/>
+      <c r="C47" s="246" t="s">
+        <v>417</v>
+      </c>
+      <c r="D47" s="247">
+        <f>J36</f>
+        <v>0</v>
+      </c>
       <c r="E47" s="242"/>
       <c r="G47" s="8"/>
       <c r="H47" s="241"/>
@@ -32382,12 +32496,12 @@
     <row r="48" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A48" s="79"/>
       <c r="B48" s="239"/>
-      <c r="C48" s="246" t="s">
-        <v>417</v>
-      </c>
-      <c r="D48" s="247">
-        <f>J36</f>
-        <v>0</v>
+      <c r="C48" s="248" t="s">
+        <v>419</v>
+      </c>
+      <c r="D48" s="249">
+        <f>E45</f>
+        <v>-68670</v>
       </c>
       <c r="E48" s="242"/>
       <c r="G48" s="8"/>
@@ -32402,11 +32516,11 @@
       <c r="A49" s="79"/>
       <c r="B49" s="239"/>
       <c r="C49" s="248" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D49" s="249">
-        <f>E45</f>
-        <v>-68670</v>
+        <f>J18</f>
+        <v>8960</v>
       </c>
       <c r="E49" s="242"/>
       <c r="G49" s="8"/>
@@ -32420,13 +32534,8 @@
     <row r="50" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A50" s="79"/>
       <c r="B50" s="239"/>
-      <c r="C50" s="248" t="s">
-        <v>418</v>
-      </c>
-      <c r="D50" s="249">
-        <f>J18</f>
-        <v>5360</v>
-      </c>
+      <c r="C50" s="248"/>
+      <c r="D50" s="249"/>
       <c r="E50" s="242"/>
       <c r="G50" s="8"/>
       <c r="H50" s="241"/>
@@ -32436,11 +32545,11 @@
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="79"/>
       <c r="B51" s="239"/>
-      <c r="C51" s="248"/>
-      <c r="D51" s="249"/>
+      <c r="C51" s="250"/>
+      <c r="D51" s="251"/>
       <c r="E51" s="242"/>
       <c r="G51" s="8"/>
       <c r="H51" s="241"/>
@@ -32450,11 +32559,16 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
     </row>
-    <row r="52" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A52" s="79"/>
       <c r="B52" s="239"/>
-      <c r="C52" s="250"/>
-      <c r="D52" s="251"/>
+      <c r="C52" s="244" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="245">
+        <f>SUM(D47:D51)</f>
+        <v>-59710</v>
+      </c>
       <c r="E52" s="242"/>
       <c r="G52" s="8"/>
       <c r="H52" s="241"/>
@@ -32464,16 +32578,11 @@
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
     </row>
-    <row r="53" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A53" s="79"/>
       <c r="B53" s="239"/>
-      <c r="C53" s="244" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="245">
-        <f>SUM(D48:D52)</f>
-        <v>-63310</v>
-      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="240"/>
       <c r="E53" s="242"/>
       <c r="G53" s="8"/>
       <c r="H53" s="241"/>
@@ -32538,20 +32647,6 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A58" s="79"/>
-      <c r="B58" s="239"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="240"/>
-      <c r="E58" s="242"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="241"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="36">

--- a/Office Statement Expense & Expenditure.xlsx
+++ b/Office Statement Expense & Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Najeeb Associates\000FFICE\Office Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44346256-99AB-473F-8761-95DBF7EAC959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E48BCBE-65A6-4E8C-A023-7F21DE5D2CC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="904" activeTab="15" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
   </bookViews>
@@ -62,6 +62,20 @@
           <t>Handovered Sunny
 10k Cash
 20k Bank Transfered</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{7B0F142F-1567-4244-A7FB-32087AE8BD6D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mai ne uski 5 files bechi - us ne 500 rupe mujhe selling k diye or daftar k record mai dalne se roka, k ye aap k hain, agar daftar mai dalne hai to wapas dedo</t>
         </r>
       </text>
     </comment>
@@ -191,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="447">
   <si>
     <t>Opning Balance</t>
   </si>
@@ -1303,9 +1317,6 @@
     <t>Got</t>
   </si>
   <si>
-    <t>Received Cash from BOFC 500</t>
-  </si>
-  <si>
     <t>Received Cash from BOFC - 500+30k</t>
   </si>
   <si>
@@ -1354,9 +1365,6 @@
     <t>21/2/2021</t>
   </si>
   <si>
-    <t>WO Amir Bhai</t>
-  </si>
-  <si>
     <t>Received Cash from BOFC of Sister - by hand Waheed</t>
   </si>
   <si>
@@ -1381,9 +1389,6 @@
     <t>Tea for guests - Anwar G16 Required</t>
   </si>
   <si>
-    <t>sunny</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1435,9 +1440,6 @@
     <t>Dlr Ashraf - Kamran Kamil - Waqas</t>
   </si>
   <si>
-    <t>Mazhar - Doors - Shopers for little home of Chikens</t>
-  </si>
-  <si>
     <t>Received Amount from Najeeb</t>
   </si>
   <si>
@@ -1489,10 +1491,61 @@
     <t>3 Marla Awami</t>
   </si>
   <si>
-    <t>Imran</t>
-  </si>
-  <si>
-    <t>Pir</t>
+    <t>Handovered 9,460/- to KhanJee</t>
+  </si>
+  <si>
+    <t>File Trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BWC Trade </t>
+  </si>
+  <si>
+    <t>Shahid</t>
+  </si>
+  <si>
+    <t>Azhar</t>
+  </si>
+  <si>
+    <t>Wasif</t>
+  </si>
+  <si>
+    <t>Received Cash from BOFC 500k</t>
+  </si>
+  <si>
+    <t>Saddam Taken 100k for short return in Office 4:15pm</t>
+  </si>
+  <si>
+    <t>Raja</t>
+  </si>
+  <si>
+    <t>Aqua</t>
+  </si>
+  <si>
+    <t>Vitz</t>
+  </si>
+  <si>
+    <t>Cash Amount</t>
+  </si>
+  <si>
+    <t>Abeer H</t>
+  </si>
+  <si>
+    <t>Qari</t>
+  </si>
+  <si>
+    <t>Amir Bhai</t>
+  </si>
+  <si>
+    <t>Returned Back at 6:15pm</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Drinking Water Office 2x Canes</t>
+  </si>
+  <si>
+    <t>Sunny Goind Home - Gave me 209k + 3x 7 marla files yesterday</t>
   </si>
 </sst>
 </file>
@@ -2175,7 +2228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2838,6 +2891,22 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2874,7 +2943,13 @@
     <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2883,13 +2958,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2901,18 +2982,6 @@
     <xf numFmtId="0" fontId="17" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2922,17 +2991,8 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2952,29 +3012,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2990,6 +3044,21 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3323,10 +3392,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N893"/>
+  <dimension ref="A1:N895"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157"/>
+    <sheetView topLeftCell="A146" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3343,17 +3412,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="262" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="258"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="264"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -3361,19 +3430,19 @@
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="261"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="267"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="259" t="s">
+      <c r="F2" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="261"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="267"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -4099,21 +4168,21 @@
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="262" t="s">
+      <c r="A34" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="263"/>
-      <c r="C34" s="263"/>
+      <c r="B34" s="269"/>
+      <c r="C34" s="269"/>
       <c r="D34" s="44">
         <f>SUM(D4:D33)</f>
         <v>457640</v>
       </c>
       <c r="E34" s="50"/>
-      <c r="F34" s="262" t="s">
+      <c r="F34" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="263"/>
-      <c r="H34" s="264"/>
+      <c r="G34" s="269"/>
+      <c r="H34" s="270"/>
       <c r="I34" s="44">
         <f>SUM(I4:I33)</f>
         <v>175535</v>
@@ -4236,17 +4305,17 @@
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" ht="34.450000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="256" t="s">
+      <c r="A41" s="262" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="257"/>
-      <c r="C41" s="257"/>
-      <c r="D41" s="257"/>
-      <c r="E41" s="257"/>
-      <c r="F41" s="257"/>
-      <c r="G41" s="257"/>
-      <c r="H41" s="257"/>
-      <c r="I41" s="258"/>
+      <c r="B41" s="263"/>
+      <c r="C41" s="263"/>
+      <c r="D41" s="263"/>
+      <c r="E41" s="263"/>
+      <c r="F41" s="263"/>
+      <c r="G41" s="263"/>
+      <c r="H41" s="263"/>
+      <c r="I41" s="264"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4254,19 +4323,19 @@
       <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A42" s="259" t="s">
+      <c r="A42" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="260"/>
-      <c r="C42" s="260"/>
-      <c r="D42" s="261"/>
+      <c r="B42" s="266"/>
+      <c r="C42" s="266"/>
+      <c r="D42" s="267"/>
       <c r="E42" s="43"/>
-      <c r="F42" s="259" t="s">
+      <c r="F42" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G42" s="260"/>
-      <c r="H42" s="260"/>
-      <c r="I42" s="261"/>
+      <c r="G42" s="266"/>
+      <c r="H42" s="266"/>
+      <c r="I42" s="267"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -4595,21 +4664,21 @@
       <c r="N55" s="8"/>
     </row>
     <row r="56" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="262" t="s">
+      <c r="A56" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="263"/>
-      <c r="C56" s="263"/>
+      <c r="B56" s="269"/>
+      <c r="C56" s="269"/>
       <c r="D56" s="44">
         <f>SUM(D44:D55)</f>
         <v>302105</v>
       </c>
       <c r="E56" s="50"/>
-      <c r="F56" s="262" t="s">
+      <c r="F56" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="G56" s="263"/>
-      <c r="H56" s="264"/>
+      <c r="G56" s="269"/>
+      <c r="H56" s="270"/>
       <c r="I56" s="44">
         <f>SUM(I44:I55)</f>
         <v>8700</v>
@@ -4716,15 +4785,15 @@
       <c r="N61" s="8"/>
     </row>
     <row r="62" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="265"/>
-      <c r="B62" s="265"/>
-      <c r="C62" s="265"/>
-      <c r="D62" s="265"/>
-      <c r="E62" s="265"/>
-      <c r="F62" s="265"/>
-      <c r="G62" s="265"/>
-      <c r="H62" s="265"/>
-      <c r="I62" s="265"/>
+      <c r="A62" s="271"/>
+      <c r="B62" s="271"/>
+      <c r="C62" s="271"/>
+      <c r="D62" s="271"/>
+      <c r="E62" s="271"/>
+      <c r="F62" s="271"/>
+      <c r="G62" s="271"/>
+      <c r="H62" s="271"/>
+      <c r="I62" s="271"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
@@ -4732,17 +4801,17 @@
       <c r="N62" s="8"/>
     </row>
     <row r="63" spans="1:14" ht="34.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="256" t="s">
+      <c r="A63" s="262" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="257"/>
-      <c r="C63" s="257"/>
-      <c r="D63" s="257"/>
-      <c r="E63" s="257"/>
-      <c r="F63" s="257"/>
-      <c r="G63" s="257"/>
-      <c r="H63" s="257"/>
-      <c r="I63" s="258"/>
+      <c r="B63" s="263"/>
+      <c r="C63" s="263"/>
+      <c r="D63" s="263"/>
+      <c r="E63" s="263"/>
+      <c r="F63" s="263"/>
+      <c r="G63" s="263"/>
+      <c r="H63" s="263"/>
+      <c r="I63" s="264"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -4750,19 +4819,19 @@
       <c r="N63" s="8"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A64" s="259" t="s">
+      <c r="A64" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="260"/>
-      <c r="C64" s="260"/>
-      <c r="D64" s="261"/>
+      <c r="B64" s="266"/>
+      <c r="C64" s="266"/>
+      <c r="D64" s="267"/>
       <c r="E64" s="43"/>
-      <c r="F64" s="259" t="s">
+      <c r="F64" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G64" s="260"/>
-      <c r="H64" s="260"/>
-      <c r="I64" s="261"/>
+      <c r="G64" s="266"/>
+      <c r="H64" s="266"/>
+      <c r="I64" s="267"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
@@ -5123,21 +5192,21 @@
       <c r="N78" s="8"/>
     </row>
     <row r="79" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="262" t="s">
+      <c r="A79" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="B79" s="263"/>
-      <c r="C79" s="263"/>
+      <c r="B79" s="269"/>
+      <c r="C79" s="269"/>
       <c r="D79" s="44">
         <f>SUM(D66:D78)</f>
         <v>658405</v>
       </c>
       <c r="E79" s="50"/>
-      <c r="F79" s="262" t="s">
+      <c r="F79" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="G79" s="263"/>
-      <c r="H79" s="264"/>
+      <c r="G79" s="269"/>
+      <c r="H79" s="270"/>
       <c r="I79" s="44">
         <f>SUM(I66:I78)</f>
         <v>73560</v>
@@ -5260,17 +5329,17 @@
       <c r="N85" s="8"/>
     </row>
     <row r="86" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A86" s="256" t="s">
+      <c r="A86" s="262" t="s">
         <v>282</v>
       </c>
-      <c r="B86" s="257"/>
-      <c r="C86" s="257"/>
-      <c r="D86" s="257"/>
-      <c r="E86" s="257"/>
-      <c r="F86" s="257"/>
-      <c r="G86" s="257"/>
-      <c r="H86" s="257"/>
-      <c r="I86" s="258"/>
+      <c r="B86" s="263"/>
+      <c r="C86" s="263"/>
+      <c r="D86" s="263"/>
+      <c r="E86" s="263"/>
+      <c r="F86" s="263"/>
+      <c r="G86" s="263"/>
+      <c r="H86" s="263"/>
+      <c r="I86" s="264"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
@@ -5278,19 +5347,19 @@
       <c r="N86" s="8"/>
     </row>
     <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A87" s="259" t="s">
+      <c r="A87" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="260"/>
-      <c r="C87" s="260"/>
-      <c r="D87" s="261"/>
+      <c r="B87" s="266"/>
+      <c r="C87" s="266"/>
+      <c r="D87" s="267"/>
       <c r="E87" s="43"/>
-      <c r="F87" s="259" t="s">
+      <c r="F87" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G87" s="260"/>
-      <c r="H87" s="260"/>
-      <c r="I87" s="261"/>
+      <c r="G87" s="266"/>
+      <c r="H87" s="266"/>
+      <c r="I87" s="267"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
@@ -5729,21 +5798,21 @@
       <c r="N104" s="8"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A105" s="262" t="s">
+      <c r="A105" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="263"/>
-      <c r="C105" s="263"/>
+      <c r="B105" s="269"/>
+      <c r="C105" s="269"/>
       <c r="D105" s="44">
         <f>SUM(D89:D104)</f>
         <v>935345</v>
       </c>
       <c r="E105" s="50"/>
-      <c r="F105" s="262" t="s">
+      <c r="F105" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="G105" s="263"/>
-      <c r="H105" s="264"/>
+      <c r="G105" s="269"/>
+      <c r="H105" s="270"/>
       <c r="I105" s="44">
         <f>SUM(I89:I104)</f>
         <v>14647</v>
@@ -5866,17 +5935,17 @@
       <c r="N111" s="8"/>
     </row>
     <row r="112" spans="1:14" ht="29.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A112" s="256" t="s">
+      <c r="A112" s="262" t="s">
         <v>347</v>
       </c>
-      <c r="B112" s="257"/>
-      <c r="C112" s="257"/>
-      <c r="D112" s="257"/>
-      <c r="E112" s="257"/>
-      <c r="F112" s="257"/>
-      <c r="G112" s="257"/>
-      <c r="H112" s="257"/>
-      <c r="I112" s="258"/>
+      <c r="B112" s="263"/>
+      <c r="C112" s="263"/>
+      <c r="D112" s="263"/>
+      <c r="E112" s="263"/>
+      <c r="F112" s="263"/>
+      <c r="G112" s="263"/>
+      <c r="H112" s="263"/>
+      <c r="I112" s="264"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
@@ -5884,19 +5953,19 @@
       <c r="N112" s="8"/>
     </row>
     <row r="113" spans="1:14" ht="19.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A113" s="259" t="s">
+      <c r="A113" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B113" s="260"/>
-      <c r="C113" s="260"/>
-      <c r="D113" s="261"/>
+      <c r="B113" s="266"/>
+      <c r="C113" s="266"/>
+      <c r="D113" s="267"/>
       <c r="E113" s="43"/>
-      <c r="F113" s="259" t="s">
+      <c r="F113" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G113" s="260"/>
-      <c r="H113" s="260"/>
-      <c r="I113" s="261"/>
+      <c r="G113" s="266"/>
+      <c r="H113" s="266"/>
+      <c r="I113" s="267"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
@@ -6068,7 +6137,7 @@
         <v>44241</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="D119" s="40">
         <v>500000</v>
@@ -6081,7 +6150,7 @@
         <v>44242</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I119" s="40">
         <v>90</v>
@@ -6113,7 +6182,7 @@
         <v>44243</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I120" s="40">
         <v>120</v>
@@ -6145,7 +6214,7 @@
         <v>44245</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I121" s="40">
         <v>280</v>
@@ -6169,7 +6238,7 @@
         <v>44246</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I122" s="40">
         <v>120</v>
@@ -6189,7 +6258,7 @@
       <c r="F123" s="201"/>
       <c r="G123" s="39"/>
       <c r="H123" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I123" s="40">
         <v>30</v>
@@ -6213,7 +6282,7 @@
         <v>44248</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I124" s="40">
         <v>30</v>
@@ -6353,7 +6422,7 @@
         <v>44254</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I130" s="40">
         <v>90</v>
@@ -6377,7 +6446,7 @@
         <v>44255</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I131" s="40">
         <v>270</v>
@@ -6405,21 +6474,21 @@
       <c r="N132" s="8"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A133" s="262" t="s">
+      <c r="A133" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="263"/>
-      <c r="C133" s="263"/>
+      <c r="B133" s="269"/>
+      <c r="C133" s="269"/>
       <c r="D133" s="44">
         <f>SUM(D115:D132)</f>
         <v>1433998</v>
       </c>
       <c r="E133" s="50"/>
-      <c r="F133" s="262" t="s">
+      <c r="F133" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="G133" s="263"/>
-      <c r="H133" s="264"/>
+      <c r="G133" s="269"/>
+      <c r="H133" s="270"/>
       <c r="I133" s="44">
         <f>SUM(I115:I132)</f>
         <v>2100</v>
@@ -6542,17 +6611,17 @@
       <c r="N139" s="8"/>
     </row>
     <row r="140" spans="1:14" ht="36.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="256" t="s">
-        <v>399</v>
-      </c>
-      <c r="B140" s="257"/>
-      <c r="C140" s="257"/>
-      <c r="D140" s="257"/>
-      <c r="E140" s="257"/>
-      <c r="F140" s="257"/>
-      <c r="G140" s="257"/>
-      <c r="H140" s="257"/>
-      <c r="I140" s="258"/>
+      <c r="A140" s="262" t="s">
+        <v>396</v>
+      </c>
+      <c r="B140" s="263"/>
+      <c r="C140" s="263"/>
+      <c r="D140" s="263"/>
+      <c r="E140" s="263"/>
+      <c r="F140" s="263"/>
+      <c r="G140" s="263"/>
+      <c r="H140" s="263"/>
+      <c r="I140" s="264"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
@@ -6560,19 +6629,19 @@
       <c r="N140" s="8"/>
     </row>
     <row r="141" spans="1:14" ht="19.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A141" s="259" t="s">
+      <c r="A141" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B141" s="260"/>
-      <c r="C141" s="260"/>
-      <c r="D141" s="261"/>
+      <c r="B141" s="266"/>
+      <c r="C141" s="266"/>
+      <c r="D141" s="267"/>
       <c r="E141" s="43"/>
-      <c r="F141" s="259" t="s">
+      <c r="F141" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G141" s="260"/>
-      <c r="H141" s="260"/>
-      <c r="I141" s="261"/>
+      <c r="G141" s="266"/>
+      <c r="H141" s="266"/>
+      <c r="I141" s="267"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
@@ -6633,7 +6702,7 @@
         <v>44256</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I143" s="40">
         <v>120</v>
@@ -6654,8 +6723,8 @@
       <c r="C144" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D144" s="40">
-        <v>1500</v>
+      <c r="D144" s="260">
+        <v>3000</v>
       </c>
       <c r="E144" s="38"/>
       <c r="F144" s="228">
@@ -6665,7 +6734,7 @@
         <v>44258</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I144" s="40">
         <v>90</v>
@@ -6686,8 +6755,8 @@
       <c r="C145" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D145" s="40">
-        <v>500</v>
+      <c r="D145" s="260">
+        <v>1000</v>
       </c>
       <c r="E145" s="38"/>
       <c r="F145" s="228">
@@ -6695,7 +6764,7 @@
       </c>
       <c r="G145" s="39"/>
       <c r="H145" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I145" s="40">
         <v>100</v>
@@ -6712,8 +6781,8 @@
       <c r="C146" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D146" s="40">
-        <v>2000</v>
+      <c r="D146" s="260">
+        <v>4000</v>
       </c>
       <c r="E146" s="38"/>
       <c r="F146" s="226"/>
@@ -6721,7 +6790,7 @@
         <v>44260</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I146" s="40">
         <v>200</v>
@@ -6742,8 +6811,8 @@
       <c r="C147" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D147" s="40">
-        <v>600</v>
+      <c r="D147" s="260">
+        <v>1200</v>
       </c>
       <c r="E147" s="38"/>
       <c r="F147" s="226">
@@ -6751,7 +6820,7 @@
       </c>
       <c r="G147" s="39"/>
       <c r="H147" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I147" s="40">
         <v>120</v>
@@ -6772,8 +6841,8 @@
       <c r="C148" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D148" s="40">
-        <v>2600</v>
+      <c r="D148" s="260">
+        <v>4600</v>
       </c>
       <c r="E148" s="38"/>
       <c r="F148" s="226"/>
@@ -6781,7 +6850,7 @@
         <v>44261</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I148" s="40">
         <v>366</v>
@@ -6793,10 +6862,18 @@
       <c r="N148" s="8"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A149" s="226"/>
-      <c r="B149" s="39"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="40"/>
+      <c r="A149" s="226">
+        <v>5</v>
+      </c>
+      <c r="B149" s="39">
+        <v>44275</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D149" s="40">
+        <v>3600</v>
+      </c>
       <c r="E149" s="38"/>
       <c r="F149" s="226">
         <v>5</v>
@@ -6805,7 +6882,7 @@
         <v>44262</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I149" s="40">
         <v>100</v>
@@ -6826,12 +6903,8 @@
         <v>6</v>
       </c>
       <c r="G150" s="39"/>
-      <c r="H150" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="I150" s="40">
-        <v>4500</v>
-      </c>
+      <c r="H150" s="1"/>
+      <c r="I150" s="40"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
@@ -6849,7 +6922,7 @@
         <v>44263</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I151" s="40">
         <v>120</v>
@@ -6873,7 +6946,7 @@
         <v>44264</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I152" s="40">
         <v>3</v>
@@ -6897,7 +6970,7 @@
         <v>44265</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I153" s="40">
         <v>60</v>
@@ -6917,7 +6990,7 @@
       <c r="F154" s="226"/>
       <c r="G154" s="39"/>
       <c r="H154" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I154" s="40">
         <v>30</v>
@@ -6940,8 +7013,8 @@
       <c r="G155" s="39">
         <v>44274</v>
       </c>
-      <c r="H155" s="1" t="s">
-        <v>428</v>
+      <c r="H155" s="143" t="s">
+        <v>424</v>
       </c>
       <c r="I155" s="40"/>
       <c r="J155" s="8"/>
@@ -6960,12 +7033,14 @@
         <v>10</v>
       </c>
       <c r="G156" s="39">
-        <v>44274</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="I156" s="40"/>
+        <v>44275</v>
+      </c>
+      <c r="H156" s="68" t="s">
+        <v>401</v>
+      </c>
+      <c r="I156" s="40">
+        <v>100</v>
+      </c>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
       <c r="L156" s="8"/>
@@ -6981,7 +7056,7 @@
       <c r="F157" s="226"/>
       <c r="G157" s="39"/>
       <c r="H157" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I157" s="40">
         <v>30</v>
@@ -6998,10 +7073,18 @@
       <c r="C158" s="1"/>
       <c r="D158" s="40"/>
       <c r="E158" s="38"/>
-      <c r="F158" s="226"/>
-      <c r="G158" s="39"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="40"/>
+      <c r="F158" s="226">
+        <v>11</v>
+      </c>
+      <c r="G158" s="39">
+        <v>44277</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I158" s="40">
+        <v>60</v>
+      </c>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
@@ -7014,26 +7097,34 @@
       <c r="C159" s="70"/>
       <c r="D159" s="71"/>
       <c r="E159" s="38"/>
-      <c r="F159" s="174"/>
-      <c r="G159" s="39"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="40"/>
+      <c r="F159" s="174">
+        <v>12</v>
+      </c>
+      <c r="G159" s="39">
+        <v>44278</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I159" s="40">
+        <v>200</v>
+      </c>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
       <c r="N159" s="8"/>
     </row>
-    <row r="160" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="96"/>
-      <c r="B160" s="96"/>
-      <c r="C160" s="96"/>
-      <c r="D160" s="97"/>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A160" s="70"/>
+      <c r="B160" s="70"/>
+      <c r="C160" s="70"/>
+      <c r="D160" s="71"/>
       <c r="E160" s="38"/>
-      <c r="F160" s="94"/>
-      <c r="G160" s="95"/>
-      <c r="H160" s="96"/>
-      <c r="I160" s="97"/>
+      <c r="F160" s="174"/>
+      <c r="G160" s="175"/>
+      <c r="H160" s="70"/>
+      <c r="I160" s="71"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
@@ -7041,41 +7132,31 @@
       <c r="N160" s="8"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A161" s="262" t="s">
-        <v>106</v>
-      </c>
-      <c r="B161" s="263"/>
-      <c r="C161" s="263"/>
-      <c r="D161" s="44">
-        <f>SUM(D143:D160)</f>
-        <v>1439098</v>
-      </c>
-      <c r="E161" s="50"/>
-      <c r="F161" s="262" t="s">
-        <v>105</v>
-      </c>
-      <c r="G161" s="263"/>
-      <c r="H161" s="264"/>
-      <c r="I161" s="44">
-        <f>SUM(I143:I160)</f>
-        <v>5839</v>
-      </c>
+      <c r="A161" s="70"/>
+      <c r="B161" s="70"/>
+      <c r="C161" s="70"/>
+      <c r="D161" s="71"/>
+      <c r="E161" s="38"/>
+      <c r="F161" s="174"/>
+      <c r="G161" s="175"/>
+      <c r="H161" s="70"/>
+      <c r="I161" s="71"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
       <c r="M161" s="8"/>
       <c r="N161" s="8"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A162" s="55"/>
-      <c r="B162" s="55"/>
-      <c r="C162" s="55"/>
-      <c r="D162" s="56"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="55"/>
-      <c r="G162" s="55"/>
-      <c r="H162" s="55"/>
-      <c r="I162" s="56"/>
+    <row r="162" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="96"/>
+      <c r="B162" s="96"/>
+      <c r="C162" s="96"/>
+      <c r="D162" s="97"/>
+      <c r="E162" s="38"/>
+      <c r="F162" s="94"/>
+      <c r="G162" s="95"/>
+      <c r="H162" s="96"/>
+      <c r="I162" s="97"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
@@ -7083,20 +7164,25 @@
       <c r="N162" s="8"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A163" s="53"/>
-      <c r="B163" s="53"/>
-      <c r="C163" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D163" s="58">
-        <f>D161</f>
-        <v>1439098</v>
-      </c>
-      <c r="E163" s="8"/>
-      <c r="F163" s="53"/>
-      <c r="G163" s="53"/>
-      <c r="H163" s="53"/>
-      <c r="I163" s="53"/>
+      <c r="A163" s="268" t="s">
+        <v>106</v>
+      </c>
+      <c r="B163" s="269"/>
+      <c r="C163" s="269"/>
+      <c r="D163" s="44">
+        <f>SUM(D143:D162)</f>
+        <v>1449298</v>
+      </c>
+      <c r="E163" s="50"/>
+      <c r="F163" s="268" t="s">
+        <v>105</v>
+      </c>
+      <c r="G163" s="269"/>
+      <c r="H163" s="270"/>
+      <c r="I163" s="44">
+        <f>SUM(I143:I162)</f>
+        <v>1699</v>
+      </c>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
@@ -7104,36 +7190,36 @@
       <c r="N163" s="8"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A164" s="53"/>
-      <c r="B164" s="53"/>
-      <c r="C164" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="D164" s="58">
-        <f>I161</f>
-        <v>5839</v>
-      </c>
+      <c r="A164" s="55"/>
+      <c r="B164" s="55"/>
+      <c r="C164" s="55"/>
+      <c r="D164" s="56"/>
       <c r="E164" s="8"/>
-      <c r="F164" s="53"/>
-      <c r="G164" s="53"/>
-      <c r="H164" s="53"/>
-      <c r="I164" s="53"/>
+      <c r="F164" s="55"/>
+      <c r="G164" s="55"/>
+      <c r="H164" s="55"/>
+      <c r="I164" s="56"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
       <c r="M164" s="8"/>
       <c r="N164" s="8"/>
     </row>
-    <row r="165" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="59"/>
-      <c r="D165" s="60"/>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A165" s="53"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D165" s="58">
+        <f>D163</f>
+        <v>1449298</v>
+      </c>
       <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
+      <c r="F165" s="53"/>
+      <c r="G165" s="53"/>
+      <c r="H165" s="53"/>
+      <c r="I165" s="53"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
@@ -7141,31 +7227,31 @@
       <c r="N165" s="8"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D166" s="62">
-        <f>D163-D164</f>
-        <v>1433259</v>
+      <c r="A166" s="53"/>
+      <c r="B166" s="53"/>
+      <c r="C166" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D166" s="58">
+        <f>I163</f>
+        <v>1699</v>
       </c>
       <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
+      <c r="F166" s="53"/>
+      <c r="G166" s="53"/>
+      <c r="H166" s="53"/>
+      <c r="I166" s="53"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
       <c r="M166" s="8"/>
       <c r="N166" s="8"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
+      <c r="C167" s="59"/>
+      <c r="D167" s="60"/>
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
@@ -7180,8 +7266,13 @@
     <row r="168" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
+      <c r="C168" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" s="62">
+        <f>D165-D166</f>
+        <v>1447599</v>
+      </c>
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
@@ -11371,6 +11462,14 @@
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A430" s="8"/>
+      <c r="B430" s="8"/>
+      <c r="C430" s="8"/>
+      <c r="D430" s="8"/>
+      <c r="E430" s="8"/>
+      <c r="F430" s="8"/>
+      <c r="G430" s="8"/>
+      <c r="H430" s="8"/>
+      <c r="I430" s="8"/>
       <c r="J430" s="8"/>
       <c r="K430" s="8"/>
       <c r="L430" s="8"/>
@@ -11378,6 +11477,15 @@
       <c r="N430" s="8"/>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A431" s="8"/>
+      <c r="B431" s="8"/>
+      <c r="C431" s="8"/>
+      <c r="D431" s="8"/>
+      <c r="E431" s="8"/>
+      <c r="F431" s="8"/>
+      <c r="G431" s="8"/>
+      <c r="H431" s="8"/>
+      <c r="I431" s="8"/>
       <c r="J431" s="8"/>
       <c r="K431" s="8"/>
       <c r="L431" s="8"/>
@@ -11385,6 +11493,7 @@
       <c r="N431" s="8"/>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A432" s="8"/>
       <c r="J432" s="8"/>
       <c r="K432" s="8"/>
       <c r="L432" s="8"/>
@@ -14618,39 +14727,53 @@
       <c r="M893" s="8"/>
       <c r="N893" s="8"/>
     </row>
+    <row r="894" spans="10:14" x14ac:dyDescent="0.5">
+      <c r="J894" s="8"/>
+      <c r="K894" s="8"/>
+      <c r="L894" s="8"/>
+      <c r="M894" s="8"/>
+      <c r="N894" s="8"/>
+    </row>
+    <row r="895" spans="10:14" x14ac:dyDescent="0.5">
+      <c r="J895" s="8"/>
+      <c r="K895" s="8"/>
+      <c r="L895" s="8"/>
+      <c r="M895" s="8"/>
+      <c r="N895" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="A140:I140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="F163:H163"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="F56:H56"/>
     <mergeCell ref="A62:I62"/>
     <mergeCell ref="A63:I63"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="F64:I64"/>
     <mergeCell ref="A79:C79"/>
     <mergeCell ref="F79:H79"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="A140:I140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="F105:H105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="53" orientation="portrait" r:id="rId1"/>
@@ -14688,10 +14811,10 @@
       <c r="D1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="299" t="s">
+      <c r="E1" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="299"/>
+      <c r="F1" s="290"/>
       <c r="G1" s="14">
         <v>50000</v>
       </c>
@@ -14810,17 +14933,17 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A5" s="302">
+      <c r="A5" s="303">
         <v>3</v>
       </c>
-      <c r="B5" s="303">
+      <c r="B5" s="304">
         <v>44063</v>
       </c>
-      <c r="C5" s="304" t="s">
+      <c r="C5" s="305" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="305"/>
-      <c r="E5" s="306"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="307"/>
       <c r="F5" s="4">
         <v>11640</v>
       </c>
@@ -14842,11 +14965,11 @@
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A6" s="302"/>
-      <c r="B6" s="303"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="305"/>
-      <c r="E6" s="306"/>
+      <c r="A6" s="303"/>
+      <c r="B6" s="304"/>
+      <c r="C6" s="305"/>
+      <c r="D6" s="306"/>
+      <c r="E6" s="307"/>
       <c r="F6" s="4">
         <v>1700</v>
       </c>
@@ -14868,10 +14991,10 @@
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A7" s="302">
+      <c r="A7" s="303">
         <v>4</v>
       </c>
-      <c r="B7" s="303">
+      <c r="B7" s="304">
         <v>44064</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -14900,8 +15023,8 @@
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A8" s="302"/>
-      <c r="B8" s="303"/>
+      <c r="A8" s="303"/>
+      <c r="B8" s="304"/>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -14962,10 +15085,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A10" s="302">
+      <c r="A10" s="303">
         <v>6</v>
       </c>
-      <c r="B10" s="303">
+      <c r="B10" s="304">
         <v>44066</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -14994,8 +15117,8 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A11" s="302"/>
-      <c r="B11" s="303"/>
+      <c r="A11" s="303"/>
+      <c r="B11" s="304"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -15027,7 +15150,7 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="303">
+      <c r="B12" s="304">
         <v>44067</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -15059,7 +15182,7 @@
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="303"/>
+      <c r="B13" s="304"/>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
@@ -15152,12 +15275,12 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="284" t="s">
+      <c r="A16" s="299" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="284"/>
-      <c r="C16" s="284"/>
-      <c r="D16" s="285"/>
+      <c r="B16" s="299"/>
+      <c r="C16" s="299"/>
+      <c r="D16" s="300"/>
       <c r="E16" s="16">
         <f>SUM(E3:E15)</f>
         <v>0</v>
@@ -15184,10 +15307,10 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="286"/>
-      <c r="B17" s="286"/>
-      <c r="C17" s="286"/>
-      <c r="D17" s="287"/>
+      <c r="A17" s="301"/>
+      <c r="B17" s="301"/>
+      <c r="C17" s="301"/>
+      <c r="D17" s="302"/>
       <c r="E17" s="17" t="s">
         <v>61</v>
       </c>
@@ -15240,10 +15363,10 @@
       <c r="D19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="299" t="s">
+      <c r="E19" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="299"/>
+      <c r="F19" s="290"/>
       <c r="G19" s="14">
         <v>31780</v>
       </c>
@@ -15328,10 +15451,10 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A22" s="291">
+      <c r="A22" s="294">
         <v>12</v>
       </c>
-      <c r="B22" s="288">
+      <c r="B22" s="291">
         <v>44076</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -15360,8 +15483,8 @@
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A23" s="292"/>
-      <c r="B23" s="289"/>
+      <c r="A23" s="295"/>
+      <c r="B23" s="292"/>
       <c r="C23" s="21" t="s">
         <v>21</v>
       </c>
@@ -15388,8 +15511,8 @@
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A24" s="293"/>
-      <c r="B24" s="290"/>
+      <c r="A24" s="296"/>
+      <c r="B24" s="293"/>
       <c r="C24" s="21" t="s">
         <v>22</v>
       </c>
@@ -15418,10 +15541,10 @@
       <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A25" s="291">
+      <c r="A25" s="294">
         <v>13</v>
       </c>
-      <c r="B25" s="288">
+      <c r="B25" s="291">
         <v>44077</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -15452,8 +15575,8 @@
       <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A26" s="293"/>
-      <c r="B26" s="290"/>
+      <c r="A26" s="296"/>
+      <c r="B26" s="293"/>
       <c r="C26" s="21" t="s">
         <v>26</v>
       </c>
@@ -15482,10 +15605,10 @@
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A27" s="291">
+      <c r="A27" s="294">
         <v>14</v>
       </c>
-      <c r="B27" s="288">
+      <c r="B27" s="291">
         <v>44078</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -15514,8 +15637,8 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A28" s="293"/>
-      <c r="B28" s="290"/>
+      <c r="A28" s="296"/>
+      <c r="B28" s="293"/>
       <c r="C28" s="21" t="s">
         <v>28</v>
       </c>
@@ -15544,10 +15667,10 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A29" s="291">
+      <c r="A29" s="294">
         <v>15</v>
       </c>
-      <c r="B29" s="288">
+      <c r="B29" s="291">
         <v>44079</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -15576,8 +15699,8 @@
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A30" s="292"/>
-      <c r="B30" s="289"/>
+      <c r="A30" s="295"/>
+      <c r="B30" s="292"/>
       <c r="C30" s="21" t="s">
         <v>30</v>
       </c>
@@ -15606,8 +15729,8 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A31" s="292"/>
-      <c r="B31" s="289"/>
+      <c r="A31" s="295"/>
+      <c r="B31" s="292"/>
       <c r="C31" s="21" t="s">
         <v>60</v>
       </c>
@@ -15634,8 +15757,8 @@
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A32" s="293"/>
-      <c r="B32" s="290"/>
+      <c r="A32" s="296"/>
+      <c r="B32" s="293"/>
       <c r="C32" s="23" t="s">
         <v>31</v>
       </c>
@@ -15662,10 +15785,10 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A33" s="291">
+      <c r="A33" s="294">
         <v>16</v>
       </c>
-      <c r="B33" s="288">
+      <c r="B33" s="291">
         <v>44080</v>
       </c>
       <c r="C33" s="21" t="s">
@@ -15696,8 +15819,8 @@
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A34" s="292"/>
-      <c r="B34" s="289"/>
+      <c r="A34" s="295"/>
+      <c r="B34" s="292"/>
       <c r="C34" s="21" t="s">
         <v>33</v>
       </c>
@@ -15726,8 +15849,8 @@
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A35" s="292"/>
-      <c r="B35" s="289"/>
+      <c r="A35" s="295"/>
+      <c r="B35" s="292"/>
       <c r="C35" s="21" t="s">
         <v>36</v>
       </c>
@@ -15756,8 +15879,8 @@
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A36" s="292"/>
-      <c r="B36" s="289"/>
+      <c r="A36" s="295"/>
+      <c r="B36" s="292"/>
       <c r="C36" s="21" t="s">
         <v>37</v>
       </c>
@@ -15786,8 +15909,8 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A37" s="293"/>
-      <c r="B37" s="290"/>
+      <c r="A37" s="296"/>
+      <c r="B37" s="293"/>
       <c r="C37" s="21" t="s">
         <v>39</v>
       </c>
@@ -15814,10 +15937,10 @@
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A38" s="291">
+      <c r="A38" s="294">
         <v>17</v>
       </c>
-      <c r="B38" s="288">
+      <c r="B38" s="291">
         <v>44081</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -15846,8 +15969,8 @@
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A39" s="292"/>
-      <c r="B39" s="289"/>
+      <c r="A39" s="295"/>
+      <c r="B39" s="292"/>
       <c r="C39" s="21" t="s">
         <v>28</v>
       </c>
@@ -15874,8 +15997,8 @@
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A40" s="293"/>
-      <c r="B40" s="290"/>
+      <c r="A40" s="296"/>
+      <c r="B40" s="293"/>
       <c r="C40" s="21" t="s">
         <v>40</v>
       </c>
@@ -15904,10 +16027,10 @@
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A41" s="291">
+      <c r="A41" s="294">
         <v>18</v>
       </c>
-      <c r="B41" s="288">
+      <c r="B41" s="291">
         <v>44082</v>
       </c>
       <c r="C41" s="21" t="s">
@@ -15936,8 +16059,8 @@
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A42" s="293"/>
-      <c r="B42" s="290"/>
+      <c r="A42" s="296"/>
+      <c r="B42" s="293"/>
       <c r="C42" s="21" t="s">
         <v>42</v>
       </c>
@@ -15964,10 +16087,10 @@
       <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A43" s="291">
+      <c r="A43" s="294">
         <v>19</v>
       </c>
-      <c r="B43" s="288">
+      <c r="B43" s="291">
         <v>44083</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -15996,8 +16119,8 @@
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A44" s="293"/>
-      <c r="B44" s="290"/>
+      <c r="A44" s="296"/>
+      <c r="B44" s="293"/>
       <c r="C44" s="21" t="s">
         <v>44</v>
       </c>
@@ -16024,10 +16147,10 @@
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A45" s="291">
+      <c r="A45" s="294">
         <v>20</v>
       </c>
-      <c r="B45" s="288">
+      <c r="B45" s="291">
         <v>44084</v>
       </c>
       <c r="C45" s="21" t="s">
@@ -16056,8 +16179,8 @@
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A46" s="293"/>
-      <c r="B46" s="290"/>
+      <c r="A46" s="296"/>
+      <c r="B46" s="293"/>
       <c r="C46" s="21" t="s">
         <v>45</v>
       </c>
@@ -16084,10 +16207,10 @@
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A47" s="291">
+      <c r="A47" s="294">
         <v>21</v>
       </c>
-      <c r="B47" s="288">
+      <c r="B47" s="291">
         <v>44085</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -16116,8 +16239,8 @@
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A48" s="292"/>
-      <c r="B48" s="289"/>
+      <c r="A48" s="295"/>
+      <c r="B48" s="292"/>
       <c r="C48" s="21" t="s">
         <v>46</v>
       </c>
@@ -16144,8 +16267,8 @@
       <c r="S48" s="8"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A49" s="292"/>
-      <c r="B49" s="289"/>
+      <c r="A49" s="295"/>
+      <c r="B49" s="292"/>
       <c r="C49" s="21" t="s">
         <v>47</v>
       </c>
@@ -16172,8 +16295,8 @@
       <c r="S49" s="8"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A50" s="292"/>
-      <c r="B50" s="289"/>
+      <c r="A50" s="295"/>
+      <c r="B50" s="292"/>
       <c r="C50" s="23" t="s">
         <v>31</v>
       </c>
@@ -16200,8 +16323,8 @@
       <c r="S50" s="8"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A51" s="293"/>
-      <c r="B51" s="290"/>
+      <c r="A51" s="296"/>
+      <c r="B51" s="293"/>
       <c r="C51" s="21" t="s">
         <v>44</v>
       </c>
@@ -16230,10 +16353,10 @@
       <c r="S51" s="8"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A52" s="291">
+      <c r="A52" s="294">
         <v>22</v>
       </c>
-      <c r="B52" s="288">
+      <c r="B52" s="291">
         <v>44086</v>
       </c>
       <c r="C52" s="21" t="s">
@@ -16264,8 +16387,8 @@
       <c r="S52" s="8"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A53" s="293"/>
-      <c r="B53" s="290"/>
+      <c r="A53" s="296"/>
+      <c r="B53" s="293"/>
       <c r="C53" s="21" t="s">
         <v>50</v>
       </c>
@@ -16292,10 +16415,10 @@
       <c r="S53" s="8"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A54" s="291">
+      <c r="A54" s="294">
         <v>23</v>
       </c>
-      <c r="B54" s="288">
+      <c r="B54" s="291">
         <v>44087</v>
       </c>
       <c r="C54" s="21" t="s">
@@ -16324,8 +16447,8 @@
       <c r="S54" s="8"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A55" s="292"/>
-      <c r="B55" s="289"/>
+      <c r="A55" s="295"/>
+      <c r="B55" s="292"/>
       <c r="C55" s="21" t="s">
         <v>28</v>
       </c>
@@ -16352,8 +16475,8 @@
       <c r="S55" s="8"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A56" s="292"/>
-      <c r="B56" s="289"/>
+      <c r="A56" s="295"/>
+      <c r="B56" s="292"/>
       <c r="C56" s="21" t="s">
         <v>51</v>
       </c>
@@ -16380,8 +16503,8 @@
       <c r="S56" s="8"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A57" s="292"/>
-      <c r="B57" s="289"/>
+      <c r="A57" s="295"/>
+      <c r="B57" s="292"/>
       <c r="C57" s="23" t="s">
         <v>31</v>
       </c>
@@ -16506,10 +16629,10 @@
       <c r="S60" s="8"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A61" s="291">
+      <c r="A61" s="294">
         <v>27</v>
       </c>
-      <c r="B61" s="288">
+      <c r="B61" s="291">
         <v>44091</v>
       </c>
       <c r="C61" s="21" t="s">
@@ -16538,8 +16661,8 @@
       <c r="S61" s="8"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A62" s="293"/>
-      <c r="B62" s="290"/>
+      <c r="A62" s="296"/>
+      <c r="B62" s="293"/>
       <c r="C62" s="21" t="s">
         <v>44</v>
       </c>
@@ -16598,10 +16721,10 @@
       <c r="S63" s="8"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A64" s="291">
+      <c r="A64" s="294">
         <v>29</v>
       </c>
-      <c r="B64" s="288">
+      <c r="B64" s="291">
         <v>44093</v>
       </c>
       <c r="C64" s="21" t="s">
@@ -16630,8 +16753,8 @@
       <c r="S64" s="8"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A65" s="293"/>
-      <c r="B65" s="290"/>
+      <c r="A65" s="296"/>
+      <c r="B65" s="293"/>
       <c r="C65" s="21" t="s">
         <v>18</v>
       </c>
@@ -16826,10 +16949,10 @@
       <c r="B71" s="28">
         <v>44101</v>
       </c>
-      <c r="C71" s="300" t="s">
+      <c r="C71" s="308" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="301"/>
+      <c r="D71" s="309"/>
       <c r="E71" s="26">
         <v>0</v>
       </c>
@@ -16854,10 +16977,10 @@
       <c r="S71" s="8"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A72" s="291">
+      <c r="A72" s="294">
         <v>37</v>
       </c>
-      <c r="B72" s="288">
+      <c r="B72" s="291">
         <v>44103</v>
       </c>
       <c r="C72" s="21" t="s">
@@ -16886,12 +17009,12 @@
       <c r="S72" s="8"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A73" s="293"/>
-      <c r="B73" s="290"/>
-      <c r="C73" s="300" t="s">
+      <c r="A73" s="296"/>
+      <c r="B73" s="293"/>
+      <c r="C73" s="308" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="301"/>
+      <c r="D73" s="309"/>
       <c r="E73" s="6">
         <v>100000</v>
       </c>
@@ -16948,12 +17071,12 @@
       <c r="S74" s="8"/>
     </row>
     <row r="75" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="284" t="s">
+      <c r="A75" s="299" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="284"/>
-      <c r="C75" s="284"/>
-      <c r="D75" s="285"/>
+      <c r="B75" s="299"/>
+      <c r="C75" s="299"/>
+      <c r="D75" s="300"/>
       <c r="E75" s="16">
         <f>SUM(E21:E74)</f>
         <v>132000</v>
@@ -16980,10 +17103,10 @@
       <c r="S75" s="8"/>
     </row>
     <row r="76" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="286"/>
-      <c r="B76" s="286"/>
-      <c r="C76" s="286"/>
-      <c r="D76" s="287"/>
+      <c r="A76" s="301"/>
+      <c r="B76" s="301"/>
+      <c r="C76" s="301"/>
+      <c r="D76" s="302"/>
       <c r="E76" s="17" t="s">
         <v>61</v>
       </c>
@@ -17036,10 +17159,10 @@
       <c r="D78" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E78" s="299" t="s">
+      <c r="E78" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="F78" s="299"/>
+      <c r="F78" s="290"/>
       <c r="G78" s="14">
         <f>G75</f>
         <v>137640</v>
@@ -17093,10 +17216,10 @@
       <c r="S79" s="8"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A80" s="291">
+      <c r="A80" s="294">
         <v>39</v>
       </c>
-      <c r="B80" s="288">
+      <c r="B80" s="291">
         <v>44105</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -17125,8 +17248,8 @@
       <c r="S80" s="8"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A81" s="292"/>
-      <c r="B81" s="289"/>
+      <c r="A81" s="295"/>
+      <c r="B81" s="292"/>
       <c r="C81" s="1" t="s">
         <v>70</v>
       </c>
@@ -17153,8 +17276,8 @@
       <c r="S81" s="8"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A82" s="292"/>
-      <c r="B82" s="289"/>
+      <c r="A82" s="295"/>
+      <c r="B82" s="292"/>
       <c r="C82" s="34" t="s">
         <v>76</v>
       </c>
@@ -17183,9 +17306,9 @@
       <c r="S82" s="8"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A83" s="292"/>
-      <c r="B83" s="289"/>
-      <c r="C83" s="294" t="s">
+      <c r="A83" s="295"/>
+      <c r="B83" s="292"/>
+      <c r="C83" s="310" t="s">
         <v>77</v>
       </c>
       <c r="D83" s="32" t="s">
@@ -17213,9 +17336,9 @@
       <c r="S83" s="8"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A84" s="292"/>
-      <c r="B84" s="289"/>
-      <c r="C84" s="295"/>
+      <c r="A84" s="295"/>
+      <c r="B84" s="292"/>
+      <c r="C84" s="311"/>
       <c r="D84" s="32" t="s">
         <v>71</v>
       </c>
@@ -17241,9 +17364,9 @@
       <c r="S84" s="8"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A85" s="292"/>
-      <c r="B85" s="289"/>
-      <c r="C85" s="295"/>
+      <c r="A85" s="295"/>
+      <c r="B85" s="292"/>
+      <c r="C85" s="311"/>
       <c r="D85" s="32" t="s">
         <v>73</v>
       </c>
@@ -17269,9 +17392,9 @@
       <c r="S85" s="8"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A86" s="293"/>
-      <c r="B86" s="290"/>
-      <c r="C86" s="296"/>
+      <c r="A86" s="296"/>
+      <c r="B86" s="293"/>
+      <c r="C86" s="312"/>
       <c r="D86" s="32" t="s">
         <v>74</v>
       </c>
@@ -17329,10 +17452,10 @@
       <c r="S87" s="8"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A88" s="291">
+      <c r="A88" s="294">
         <v>41</v>
       </c>
-      <c r="B88" s="288">
+      <c r="B88" s="291">
         <v>44108</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -17361,8 +17484,8 @@
       <c r="S88" s="8"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A89" s="293"/>
-      <c r="B89" s="290"/>
+      <c r="A89" s="296"/>
+      <c r="B89" s="293"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="4"/>
@@ -17451,10 +17574,10 @@
       <c r="S91" s="8"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A92" s="291">
+      <c r="A92" s="294">
         <v>44</v>
       </c>
-      <c r="B92" s="288">
+      <c r="B92" s="291">
         <v>44112</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -17483,8 +17606,8 @@
       <c r="S92" s="8"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A93" s="292"/>
-      <c r="B93" s="289"/>
+      <c r="A93" s="295"/>
+      <c r="B93" s="292"/>
       <c r="C93" s="1" t="s">
         <v>113</v>
       </c>
@@ -17511,8 +17634,8 @@
       <c r="S93" s="8"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A94" s="292"/>
-      <c r="B94" s="289"/>
+      <c r="A94" s="295"/>
+      <c r="B94" s="292"/>
       <c r="C94" s="1" t="s">
         <v>98</v>
       </c>
@@ -17541,8 +17664,8 @@
       <c r="S94" s="8"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A95" s="293"/>
-      <c r="B95" s="290"/>
+      <c r="A95" s="296"/>
+      <c r="B95" s="293"/>
       <c r="C95" s="1" t="s">
         <v>111</v>
       </c>
@@ -18001,12 +18124,12 @@
       <c r="S113" s="8"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A114" s="284" t="s">
+      <c r="A114" s="299" t="s">
         <v>57</v>
       </c>
-      <c r="B114" s="284"/>
-      <c r="C114" s="284"/>
-      <c r="D114" s="285"/>
+      <c r="B114" s="299"/>
+      <c r="C114" s="299"/>
+      <c r="D114" s="300"/>
       <c r="E114" s="16">
         <f>SUM(E80:E113)</f>
         <v>600000</v>
@@ -18033,10 +18156,10 @@
       <c r="S114" s="8"/>
     </row>
     <row r="115" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="286"/>
-      <c r="B115" s="286"/>
-      <c r="C115" s="286"/>
-      <c r="D115" s="287"/>
+      <c r="A115" s="301"/>
+      <c r="B115" s="301"/>
+      <c r="C115" s="301"/>
+      <c r="D115" s="302"/>
       <c r="E115" s="17" t="s">
         <v>61</v>
       </c>
@@ -21218,50 +21341,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C73:D73"/>
     <mergeCell ref="A114:D115"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="A38:A40"/>
@@ -21276,6 +21355,50 @@
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="B92:B95"/>
     <mergeCell ref="A92:A95"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A37"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="73" orientation="portrait" r:id="rId1"/>
@@ -21300,12 +21423,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="313" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="146" t="s">
@@ -21399,7 +21522,7 @@
         <v>44241</v>
       </c>
       <c r="C8" s="152" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D8" s="155">
         <v>530000</v>
@@ -21413,7 +21536,7 @@
         <v>44248</v>
       </c>
       <c r="C9" s="152" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D9" s="155">
         <v>182000</v>
@@ -21427,7 +21550,7 @@
         <v>44257</v>
       </c>
       <c r="C10" s="152" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D10" s="155">
         <v>44000</v>
@@ -21547,7 +21670,7 @@
       <c r="A3" s="107">
         <v>1</v>
       </c>
-      <c r="B3" s="308">
+      <c r="B3" s="314">
         <v>44123</v>
       </c>
       <c r="C3" s="108"/>
@@ -21557,7 +21680,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="110"/>
-      <c r="B4" s="309"/>
+      <c r="B4" s="315"/>
       <c r="C4" s="111"/>
       <c r="D4" s="112" t="s">
         <v>202</v>
@@ -21565,7 +21688,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="110"/>
-      <c r="B5" s="309"/>
+      <c r="B5" s="315"/>
       <c r="C5" s="111"/>
       <c r="D5" s="113" t="s">
         <v>203</v>
@@ -21573,7 +21696,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="110"/>
-      <c r="B6" s="309"/>
+      <c r="B6" s="315"/>
       <c r="C6" s="111"/>
       <c r="D6" s="113" t="s">
         <v>204</v>
@@ -21581,7 +21704,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="110"/>
-      <c r="B7" s="309"/>
+      <c r="B7" s="315"/>
       <c r="C7" s="111"/>
       <c r="D7" s="113" t="s">
         <v>205</v>
@@ -21589,7 +21712,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="110"/>
-      <c r="B8" s="309"/>
+      <c r="B8" s="315"/>
       <c r="C8" s="111"/>
       <c r="D8" s="113" t="s">
         <v>206</v>
@@ -21597,7 +21720,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="110"/>
-      <c r="B9" s="309"/>
+      <c r="B9" s="315"/>
       <c r="C9" s="111"/>
       <c r="D9" s="113" t="s">
         <v>207</v>
@@ -21605,7 +21728,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="110"/>
-      <c r="B10" s="309"/>
+      <c r="B10" s="315"/>
       <c r="C10" s="111"/>
       <c r="D10" s="113" t="s">
         <v>208</v>
@@ -21613,7 +21736,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="110"/>
-      <c r="B11" s="309"/>
+      <c r="B11" s="315"/>
       <c r="C11" s="111"/>
       <c r="D11" s="113" t="s">
         <v>209</v>
@@ -21661,7 +21784,7 @@
       <c r="A17" s="121">
         <v>2</v>
       </c>
-      <c r="B17" s="310">
+      <c r="B17" s="316">
         <v>44124</v>
       </c>
       <c r="C17" s="108"/>
@@ -21671,7 +21794,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="123"/>
-      <c r="B18" s="310"/>
+      <c r="B18" s="316"/>
       <c r="C18" s="124"/>
       <c r="D18" s="125" t="s">
         <v>213</v>
@@ -21679,7 +21802,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="123"/>
-      <c r="B19" s="310"/>
+      <c r="B19" s="316"/>
       <c r="C19" s="124"/>
       <c r="D19" s="125" t="s">
         <v>214</v>
@@ -21687,7 +21810,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="123"/>
-      <c r="B20" s="310"/>
+      <c r="B20" s="316"/>
       <c r="C20" s="124"/>
       <c r="D20" s="125" t="s">
         <v>215</v>
@@ -21695,7 +21818,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="123"/>
-      <c r="B21" s="310"/>
+      <c r="B21" s="316"/>
       <c r="C21" s="124"/>
       <c r="D21" s="125" t="s">
         <v>205</v>
@@ -21703,7 +21826,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="123"/>
-      <c r="B22" s="310"/>
+      <c r="B22" s="316"/>
       <c r="C22" s="124"/>
       <c r="D22" s="125" t="s">
         <v>216</v>
@@ -21711,7 +21834,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="123"/>
-      <c r="B23" s="310"/>
+      <c r="B23" s="316"/>
       <c r="C23" s="124"/>
       <c r="D23" s="125" t="s">
         <v>217</v>
@@ -21719,7 +21842,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="123"/>
-      <c r="B24" s="310"/>
+      <c r="B24" s="316"/>
       <c r="C24" s="124"/>
       <c r="D24" s="125" t="s">
         <v>218</v>
@@ -21761,7 +21884,7 @@
       <c r="A29" s="121">
         <v>3</v>
       </c>
-      <c r="B29" s="311">
+      <c r="B29" s="317">
         <v>44126</v>
       </c>
       <c r="C29" s="108"/>
@@ -21771,7 +21894,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="123"/>
-      <c r="B30" s="310"/>
+      <c r="B30" s="316"/>
       <c r="C30" s="124"/>
       <c r="D30" s="125" t="s">
         <v>223</v>
@@ -21779,7 +21902,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="123"/>
-      <c r="B31" s="310"/>
+      <c r="B31" s="316"/>
       <c r="C31" s="124"/>
       <c r="D31" s="125" t="s">
         <v>224</v>
@@ -21787,7 +21910,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="123"/>
-      <c r="B32" s="310"/>
+      <c r="B32" s="316"/>
       <c r="C32" s="124"/>
       <c r="D32" s="125" t="s">
         <v>225</v>
@@ -21795,7 +21918,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="123"/>
-      <c r="B33" s="310"/>
+      <c r="B33" s="316"/>
       <c r="C33" s="124"/>
       <c r="D33" s="125" t="s">
         <v>226</v>
@@ -21803,7 +21926,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="123"/>
-      <c r="B34" s="310"/>
+      <c r="B34" s="316"/>
       <c r="C34" s="124"/>
       <c r="D34" s="125" t="s">
         <v>227</v>
@@ -21811,7 +21934,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="123"/>
-      <c r="B35" s="310"/>
+      <c r="B35" s="316"/>
       <c r="C35" s="124"/>
       <c r="D35" s="125" t="s">
         <v>228</v>
@@ -21827,43 +21950,43 @@
       <c r="A37" s="121">
         <v>3</v>
       </c>
-      <c r="B37" s="311"/>
+      <c r="B37" s="317"/>
       <c r="C37" s="108"/>
       <c r="D37" s="122"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="123"/>
-      <c r="B38" s="310"/>
+      <c r="B38" s="316"/>
       <c r="C38" s="124"/>
       <c r="D38" s="125"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="123"/>
-      <c r="B39" s="310"/>
+      <c r="B39" s="316"/>
       <c r="C39" s="124"/>
       <c r="D39" s="125"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="123"/>
-      <c r="B40" s="310"/>
+      <c r="B40" s="316"/>
       <c r="C40" s="124"/>
       <c r="D40" s="125"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="123"/>
-      <c r="B41" s="310"/>
+      <c r="B41" s="316"/>
       <c r="C41" s="124"/>
       <c r="D41" s="125"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="123"/>
-      <c r="B42" s="310"/>
+      <c r="B42" s="316"/>
       <c r="C42" s="124"/>
       <c r="D42" s="125"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="123"/>
-      <c r="B43" s="310"/>
+      <c r="B43" s="316"/>
       <c r="C43" s="124"/>
       <c r="D43" s="125"/>
     </row>
@@ -21968,36 +22091,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="262" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="258"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="264"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="261"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="267"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="259" t="s">
+      <c r="F2" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="261"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="267"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -22104,21 +22227,21 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="281" t="s">
+      <c r="A7" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="282"/>
-      <c r="C7" s="282"/>
+      <c r="B7" s="288"/>
+      <c r="C7" s="288"/>
       <c r="D7" s="44">
         <f>SUM(D4:D6)</f>
         <v>50000</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="281" t="s">
+      <c r="F7" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="282"/>
-      <c r="H7" s="283"/>
+      <c r="G7" s="288"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="44">
         <f>SUM(I4:I6)</f>
         <v>50000</v>
@@ -22744,36 +22867,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="262" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="258"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="264"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="261"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="267"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="259" t="s">
+      <c r="F2" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="261"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="267"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -23002,7 +23125,7 @@
         <v>44267</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D10" s="40">
         <v>2000</v>
@@ -23061,7 +23184,7 @@
         <v>44258</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I12" s="40">
         <v>2000</v>
@@ -23132,21 +23255,21 @@
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="281" t="s">
+      <c r="A17" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="282"/>
-      <c r="C17" s="282"/>
+      <c r="B17" s="288"/>
+      <c r="C17" s="288"/>
       <c r="D17" s="44">
         <f>SUM(D4:D16)</f>
         <v>283000</v>
       </c>
       <c r="E17" s="50"/>
-      <c r="F17" s="281" t="s">
+      <c r="F17" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="282"/>
-      <c r="H17" s="283"/>
+      <c r="G17" s="288"/>
+      <c r="H17" s="289"/>
       <c r="I17" s="44">
         <f>SUM(I4:I16)</f>
         <v>283215</v>
@@ -24066,7 +24189,7 @@
       <c r="J12" s="80"/>
       <c r="K12" s="80"/>
       <c r="L12" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.5">
@@ -24215,10 +24338,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8095CE61-3623-466A-A99B-F028ACAC31F9}">
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -24233,25 +24356,27 @@
     <col min="9" max="9" width="9.17578125" customWidth="1"/>
     <col min="10" max="10" width="1.76171875" customWidth="1"/>
     <col min="12" max="13" width="8.87890625" style="72"/>
+    <col min="14" max="14" width="11.8203125" customWidth="1"/>
+    <col min="15" max="15" width="8.9375" style="72"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B2" s="84" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="179">
-        <f>BOFC!D166</f>
-        <v>1433259</v>
+        <f>BOFC!D168</f>
+        <v>1447599</v>
       </c>
       <c r="E2" t="s">
         <v>311</v>
       </c>
       <c r="F2" s="72">
-        <v>110000</v>
+        <v>745000</v>
       </c>
       <c r="H2" s="72"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B3" s="84" t="s">
         <v>307</v>
       </c>
@@ -24263,14 +24388,14 @@
         <v>179</v>
       </c>
       <c r="F3" s="72">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C4" s="72">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B4" s="84" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" s="179">
         <f>Sis!D20</f>
         <v>196000</v>
       </c>
@@ -24278,10 +24403,10 @@
         <v>261</v>
       </c>
       <c r="F4" s="72">
-        <v>2750</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.5">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>308</v>
       </c>
@@ -24290,22 +24415,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>278</v>
       </c>
       <c r="C6" s="72">
         <f>'Sunny Babar'!D24</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>374</v>
-      </c>
-      <c r="F6" s="179">
-        <v>865000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.5">
+        <v>209000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F6" s="72">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>305</v>
       </c>
@@ -24314,7 +24439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>306</v>
       </c>
@@ -24323,7 +24448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:15" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>274</v>
       </c>
@@ -24331,16 +24456,10 @@
         <f>Kamil!D60</f>
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>432</v>
-      </c>
-      <c r="F9" s="72">
-        <v>194500</v>
-      </c>
       <c r="H9" s="180"/>
       <c r="I9" s="181"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
         <v>309</v>
       </c>
@@ -24350,7 +24469,7 @@
       </c>
       <c r="K10" s="72"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>112</v>
       </c>
@@ -24358,17 +24477,12 @@
         <f>Shehzad!D23</f>
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>433</v>
-      </c>
-      <c r="F11" s="72">
-        <v>282000</v>
-      </c>
       <c r="L11" s="72">
         <v>507</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="O11" s="179"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>320</v>
       </c>
@@ -24376,20 +24490,14 @@
         <f>Kamil!D96</f>
         <v>0</v>
       </c>
-      <c r="F12" s="72">
-        <v>-1600</v>
-      </c>
       <c r="K12" s="80" t="s">
         <v>369</v>
       </c>
       <c r="L12" s="72">
         <v>493</v>
       </c>
-      <c r="M12" s="72" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.5">
       <c r="E13" s="72"/>
       <c r="K13" s="80" t="s">
         <v>369</v>
@@ -24397,11 +24505,8 @@
       <c r="L13" s="72">
         <v>720</v>
       </c>
-      <c r="M13" s="72" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="2:15" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>175</v>
       </c>
@@ -24414,10 +24519,10 @@
       </c>
       <c r="I14" s="181">
         <f>C19-F19</f>
-        <v>79140</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.5">
+        <v>52370</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>121</v>
       </c>
@@ -24429,7 +24534,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>310</v>
       </c>
@@ -24444,7 +24549,13 @@
       </c>
       <c r="C17" s="179">
         <f>'Najeeb New'!D52</f>
-        <v>-59710</v>
+        <v>-68670</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" s="179">
+        <v>865000</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.5">
@@ -24456,7 +24567,7 @@
       </c>
       <c r="C19" s="253">
         <f>SUM(C2:C18)</f>
-        <v>1566790</v>
+        <v>1781170</v>
       </c>
       <c r="D19" s="252"/>
       <c r="E19" s="252" t="s">
@@ -24464,13 +24575,13 @@
       </c>
       <c r="F19" s="253">
         <f>SUM(F2:F18)</f>
-        <v>1487650</v>
+        <v>1728800</v>
       </c>
       <c r="L19" s="72">
         <v>956</v>
       </c>
       <c r="M19" s="72" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.5">
@@ -24485,10 +24596,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BA9BFA-17B0-4682-BC89-677BD0B4C364}">
-  <dimension ref="E4:H9"/>
+  <dimension ref="E4:O19"/>
   <sheetViews>
     <sheetView topLeftCell="D2" zoomScale="122" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -24496,11 +24607,13 @@
     <col min="5" max="5" width="34.9375" customWidth="1"/>
     <col min="7" max="7" width="7.3515625" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="11" max="11" width="11.17578125" customWidth="1"/>
+    <col min="12" max="12" width="10.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="5:15" x14ac:dyDescent="0.5">
       <c r="E4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F4">
         <v>60000</v>
@@ -24512,10 +24625,23 @@
         <f>F4*G4</f>
         <v>480000</v>
       </c>
-    </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="K4" s="84" t="s">
+        <v>437</v>
+      </c>
+      <c r="L4" s="179">
+        <v>950000</v>
+      </c>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84" t="s">
+        <v>438</v>
+      </c>
+      <c r="O4" s="84">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.5">
       <c r="E5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F5">
         <v>28000</v>
@@ -24527,24 +24653,100 @@
         <f>F5*G5</f>
         <v>112000</v>
       </c>
-    </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="L5" s="72"/>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.5">
+      <c r="K6" t="s">
+        <v>439</v>
+      </c>
+      <c r="L6" s="72">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.5">
       <c r="H7">
         <v>-280000</v>
       </c>
-    </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="K7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L7" s="72">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.5">
       <c r="H8">
         <v>-30000</v>
       </c>
-    </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="K8" t="s">
+        <v>440</v>
+      </c>
+      <c r="L8" s="72">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.5">
       <c r="H9">
         <v>-49000</v>
       </c>
+      <c r="K9" t="s">
+        <v>441</v>
+      </c>
+      <c r="L9" s="72">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.5">
+      <c r="K10" t="s">
+        <v>433</v>
+      </c>
+      <c r="L10" s="72">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.5">
+      <c r="K11" t="s">
+        <v>432</v>
+      </c>
+      <c r="L11" s="72">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.5">
+      <c r="K12" t="s">
+        <v>431</v>
+      </c>
+      <c r="L12" s="72">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.5">
+      <c r="L13" s="72"/>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.5">
+      <c r="L14" s="72"/>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.5">
+      <c r="L15" s="179"/>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.5">
+      <c r="L16" s="72"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.5">
+      <c r="L17" s="72"/>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.5">
+      <c r="L18" s="72"/>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.5">
+      <c r="L19" s="72">
+        <f>SUM(L6:L18)</f>
+        <v>830000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24568,13 +24770,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="256" t="s">
-        <v>384</v>
-      </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
+      <c r="A1" s="262" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -24582,13 +24784,13 @@
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="261"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="267"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -24606,10 +24808,10 @@
         <v>83</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -24622,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D4" s="40">
         <v>182000</v>
@@ -24642,7 +24844,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>348</v>
@@ -24662,7 +24864,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>348</v>
@@ -24810,11 +25012,11 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="262" t="s">
+      <c r="A18" s="268" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="263"/>
-      <c r="C18" s="263"/>
+      <c r="B18" s="269"/>
+      <c r="C18" s="269"/>
       <c r="D18" s="44">
         <f>SUM(D4:D17)</f>
         <v>182000</v>
@@ -24845,13 +25047,13 @@
       <c r="A20" s="53"/>
       <c r="B20" s="53"/>
       <c r="C20" s="224" t="s">
-        <v>394</v>
-      </c>
-      <c r="D20" s="267">
+        <v>392</v>
+      </c>
+      <c r="D20" s="273">
         <f>D18+E18</f>
         <v>196000</v>
       </c>
-      <c r="E20" s="267"/>
+      <c r="E20" s="273"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -24862,8 +25064,8 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="266"/>
-      <c r="E21" s="266"/>
+      <c r="D21" s="272"/>
+      <c r="E21" s="272"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -31569,7 +31771,7 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -31587,19 +31789,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="284" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="275"/>
-      <c r="E1" s="276"/>
-      <c r="G1" s="273" t="s">
-        <v>393</v>
-      </c>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="286"/>
+      <c r="G1" s="282" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="282"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -31621,18 +31823,18 @@
         <v>4</v>
       </c>
       <c r="F2" s="238"/>
-      <c r="G2" s="268" t="s">
+      <c r="G2" s="283" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
       <c r="K2" s="238"/>
       <c r="L2" s="238"/>
       <c r="M2" s="238"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A3" s="269">
+      <c r="A3" s="277">
         <v>1</v>
       </c>
       <c r="B3" s="211">
@@ -31644,7 +31846,7 @@
       <c r="D3" s="209">
         <v>30000</v>
       </c>
-      <c r="E3" s="271">
+      <c r="E3" s="275">
         <f>D4-D3</f>
         <v>-30000</v>
       </c>
@@ -31665,11 +31867,11 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A4" s="270"/>
+      <c r="A4" s="278"/>
       <c r="B4" s="213"/>
       <c r="C4" s="214"/>
       <c r="D4" s="210"/>
-      <c r="E4" s="272"/>
+      <c r="E4" s="276"/>
       <c r="G4" s="230">
         <v>1</v>
       </c>
@@ -31677,7 +31879,7 @@
         <v>44262</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J4" s="40">
         <v>2500</v>
@@ -31695,7 +31897,7 @@
       <c r="G5" s="230"/>
       <c r="H5" s="233"/>
       <c r="I5" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J5" s="40">
         <v>300</v>
@@ -31705,7 +31907,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A6" s="269">
+      <c r="A6" s="277">
         <v>2</v>
       </c>
       <c r="B6" s="211">
@@ -31717,7 +31919,7 @@
       <c r="D6" s="209">
         <v>5000</v>
       </c>
-      <c r="E6" s="271">
+      <c r="E6" s="275">
         <f>D7-D6</f>
         <v>-5000</v>
       </c>
@@ -31728,7 +31930,7 @@
         <v>44264</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J6" s="40">
         <v>600</v>
@@ -31738,11 +31940,11 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A7" s="270"/>
+      <c r="A7" s="278"/>
       <c r="B7" s="213"/>
       <c r="C7" s="214"/>
       <c r="D7" s="210"/>
-      <c r="E7" s="272"/>
+      <c r="E7" s="276"/>
       <c r="G7" s="230">
         <v>3</v>
       </c>
@@ -31750,7 +31952,7 @@
         <v>44265</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J7" s="40">
         <v>760</v>
@@ -31768,7 +31970,7 @@
       <c r="G8" s="230"/>
       <c r="H8" s="234"/>
       <c r="I8" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J8" s="40">
         <v>200</v>
@@ -31778,7 +31980,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A9" s="269">
+      <c r="A9" s="277">
         <v>4</v>
       </c>
       <c r="B9" s="211">
@@ -31790,7 +31992,7 @@
       <c r="D9" s="209">
         <v>3070</v>
       </c>
-      <c r="E9" s="271">
+      <c r="E9" s="275">
         <f>D10-D9</f>
         <v>-3070</v>
       </c>
@@ -31811,11 +32013,11 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A10" s="270"/>
+      <c r="A10" s="278"/>
       <c r="B10" s="213"/>
       <c r="C10" s="214"/>
       <c r="D10" s="210"/>
-      <c r="E10" s="272"/>
+      <c r="E10" s="276"/>
       <c r="G10" s="230">
         <v>5</v>
       </c>
@@ -31838,45 +32040,61 @@
       <c r="C11" s="8"/>
       <c r="D11" s="240"/>
       <c r="E11" s="242"/>
-      <c r="G11" s="230"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="40"/>
+      <c r="G11" s="230">
+        <v>6</v>
+      </c>
+      <c r="H11" s="39">
+        <v>44275</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J11" s="40">
+        <v>500</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A12" s="269">
+      <c r="A12" s="277">
         <v>5</v>
       </c>
       <c r="B12" s="211">
         <v>44241</v>
       </c>
       <c r="C12" s="212" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D12" s="209">
         <v>5000</v>
       </c>
-      <c r="E12" s="271">
+      <c r="E12" s="275">
         <f>D13-D12</f>
         <v>-5000</v>
       </c>
-      <c r="G12" s="230"/>
-      <c r="H12" s="233"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="76"/>
+      <c r="G12" s="256">
+        <v>7</v>
+      </c>
+      <c r="H12" s="257">
+        <v>44275</v>
+      </c>
+      <c r="I12" s="258" t="s">
+        <v>428</v>
+      </c>
+      <c r="J12" s="259">
+        <v>-9460</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A13" s="270"/>
+      <c r="A13" s="278"/>
       <c r="B13" s="213"/>
       <c r="C13" s="214"/>
       <c r="D13" s="210"/>
-      <c r="E13" s="272"/>
+      <c r="E13" s="276"/>
       <c r="G13" s="1"/>
       <c r="H13" s="233"/>
       <c r="I13" s="1"/>
@@ -31900,19 +32118,19 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A15" s="269">
+      <c r="A15" s="277">
         <v>6</v>
       </c>
       <c r="B15" s="211">
         <v>44246</v>
       </c>
       <c r="C15" s="212" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D15" s="209">
         <v>5000</v>
       </c>
-      <c r="E15" s="271">
+      <c r="E15" s="275">
         <f>D16-D15</f>
         <v>-5000</v>
       </c>
@@ -31925,11 +32143,11 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A16" s="270"/>
+      <c r="A16" s="278"/>
       <c r="B16" s="213"/>
       <c r="C16" s="214"/>
       <c r="D16" s="210"/>
-      <c r="E16" s="272"/>
+      <c r="E16" s="276"/>
       <c r="G16" s="1"/>
       <c r="H16" s="234"/>
       <c r="I16" s="1"/>
@@ -31953,41 +32171,41 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A18" s="269">
+      <c r="A18" s="277">
         <v>7</v>
       </c>
       <c r="B18" s="211">
         <v>44247</v>
       </c>
       <c r="C18" s="212" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D18" s="209">
         <v>5000</v>
       </c>
-      <c r="E18" s="271">
+      <c r="E18" s="275">
         <f>D19-D18</f>
         <v>-5000</v>
       </c>
-      <c r="G18" s="262" t="s">
+      <c r="G18" s="268" t="s">
         <v>144</v>
       </c>
-      <c r="H18" s="263"/>
-      <c r="I18" s="263"/>
+      <c r="H18" s="269"/>
+      <c r="I18" s="269"/>
       <c r="J18" s="44">
         <f>SUM(J4:J17)</f>
-        <v>8960</v>
+        <v>0</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A19" s="270"/>
+      <c r="A19" s="278"/>
       <c r="B19" s="213"/>
       <c r="C19" s="214"/>
       <c r="D19" s="210"/>
-      <c r="E19" s="272"/>
+      <c r="E19" s="276"/>
       <c r="G19" s="55"/>
       <c r="H19" s="236"/>
       <c r="I19" s="55"/>
@@ -32002,30 +32220,30 @@
       <c r="C20" s="8"/>
       <c r="D20" s="240"/>
       <c r="E20" s="242"/>
-      <c r="G20" s="268" t="s">
-        <v>415</v>
-      </c>
-      <c r="H20" s="268"/>
-      <c r="I20" s="268"/>
-      <c r="J20" s="268"/>
+      <c r="G20" s="283" t="s">
+        <v>411</v>
+      </c>
+      <c r="H20" s="283"/>
+      <c r="I20" s="283"/>
+      <c r="J20" s="283"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A21" s="269">
+      <c r="A21" s="277">
         <v>8</v>
       </c>
       <c r="B21" s="211">
         <v>44250</v>
       </c>
       <c r="C21" s="212" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D21" s="209">
         <v>600</v>
       </c>
-      <c r="E21" s="271">
+      <c r="E21" s="275">
         <f>D22-D21</f>
         <v>-600</v>
       </c>
@@ -32046,11 +32264,11 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A22" s="270"/>
+      <c r="A22" s="278"/>
       <c r="B22" s="213"/>
       <c r="C22" s="214"/>
       <c r="D22" s="210"/>
-      <c r="E22" s="272"/>
+      <c r="E22" s="276"/>
       <c r="G22" s="231">
         <v>1</v>
       </c>
@@ -32058,7 +32276,7 @@
         <v>44257</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J22" s="40">
         <v>300000</v>
@@ -32080,7 +32298,7 @@
         <v>44273</v>
       </c>
       <c r="I23" s="254" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J23" s="255">
         <v>-300000</v>
@@ -32090,19 +32308,19 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A24" s="269">
+      <c r="A24" s="277">
         <v>9</v>
       </c>
       <c r="B24" s="211">
         <v>44251</v>
       </c>
       <c r="C24" s="212" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D24" s="209">
         <v>5000</v>
       </c>
-      <c r="E24" s="271">
+      <c r="E24" s="275">
         <f>D25-D24</f>
         <v>-5000</v>
       </c>
@@ -32115,11 +32333,11 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A25" s="270"/>
+      <c r="A25" s="278"/>
       <c r="B25" s="213"/>
       <c r="C25" s="214"/>
       <c r="D25" s="210"/>
-      <c r="E25" s="272"/>
+      <c r="E25" s="276"/>
       <c r="G25" s="231"/>
       <c r="H25" s="234"/>
       <c r="I25" s="1"/>
@@ -32143,19 +32361,19 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A27" s="269">
+      <c r="A27" s="277">
         <v>10</v>
       </c>
       <c r="B27" s="211">
         <v>44254</v>
       </c>
       <c r="C27" s="212" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D27" s="209">
         <v>5000</v>
       </c>
-      <c r="E27" s="271">
+      <c r="E27" s="275">
         <f>D28-D27</f>
         <v>-5000</v>
       </c>
@@ -32168,11 +32386,11 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A28" s="270"/>
+      <c r="A28" s="278"/>
       <c r="B28" s="213"/>
       <c r="C28" s="214"/>
       <c r="D28" s="210"/>
-      <c r="E28" s="272"/>
+      <c r="E28" s="276"/>
       <c r="G28" s="231"/>
       <c r="H28" s="234"/>
       <c r="I28" s="1"/>
@@ -32196,19 +32414,19 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A30" s="269">
+      <c r="A30" s="277">
         <v>11</v>
       </c>
       <c r="B30" s="211">
         <v>44259</v>
       </c>
       <c r="C30" s="212" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D30" s="209">
         <v>5000</v>
       </c>
-      <c r="E30" s="271">
+      <c r="E30" s="275">
         <f>D31-D30</f>
         <v>-5000</v>
       </c>
@@ -32221,11 +32439,11 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="270"/>
+      <c r="A31" s="278"/>
       <c r="B31" s="213"/>
       <c r="C31" s="214"/>
       <c r="D31" s="210"/>
-      <c r="E31" s="272"/>
+      <c r="E31" s="276"/>
       <c r="G31" s="1"/>
       <c r="H31" s="233"/>
       <c r="I31" s="1"/>
@@ -32249,13 +32467,13 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A33" s="269">
+      <c r="A33" s="277">
         <v>12</v>
       </c>
       <c r="B33" s="211"/>
       <c r="C33" s="212"/>
       <c r="D33" s="209"/>
-      <c r="E33" s="271">
+      <c r="E33" s="275">
         <f>D34-D33</f>
         <v>0</v>
       </c>
@@ -32268,11 +32486,11 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A34" s="270"/>
+      <c r="A34" s="278"/>
       <c r="B34" s="213"/>
       <c r="C34" s="214"/>
       <c r="D34" s="210"/>
-      <c r="E34" s="272"/>
+      <c r="E34" s="276"/>
       <c r="G34" s="1"/>
       <c r="H34" s="234"/>
       <c r="I34" s="1"/>
@@ -32296,21 +32514,21 @@
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A36" s="269">
+      <c r="A36" s="277">
         <v>13</v>
       </c>
       <c r="B36" s="211"/>
       <c r="C36" s="212"/>
       <c r="D36" s="209"/>
-      <c r="E36" s="271">
+      <c r="E36" s="275">
         <f>D37-D36</f>
         <v>0</v>
       </c>
-      <c r="G36" s="262" t="s">
+      <c r="G36" s="268" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="263"/>
-      <c r="I36" s="263"/>
+      <c r="H36" s="269"/>
+      <c r="I36" s="269"/>
       <c r="J36" s="44">
         <f>SUM(J22:J35)</f>
         <v>0</v>
@@ -32320,11 +32538,11 @@
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A37" s="270"/>
+      <c r="A37" s="278"/>
       <c r="B37" s="213"/>
       <c r="C37" s="214"/>
       <c r="D37" s="210"/>
-      <c r="E37" s="272"/>
+      <c r="E37" s="276"/>
       <c r="G37" s="8"/>
       <c r="H37" s="241"/>
       <c r="I37" s="8"/>
@@ -32348,13 +32566,13 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A39" s="269">
+      <c r="A39" s="277">
         <v>14</v>
       </c>
       <c r="B39" s="211"/>
       <c r="C39" s="212"/>
       <c r="D39" s="209"/>
-      <c r="E39" s="271">
+      <c r="E39" s="275">
         <f>D40-D39</f>
         <v>0</v>
       </c>
@@ -32367,11 +32585,11 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A40" s="270"/>
+      <c r="A40" s="278"/>
       <c r="B40" s="213"/>
       <c r="C40" s="214"/>
       <c r="D40" s="210"/>
-      <c r="E40" s="272"/>
+      <c r="E40" s="276"/>
       <c r="G40" s="8"/>
       <c r="H40" s="241"/>
       <c r="I40" s="8"/>
@@ -32395,13 +32613,13 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A42" s="269">
+      <c r="A42" s="277">
         <v>15</v>
       </c>
       <c r="B42" s="211"/>
       <c r="C42" s="212"/>
       <c r="D42" s="209"/>
-      <c r="E42" s="271">
+      <c r="E42" s="275">
         <f>D43-D42</f>
         <v>0</v>
       </c>
@@ -32414,11 +32632,11 @@
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A43" s="270"/>
+      <c r="A43" s="278"/>
       <c r="B43" s="213"/>
       <c r="C43" s="214"/>
       <c r="D43" s="210"/>
-      <c r="E43" s="272"/>
+      <c r="E43" s="276"/>
       <c r="G43" s="8"/>
       <c r="H43" s="241"/>
       <c r="I43" s="8"/>
@@ -32442,12 +32660,12 @@
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:13" ht="29.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="278" t="s">
-        <v>416</v>
-      </c>
-      <c r="B45" s="279"/>
-      <c r="C45" s="279"/>
-      <c r="D45" s="280"/>
+      <c r="A45" s="279" t="s">
+        <v>412</v>
+      </c>
+      <c r="B45" s="280"/>
+      <c r="C45" s="280"/>
+      <c r="D45" s="281"/>
       <c r="E45" s="219">
         <f>SUM(E3:E44)</f>
         <v>-68670</v>
@@ -32464,8 +32682,8 @@
       <c r="A46" s="79"/>
       <c r="B46" s="239"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="277"/>
-      <c r="E46" s="277"/>
+      <c r="D46" s="274"/>
+      <c r="E46" s="274"/>
       <c r="G46" s="8"/>
       <c r="H46" s="241"/>
       <c r="I46" s="8"/>
@@ -32478,7 +32696,7 @@
       <c r="A47" s="79"/>
       <c r="B47" s="239"/>
       <c r="C47" s="246" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D47" s="247">
         <f>J36</f>
@@ -32497,7 +32715,7 @@
       <c r="A48" s="79"/>
       <c r="B48" s="239"/>
       <c r="C48" s="248" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D48" s="249">
         <f>E45</f>
@@ -32516,11 +32734,11 @@
       <c r="A49" s="79"/>
       <c r="B49" s="239"/>
       <c r="C49" s="248" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D49" s="249">
         <f>J18</f>
-        <v>8960</v>
+        <v>0</v>
       </c>
       <c r="E49" s="242"/>
       <c r="G49" s="8"/>
@@ -32567,7 +32785,7 @@
       </c>
       <c r="D52" s="245">
         <f>SUM(D47:D51)</f>
-        <v>-59710</v>
+        <v>-68670</v>
       </c>
       <c r="E52" s="242"/>
       <c r="G52" s="8"/>
@@ -32650,15 +32868,17 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G18:I18"/>
@@ -32675,17 +32895,15 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32715,36 +32933,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="262" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="258"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="264"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="261"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="267"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="259" t="s">
+      <c r="F2" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="261"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="267"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -32973,21 +33191,21 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="262" t="s">
+      <c r="A11" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="263"/>
-      <c r="C11" s="263"/>
+      <c r="B11" s="269"/>
+      <c r="C11" s="269"/>
       <c r="D11" s="44">
         <f>SUM(D4:D10)</f>
         <v>371000</v>
       </c>
       <c r="E11" s="50"/>
-      <c r="F11" s="262" t="s">
+      <c r="F11" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="263"/>
-      <c r="H11" s="264"/>
+      <c r="G11" s="269"/>
+      <c r="H11" s="270"/>
       <c r="I11" s="44">
         <f>SUM(I4:I10)</f>
         <v>365000</v>
@@ -33103,36 +33321,36 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="33.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="256" t="s">
+      <c r="A18" s="262" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="257"/>
-      <c r="C18" s="257"/>
-      <c r="D18" s="257"/>
-      <c r="E18" s="257"/>
-      <c r="F18" s="257"/>
-      <c r="G18" s="257"/>
-      <c r="H18" s="257"/>
-      <c r="I18" s="258"/>
+      <c r="B18" s="263"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="263"/>
+      <c r="E18" s="263"/>
+      <c r="F18" s="263"/>
+      <c r="G18" s="263"/>
+      <c r="H18" s="263"/>
+      <c r="I18" s="264"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A19" s="259" t="s">
+      <c r="A19" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="260"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="261"/>
+      <c r="B19" s="266"/>
+      <c r="C19" s="266"/>
+      <c r="D19" s="267"/>
       <c r="E19" s="43"/>
-      <c r="F19" s="259" t="s">
+      <c r="F19" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="260"/>
-      <c r="H19" s="260"/>
-      <c r="I19" s="261"/>
+      <c r="G19" s="266"/>
+      <c r="H19" s="266"/>
+      <c r="I19" s="267"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -33411,21 +33629,21 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="262" t="s">
+      <c r="A31" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="263"/>
-      <c r="C31" s="263"/>
+      <c r="B31" s="269"/>
+      <c r="C31" s="269"/>
       <c r="D31" s="44">
         <f>SUM(D21:D30)</f>
         <v>163560</v>
       </c>
       <c r="E31" s="50"/>
-      <c r="F31" s="262" t="s">
+      <c r="F31" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="263"/>
-      <c r="H31" s="264"/>
+      <c r="G31" s="269"/>
+      <c r="H31" s="270"/>
       <c r="I31" s="44">
         <f>SUM(I21:I30)</f>
         <v>225060</v>
@@ -33540,36 +33758,36 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" ht="30.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="256" t="s">
+      <c r="A38" s="262" t="s">
         <v>185</v>
       </c>
-      <c r="B38" s="257"/>
-      <c r="C38" s="257"/>
-      <c r="D38" s="257"/>
-      <c r="E38" s="257"/>
-      <c r="F38" s="257"/>
-      <c r="G38" s="257"/>
-      <c r="H38" s="257"/>
-      <c r="I38" s="258"/>
+      <c r="B38" s="263"/>
+      <c r="C38" s="263"/>
+      <c r="D38" s="263"/>
+      <c r="E38" s="263"/>
+      <c r="F38" s="263"/>
+      <c r="G38" s="263"/>
+      <c r="H38" s="263"/>
+      <c r="I38" s="264"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A39" s="259" t="s">
+      <c r="A39" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="260"/>
-      <c r="C39" s="260"/>
-      <c r="D39" s="261"/>
+      <c r="B39" s="266"/>
+      <c r="C39" s="266"/>
+      <c r="D39" s="267"/>
       <c r="E39" s="43"/>
-      <c r="F39" s="259" t="s">
+      <c r="F39" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G39" s="260"/>
-      <c r="H39" s="260"/>
-      <c r="I39" s="261"/>
+      <c r="G39" s="266"/>
+      <c r="H39" s="266"/>
+      <c r="I39" s="267"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -33848,21 +34066,21 @@
       <c r="M50" s="8"/>
     </row>
     <row r="51" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="262" t="s">
+      <c r="A51" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="263"/>
-      <c r="C51" s="263"/>
+      <c r="B51" s="269"/>
+      <c r="C51" s="269"/>
       <c r="D51" s="44">
         <f>SUM(D41:D50)</f>
         <v>266150</v>
       </c>
       <c r="E51" s="50"/>
-      <c r="F51" s="262" t="s">
+      <c r="F51" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="G51" s="263"/>
-      <c r="H51" s="264"/>
+      <c r="G51" s="269"/>
+      <c r="H51" s="270"/>
       <c r="I51" s="44">
         <f>SUM(I41:I50)</f>
         <v>7850</v>
@@ -33978,36 +34196,36 @@
       <c r="M57" s="8"/>
     </row>
     <row r="58" spans="1:13" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="256" t="s">
+      <c r="A58" s="262" t="s">
         <v>282</v>
       </c>
-      <c r="B58" s="257"/>
-      <c r="C58" s="257"/>
-      <c r="D58" s="257"/>
-      <c r="E58" s="257"/>
-      <c r="F58" s="257"/>
-      <c r="G58" s="257"/>
-      <c r="H58" s="257"/>
-      <c r="I58" s="258"/>
+      <c r="B58" s="263"/>
+      <c r="C58" s="263"/>
+      <c r="D58" s="263"/>
+      <c r="E58" s="263"/>
+      <c r="F58" s="263"/>
+      <c r="G58" s="263"/>
+      <c r="H58" s="263"/>
+      <c r="I58" s="264"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A59" s="259" t="s">
+      <c r="A59" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="260"/>
-      <c r="C59" s="260"/>
-      <c r="D59" s="261"/>
+      <c r="B59" s="266"/>
+      <c r="C59" s="266"/>
+      <c r="D59" s="267"/>
       <c r="E59" s="43"/>
-      <c r="F59" s="259" t="s">
+      <c r="F59" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G59" s="260"/>
-      <c r="H59" s="260"/>
-      <c r="I59" s="261"/>
+      <c r="G59" s="266"/>
+      <c r="H59" s="266"/>
+      <c r="I59" s="267"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
@@ -34266,21 +34484,21 @@
       <c r="M70" s="8"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A71" s="262" t="s">
+      <c r="A71" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="263"/>
-      <c r="C71" s="263"/>
+      <c r="B71" s="269"/>
+      <c r="C71" s="269"/>
       <c r="D71" s="44">
         <f>SUM(D61:D70)</f>
         <v>288300</v>
       </c>
       <c r="E71" s="50"/>
-      <c r="F71" s="262" t="s">
+      <c r="F71" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="G71" s="263"/>
-      <c r="H71" s="264"/>
+      <c r="G71" s="269"/>
+      <c r="H71" s="270"/>
       <c r="I71" s="44">
         <f>SUM(I61:I70)</f>
         <v>48344</v>
@@ -34396,36 +34614,36 @@
       <c r="M77" s="8"/>
     </row>
     <row r="78" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="256" t="s">
+      <c r="A78" s="262" t="s">
         <v>347</v>
       </c>
-      <c r="B78" s="257"/>
-      <c r="C78" s="257"/>
-      <c r="D78" s="257"/>
-      <c r="E78" s="257"/>
-      <c r="F78" s="257"/>
-      <c r="G78" s="257"/>
-      <c r="H78" s="257"/>
-      <c r="I78" s="258"/>
+      <c r="B78" s="263"/>
+      <c r="C78" s="263"/>
+      <c r="D78" s="263"/>
+      <c r="E78" s="263"/>
+      <c r="F78" s="263"/>
+      <c r="G78" s="263"/>
+      <c r="H78" s="263"/>
+      <c r="I78" s="264"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
     </row>
     <row r="79" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="259" t="s">
+      <c r="A79" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="260"/>
-      <c r="C79" s="260"/>
-      <c r="D79" s="261"/>
+      <c r="B79" s="266"/>
+      <c r="C79" s="266"/>
+      <c r="D79" s="267"/>
       <c r="E79" s="43"/>
-      <c r="F79" s="259" t="s">
+      <c r="F79" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="260"/>
-      <c r="I79" s="261"/>
+      <c r="G79" s="266"/>
+      <c r="H79" s="266"/>
+      <c r="I79" s="267"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
@@ -34632,21 +34850,21 @@
       <c r="M90" s="8"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A91" s="262" t="s">
+      <c r="A91" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="263"/>
-      <c r="C91" s="263"/>
+      <c r="B91" s="269"/>
+      <c r="C91" s="269"/>
       <c r="D91" s="44">
         <f>SUM(D81:D90)</f>
         <v>239956</v>
       </c>
       <c r="E91" s="50"/>
-      <c r="F91" s="262" t="s">
+      <c r="F91" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="G91" s="263"/>
-      <c r="H91" s="264"/>
+      <c r="G91" s="269"/>
+      <c r="H91" s="270"/>
       <c r="I91" s="44">
         <f>SUM(I81:I90)</f>
         <v>239500</v>
@@ -35513,11 +35731,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="F91:H91"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="F39:I39"/>
     <mergeCell ref="A51:C51"/>
@@ -35533,11 +35751,11 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A78:I78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="F71:H71"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -35548,13 +35766,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36649B9E-6B8C-4CFC-B0D1-394B711FF894}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="105" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.52734375" customWidth="1"/>
+    <col min="1" max="1" width="4.52734375" style="80" customWidth="1"/>
     <col min="2" max="2" width="9.1171875" customWidth="1"/>
     <col min="3" max="3" width="42.87890625" customWidth="1"/>
     <col min="4" max="4" width="9.29296875" customWidth="1"/>
@@ -35566,36 +35784,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="262" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="258"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="264"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="261"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="267"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="259" t="s">
+      <c r="F2" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="261"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="267"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -35633,7 +35851,7 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A4" s="74">
+      <c r="A4" s="261">
         <v>1</v>
       </c>
       <c r="B4" s="39">
@@ -35664,7 +35882,7 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A5" s="74">
+      <c r="A5" s="261">
         <v>2</v>
       </c>
       <c r="B5" s="39">
@@ -35695,7 +35913,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A6" s="74">
+      <c r="A6" s="261">
         <v>3</v>
       </c>
       <c r="B6" s="39">
@@ -35724,7 +35942,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A7" s="74">
+      <c r="A7" s="261">
         <v>4</v>
       </c>
       <c r="B7" s="39">
@@ -35749,7 +35967,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A8" s="74"/>
+      <c r="A8" s="261"/>
       <c r="B8" s="39"/>
       <c r="C8" s="1"/>
       <c r="D8" s="40">
@@ -35772,7 +35990,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A9" s="74"/>
+      <c r="A9" s="261"/>
       <c r="B9" s="39"/>
       <c r="C9" s="1"/>
       <c r="D9" s="40">
@@ -35797,7 +36015,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A10" s="74">
+      <c r="A10" s="261">
         <v>5</v>
       </c>
       <c r="B10" s="39">
@@ -35826,14 +36044,14 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A11" s="74">
+      <c r="A11" s="261">
         <v>6</v>
       </c>
       <c r="B11" s="39">
         <v>44245</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D11" s="40">
         <v>64500</v>
@@ -35855,10 +36073,18 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="40"/>
+      <c r="A12" s="261">
+        <v>7</v>
+      </c>
+      <c r="B12" s="39">
+        <v>44278</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12" s="40">
+        <v>209000</v>
+      </c>
       <c r="E12" s="38"/>
       <c r="F12" s="74"/>
       <c r="G12" s="39"/>
@@ -35874,7 +36100,7 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A13" s="1"/>
+      <c r="A13" s="261"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="40"/>
@@ -35895,7 +36121,7 @@
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A14" s="1"/>
+      <c r="A14" s="261"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="40"/>
@@ -35907,7 +36133,7 @@
         <v>44256</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I14" s="40">
         <v>64500</v>
@@ -35918,7 +36144,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A15" s="1"/>
+      <c r="A15" s="261"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="40"/>
@@ -35933,7 +36159,7 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A16" s="1"/>
+      <c r="A16" s="261"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="40"/>
@@ -35948,7 +36174,7 @@
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A17" s="1"/>
+      <c r="A17" s="261"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="40"/>
@@ -35963,7 +36189,7 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1"/>
+      <c r="A18" s="261"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="40"/>
@@ -35978,21 +36204,21 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="281" t="s">
+      <c r="A19" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="282"/>
-      <c r="C19" s="282"/>
+      <c r="B19" s="288"/>
+      <c r="C19" s="288"/>
       <c r="D19" s="44">
         <f>SUM(D4:D18)</f>
-        <v>508500</v>
+        <v>717500</v>
       </c>
       <c r="E19" s="50"/>
-      <c r="F19" s="281" t="s">
+      <c r="F19" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="282"/>
-      <c r="H19" s="283"/>
+      <c r="G19" s="288"/>
+      <c r="H19" s="289"/>
       <c r="I19" s="44">
         <f>SUM(I4:I18)</f>
         <v>508500</v>
@@ -36018,14 +36244,14 @@
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="53"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="53"/>
       <c r="C21" s="54" t="s">
         <v>103</v>
       </c>
       <c r="D21" s="58">
         <f>D19</f>
-        <v>508500</v>
+        <v>717500</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="53"/>
@@ -36038,7 +36264,7 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="53"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="53"/>
       <c r="C22" s="54" t="s">
         <v>188</v>
@@ -36058,7 +36284,7 @@
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" ht="9.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="53"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="53"/>
       <c r="C23" s="59"/>
       <c r="D23" s="60"/>
@@ -36073,14 +36299,14 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="53"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="53"/>
       <c r="C24" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="62">
         <f>D21-D22</f>
-        <v>0</v>
+        <v>209000</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="53"/>
@@ -36093,7 +36319,7 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A25" s="8"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -36108,7 +36334,7 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A26" s="8"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -36123,7 +36349,7 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A27" s="8"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -36138,7 +36364,7 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A28" s="8"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -36153,7 +36379,7 @@
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A29" s="8"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -36168,7 +36394,7 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A30" s="8"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -36183,7 +36409,7 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="8"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -36198,7 +36424,7 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A32" s="8"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -36213,7 +36439,7 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A33" s="8"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -36228,7 +36454,7 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A34" s="8"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -36243,7 +36469,7 @@
       <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A35" s="8"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -36258,7 +36484,7 @@
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A36" s="8"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -36273,7 +36499,7 @@
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A37" s="8"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -36288,7 +36514,7 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A38" s="8"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -36303,7 +36529,7 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A39" s="8"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -36618,36 +36844,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="262" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="258"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="264"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="261"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="267"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="259" t="s">
+      <c r="F2" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="261"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="267"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -36867,21 +37093,21 @@
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="281" t="s">
+      <c r="A14" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="282"/>
-      <c r="C14" s="282"/>
+      <c r="B14" s="288"/>
+      <c r="C14" s="288"/>
       <c r="D14" s="44">
         <f>SUM(D4:D13)</f>
         <v>120000</v>
       </c>
       <c r="E14" s="50"/>
-      <c r="F14" s="281" t="s">
+      <c r="F14" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="282"/>
-      <c r="H14" s="283"/>
+      <c r="G14" s="288"/>
+      <c r="H14" s="289"/>
       <c r="I14" s="44">
         <f>SUM(I4:I13)</f>
         <v>120000</v>
@@ -37489,8 +37715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03DA68B-CB4E-4FFC-8AF2-E82A88309945}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -37506,36 +37732,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="262" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="258"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="264"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="261"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="267"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="259" t="s">
+      <c r="F2" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="261"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="267"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -37740,21 +37966,21 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="281" t="s">
+      <c r="A13" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="282"/>
-      <c r="C13" s="282"/>
+      <c r="B13" s="288"/>
+      <c r="C13" s="288"/>
       <c r="D13" s="44">
         <f>SUM(D4:D12)</f>
         <v>260000</v>
       </c>
       <c r="E13" s="50"/>
-      <c r="F13" s="281" t="s">
+      <c r="F13" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="282"/>
-      <c r="H13" s="283"/>
+      <c r="G13" s="288"/>
+      <c r="H13" s="289"/>
       <c r="I13" s="44">
         <f>SUM(I4:I12)</f>
         <v>260000</v>
@@ -37870,36 +38096,36 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="256" t="s">
+      <c r="A20" s="262" t="s">
         <v>265</v>
       </c>
-      <c r="B20" s="257"/>
-      <c r="C20" s="257"/>
-      <c r="D20" s="257"/>
-      <c r="E20" s="257"/>
-      <c r="F20" s="257"/>
-      <c r="G20" s="257"/>
-      <c r="H20" s="257"/>
-      <c r="I20" s="258"/>
+      <c r="B20" s="263"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="263"/>
+      <c r="F20" s="263"/>
+      <c r="G20" s="263"/>
+      <c r="H20" s="263"/>
+      <c r="I20" s="264"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A21" s="259" t="s">
+      <c r="A21" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="260"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="261"/>
+      <c r="B21" s="266"/>
+      <c r="C21" s="266"/>
+      <c r="D21" s="267"/>
       <c r="E21" s="43"/>
-      <c r="F21" s="259" t="s">
+      <c r="F21" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="260"/>
-      <c r="H21" s="260"/>
-      <c r="I21" s="261"/>
+      <c r="G21" s="266"/>
+      <c r="H21" s="266"/>
+      <c r="I21" s="267"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -38033,7 +38259,7 @@
         <v>44211</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D26" s="40">
         <v>3000</v>
@@ -38115,21 +38341,21 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="281" t="s">
+      <c r="A31" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="282"/>
-      <c r="C31" s="282"/>
+      <c r="B31" s="288"/>
+      <c r="C31" s="288"/>
       <c r="D31" s="44">
         <f>SUM(D23:D30)</f>
         <v>413000</v>
       </c>
       <c r="E31" s="50"/>
-      <c r="F31" s="281" t="s">
+      <c r="F31" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="282"/>
-      <c r="H31" s="283"/>
+      <c r="G31" s="288"/>
+      <c r="H31" s="289"/>
       <c r="I31" s="44">
         <f>SUM(I23:I30)</f>
         <v>413000</v>
@@ -38274,36 +38500,36 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="256" t="s">
+      <c r="A40" s="262" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="257"/>
-      <c r="C40" s="257"/>
-      <c r="D40" s="257"/>
-      <c r="E40" s="257"/>
-      <c r="F40" s="257"/>
-      <c r="G40" s="257"/>
-      <c r="H40" s="257"/>
-      <c r="I40" s="258"/>
+      <c r="B40" s="263"/>
+      <c r="C40" s="263"/>
+      <c r="D40" s="263"/>
+      <c r="E40" s="263"/>
+      <c r="F40" s="263"/>
+      <c r="G40" s="263"/>
+      <c r="H40" s="263"/>
+      <c r="I40" s="264"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A41" s="259" t="s">
+      <c r="A41" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="260"/>
-      <c r="C41" s="260"/>
-      <c r="D41" s="261"/>
+      <c r="B41" s="266"/>
+      <c r="C41" s="266"/>
+      <c r="D41" s="267"/>
       <c r="E41" s="43"/>
-      <c r="F41" s="259" t="s">
+      <c r="F41" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G41" s="260"/>
-      <c r="H41" s="260"/>
-      <c r="I41" s="261"/>
+      <c r="G41" s="266"/>
+      <c r="H41" s="266"/>
+      <c r="I41" s="267"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -38569,21 +38795,21 @@
       <c r="M54" s="8"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A55" s="281" t="s">
+      <c r="A55" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="282"/>
-      <c r="C55" s="282"/>
+      <c r="B55" s="288"/>
+      <c r="C55" s="288"/>
       <c r="D55" s="44">
         <f>SUM(D43:D54)</f>
         <v>1203500</v>
       </c>
       <c r="E55" s="50"/>
-      <c r="F55" s="281" t="s">
+      <c r="F55" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G55" s="282"/>
-      <c r="H55" s="283"/>
+      <c r="G55" s="288"/>
+      <c r="H55" s="289"/>
       <c r="I55" s="44">
         <f>SUM(I43:I54)</f>
         <v>1203500</v>
@@ -38699,36 +38925,36 @@
       <c r="M61" s="8"/>
     </row>
     <row r="62" spans="1:13" ht="35.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="256" t="s">
+      <c r="A62" s="262" t="s">
         <v>292</v>
       </c>
-      <c r="B62" s="257"/>
-      <c r="C62" s="257"/>
-      <c r="D62" s="257"/>
-      <c r="E62" s="257"/>
-      <c r="F62" s="257"/>
-      <c r="G62" s="257"/>
-      <c r="H62" s="257"/>
-      <c r="I62" s="258"/>
+      <c r="B62" s="263"/>
+      <c r="C62" s="263"/>
+      <c r="D62" s="263"/>
+      <c r="E62" s="263"/>
+      <c r="F62" s="263"/>
+      <c r="G62" s="263"/>
+      <c r="H62" s="263"/>
+      <c r="I62" s="264"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A63" s="259" t="s">
+      <c r="A63" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="260"/>
-      <c r="C63" s="260"/>
-      <c r="D63" s="261"/>
+      <c r="B63" s="266"/>
+      <c r="C63" s="266"/>
+      <c r="D63" s="267"/>
       <c r="E63" s="43"/>
-      <c r="F63" s="259" t="s">
+      <c r="F63" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G63" s="260"/>
-      <c r="H63" s="260"/>
-      <c r="I63" s="261"/>
+      <c r="G63" s="266"/>
+      <c r="H63" s="266"/>
+      <c r="I63" s="267"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -38918,21 +39144,21 @@
       <c r="M72" s="8"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A73" s="281" t="s">
+      <c r="A73" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="282"/>
-      <c r="C73" s="282"/>
+      <c r="B73" s="288"/>
+      <c r="C73" s="288"/>
       <c r="D73" s="44">
         <f>SUM(D65:D72)</f>
         <v>103500</v>
       </c>
       <c r="E73" s="50"/>
-      <c r="F73" s="281" t="s">
+      <c r="F73" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G73" s="282"/>
-      <c r="H73" s="283"/>
+      <c r="G73" s="288"/>
+      <c r="H73" s="289"/>
       <c r="I73" s="44">
         <f>SUM(I65:I72)</f>
         <v>103500</v>
@@ -39048,36 +39274,36 @@
       <c r="M79" s="8"/>
     </row>
     <row r="80" spans="1:13" ht="32.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="256" t="s">
+      <c r="A80" s="262" t="s">
         <v>365</v>
       </c>
-      <c r="B80" s="257"/>
-      <c r="C80" s="257"/>
-      <c r="D80" s="257"/>
-      <c r="E80" s="257"/>
-      <c r="F80" s="257"/>
-      <c r="G80" s="257"/>
-      <c r="H80" s="257"/>
-      <c r="I80" s="258"/>
+      <c r="B80" s="263"/>
+      <c r="C80" s="263"/>
+      <c r="D80" s="263"/>
+      <c r="E80" s="263"/>
+      <c r="F80" s="263"/>
+      <c r="G80" s="263"/>
+      <c r="H80" s="263"/>
+      <c r="I80" s="264"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A81" s="259" t="s">
+      <c r="A81" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="260"/>
-      <c r="C81" s="260"/>
-      <c r="D81" s="261"/>
+      <c r="B81" s="266"/>
+      <c r="C81" s="266"/>
+      <c r="D81" s="267"/>
       <c r="E81" s="43"/>
-      <c r="F81" s="259" t="s">
+      <c r="F81" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G81" s="260"/>
-      <c r="H81" s="260"/>
-      <c r="I81" s="261"/>
+      <c r="G81" s="266"/>
+      <c r="H81" s="266"/>
+      <c r="I81" s="267"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
@@ -39146,15 +39372,31 @@
       <c r="M83" s="8"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A84" s="183"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="40"/>
+      <c r="A84" s="261">
+        <v>2</v>
+      </c>
+      <c r="B84" s="39">
+        <v>44277</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D84" s="40">
+        <v>100000</v>
+      </c>
       <c r="E84" s="38"/>
-      <c r="F84" s="183"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="40"/>
+      <c r="F84" s="183">
+        <v>2</v>
+      </c>
+      <c r="G84" s="39">
+        <v>44277</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I84" s="40">
+        <v>100000</v>
+      </c>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
@@ -39251,24 +39493,24 @@
       <c r="M90" s="8"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A91" s="281" t="s">
+      <c r="A91" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="282"/>
-      <c r="C91" s="282"/>
+      <c r="B91" s="288"/>
+      <c r="C91" s="288"/>
       <c r="D91" s="44">
         <f>SUM(D83:D90)</f>
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="E91" s="50"/>
-      <c r="F91" s="281" t="s">
+      <c r="F91" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G91" s="282"/>
-      <c r="H91" s="283"/>
+      <c r="G91" s="288"/>
+      <c r="H91" s="289"/>
       <c r="I91" s="44">
         <f>SUM(I83:I90)</f>
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -39294,7 +39536,7 @@
       </c>
       <c r="D93" s="58">
         <f>D91</f>
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="53"/>
@@ -39310,7 +39552,7 @@
       </c>
       <c r="D94" s="58">
         <f>I91</f>
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="53"/>
@@ -39347,31 +39589,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="F73:H73"/>
     <mergeCell ref="A80:I80"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="F81:I81"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="F91:H91"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="F55:H55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39399,36 +39641,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="262" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="258"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="264"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="261"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="267"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="259" t="s">
+      <c r="F2" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="261"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="267"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -39820,21 +40062,21 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="281" t="s">
+      <c r="A18" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="282"/>
-      <c r="C18" s="282"/>
+      <c r="B18" s="288"/>
+      <c r="C18" s="288"/>
       <c r="D18" s="44">
         <f>SUM(D4:D17)</f>
         <v>15210</v>
       </c>
       <c r="E18" s="50"/>
-      <c r="F18" s="281" t="s">
+      <c r="F18" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="282"/>
-      <c r="H18" s="283"/>
+      <c r="G18" s="288"/>
+      <c r="H18" s="289"/>
       <c r="I18" s="44">
         <f>SUM(I4:I17)</f>
         <v>15210</v>
@@ -40460,36 +40702,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="262" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="258"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="264"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="261"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="267"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="259" t="s">
+      <c r="F2" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="261"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="267"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -40582,21 +40824,21 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="281" t="s">
+      <c r="A7" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="282"/>
-      <c r="C7" s="282"/>
+      <c r="B7" s="288"/>
+      <c r="C7" s="288"/>
       <c r="D7" s="44">
         <f>SUM(D4:D6)</f>
         <v>0</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="281" t="s">
+      <c r="F7" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="282"/>
-      <c r="H7" s="283"/>
+      <c r="G7" s="288"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="44">
         <f>SUM(I4:I6)</f>
         <v>3000</v>

--- a/Office Statement Expense & Expenditure.xlsx
+++ b/Office Statement Expense & Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Najeeb Associates\000FFICE\Office Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E48BCBE-65A6-4E8C-A023-7F21DE5D2CC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DE22BB-6E41-49E4-88A7-A3788C06556F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="904" activeTab="15" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
   </bookViews>
@@ -2943,13 +2943,7 @@
     <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2958,19 +2952,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2982,6 +2970,18 @@
     <xf numFmtId="0" fontId="17" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2991,8 +2991,17 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3012,23 +3021,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3044,21 +3059,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14743,37 +14743,37 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A140:I140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="F163:H163"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="F105:H105"/>
     <mergeCell ref="A62:I62"/>
     <mergeCell ref="A63:I63"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="F64:I64"/>
     <mergeCell ref="A79:C79"/>
     <mergeCell ref="F79:H79"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="A140:I140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="F163:H163"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="53" orientation="portrait" r:id="rId1"/>
@@ -14803,18 +14803,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="303" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="298"/>
-      <c r="C1" s="298"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
       <c r="D1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="290" t="s">
+      <c r="E1" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="290"/>
+      <c r="F1" s="305"/>
       <c r="G1" s="14">
         <v>50000</v>
       </c>
@@ -14933,17 +14933,17 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A5" s="303">
+      <c r="A5" s="308">
         <v>3</v>
       </c>
-      <c r="B5" s="304">
+      <c r="B5" s="309">
         <v>44063</v>
       </c>
-      <c r="C5" s="305" t="s">
+      <c r="C5" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="306"/>
-      <c r="E5" s="307"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="312"/>
       <c r="F5" s="4">
         <v>11640</v>
       </c>
@@ -14965,11 +14965,11 @@
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A6" s="303"/>
-      <c r="B6" s="304"/>
-      <c r="C6" s="305"/>
-      <c r="D6" s="306"/>
-      <c r="E6" s="307"/>
+      <c r="A6" s="308"/>
+      <c r="B6" s="309"/>
+      <c r="C6" s="310"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="312"/>
       <c r="F6" s="4">
         <v>1700</v>
       </c>
@@ -14991,10 +14991,10 @@
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A7" s="303">
+      <c r="A7" s="308">
         <v>4</v>
       </c>
-      <c r="B7" s="304">
+      <c r="B7" s="309">
         <v>44064</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -15023,8 +15023,8 @@
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A8" s="303"/>
-      <c r="B8" s="304"/>
+      <c r="A8" s="308"/>
+      <c r="B8" s="309"/>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -15085,10 +15085,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A10" s="303">
+      <c r="A10" s="308">
         <v>6</v>
       </c>
-      <c r="B10" s="304">
+      <c r="B10" s="309">
         <v>44066</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -15117,8 +15117,8 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A11" s="303"/>
-      <c r="B11" s="304"/>
+      <c r="A11" s="308"/>
+      <c r="B11" s="309"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -15150,7 +15150,7 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="304">
+      <c r="B12" s="309">
         <v>44067</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -15182,7 +15182,7 @@
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="304"/>
+      <c r="B13" s="309"/>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
@@ -15275,12 +15275,12 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="299" t="s">
+      <c r="A16" s="290" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="299"/>
-      <c r="C16" s="299"/>
-      <c r="D16" s="300"/>
+      <c r="B16" s="290"/>
+      <c r="C16" s="290"/>
+      <c r="D16" s="291"/>
       <c r="E16" s="16">
         <f>SUM(E3:E15)</f>
         <v>0</v>
@@ -15307,10 +15307,10 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="301"/>
-      <c r="B17" s="301"/>
-      <c r="C17" s="301"/>
-      <c r="D17" s="302"/>
+      <c r="A17" s="292"/>
+      <c r="B17" s="292"/>
+      <c r="C17" s="292"/>
+      <c r="D17" s="293"/>
       <c r="E17" s="17" t="s">
         <v>61</v>
       </c>
@@ -15355,18 +15355,18 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" ht="29.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="297" t="s">
+      <c r="A19" s="303" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="298"/>
-      <c r="C19" s="298"/>
+      <c r="B19" s="304"/>
+      <c r="C19" s="304"/>
       <c r="D19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="290" t="s">
+      <c r="E19" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="290"/>
+      <c r="F19" s="305"/>
       <c r="G19" s="14">
         <v>31780</v>
       </c>
@@ -15451,10 +15451,10 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A22" s="294">
+      <c r="A22" s="297">
         <v>12</v>
       </c>
-      <c r="B22" s="291">
+      <c r="B22" s="294">
         <v>44076</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -15483,8 +15483,8 @@
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A23" s="295"/>
-      <c r="B23" s="292"/>
+      <c r="A23" s="298"/>
+      <c r="B23" s="295"/>
       <c r="C23" s="21" t="s">
         <v>21</v>
       </c>
@@ -15511,8 +15511,8 @@
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A24" s="296"/>
-      <c r="B24" s="293"/>
+      <c r="A24" s="299"/>
+      <c r="B24" s="296"/>
       <c r="C24" s="21" t="s">
         <v>22</v>
       </c>
@@ -15541,10 +15541,10 @@
       <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A25" s="294">
+      <c r="A25" s="297">
         <v>13</v>
       </c>
-      <c r="B25" s="291">
+      <c r="B25" s="294">
         <v>44077</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -15575,8 +15575,8 @@
       <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A26" s="296"/>
-      <c r="B26" s="293"/>
+      <c r="A26" s="299"/>
+      <c r="B26" s="296"/>
       <c r="C26" s="21" t="s">
         <v>26</v>
       </c>
@@ -15605,10 +15605,10 @@
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A27" s="294">
+      <c r="A27" s="297">
         <v>14</v>
       </c>
-      <c r="B27" s="291">
+      <c r="B27" s="294">
         <v>44078</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -15637,8 +15637,8 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A28" s="296"/>
-      <c r="B28" s="293"/>
+      <c r="A28" s="299"/>
+      <c r="B28" s="296"/>
       <c r="C28" s="21" t="s">
         <v>28</v>
       </c>
@@ -15667,10 +15667,10 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A29" s="294">
+      <c r="A29" s="297">
         <v>15</v>
       </c>
-      <c r="B29" s="291">
+      <c r="B29" s="294">
         <v>44079</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -15699,8 +15699,8 @@
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A30" s="295"/>
-      <c r="B30" s="292"/>
+      <c r="A30" s="298"/>
+      <c r="B30" s="295"/>
       <c r="C30" s="21" t="s">
         <v>30</v>
       </c>
@@ -15729,8 +15729,8 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A31" s="295"/>
-      <c r="B31" s="292"/>
+      <c r="A31" s="298"/>
+      <c r="B31" s="295"/>
       <c r="C31" s="21" t="s">
         <v>60</v>
       </c>
@@ -15757,8 +15757,8 @@
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A32" s="296"/>
-      <c r="B32" s="293"/>
+      <c r="A32" s="299"/>
+      <c r="B32" s="296"/>
       <c r="C32" s="23" t="s">
         <v>31</v>
       </c>
@@ -15785,10 +15785,10 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A33" s="294">
+      <c r="A33" s="297">
         <v>16</v>
       </c>
-      <c r="B33" s="291">
+      <c r="B33" s="294">
         <v>44080</v>
       </c>
       <c r="C33" s="21" t="s">
@@ -15819,8 +15819,8 @@
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A34" s="295"/>
-      <c r="B34" s="292"/>
+      <c r="A34" s="298"/>
+      <c r="B34" s="295"/>
       <c r="C34" s="21" t="s">
         <v>33</v>
       </c>
@@ -15849,8 +15849,8 @@
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A35" s="295"/>
-      <c r="B35" s="292"/>
+      <c r="A35" s="298"/>
+      <c r="B35" s="295"/>
       <c r="C35" s="21" t="s">
         <v>36</v>
       </c>
@@ -15879,8 +15879,8 @@
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A36" s="295"/>
-      <c r="B36" s="292"/>
+      <c r="A36" s="298"/>
+      <c r="B36" s="295"/>
       <c r="C36" s="21" t="s">
         <v>37</v>
       </c>
@@ -15909,8 +15909,8 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A37" s="296"/>
-      <c r="B37" s="293"/>
+      <c r="A37" s="299"/>
+      <c r="B37" s="296"/>
       <c r="C37" s="21" t="s">
         <v>39</v>
       </c>
@@ -15937,10 +15937,10 @@
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A38" s="294">
+      <c r="A38" s="297">
         <v>17</v>
       </c>
-      <c r="B38" s="291">
+      <c r="B38" s="294">
         <v>44081</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -15969,8 +15969,8 @@
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A39" s="295"/>
-      <c r="B39" s="292"/>
+      <c r="A39" s="298"/>
+      <c r="B39" s="295"/>
       <c r="C39" s="21" t="s">
         <v>28</v>
       </c>
@@ -15997,8 +15997,8 @@
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A40" s="296"/>
-      <c r="B40" s="293"/>
+      <c r="A40" s="299"/>
+      <c r="B40" s="296"/>
       <c r="C40" s="21" t="s">
         <v>40</v>
       </c>
@@ -16027,10 +16027,10 @@
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A41" s="294">
+      <c r="A41" s="297">
         <v>18</v>
       </c>
-      <c r="B41" s="291">
+      <c r="B41" s="294">
         <v>44082</v>
       </c>
       <c r="C41" s="21" t="s">
@@ -16059,8 +16059,8 @@
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A42" s="296"/>
-      <c r="B42" s="293"/>
+      <c r="A42" s="299"/>
+      <c r="B42" s="296"/>
       <c r="C42" s="21" t="s">
         <v>42</v>
       </c>
@@ -16087,10 +16087,10 @@
       <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A43" s="294">
+      <c r="A43" s="297">
         <v>19</v>
       </c>
-      <c r="B43" s="291">
+      <c r="B43" s="294">
         <v>44083</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -16119,8 +16119,8 @@
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A44" s="296"/>
-      <c r="B44" s="293"/>
+      <c r="A44" s="299"/>
+      <c r="B44" s="296"/>
       <c r="C44" s="21" t="s">
         <v>44</v>
       </c>
@@ -16147,10 +16147,10 @@
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A45" s="294">
+      <c r="A45" s="297">
         <v>20</v>
       </c>
-      <c r="B45" s="291">
+      <c r="B45" s="294">
         <v>44084</v>
       </c>
       <c r="C45" s="21" t="s">
@@ -16179,8 +16179,8 @@
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A46" s="296"/>
-      <c r="B46" s="293"/>
+      <c r="A46" s="299"/>
+      <c r="B46" s="296"/>
       <c r="C46" s="21" t="s">
         <v>45</v>
       </c>
@@ -16207,10 +16207,10 @@
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A47" s="294">
+      <c r="A47" s="297">
         <v>21</v>
       </c>
-      <c r="B47" s="291">
+      <c r="B47" s="294">
         <v>44085</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -16239,8 +16239,8 @@
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A48" s="295"/>
-      <c r="B48" s="292"/>
+      <c r="A48" s="298"/>
+      <c r="B48" s="295"/>
       <c r="C48" s="21" t="s">
         <v>46</v>
       </c>
@@ -16267,8 +16267,8 @@
       <c r="S48" s="8"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A49" s="295"/>
-      <c r="B49" s="292"/>
+      <c r="A49" s="298"/>
+      <c r="B49" s="295"/>
       <c r="C49" s="21" t="s">
         <v>47</v>
       </c>
@@ -16295,8 +16295,8 @@
       <c r="S49" s="8"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A50" s="295"/>
-      <c r="B50" s="292"/>
+      <c r="A50" s="298"/>
+      <c r="B50" s="295"/>
       <c r="C50" s="23" t="s">
         <v>31</v>
       </c>
@@ -16323,8 +16323,8 @@
       <c r="S50" s="8"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A51" s="296"/>
-      <c r="B51" s="293"/>
+      <c r="A51" s="299"/>
+      <c r="B51" s="296"/>
       <c r="C51" s="21" t="s">
         <v>44</v>
       </c>
@@ -16353,10 +16353,10 @@
       <c r="S51" s="8"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A52" s="294">
+      <c r="A52" s="297">
         <v>22</v>
       </c>
-      <c r="B52" s="291">
+      <c r="B52" s="294">
         <v>44086</v>
       </c>
       <c r="C52" s="21" t="s">
@@ -16387,8 +16387,8 @@
       <c r="S52" s="8"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A53" s="296"/>
-      <c r="B53" s="293"/>
+      <c r="A53" s="299"/>
+      <c r="B53" s="296"/>
       <c r="C53" s="21" t="s">
         <v>50</v>
       </c>
@@ -16415,10 +16415,10 @@
       <c r="S53" s="8"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A54" s="294">
+      <c r="A54" s="297">
         <v>23</v>
       </c>
-      <c r="B54" s="291">
+      <c r="B54" s="294">
         <v>44087</v>
       </c>
       <c r="C54" s="21" t="s">
@@ -16447,8 +16447,8 @@
       <c r="S54" s="8"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A55" s="295"/>
-      <c r="B55" s="292"/>
+      <c r="A55" s="298"/>
+      <c r="B55" s="295"/>
       <c r="C55" s="21" t="s">
         <v>28</v>
       </c>
@@ -16475,8 +16475,8 @@
       <c r="S55" s="8"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A56" s="295"/>
-      <c r="B56" s="292"/>
+      <c r="A56" s="298"/>
+      <c r="B56" s="295"/>
       <c r="C56" s="21" t="s">
         <v>51</v>
       </c>
@@ -16503,8 +16503,8 @@
       <c r="S56" s="8"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A57" s="295"/>
-      <c r="B57" s="292"/>
+      <c r="A57" s="298"/>
+      <c r="B57" s="295"/>
       <c r="C57" s="23" t="s">
         <v>31</v>
       </c>
@@ -16629,10 +16629,10 @@
       <c r="S60" s="8"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A61" s="294">
+      <c r="A61" s="297">
         <v>27</v>
       </c>
-      <c r="B61" s="291">
+      <c r="B61" s="294">
         <v>44091</v>
       </c>
       <c r="C61" s="21" t="s">
@@ -16661,8 +16661,8 @@
       <c r="S61" s="8"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A62" s="296"/>
-      <c r="B62" s="293"/>
+      <c r="A62" s="299"/>
+      <c r="B62" s="296"/>
       <c r="C62" s="21" t="s">
         <v>44</v>
       </c>
@@ -16721,10 +16721,10 @@
       <c r="S63" s="8"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A64" s="294">
+      <c r="A64" s="297">
         <v>29</v>
       </c>
-      <c r="B64" s="291">
+      <c r="B64" s="294">
         <v>44093</v>
       </c>
       <c r="C64" s="21" t="s">
@@ -16753,8 +16753,8 @@
       <c r="S64" s="8"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A65" s="296"/>
-      <c r="B65" s="293"/>
+      <c r="A65" s="299"/>
+      <c r="B65" s="296"/>
       <c r="C65" s="21" t="s">
         <v>18</v>
       </c>
@@ -16949,10 +16949,10 @@
       <c r="B71" s="28">
         <v>44101</v>
       </c>
-      <c r="C71" s="308" t="s">
+      <c r="C71" s="306" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="309"/>
+      <c r="D71" s="307"/>
       <c r="E71" s="26">
         <v>0</v>
       </c>
@@ -16977,10 +16977,10 @@
       <c r="S71" s="8"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A72" s="294">
+      <c r="A72" s="297">
         <v>37</v>
       </c>
-      <c r="B72" s="291">
+      <c r="B72" s="294">
         <v>44103</v>
       </c>
       <c r="C72" s="21" t="s">
@@ -17009,12 +17009,12 @@
       <c r="S72" s="8"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A73" s="296"/>
-      <c r="B73" s="293"/>
-      <c r="C73" s="308" t="s">
+      <c r="A73" s="299"/>
+      <c r="B73" s="296"/>
+      <c r="C73" s="306" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="309"/>
+      <c r="D73" s="307"/>
       <c r="E73" s="6">
         <v>100000</v>
       </c>
@@ -17071,12 +17071,12 @@
       <c r="S74" s="8"/>
     </row>
     <row r="75" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="299" t="s">
+      <c r="A75" s="290" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="299"/>
-      <c r="C75" s="299"/>
-      <c r="D75" s="300"/>
+      <c r="B75" s="290"/>
+      <c r="C75" s="290"/>
+      <c r="D75" s="291"/>
       <c r="E75" s="16">
         <f>SUM(E21:E74)</f>
         <v>132000</v>
@@ -17103,10 +17103,10 @@
       <c r="S75" s="8"/>
     </row>
     <row r="76" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="301"/>
-      <c r="B76" s="301"/>
-      <c r="C76" s="301"/>
-      <c r="D76" s="302"/>
+      <c r="A76" s="292"/>
+      <c r="B76" s="292"/>
+      <c r="C76" s="292"/>
+      <c r="D76" s="293"/>
       <c r="E76" s="17" t="s">
         <v>61</v>
       </c>
@@ -17151,18 +17151,18 @@
       <c r="S77" s="8"/>
     </row>
     <row r="78" spans="1:19" ht="27.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="297" t="s">
+      <c r="A78" s="303" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="298"/>
-      <c r="C78" s="298"/>
+      <c r="B78" s="304"/>
+      <c r="C78" s="304"/>
       <c r="D78" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E78" s="290" t="s">
+      <c r="E78" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="F78" s="290"/>
+      <c r="F78" s="305"/>
       <c r="G78" s="14">
         <f>G75</f>
         <v>137640</v>
@@ -17216,10 +17216,10 @@
       <c r="S79" s="8"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A80" s="294">
+      <c r="A80" s="297">
         <v>39</v>
       </c>
-      <c r="B80" s="291">
+      <c r="B80" s="294">
         <v>44105</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -17248,8 +17248,8 @@
       <c r="S80" s="8"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A81" s="295"/>
-      <c r="B81" s="292"/>
+      <c r="A81" s="298"/>
+      <c r="B81" s="295"/>
       <c r="C81" s="1" t="s">
         <v>70</v>
       </c>
@@ -17276,8 +17276,8 @@
       <c r="S81" s="8"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A82" s="295"/>
-      <c r="B82" s="292"/>
+      <c r="A82" s="298"/>
+      <c r="B82" s="295"/>
       <c r="C82" s="34" t="s">
         <v>76</v>
       </c>
@@ -17306,9 +17306,9 @@
       <c r="S82" s="8"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A83" s="295"/>
-      <c r="B83" s="292"/>
-      <c r="C83" s="310" t="s">
+      <c r="A83" s="298"/>
+      <c r="B83" s="295"/>
+      <c r="C83" s="300" t="s">
         <v>77</v>
       </c>
       <c r="D83" s="32" t="s">
@@ -17336,9 +17336,9 @@
       <c r="S83" s="8"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A84" s="295"/>
-      <c r="B84" s="292"/>
-      <c r="C84" s="311"/>
+      <c r="A84" s="298"/>
+      <c r="B84" s="295"/>
+      <c r="C84" s="301"/>
       <c r="D84" s="32" t="s">
         <v>71</v>
       </c>
@@ -17364,9 +17364,9 @@
       <c r="S84" s="8"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A85" s="295"/>
-      <c r="B85" s="292"/>
-      <c r="C85" s="311"/>
+      <c r="A85" s="298"/>
+      <c r="B85" s="295"/>
+      <c r="C85" s="301"/>
       <c r="D85" s="32" t="s">
         <v>73</v>
       </c>
@@ -17392,9 +17392,9 @@
       <c r="S85" s="8"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A86" s="296"/>
-      <c r="B86" s="293"/>
-      <c r="C86" s="312"/>
+      <c r="A86" s="299"/>
+      <c r="B86" s="296"/>
+      <c r="C86" s="302"/>
       <c r="D86" s="32" t="s">
         <v>74</v>
       </c>
@@ -17452,10 +17452,10 @@
       <c r="S87" s="8"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A88" s="294">
+      <c r="A88" s="297">
         <v>41</v>
       </c>
-      <c r="B88" s="291">
+      <c r="B88" s="294">
         <v>44108</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -17484,8 +17484,8 @@
       <c r="S88" s="8"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A89" s="296"/>
-      <c r="B89" s="293"/>
+      <c r="A89" s="299"/>
+      <c r="B89" s="296"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="4"/>
@@ -17574,10 +17574,10 @@
       <c r="S91" s="8"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A92" s="294">
+      <c r="A92" s="297">
         <v>44</v>
       </c>
-      <c r="B92" s="291">
+      <c r="B92" s="294">
         <v>44112</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -17606,8 +17606,8 @@
       <c r="S92" s="8"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A93" s="295"/>
-      <c r="B93" s="292"/>
+      <c r="A93" s="298"/>
+      <c r="B93" s="295"/>
       <c r="C93" s="1" t="s">
         <v>113</v>
       </c>
@@ -17634,8 +17634,8 @@
       <c r="S93" s="8"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A94" s="295"/>
-      <c r="B94" s="292"/>
+      <c r="A94" s="298"/>
+      <c r="B94" s="295"/>
       <c r="C94" s="1" t="s">
         <v>98</v>
       </c>
@@ -17664,8 +17664,8 @@
       <c r="S94" s="8"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A95" s="296"/>
-      <c r="B95" s="293"/>
+      <c r="A95" s="299"/>
+      <c r="B95" s="296"/>
       <c r="C95" s="1" t="s">
         <v>111</v>
       </c>
@@ -18124,12 +18124,12 @@
       <c r="S113" s="8"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A114" s="299" t="s">
+      <c r="A114" s="290" t="s">
         <v>57</v>
       </c>
-      <c r="B114" s="299"/>
-      <c r="C114" s="299"/>
-      <c r="D114" s="300"/>
+      <c r="B114" s="290"/>
+      <c r="C114" s="290"/>
+      <c r="D114" s="291"/>
       <c r="E114" s="16">
         <f>SUM(E80:E113)</f>
         <v>600000</v>
@@ -18156,10 +18156,10 @@
       <c r="S114" s="8"/>
     </row>
     <row r="115" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="301"/>
-      <c r="B115" s="301"/>
-      <c r="C115" s="301"/>
-      <c r="D115" s="302"/>
+      <c r="A115" s="292"/>
+      <c r="B115" s="292"/>
+      <c r="C115" s="292"/>
+      <c r="D115" s="293"/>
       <c r="E115" s="17" t="s">
         <v>61</v>
       </c>
@@ -21341,6 +21341,50 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C73:D73"/>
     <mergeCell ref="A114:D115"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="A38:A40"/>
@@ -21355,50 +21399,6 @@
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="B92:B95"/>
     <mergeCell ref="A92:A95"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A37"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="73" orientation="portrait" r:id="rId1"/>
@@ -24341,7 +24341,7 @@
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -24388,7 +24388,7 @@
         <v>179</v>
       </c>
       <c r="F3" s="72">
-        <v>5000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.5">
@@ -24403,7 +24403,7 @@
         <v>261</v>
       </c>
       <c r="F4" s="72">
-        <v>1800</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.5">
@@ -24427,7 +24427,7 @@
         <v>444</v>
       </c>
       <c r="F6" s="72">
-        <v>112000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.5">
@@ -24519,7 +24519,7 @@
       </c>
       <c r="I14" s="181">
         <f>C19-F19</f>
-        <v>52370</v>
+        <v>52570</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.5">
@@ -24575,7 +24575,7 @@
       </c>
       <c r="F19" s="253">
         <f>SUM(F2:F18)</f>
-        <v>1728800</v>
+        <v>1728600</v>
       </c>
       <c r="L19" s="72">
         <v>956</v>
@@ -31789,19 +31789,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="280" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="286"/>
-      <c r="G1" s="282" t="s">
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="282"/>
+      <c r="G1" s="279" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
+      <c r="H1" s="279"/>
+      <c r="I1" s="279"/>
+      <c r="J1" s="279"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -31823,18 +31823,18 @@
         <v>4</v>
       </c>
       <c r="F2" s="238"/>
-      <c r="G2" s="283" t="s">
+      <c r="G2" s="274" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
+      <c r="H2" s="274"/>
+      <c r="I2" s="274"/>
+      <c r="J2" s="274"/>
       <c r="K2" s="238"/>
       <c r="L2" s="238"/>
       <c r="M2" s="238"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A3" s="277">
+      <c r="A3" s="275">
         <v>1</v>
       </c>
       <c r="B3" s="211">
@@ -31846,7 +31846,7 @@
       <c r="D3" s="209">
         <v>30000</v>
       </c>
-      <c r="E3" s="275">
+      <c r="E3" s="277">
         <f>D4-D3</f>
         <v>-30000</v>
       </c>
@@ -31867,11 +31867,11 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A4" s="278"/>
+      <c r="A4" s="276"/>
       <c r="B4" s="213"/>
       <c r="C4" s="214"/>
       <c r="D4" s="210"/>
-      <c r="E4" s="276"/>
+      <c r="E4" s="278"/>
       <c r="G4" s="230">
         <v>1</v>
       </c>
@@ -31907,7 +31907,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A6" s="277">
+      <c r="A6" s="275">
         <v>2</v>
       </c>
       <c r="B6" s="211">
@@ -31919,7 +31919,7 @@
       <c r="D6" s="209">
         <v>5000</v>
       </c>
-      <c r="E6" s="275">
+      <c r="E6" s="277">
         <f>D7-D6</f>
         <v>-5000</v>
       </c>
@@ -31940,11 +31940,11 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A7" s="278"/>
+      <c r="A7" s="276"/>
       <c r="B7" s="213"/>
       <c r="C7" s="214"/>
       <c r="D7" s="210"/>
-      <c r="E7" s="276"/>
+      <c r="E7" s="278"/>
       <c r="G7" s="230">
         <v>3</v>
       </c>
@@ -31980,7 +31980,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A9" s="277">
+      <c r="A9" s="275">
         <v>4</v>
       </c>
       <c r="B9" s="211">
@@ -31992,7 +31992,7 @@
       <c r="D9" s="209">
         <v>3070</v>
       </c>
-      <c r="E9" s="275">
+      <c r="E9" s="277">
         <f>D10-D9</f>
         <v>-3070</v>
       </c>
@@ -32013,11 +32013,11 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A10" s="278"/>
+      <c r="A10" s="276"/>
       <c r="B10" s="213"/>
       <c r="C10" s="214"/>
       <c r="D10" s="210"/>
-      <c r="E10" s="276"/>
+      <c r="E10" s="278"/>
       <c r="G10" s="230">
         <v>5</v>
       </c>
@@ -32057,7 +32057,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A12" s="277">
+      <c r="A12" s="275">
         <v>5</v>
       </c>
       <c r="B12" s="211">
@@ -32069,7 +32069,7 @@
       <c r="D12" s="209">
         <v>5000</v>
       </c>
-      <c r="E12" s="275">
+      <c r="E12" s="277">
         <f>D13-D12</f>
         <v>-5000</v>
       </c>
@@ -32090,11 +32090,11 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A13" s="278"/>
+      <c r="A13" s="276"/>
       <c r="B13" s="213"/>
       <c r="C13" s="214"/>
       <c r="D13" s="210"/>
-      <c r="E13" s="276"/>
+      <c r="E13" s="278"/>
       <c r="G13" s="1"/>
       <c r="H13" s="233"/>
       <c r="I13" s="1"/>
@@ -32118,7 +32118,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A15" s="277">
+      <c r="A15" s="275">
         <v>6</v>
       </c>
       <c r="B15" s="211">
@@ -32130,7 +32130,7 @@
       <c r="D15" s="209">
         <v>5000</v>
       </c>
-      <c r="E15" s="275">
+      <c r="E15" s="277">
         <f>D16-D15</f>
         <v>-5000</v>
       </c>
@@ -32143,11 +32143,11 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A16" s="278"/>
+      <c r="A16" s="276"/>
       <c r="B16" s="213"/>
       <c r="C16" s="214"/>
       <c r="D16" s="210"/>
-      <c r="E16" s="276"/>
+      <c r="E16" s="278"/>
       <c r="G16" s="1"/>
       <c r="H16" s="234"/>
       <c r="I16" s="1"/>
@@ -32171,7 +32171,7 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A18" s="277">
+      <c r="A18" s="275">
         <v>7</v>
       </c>
       <c r="B18" s="211">
@@ -32183,7 +32183,7 @@
       <c r="D18" s="209">
         <v>5000</v>
       </c>
-      <c r="E18" s="275">
+      <c r="E18" s="277">
         <f>D19-D18</f>
         <v>-5000</v>
       </c>
@@ -32201,11 +32201,11 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A19" s="278"/>
+      <c r="A19" s="276"/>
       <c r="B19" s="213"/>
       <c r="C19" s="214"/>
       <c r="D19" s="210"/>
-      <c r="E19" s="276"/>
+      <c r="E19" s="278"/>
       <c r="G19" s="55"/>
       <c r="H19" s="236"/>
       <c r="I19" s="55"/>
@@ -32220,18 +32220,18 @@
       <c r="C20" s="8"/>
       <c r="D20" s="240"/>
       <c r="E20" s="242"/>
-      <c r="G20" s="283" t="s">
+      <c r="G20" s="274" t="s">
         <v>411</v>
       </c>
-      <c r="H20" s="283"/>
-      <c r="I20" s="283"/>
-      <c r="J20" s="283"/>
+      <c r="H20" s="274"/>
+      <c r="I20" s="274"/>
+      <c r="J20" s="274"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A21" s="277">
+      <c r="A21" s="275">
         <v>8</v>
       </c>
       <c r="B21" s="211">
@@ -32243,7 +32243,7 @@
       <c r="D21" s="209">
         <v>600</v>
       </c>
-      <c r="E21" s="275">
+      <c r="E21" s="277">
         <f>D22-D21</f>
         <v>-600</v>
       </c>
@@ -32264,11 +32264,11 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A22" s="278"/>
+      <c r="A22" s="276"/>
       <c r="B22" s="213"/>
       <c r="C22" s="214"/>
       <c r="D22" s="210"/>
-      <c r="E22" s="276"/>
+      <c r="E22" s="278"/>
       <c r="G22" s="231">
         <v>1</v>
       </c>
@@ -32308,7 +32308,7 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A24" s="277">
+      <c r="A24" s="275">
         <v>9</v>
       </c>
       <c r="B24" s="211">
@@ -32320,7 +32320,7 @@
       <c r="D24" s="209">
         <v>5000</v>
       </c>
-      <c r="E24" s="275">
+      <c r="E24" s="277">
         <f>D25-D24</f>
         <v>-5000</v>
       </c>
@@ -32333,11 +32333,11 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A25" s="278"/>
+      <c r="A25" s="276"/>
       <c r="B25" s="213"/>
       <c r="C25" s="214"/>
       <c r="D25" s="210"/>
-      <c r="E25" s="276"/>
+      <c r="E25" s="278"/>
       <c r="G25" s="231"/>
       <c r="H25" s="234"/>
       <c r="I25" s="1"/>
@@ -32361,7 +32361,7 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A27" s="277">
+      <c r="A27" s="275">
         <v>10</v>
       </c>
       <c r="B27" s="211">
@@ -32373,7 +32373,7 @@
       <c r="D27" s="209">
         <v>5000</v>
       </c>
-      <c r="E27" s="275">
+      <c r="E27" s="277">
         <f>D28-D27</f>
         <v>-5000</v>
       </c>
@@ -32386,11 +32386,11 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A28" s="278"/>
+      <c r="A28" s="276"/>
       <c r="B28" s="213"/>
       <c r="C28" s="214"/>
       <c r="D28" s="210"/>
-      <c r="E28" s="276"/>
+      <c r="E28" s="278"/>
       <c r="G28" s="231"/>
       <c r="H28" s="234"/>
       <c r="I28" s="1"/>
@@ -32414,7 +32414,7 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A30" s="277">
+      <c r="A30" s="275">
         <v>11</v>
       </c>
       <c r="B30" s="211">
@@ -32426,7 +32426,7 @@
       <c r="D30" s="209">
         <v>5000</v>
       </c>
-      <c r="E30" s="275">
+      <c r="E30" s="277">
         <f>D31-D30</f>
         <v>-5000</v>
       </c>
@@ -32439,11 +32439,11 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="278"/>
+      <c r="A31" s="276"/>
       <c r="B31" s="213"/>
       <c r="C31" s="214"/>
       <c r="D31" s="210"/>
-      <c r="E31" s="276"/>
+      <c r="E31" s="278"/>
       <c r="G31" s="1"/>
       <c r="H31" s="233"/>
       <c r="I31" s="1"/>
@@ -32467,13 +32467,13 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A33" s="277">
+      <c r="A33" s="275">
         <v>12</v>
       </c>
       <c r="B33" s="211"/>
       <c r="C33" s="212"/>
       <c r="D33" s="209"/>
-      <c r="E33" s="275">
+      <c r="E33" s="277">
         <f>D34-D33</f>
         <v>0</v>
       </c>
@@ -32486,11 +32486,11 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A34" s="278"/>
+      <c r="A34" s="276"/>
       <c r="B34" s="213"/>
       <c r="C34" s="214"/>
       <c r="D34" s="210"/>
-      <c r="E34" s="276"/>
+      <c r="E34" s="278"/>
       <c r="G34" s="1"/>
       <c r="H34" s="234"/>
       <c r="I34" s="1"/>
@@ -32514,13 +32514,13 @@
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A36" s="277">
+      <c r="A36" s="275">
         <v>13</v>
       </c>
       <c r="B36" s="211"/>
       <c r="C36" s="212"/>
       <c r="D36" s="209"/>
-      <c r="E36" s="275">
+      <c r="E36" s="277">
         <f>D37-D36</f>
         <v>0</v>
       </c>
@@ -32538,11 +32538,11 @@
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A37" s="278"/>
+      <c r="A37" s="276"/>
       <c r="B37" s="213"/>
       <c r="C37" s="214"/>
       <c r="D37" s="210"/>
-      <c r="E37" s="276"/>
+      <c r="E37" s="278"/>
       <c r="G37" s="8"/>
       <c r="H37" s="241"/>
       <c r="I37" s="8"/>
@@ -32566,13 +32566,13 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A39" s="277">
+      <c r="A39" s="275">
         <v>14</v>
       </c>
       <c r="B39" s="211"/>
       <c r="C39" s="212"/>
       <c r="D39" s="209"/>
-      <c r="E39" s="275">
+      <c r="E39" s="277">
         <f>D40-D39</f>
         <v>0</v>
       </c>
@@ -32585,11 +32585,11 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A40" s="278"/>
+      <c r="A40" s="276"/>
       <c r="B40" s="213"/>
       <c r="C40" s="214"/>
       <c r="D40" s="210"/>
-      <c r="E40" s="276"/>
+      <c r="E40" s="278"/>
       <c r="G40" s="8"/>
       <c r="H40" s="241"/>
       <c r="I40" s="8"/>
@@ -32613,13 +32613,13 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A42" s="277">
+      <c r="A42" s="275">
         <v>15</v>
       </c>
       <c r="B42" s="211"/>
       <c r="C42" s="212"/>
       <c r="D42" s="209"/>
-      <c r="E42" s="275">
+      <c r="E42" s="277">
         <f>D43-D42</f>
         <v>0</v>
       </c>
@@ -32632,11 +32632,11 @@
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A43" s="278"/>
+      <c r="A43" s="276"/>
       <c r="B43" s="213"/>
       <c r="C43" s="214"/>
       <c r="D43" s="210"/>
-      <c r="E43" s="276"/>
+      <c r="E43" s="278"/>
       <c r="G43" s="8"/>
       <c r="H43" s="241"/>
       <c r="I43" s="8"/>
@@ -32660,12 +32660,12 @@
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:13" ht="29.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="279" t="s">
+      <c r="A45" s="284" t="s">
         <v>412</v>
       </c>
-      <c r="B45" s="280"/>
-      <c r="C45" s="280"/>
-      <c r="D45" s="281"/>
+      <c r="B45" s="285"/>
+      <c r="C45" s="285"/>
+      <c r="D45" s="286"/>
       <c r="E45" s="219">
         <f>SUM(E3:E44)</f>
         <v>-68670</v>
@@ -32682,8 +32682,8 @@
       <c r="A46" s="79"/>
       <c r="B46" s="239"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="274"/>
-      <c r="E46" s="274"/>
+      <c r="D46" s="283"/>
+      <c r="E46" s="283"/>
       <c r="G46" s="8"/>
       <c r="H46" s="241"/>
       <c r="I46" s="8"/>
@@ -32868,17 +32868,15 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G18:I18"/>
@@ -32895,15 +32893,17 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35731,11 +35731,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A78:I78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="F71:H71"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="F39:I39"/>
     <mergeCell ref="A51:C51"/>
@@ -35751,11 +35751,11 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="F91:H91"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -39589,31 +39589,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A80:I80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="F31:H31"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="F41:I41"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="F55:H55"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="A80:I80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="F91:H91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Office Statement Expense & Expenditure.xlsx
+++ b/Office Statement Expense & Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Najeeb Associates\000FFICE\Office Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DE22BB-6E41-49E4-88A7-A3788C06556F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0941E80C-DC06-4100-8D64-5AC2C603EDF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="904" activeTab="15" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
   </bookViews>
@@ -204,8 +204,34 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Azan Laptop Store</author>
+  </authors>
+  <commentList>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{1020D6EC-431A-4CE8-A22E-FDEEA83BCE3F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mazhar Purchased per file 81k Total: 14,58,000/=
+The current market rate is 59k
+Total Amount comes to be: 10,62,000/=</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="452">
   <si>
     <t>Opning Balance</t>
   </si>
@@ -1546,6 +1572,21 @@
   </si>
   <si>
     <t>Sunny Goind Home - Gave me 209k + 3x 7 marla files yesterday</t>
+  </si>
+  <si>
+    <t>Tea For Guest</t>
+  </si>
+  <si>
+    <t>Received 18x BWC Files at G16 Home - Time 10:00 pm night</t>
+  </si>
+  <si>
+    <t>Received Cash from Mazhar with files</t>
+  </si>
+  <si>
+    <t>Mazhar gave cash</t>
+  </si>
+  <si>
+    <t>18x 7marla old files</t>
   </si>
 </sst>
 </file>
@@ -2228,7 +2269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2907,6 +2948,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3394,8 +3438,8 @@
   </sheetPr>
   <dimension ref="A1:N895"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView topLeftCell="A140" zoomScale="133" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3412,17 +3456,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="263" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="264"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="265"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -3430,19 +3474,19 @@
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="267"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="268"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="265" t="s">
+      <c r="F2" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="268"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -4168,21 +4212,21 @@
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="268" t="s">
+      <c r="A34" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="269"/>
-      <c r="C34" s="269"/>
+      <c r="B34" s="270"/>
+      <c r="C34" s="270"/>
       <c r="D34" s="44">
         <f>SUM(D4:D33)</f>
         <v>457640</v>
       </c>
       <c r="E34" s="50"/>
-      <c r="F34" s="268" t="s">
+      <c r="F34" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="269"/>
-      <c r="H34" s="270"/>
+      <c r="G34" s="270"/>
+      <c r="H34" s="271"/>
       <c r="I34" s="44">
         <f>SUM(I4:I33)</f>
         <v>175535</v>
@@ -4305,17 +4349,17 @@
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" ht="34.450000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="262" t="s">
+      <c r="A41" s="263" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="263"/>
-      <c r="C41" s="263"/>
-      <c r="D41" s="263"/>
-      <c r="E41" s="263"/>
-      <c r="F41" s="263"/>
-      <c r="G41" s="263"/>
-      <c r="H41" s="263"/>
-      <c r="I41" s="264"/>
+      <c r="B41" s="264"/>
+      <c r="C41" s="264"/>
+      <c r="D41" s="264"/>
+      <c r="E41" s="264"/>
+      <c r="F41" s="264"/>
+      <c r="G41" s="264"/>
+      <c r="H41" s="264"/>
+      <c r="I41" s="265"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4323,19 +4367,19 @@
       <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A42" s="265" t="s">
+      <c r="A42" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="266"/>
-      <c r="C42" s="266"/>
-      <c r="D42" s="267"/>
+      <c r="B42" s="267"/>
+      <c r="C42" s="267"/>
+      <c r="D42" s="268"/>
       <c r="E42" s="43"/>
-      <c r="F42" s="265" t="s">
+      <c r="F42" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G42" s="266"/>
-      <c r="H42" s="266"/>
-      <c r="I42" s="267"/>
+      <c r="G42" s="267"/>
+      <c r="H42" s="267"/>
+      <c r="I42" s="268"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -4664,21 +4708,21 @@
       <c r="N55" s="8"/>
     </row>
     <row r="56" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="268" t="s">
+      <c r="A56" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="269"/>
-      <c r="C56" s="269"/>
+      <c r="B56" s="270"/>
+      <c r="C56" s="270"/>
       <c r="D56" s="44">
         <f>SUM(D44:D55)</f>
         <v>302105</v>
       </c>
       <c r="E56" s="50"/>
-      <c r="F56" s="268" t="s">
+      <c r="F56" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="G56" s="269"/>
-      <c r="H56" s="270"/>
+      <c r="G56" s="270"/>
+      <c r="H56" s="271"/>
       <c r="I56" s="44">
         <f>SUM(I44:I55)</f>
         <v>8700</v>
@@ -4785,15 +4829,15 @@
       <c r="N61" s="8"/>
     </row>
     <row r="62" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="271"/>
-      <c r="B62" s="271"/>
-      <c r="C62" s="271"/>
-      <c r="D62" s="271"/>
-      <c r="E62" s="271"/>
-      <c r="F62" s="271"/>
-      <c r="G62" s="271"/>
-      <c r="H62" s="271"/>
-      <c r="I62" s="271"/>
+      <c r="A62" s="272"/>
+      <c r="B62" s="272"/>
+      <c r="C62" s="272"/>
+      <c r="D62" s="272"/>
+      <c r="E62" s="272"/>
+      <c r="F62" s="272"/>
+      <c r="G62" s="272"/>
+      <c r="H62" s="272"/>
+      <c r="I62" s="272"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
@@ -4801,17 +4845,17 @@
       <c r="N62" s="8"/>
     </row>
     <row r="63" spans="1:14" ht="34.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="262" t="s">
+      <c r="A63" s="263" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="263"/>
-      <c r="C63" s="263"/>
-      <c r="D63" s="263"/>
-      <c r="E63" s="263"/>
-      <c r="F63" s="263"/>
-      <c r="G63" s="263"/>
-      <c r="H63" s="263"/>
-      <c r="I63" s="264"/>
+      <c r="B63" s="264"/>
+      <c r="C63" s="264"/>
+      <c r="D63" s="264"/>
+      <c r="E63" s="264"/>
+      <c r="F63" s="264"/>
+      <c r="G63" s="264"/>
+      <c r="H63" s="264"/>
+      <c r="I63" s="265"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -4819,19 +4863,19 @@
       <c r="N63" s="8"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A64" s="265" t="s">
+      <c r="A64" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="266"/>
-      <c r="C64" s="266"/>
-      <c r="D64" s="267"/>
+      <c r="B64" s="267"/>
+      <c r="C64" s="267"/>
+      <c r="D64" s="268"/>
       <c r="E64" s="43"/>
-      <c r="F64" s="265" t="s">
+      <c r="F64" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G64" s="266"/>
-      <c r="H64" s="266"/>
-      <c r="I64" s="267"/>
+      <c r="G64" s="267"/>
+      <c r="H64" s="267"/>
+      <c r="I64" s="268"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
@@ -5192,21 +5236,21 @@
       <c r="N78" s="8"/>
     </row>
     <row r="79" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="268" t="s">
+      <c r="A79" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="B79" s="269"/>
-      <c r="C79" s="269"/>
+      <c r="B79" s="270"/>
+      <c r="C79" s="270"/>
       <c r="D79" s="44">
         <f>SUM(D66:D78)</f>
         <v>658405</v>
       </c>
       <c r="E79" s="50"/>
-      <c r="F79" s="268" t="s">
+      <c r="F79" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="G79" s="269"/>
-      <c r="H79" s="270"/>
+      <c r="G79" s="270"/>
+      <c r="H79" s="271"/>
       <c r="I79" s="44">
         <f>SUM(I66:I78)</f>
         <v>73560</v>
@@ -5329,17 +5373,17 @@
       <c r="N85" s="8"/>
     </row>
     <row r="86" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A86" s="262" t="s">
+      <c r="A86" s="263" t="s">
         <v>282</v>
       </c>
-      <c r="B86" s="263"/>
-      <c r="C86" s="263"/>
-      <c r="D86" s="263"/>
-      <c r="E86" s="263"/>
-      <c r="F86" s="263"/>
-      <c r="G86" s="263"/>
-      <c r="H86" s="263"/>
-      <c r="I86" s="264"/>
+      <c r="B86" s="264"/>
+      <c r="C86" s="264"/>
+      <c r="D86" s="264"/>
+      <c r="E86" s="264"/>
+      <c r="F86" s="264"/>
+      <c r="G86" s="264"/>
+      <c r="H86" s="264"/>
+      <c r="I86" s="265"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
@@ -5347,19 +5391,19 @@
       <c r="N86" s="8"/>
     </row>
     <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A87" s="265" t="s">
+      <c r="A87" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="266"/>
-      <c r="C87" s="266"/>
-      <c r="D87" s="267"/>
+      <c r="B87" s="267"/>
+      <c r="C87" s="267"/>
+      <c r="D87" s="268"/>
       <c r="E87" s="43"/>
-      <c r="F87" s="265" t="s">
+      <c r="F87" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G87" s="266"/>
-      <c r="H87" s="266"/>
-      <c r="I87" s="267"/>
+      <c r="G87" s="267"/>
+      <c r="H87" s="267"/>
+      <c r="I87" s="268"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
@@ -5798,21 +5842,21 @@
       <c r="N104" s="8"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A105" s="268" t="s">
+      <c r="A105" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="269"/>
-      <c r="C105" s="269"/>
+      <c r="B105" s="270"/>
+      <c r="C105" s="270"/>
       <c r="D105" s="44">
         <f>SUM(D89:D104)</f>
         <v>935345</v>
       </c>
       <c r="E105" s="50"/>
-      <c r="F105" s="268" t="s">
+      <c r="F105" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="G105" s="269"/>
-      <c r="H105" s="270"/>
+      <c r="G105" s="270"/>
+      <c r="H105" s="271"/>
       <c r="I105" s="44">
         <f>SUM(I89:I104)</f>
         <v>14647</v>
@@ -5935,17 +5979,17 @@
       <c r="N111" s="8"/>
     </row>
     <row r="112" spans="1:14" ht="29.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A112" s="262" t="s">
+      <c r="A112" s="263" t="s">
         <v>347</v>
       </c>
-      <c r="B112" s="263"/>
-      <c r="C112" s="263"/>
-      <c r="D112" s="263"/>
-      <c r="E112" s="263"/>
-      <c r="F112" s="263"/>
-      <c r="G112" s="263"/>
-      <c r="H112" s="263"/>
-      <c r="I112" s="264"/>
+      <c r="B112" s="264"/>
+      <c r="C112" s="264"/>
+      <c r="D112" s="264"/>
+      <c r="E112" s="264"/>
+      <c r="F112" s="264"/>
+      <c r="G112" s="264"/>
+      <c r="H112" s="264"/>
+      <c r="I112" s="265"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
@@ -5953,19 +5997,19 @@
       <c r="N112" s="8"/>
     </row>
     <row r="113" spans="1:14" ht="19.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A113" s="265" t="s">
+      <c r="A113" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B113" s="266"/>
-      <c r="C113" s="266"/>
-      <c r="D113" s="267"/>
+      <c r="B113" s="267"/>
+      <c r="C113" s="267"/>
+      <c r="D113" s="268"/>
       <c r="E113" s="43"/>
-      <c r="F113" s="265" t="s">
+      <c r="F113" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G113" s="266"/>
-      <c r="H113" s="266"/>
-      <c r="I113" s="267"/>
+      <c r="G113" s="267"/>
+      <c r="H113" s="267"/>
+      <c r="I113" s="268"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
@@ -6474,21 +6518,21 @@
       <c r="N132" s="8"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A133" s="268" t="s">
+      <c r="A133" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="269"/>
-      <c r="C133" s="269"/>
+      <c r="B133" s="270"/>
+      <c r="C133" s="270"/>
       <c r="D133" s="44">
         <f>SUM(D115:D132)</f>
         <v>1433998</v>
       </c>
       <c r="E133" s="50"/>
-      <c r="F133" s="268" t="s">
+      <c r="F133" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="G133" s="269"/>
-      <c r="H133" s="270"/>
+      <c r="G133" s="270"/>
+      <c r="H133" s="271"/>
       <c r="I133" s="44">
         <f>SUM(I115:I132)</f>
         <v>2100</v>
@@ -6611,17 +6655,17 @@
       <c r="N139" s="8"/>
     </row>
     <row r="140" spans="1:14" ht="36.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="262" t="s">
+      <c r="A140" s="263" t="s">
         <v>396</v>
       </c>
-      <c r="B140" s="263"/>
-      <c r="C140" s="263"/>
-      <c r="D140" s="263"/>
-      <c r="E140" s="263"/>
-      <c r="F140" s="263"/>
-      <c r="G140" s="263"/>
-      <c r="H140" s="263"/>
-      <c r="I140" s="264"/>
+      <c r="B140" s="264"/>
+      <c r="C140" s="264"/>
+      <c r="D140" s="264"/>
+      <c r="E140" s="264"/>
+      <c r="F140" s="264"/>
+      <c r="G140" s="264"/>
+      <c r="H140" s="264"/>
+      <c r="I140" s="265"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
@@ -6629,19 +6673,19 @@
       <c r="N140" s="8"/>
     </row>
     <row r="141" spans="1:14" ht="19.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A141" s="265" t="s">
+      <c r="A141" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B141" s="266"/>
-      <c r="C141" s="266"/>
-      <c r="D141" s="267"/>
+      <c r="B141" s="267"/>
+      <c r="C141" s="267"/>
+      <c r="D141" s="268"/>
       <c r="E141" s="43"/>
-      <c r="F141" s="265" t="s">
+      <c r="F141" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G141" s="266"/>
-      <c r="H141" s="266"/>
-      <c r="I141" s="267"/>
+      <c r="G141" s="267"/>
+      <c r="H141" s="267"/>
+      <c r="I141" s="268"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
@@ -6894,8 +6938,12 @@
       <c r="N149" s="8"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A150" s="226"/>
-      <c r="B150" s="39"/>
+      <c r="A150" s="226">
+        <v>6</v>
+      </c>
+      <c r="B150" s="39">
+        <v>44279</v>
+      </c>
       <c r="C150" s="1"/>
       <c r="D150" s="40"/>
       <c r="E150" s="38"/>
@@ -7121,10 +7169,18 @@
       <c r="C160" s="70"/>
       <c r="D160" s="71"/>
       <c r="E160" s="38"/>
-      <c r="F160" s="174"/>
-      <c r="G160" s="175"/>
-      <c r="H160" s="70"/>
-      <c r="I160" s="71"/>
+      <c r="F160" s="174">
+        <v>13</v>
+      </c>
+      <c r="G160" s="39">
+        <v>44278</v>
+      </c>
+      <c r="H160" s="70" t="s">
+        <v>447</v>
+      </c>
+      <c r="I160" s="71">
+        <v>120</v>
+      </c>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
@@ -7164,24 +7220,24 @@
       <c r="N162" s="8"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A163" s="268" t="s">
+      <c r="A163" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="B163" s="269"/>
-      <c r="C163" s="269"/>
+      <c r="B163" s="270"/>
+      <c r="C163" s="270"/>
       <c r="D163" s="44">
         <f>SUM(D143:D162)</f>
         <v>1449298</v>
       </c>
       <c r="E163" s="50"/>
-      <c r="F163" s="268" t="s">
+      <c r="F163" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="G163" s="269"/>
-      <c r="H163" s="270"/>
+      <c r="G163" s="270"/>
+      <c r="H163" s="271"/>
       <c r="I163" s="44">
         <f>SUM(I143:I162)</f>
-        <v>1699</v>
+        <v>1819</v>
       </c>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
@@ -7234,7 +7290,7 @@
       </c>
       <c r="D166" s="58">
         <f>I163</f>
-        <v>1699</v>
+        <v>1819</v>
       </c>
       <c r="E166" s="8"/>
       <c r="F166" s="53"/>
@@ -7271,7 +7327,7 @@
       </c>
       <c r="D168" s="62">
         <f>D165-D166</f>
-        <v>1447599</v>
+        <v>1447479</v>
       </c>
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
@@ -14803,18 +14859,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="304" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
       <c r="D1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="305" t="s">
+      <c r="E1" s="306" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="305"/>
+      <c r="F1" s="306"/>
       <c r="G1" s="14">
         <v>50000</v>
       </c>
@@ -14933,17 +14989,17 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A5" s="308">
+      <c r="A5" s="309">
         <v>3</v>
       </c>
-      <c r="B5" s="309">
+      <c r="B5" s="310">
         <v>44063</v>
       </c>
-      <c r="C5" s="310" t="s">
+      <c r="C5" s="311" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="311"/>
-      <c r="E5" s="312"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="313"/>
       <c r="F5" s="4">
         <v>11640</v>
       </c>
@@ -14965,11 +15021,11 @@
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A6" s="308"/>
-      <c r="B6" s="309"/>
-      <c r="C6" s="310"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="312"/>
+      <c r="A6" s="309"/>
+      <c r="B6" s="310"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="312"/>
+      <c r="E6" s="313"/>
       <c r="F6" s="4">
         <v>1700</v>
       </c>
@@ -14991,10 +15047,10 @@
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A7" s="308">
+      <c r="A7" s="309">
         <v>4</v>
       </c>
-      <c r="B7" s="309">
+      <c r="B7" s="310">
         <v>44064</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -15023,8 +15079,8 @@
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A8" s="308"/>
-      <c r="B8" s="309"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="310"/>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -15085,10 +15141,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A10" s="308">
+      <c r="A10" s="309">
         <v>6</v>
       </c>
-      <c r="B10" s="309">
+      <c r="B10" s="310">
         <v>44066</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -15117,8 +15173,8 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A11" s="308"/>
-      <c r="B11" s="309"/>
+      <c r="A11" s="309"/>
+      <c r="B11" s="310"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -15150,7 +15206,7 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="309">
+      <c r="B12" s="310">
         <v>44067</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -15182,7 +15238,7 @@
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="309"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
@@ -15275,12 +15331,12 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="290" t="s">
+      <c r="A16" s="291" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="290"/>
-      <c r="C16" s="290"/>
-      <c r="D16" s="291"/>
+      <c r="B16" s="291"/>
+      <c r="C16" s="291"/>
+      <c r="D16" s="292"/>
       <c r="E16" s="16">
         <f>SUM(E3:E15)</f>
         <v>0</v>
@@ -15307,10 +15363,10 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="292"/>
-      <c r="B17" s="292"/>
-      <c r="C17" s="292"/>
-      <c r="D17" s="293"/>
+      <c r="A17" s="293"/>
+      <c r="B17" s="293"/>
+      <c r="C17" s="293"/>
+      <c r="D17" s="294"/>
       <c r="E17" s="17" t="s">
         <v>61</v>
       </c>
@@ -15355,18 +15411,18 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" ht="29.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="303" t="s">
+      <c r="A19" s="304" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="304"/>
-      <c r="C19" s="304"/>
+      <c r="B19" s="305"/>
+      <c r="C19" s="305"/>
       <c r="D19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="305" t="s">
+      <c r="E19" s="306" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="305"/>
+      <c r="F19" s="306"/>
       <c r="G19" s="14">
         <v>31780</v>
       </c>
@@ -15451,10 +15507,10 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A22" s="297">
+      <c r="A22" s="298">
         <v>12</v>
       </c>
-      <c r="B22" s="294">
+      <c r="B22" s="295">
         <v>44076</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -15483,8 +15539,8 @@
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A23" s="298"/>
-      <c r="B23" s="295"/>
+      <c r="A23" s="299"/>
+      <c r="B23" s="296"/>
       <c r="C23" s="21" t="s">
         <v>21</v>
       </c>
@@ -15511,8 +15567,8 @@
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A24" s="299"/>
-      <c r="B24" s="296"/>
+      <c r="A24" s="300"/>
+      <c r="B24" s="297"/>
       <c r="C24" s="21" t="s">
         <v>22</v>
       </c>
@@ -15541,10 +15597,10 @@
       <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A25" s="297">
+      <c r="A25" s="298">
         <v>13</v>
       </c>
-      <c r="B25" s="294">
+      <c r="B25" s="295">
         <v>44077</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -15575,8 +15631,8 @@
       <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A26" s="299"/>
-      <c r="B26" s="296"/>
+      <c r="A26" s="300"/>
+      <c r="B26" s="297"/>
       <c r="C26" s="21" t="s">
         <v>26</v>
       </c>
@@ -15605,10 +15661,10 @@
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A27" s="297">
+      <c r="A27" s="298">
         <v>14</v>
       </c>
-      <c r="B27" s="294">
+      <c r="B27" s="295">
         <v>44078</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -15637,8 +15693,8 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A28" s="299"/>
-      <c r="B28" s="296"/>
+      <c r="A28" s="300"/>
+      <c r="B28" s="297"/>
       <c r="C28" s="21" t="s">
         <v>28</v>
       </c>
@@ -15667,10 +15723,10 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A29" s="297">
+      <c r="A29" s="298">
         <v>15</v>
       </c>
-      <c r="B29" s="294">
+      <c r="B29" s="295">
         <v>44079</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -15699,8 +15755,8 @@
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A30" s="298"/>
-      <c r="B30" s="295"/>
+      <c r="A30" s="299"/>
+      <c r="B30" s="296"/>
       <c r="C30" s="21" t="s">
         <v>30</v>
       </c>
@@ -15729,8 +15785,8 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A31" s="298"/>
-      <c r="B31" s="295"/>
+      <c r="A31" s="299"/>
+      <c r="B31" s="296"/>
       <c r="C31" s="21" t="s">
         <v>60</v>
       </c>
@@ -15757,8 +15813,8 @@
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A32" s="299"/>
-      <c r="B32" s="296"/>
+      <c r="A32" s="300"/>
+      <c r="B32" s="297"/>
       <c r="C32" s="23" t="s">
         <v>31</v>
       </c>
@@ -15785,10 +15841,10 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A33" s="297">
+      <c r="A33" s="298">
         <v>16</v>
       </c>
-      <c r="B33" s="294">
+      <c r="B33" s="295">
         <v>44080</v>
       </c>
       <c r="C33" s="21" t="s">
@@ -15819,8 +15875,8 @@
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A34" s="298"/>
-      <c r="B34" s="295"/>
+      <c r="A34" s="299"/>
+      <c r="B34" s="296"/>
       <c r="C34" s="21" t="s">
         <v>33</v>
       </c>
@@ -15849,8 +15905,8 @@
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A35" s="298"/>
-      <c r="B35" s="295"/>
+      <c r="A35" s="299"/>
+      <c r="B35" s="296"/>
       <c r="C35" s="21" t="s">
         <v>36</v>
       </c>
@@ -15879,8 +15935,8 @@
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A36" s="298"/>
-      <c r="B36" s="295"/>
+      <c r="A36" s="299"/>
+      <c r="B36" s="296"/>
       <c r="C36" s="21" t="s">
         <v>37</v>
       </c>
@@ -15909,8 +15965,8 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A37" s="299"/>
-      <c r="B37" s="296"/>
+      <c r="A37" s="300"/>
+      <c r="B37" s="297"/>
       <c r="C37" s="21" t="s">
         <v>39</v>
       </c>
@@ -15937,10 +15993,10 @@
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A38" s="297">
+      <c r="A38" s="298">
         <v>17</v>
       </c>
-      <c r="B38" s="294">
+      <c r="B38" s="295">
         <v>44081</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -15969,8 +16025,8 @@
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A39" s="298"/>
-      <c r="B39" s="295"/>
+      <c r="A39" s="299"/>
+      <c r="B39" s="296"/>
       <c r="C39" s="21" t="s">
         <v>28</v>
       </c>
@@ -15997,8 +16053,8 @@
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A40" s="299"/>
-      <c r="B40" s="296"/>
+      <c r="A40" s="300"/>
+      <c r="B40" s="297"/>
       <c r="C40" s="21" t="s">
         <v>40</v>
       </c>
@@ -16027,10 +16083,10 @@
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A41" s="297">
+      <c r="A41" s="298">
         <v>18</v>
       </c>
-      <c r="B41" s="294">
+      <c r="B41" s="295">
         <v>44082</v>
       </c>
       <c r="C41" s="21" t="s">
@@ -16059,8 +16115,8 @@
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A42" s="299"/>
-      <c r="B42" s="296"/>
+      <c r="A42" s="300"/>
+      <c r="B42" s="297"/>
       <c r="C42" s="21" t="s">
         <v>42</v>
       </c>
@@ -16087,10 +16143,10 @@
       <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A43" s="297">
+      <c r="A43" s="298">
         <v>19</v>
       </c>
-      <c r="B43" s="294">
+      <c r="B43" s="295">
         <v>44083</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -16119,8 +16175,8 @@
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A44" s="299"/>
-      <c r="B44" s="296"/>
+      <c r="A44" s="300"/>
+      <c r="B44" s="297"/>
       <c r="C44" s="21" t="s">
         <v>44</v>
       </c>
@@ -16147,10 +16203,10 @@
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A45" s="297">
+      <c r="A45" s="298">
         <v>20</v>
       </c>
-      <c r="B45" s="294">
+      <c r="B45" s="295">
         <v>44084</v>
       </c>
       <c r="C45" s="21" t="s">
@@ -16179,8 +16235,8 @@
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A46" s="299"/>
-      <c r="B46" s="296"/>
+      <c r="A46" s="300"/>
+      <c r="B46" s="297"/>
       <c r="C46" s="21" t="s">
         <v>45</v>
       </c>
@@ -16207,10 +16263,10 @@
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A47" s="297">
+      <c r="A47" s="298">
         <v>21</v>
       </c>
-      <c r="B47" s="294">
+      <c r="B47" s="295">
         <v>44085</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -16239,8 +16295,8 @@
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A48" s="298"/>
-      <c r="B48" s="295"/>
+      <c r="A48" s="299"/>
+      <c r="B48" s="296"/>
       <c r="C48" s="21" t="s">
         <v>46</v>
       </c>
@@ -16267,8 +16323,8 @@
       <c r="S48" s="8"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A49" s="298"/>
-      <c r="B49" s="295"/>
+      <c r="A49" s="299"/>
+      <c r="B49" s="296"/>
       <c r="C49" s="21" t="s">
         <v>47</v>
       </c>
@@ -16295,8 +16351,8 @@
       <c r="S49" s="8"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A50" s="298"/>
-      <c r="B50" s="295"/>
+      <c r="A50" s="299"/>
+      <c r="B50" s="296"/>
       <c r="C50" s="23" t="s">
         <v>31</v>
       </c>
@@ -16323,8 +16379,8 @@
       <c r="S50" s="8"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A51" s="299"/>
-      <c r="B51" s="296"/>
+      <c r="A51" s="300"/>
+      <c r="B51" s="297"/>
       <c r="C51" s="21" t="s">
         <v>44</v>
       </c>
@@ -16353,10 +16409,10 @@
       <c r="S51" s="8"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A52" s="297">
+      <c r="A52" s="298">
         <v>22</v>
       </c>
-      <c r="B52" s="294">
+      <c r="B52" s="295">
         <v>44086</v>
       </c>
       <c r="C52" s="21" t="s">
@@ -16387,8 +16443,8 @@
       <c r="S52" s="8"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A53" s="299"/>
-      <c r="B53" s="296"/>
+      <c r="A53" s="300"/>
+      <c r="B53" s="297"/>
       <c r="C53" s="21" t="s">
         <v>50</v>
       </c>
@@ -16415,10 +16471,10 @@
       <c r="S53" s="8"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A54" s="297">
+      <c r="A54" s="298">
         <v>23</v>
       </c>
-      <c r="B54" s="294">
+      <c r="B54" s="295">
         <v>44087</v>
       </c>
       <c r="C54" s="21" t="s">
@@ -16447,8 +16503,8 @@
       <c r="S54" s="8"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A55" s="298"/>
-      <c r="B55" s="295"/>
+      <c r="A55" s="299"/>
+      <c r="B55" s="296"/>
       <c r="C55" s="21" t="s">
         <v>28</v>
       </c>
@@ -16475,8 +16531,8 @@
       <c r="S55" s="8"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A56" s="298"/>
-      <c r="B56" s="295"/>
+      <c r="A56" s="299"/>
+      <c r="B56" s="296"/>
       <c r="C56" s="21" t="s">
         <v>51</v>
       </c>
@@ -16503,8 +16559,8 @@
       <c r="S56" s="8"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A57" s="298"/>
-      <c r="B57" s="295"/>
+      <c r="A57" s="299"/>
+      <c r="B57" s="296"/>
       <c r="C57" s="23" t="s">
         <v>31</v>
       </c>
@@ -16629,10 +16685,10 @@
       <c r="S60" s="8"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A61" s="297">
+      <c r="A61" s="298">
         <v>27</v>
       </c>
-      <c r="B61" s="294">
+      <c r="B61" s="295">
         <v>44091</v>
       </c>
       <c r="C61" s="21" t="s">
@@ -16661,8 +16717,8 @@
       <c r="S61" s="8"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A62" s="299"/>
-      <c r="B62" s="296"/>
+      <c r="A62" s="300"/>
+      <c r="B62" s="297"/>
       <c r="C62" s="21" t="s">
         <v>44</v>
       </c>
@@ -16721,10 +16777,10 @@
       <c r="S63" s="8"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A64" s="297">
+      <c r="A64" s="298">
         <v>29</v>
       </c>
-      <c r="B64" s="294">
+      <c r="B64" s="295">
         <v>44093</v>
       </c>
       <c r="C64" s="21" t="s">
@@ -16753,8 +16809,8 @@
       <c r="S64" s="8"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A65" s="299"/>
-      <c r="B65" s="296"/>
+      <c r="A65" s="300"/>
+      <c r="B65" s="297"/>
       <c r="C65" s="21" t="s">
         <v>18</v>
       </c>
@@ -16949,10 +17005,10 @@
       <c r="B71" s="28">
         <v>44101</v>
       </c>
-      <c r="C71" s="306" t="s">
+      <c r="C71" s="307" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="307"/>
+      <c r="D71" s="308"/>
       <c r="E71" s="26">
         <v>0</v>
       </c>
@@ -16977,10 +17033,10 @@
       <c r="S71" s="8"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A72" s="297">
+      <c r="A72" s="298">
         <v>37</v>
       </c>
-      <c r="B72" s="294">
+      <c r="B72" s="295">
         <v>44103</v>
       </c>
       <c r="C72" s="21" t="s">
@@ -17009,12 +17065,12 @@
       <c r="S72" s="8"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A73" s="299"/>
-      <c r="B73" s="296"/>
-      <c r="C73" s="306" t="s">
+      <c r="A73" s="300"/>
+      <c r="B73" s="297"/>
+      <c r="C73" s="307" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="307"/>
+      <c r="D73" s="308"/>
       <c r="E73" s="6">
         <v>100000</v>
       </c>
@@ -17071,12 +17127,12 @@
       <c r="S74" s="8"/>
     </row>
     <row r="75" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="290" t="s">
+      <c r="A75" s="291" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="290"/>
-      <c r="C75" s="290"/>
-      <c r="D75" s="291"/>
+      <c r="B75" s="291"/>
+      <c r="C75" s="291"/>
+      <c r="D75" s="292"/>
       <c r="E75" s="16">
         <f>SUM(E21:E74)</f>
         <v>132000</v>
@@ -17103,10 +17159,10 @@
       <c r="S75" s="8"/>
     </row>
     <row r="76" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="292"/>
-      <c r="B76" s="292"/>
-      <c r="C76" s="292"/>
-      <c r="D76" s="293"/>
+      <c r="A76" s="293"/>
+      <c r="B76" s="293"/>
+      <c r="C76" s="293"/>
+      <c r="D76" s="294"/>
       <c r="E76" s="17" t="s">
         <v>61</v>
       </c>
@@ -17151,18 +17207,18 @@
       <c r="S77" s="8"/>
     </row>
     <row r="78" spans="1:19" ht="27.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="303" t="s">
+      <c r="A78" s="304" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="304"/>
-      <c r="C78" s="304"/>
+      <c r="B78" s="305"/>
+      <c r="C78" s="305"/>
       <c r="D78" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E78" s="305" t="s">
+      <c r="E78" s="306" t="s">
         <v>0</v>
       </c>
-      <c r="F78" s="305"/>
+      <c r="F78" s="306"/>
       <c r="G78" s="14">
         <f>G75</f>
         <v>137640</v>
@@ -17216,10 +17272,10 @@
       <c r="S79" s="8"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A80" s="297">
+      <c r="A80" s="298">
         <v>39</v>
       </c>
-      <c r="B80" s="294">
+      <c r="B80" s="295">
         <v>44105</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -17248,8 +17304,8 @@
       <c r="S80" s="8"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A81" s="298"/>
-      <c r="B81" s="295"/>
+      <c r="A81" s="299"/>
+      <c r="B81" s="296"/>
       <c r="C81" s="1" t="s">
         <v>70</v>
       </c>
@@ -17276,8 +17332,8 @@
       <c r="S81" s="8"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A82" s="298"/>
-      <c r="B82" s="295"/>
+      <c r="A82" s="299"/>
+      <c r="B82" s="296"/>
       <c r="C82" s="34" t="s">
         <v>76</v>
       </c>
@@ -17306,9 +17362,9 @@
       <c r="S82" s="8"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A83" s="298"/>
-      <c r="B83" s="295"/>
-      <c r="C83" s="300" t="s">
+      <c r="A83" s="299"/>
+      <c r="B83" s="296"/>
+      <c r="C83" s="301" t="s">
         <v>77</v>
       </c>
       <c r="D83" s="32" t="s">
@@ -17336,9 +17392,9 @@
       <c r="S83" s="8"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A84" s="298"/>
-      <c r="B84" s="295"/>
-      <c r="C84" s="301"/>
+      <c r="A84" s="299"/>
+      <c r="B84" s="296"/>
+      <c r="C84" s="302"/>
       <c r="D84" s="32" t="s">
         <v>71</v>
       </c>
@@ -17364,9 +17420,9 @@
       <c r="S84" s="8"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A85" s="298"/>
-      <c r="B85" s="295"/>
-      <c r="C85" s="301"/>
+      <c r="A85" s="299"/>
+      <c r="B85" s="296"/>
+      <c r="C85" s="302"/>
       <c r="D85" s="32" t="s">
         <v>73</v>
       </c>
@@ -17392,9 +17448,9 @@
       <c r="S85" s="8"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A86" s="299"/>
-      <c r="B86" s="296"/>
-      <c r="C86" s="302"/>
+      <c r="A86" s="300"/>
+      <c r="B86" s="297"/>
+      <c r="C86" s="303"/>
       <c r="D86" s="32" t="s">
         <v>74</v>
       </c>
@@ -17452,10 +17508,10 @@
       <c r="S87" s="8"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A88" s="297">
+      <c r="A88" s="298">
         <v>41</v>
       </c>
-      <c r="B88" s="294">
+      <c r="B88" s="295">
         <v>44108</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -17484,8 +17540,8 @@
       <c r="S88" s="8"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A89" s="299"/>
-      <c r="B89" s="296"/>
+      <c r="A89" s="300"/>
+      <c r="B89" s="297"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="4"/>
@@ -17574,10 +17630,10 @@
       <c r="S91" s="8"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A92" s="297">
+      <c r="A92" s="298">
         <v>44</v>
       </c>
-      <c r="B92" s="294">
+      <c r="B92" s="295">
         <v>44112</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -17606,8 +17662,8 @@
       <c r="S92" s="8"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A93" s="298"/>
-      <c r="B93" s="295"/>
+      <c r="A93" s="299"/>
+      <c r="B93" s="296"/>
       <c r="C93" s="1" t="s">
         <v>113</v>
       </c>
@@ -17634,8 +17690,8 @@
       <c r="S93" s="8"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A94" s="298"/>
-      <c r="B94" s="295"/>
+      <c r="A94" s="299"/>
+      <c r="B94" s="296"/>
       <c r="C94" s="1" t="s">
         <v>98</v>
       </c>
@@ -17664,8 +17720,8 @@
       <c r="S94" s="8"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A95" s="299"/>
-      <c r="B95" s="296"/>
+      <c r="A95" s="300"/>
+      <c r="B95" s="297"/>
       <c r="C95" s="1" t="s">
         <v>111</v>
       </c>
@@ -18124,12 +18180,12 @@
       <c r="S113" s="8"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A114" s="290" t="s">
+      <c r="A114" s="291" t="s">
         <v>57</v>
       </c>
-      <c r="B114" s="290"/>
-      <c r="C114" s="290"/>
-      <c r="D114" s="291"/>
+      <c r="B114" s="291"/>
+      <c r="C114" s="291"/>
+      <c r="D114" s="292"/>
       <c r="E114" s="16">
         <f>SUM(E80:E113)</f>
         <v>600000</v>
@@ -18156,10 +18212,10 @@
       <c r="S114" s="8"/>
     </row>
     <row r="115" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="292"/>
-      <c r="B115" s="292"/>
-      <c r="C115" s="292"/>
-      <c r="D115" s="293"/>
+      <c r="A115" s="293"/>
+      <c r="B115" s="293"/>
+      <c r="C115" s="293"/>
+      <c r="D115" s="294"/>
       <c r="E115" s="17" t="s">
         <v>61</v>
       </c>
@@ -21423,12 +21479,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="314" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="146" t="s">
@@ -21670,7 +21726,7 @@
       <c r="A3" s="107">
         <v>1</v>
       </c>
-      <c r="B3" s="314">
+      <c r="B3" s="315">
         <v>44123</v>
       </c>
       <c r="C3" s="108"/>
@@ -21680,7 +21736,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="110"/>
-      <c r="B4" s="315"/>
+      <c r="B4" s="316"/>
       <c r="C4" s="111"/>
       <c r="D4" s="112" t="s">
         <v>202</v>
@@ -21688,7 +21744,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="110"/>
-      <c r="B5" s="315"/>
+      <c r="B5" s="316"/>
       <c r="C5" s="111"/>
       <c r="D5" s="113" t="s">
         <v>203</v>
@@ -21696,7 +21752,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="110"/>
-      <c r="B6" s="315"/>
+      <c r="B6" s="316"/>
       <c r="C6" s="111"/>
       <c r="D6" s="113" t="s">
         <v>204</v>
@@ -21704,7 +21760,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="110"/>
-      <c r="B7" s="315"/>
+      <c r="B7" s="316"/>
       <c r="C7" s="111"/>
       <c r="D7" s="113" t="s">
         <v>205</v>
@@ -21712,7 +21768,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="110"/>
-      <c r="B8" s="315"/>
+      <c r="B8" s="316"/>
       <c r="C8" s="111"/>
       <c r="D8" s="113" t="s">
         <v>206</v>
@@ -21720,7 +21776,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="110"/>
-      <c r="B9" s="315"/>
+      <c r="B9" s="316"/>
       <c r="C9" s="111"/>
       <c r="D9" s="113" t="s">
         <v>207</v>
@@ -21728,7 +21784,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="110"/>
-      <c r="B10" s="315"/>
+      <c r="B10" s="316"/>
       <c r="C10" s="111"/>
       <c r="D10" s="113" t="s">
         <v>208</v>
@@ -21736,7 +21792,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="110"/>
-      <c r="B11" s="315"/>
+      <c r="B11" s="316"/>
       <c r="C11" s="111"/>
       <c r="D11" s="113" t="s">
         <v>209</v>
@@ -21784,7 +21840,7 @@
       <c r="A17" s="121">
         <v>2</v>
       </c>
-      <c r="B17" s="316">
+      <c r="B17" s="317">
         <v>44124</v>
       </c>
       <c r="C17" s="108"/>
@@ -21794,7 +21850,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="123"/>
-      <c r="B18" s="316"/>
+      <c r="B18" s="317"/>
       <c r="C18" s="124"/>
       <c r="D18" s="125" t="s">
         <v>213</v>
@@ -21802,7 +21858,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="123"/>
-      <c r="B19" s="316"/>
+      <c r="B19" s="317"/>
       <c r="C19" s="124"/>
       <c r="D19" s="125" t="s">
         <v>214</v>
@@ -21810,7 +21866,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="123"/>
-      <c r="B20" s="316"/>
+      <c r="B20" s="317"/>
       <c r="C20" s="124"/>
       <c r="D20" s="125" t="s">
         <v>215</v>
@@ -21818,7 +21874,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="123"/>
-      <c r="B21" s="316"/>
+      <c r="B21" s="317"/>
       <c r="C21" s="124"/>
       <c r="D21" s="125" t="s">
         <v>205</v>
@@ -21826,7 +21882,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="123"/>
-      <c r="B22" s="316"/>
+      <c r="B22" s="317"/>
       <c r="C22" s="124"/>
       <c r="D22" s="125" t="s">
         <v>216</v>
@@ -21834,7 +21890,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="123"/>
-      <c r="B23" s="316"/>
+      <c r="B23" s="317"/>
       <c r="C23" s="124"/>
       <c r="D23" s="125" t="s">
         <v>217</v>
@@ -21842,7 +21898,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="123"/>
-      <c r="B24" s="316"/>
+      <c r="B24" s="317"/>
       <c r="C24" s="124"/>
       <c r="D24" s="125" t="s">
         <v>218</v>
@@ -21884,7 +21940,7 @@
       <c r="A29" s="121">
         <v>3</v>
       </c>
-      <c r="B29" s="317">
+      <c r="B29" s="318">
         <v>44126</v>
       </c>
       <c r="C29" s="108"/>
@@ -21894,7 +21950,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="123"/>
-      <c r="B30" s="316"/>
+      <c r="B30" s="317"/>
       <c r="C30" s="124"/>
       <c r="D30" s="125" t="s">
         <v>223</v>
@@ -21902,7 +21958,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="123"/>
-      <c r="B31" s="316"/>
+      <c r="B31" s="317"/>
       <c r="C31" s="124"/>
       <c r="D31" s="125" t="s">
         <v>224</v>
@@ -21910,7 +21966,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="123"/>
-      <c r="B32" s="316"/>
+      <c r="B32" s="317"/>
       <c r="C32" s="124"/>
       <c r="D32" s="125" t="s">
         <v>225</v>
@@ -21918,7 +21974,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="123"/>
-      <c r="B33" s="316"/>
+      <c r="B33" s="317"/>
       <c r="C33" s="124"/>
       <c r="D33" s="125" t="s">
         <v>226</v>
@@ -21926,7 +21982,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="123"/>
-      <c r="B34" s="316"/>
+      <c r="B34" s="317"/>
       <c r="C34" s="124"/>
       <c r="D34" s="125" t="s">
         <v>227</v>
@@ -21934,7 +21990,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="123"/>
-      <c r="B35" s="316"/>
+      <c r="B35" s="317"/>
       <c r="C35" s="124"/>
       <c r="D35" s="125" t="s">
         <v>228</v>
@@ -21950,43 +22006,43 @@
       <c r="A37" s="121">
         <v>3</v>
       </c>
-      <c r="B37" s="317"/>
+      <c r="B37" s="318"/>
       <c r="C37" s="108"/>
       <c r="D37" s="122"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="123"/>
-      <c r="B38" s="316"/>
+      <c r="B38" s="317"/>
       <c r="C38" s="124"/>
       <c r="D38" s="125"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="123"/>
-      <c r="B39" s="316"/>
+      <c r="B39" s="317"/>
       <c r="C39" s="124"/>
       <c r="D39" s="125"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="123"/>
-      <c r="B40" s="316"/>
+      <c r="B40" s="317"/>
       <c r="C40" s="124"/>
       <c r="D40" s="125"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="123"/>
-      <c r="B41" s="316"/>
+      <c r="B41" s="317"/>
       <c r="C41" s="124"/>
       <c r="D41" s="125"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="123"/>
-      <c r="B42" s="316"/>
+      <c r="B42" s="317"/>
       <c r="C42" s="124"/>
       <c r="D42" s="125"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="123"/>
-      <c r="B43" s="316"/>
+      <c r="B43" s="317"/>
       <c r="C43" s="124"/>
       <c r="D43" s="125"/>
     </row>
@@ -22091,36 +22147,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="263" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="264"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="265"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="267"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="268"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="265" t="s">
+      <c r="F2" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="268"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -22227,21 +22283,21 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="287" t="s">
+      <c r="A7" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="288"/>
-      <c r="C7" s="288"/>
+      <c r="B7" s="289"/>
+      <c r="C7" s="289"/>
       <c r="D7" s="44">
         <f>SUM(D4:D6)</f>
         <v>50000</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="287" t="s">
+      <c r="F7" s="288" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="288"/>
-      <c r="H7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="44">
         <f>SUM(I4:I6)</f>
         <v>50000</v>
@@ -22846,11 +22902,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9048F5A1-D0E4-4154-BAE0-2D93FAD46A94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9048F5A1-D0E4-4154-BAE0-2D93FAD46A94}">
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -22867,36 +22923,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="263" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="264"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="265"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="267"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="268"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="265" t="s">
+      <c r="F2" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="268"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -23149,10 +23205,18 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A11" s="74"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="40"/>
+      <c r="A11" s="262">
+        <v>8</v>
+      </c>
+      <c r="B11" s="39">
+        <v>44279</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D11" s="40">
+        <v>1062000</v>
+      </c>
       <c r="E11" s="38"/>
       <c r="F11" s="188">
         <v>8</v>
@@ -23174,7 +23238,9 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="D12" s="40"/>
       <c r="E12" s="38"/>
       <c r="F12" s="74">
@@ -23255,21 +23321,21 @@
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="287" t="s">
+      <c r="A17" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="288"/>
-      <c r="C17" s="288"/>
+      <c r="B17" s="289"/>
+      <c r="C17" s="289"/>
       <c r="D17" s="44">
         <f>SUM(D4:D16)</f>
-        <v>283000</v>
+        <v>1345000</v>
       </c>
       <c r="E17" s="50"/>
-      <c r="F17" s="287" t="s">
+      <c r="F17" s="288" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="288"/>
-      <c r="H17" s="289"/>
+      <c r="G17" s="289"/>
+      <c r="H17" s="290"/>
       <c r="I17" s="44">
         <f>SUM(I4:I16)</f>
         <v>283215</v>
@@ -23302,7 +23368,7 @@
       </c>
       <c r="D19" s="58">
         <f>D17</f>
-        <v>283000</v>
+        <v>1345000</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="53"/>
@@ -23357,7 +23423,7 @@
       </c>
       <c r="D22" s="62">
         <f>D19-D20</f>
-        <v>-215</v>
+        <v>1061785</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="53"/>
@@ -23870,6 +23936,7 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -24338,10 +24405,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8095CE61-3623-466A-A99B-F028ACAC31F9}">
-  <dimension ref="B2:O21"/>
+  <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -24349,34 +24416,40 @@
     <col min="2" max="2" width="13.703125" customWidth="1"/>
     <col min="3" max="3" width="10.9375" style="72" customWidth="1"/>
     <col min="4" max="4" width="12.5859375" customWidth="1"/>
-    <col min="5" max="5" width="10.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.52734375" style="72" customWidth="1"/>
+    <col min="5" max="5" width="16.76171875" customWidth="1"/>
+    <col min="6" max="6" width="13.703125" style="72" customWidth="1"/>
     <col min="7" max="7" width="4.46875" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="9.17578125" customWidth="1"/>
-    <col min="10" max="10" width="1.76171875" customWidth="1"/>
-    <col min="12" max="13" width="8.87890625" style="72"/>
-    <col min="14" max="14" width="11.8203125" customWidth="1"/>
-    <col min="15" max="15" width="8.9375" style="72"/>
+    <col min="10" max="10" width="8.9375" style="72"/>
+    <col min="11" max="12" width="8.87890625" style="72"/>
+    <col min="13" max="13" width="11.8203125" customWidth="1"/>
+    <col min="14" max="14" width="8.9375" style="72"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B2" s="84" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="179">
         <f>BOFC!D168</f>
-        <v>1447599</v>
+        <v>1447479</v>
       </c>
       <c r="E2" t="s">
         <v>311</v>
       </c>
       <c r="F2" s="72">
-        <v>745000</v>
+        <v>790000</v>
       </c>
       <c r="H2" s="72"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="I2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" s="72">
+        <v>1062000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B3" s="84" t="s">
         <v>307</v>
       </c>
@@ -24390,8 +24463,14 @@
       <c r="F3" s="72">
         <v>55000</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="I3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J3" s="72">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B4" s="84" t="s">
         <v>442</v>
       </c>
@@ -24403,10 +24482,10 @@
         <v>261</v>
       </c>
       <c r="F4" s="72">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>308</v>
       </c>
@@ -24414,8 +24493,12 @@
         <f>Jhangir!D19</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="J5" s="72">
+        <f>SUM(J2:J4)</f>
+        <v>1104000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>278</v>
       </c>
@@ -24427,10 +24510,10 @@
         <v>444</v>
       </c>
       <c r="F6" s="72">
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>305</v>
       </c>
@@ -24439,7 +24522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>306</v>
       </c>
@@ -24448,7 +24531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:14" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>274</v>
       </c>
@@ -24459,7 +24542,7 @@
       <c r="H9" s="180"/>
       <c r="I9" s="181"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
         <v>309</v>
       </c>
@@ -24467,9 +24550,14 @@
         <f>Kamil!D78</f>
         <v>0</v>
       </c>
-      <c r="K10" s="72"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="E10" t="s">
+        <v>451</v>
+      </c>
+      <c r="F10" s="72">
+        <v>1062000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>112</v>
       </c>
@@ -24477,12 +24565,15 @@
         <f>Shehzad!D23</f>
         <v>0</v>
       </c>
-      <c r="L11" s="72">
+      <c r="E11" t="s">
+        <v>450</v>
+      </c>
+      <c r="K11" s="72">
         <v>507</v>
       </c>
-      <c r="O11" s="179"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="N11" s="179"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>320</v>
       </c>
@@ -24490,39 +24581,39 @@
         <f>Kamil!D96</f>
         <v>0</v>
       </c>
-      <c r="K12" s="80" t="s">
+      <c r="J12" s="189" t="s">
         <v>369</v>
       </c>
-      <c r="L12" s="72">
+      <c r="K12" s="72">
         <v>493</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.5">
       <c r="E13" s="72"/>
-      <c r="K13" s="80" t="s">
+      <c r="J13" s="189" t="s">
         <v>369</v>
       </c>
-      <c r="L13" s="72">
+      <c r="K13" s="72">
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:14" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>175</v>
       </c>
       <c r="C14" s="72">
         <f>Mazhar!D22</f>
-        <v>-215</v>
+        <v>1061785</v>
       </c>
       <c r="H14" s="180" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="181">
         <f>C19-F19</f>
-        <v>52570</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.5">
+        <v>55050</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>121</v>
       </c>
@@ -24530,11 +24621,11 @@
         <f>Farooq!D12</f>
         <v>-3000</v>
       </c>
-      <c r="L15" s="72">
+      <c r="K15" s="72">
         <v>572</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>310</v>
       </c>
@@ -24543,7 +24634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B17" s="84" t="s">
         <v>307</v>
       </c>
@@ -24558,16 +24649,16 @@
         <v>865000</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.5">
       <c r="C18" s="243"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B19" s="252" t="s">
         <v>144</v>
       </c>
       <c r="C19" s="253">
         <f>SUM(C2:C18)</f>
-        <v>1781170</v>
+        <v>2843050</v>
       </c>
       <c r="D19" s="252"/>
       <c r="E19" s="252" t="s">
@@ -24575,16 +24666,16 @@
       </c>
       <c r="F19" s="253">
         <f>SUM(F2:F18)</f>
-        <v>1728600</v>
-      </c>
-      <c r="L19" s="72">
+        <v>2788000</v>
+      </c>
+      <c r="K19" s="72">
         <v>956</v>
       </c>
-      <c r="M19" s="72" t="s">
+      <c r="L19" s="72" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.5">
       <c r="C21" s="179"/>
       <c r="D21" s="179"/>
     </row>
@@ -24599,7 +24690,7 @@
   <dimension ref="E4:O19"/>
   <sheetViews>
     <sheetView topLeftCell="D2" zoomScale="122" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -24770,13 +24861,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="263" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -24784,13 +24875,13 @@
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="267"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="268"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -25012,11 +25103,11 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="268" t="s">
+      <c r="A18" s="269" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="269"/>
-      <c r="C18" s="269"/>
+      <c r="B18" s="270"/>
+      <c r="C18" s="270"/>
       <c r="D18" s="44">
         <f>SUM(D4:D17)</f>
         <v>182000</v>
@@ -25049,11 +25140,11 @@
       <c r="C20" s="224" t="s">
         <v>392</v>
       </c>
-      <c r="D20" s="273">
+      <c r="D20" s="274">
         <f>D18+E18</f>
         <v>196000</v>
       </c>
-      <c r="E20" s="273"/>
+      <c r="E20" s="274"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -25064,8 +25155,8 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="272"/>
-      <c r="E21" s="272"/>
+      <c r="D21" s="273"/>
+      <c r="E21" s="273"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -31789,19 +31880,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="281" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="282"/>
-      <c r="G1" s="279" t="s">
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="283"/>
+      <c r="G1" s="280" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="279"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -31823,18 +31914,18 @@
         <v>4</v>
       </c>
       <c r="F2" s="238"/>
-      <c r="G2" s="274" t="s">
+      <c r="G2" s="275" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="274"/>
-      <c r="I2" s="274"/>
-      <c r="J2" s="274"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
       <c r="K2" s="238"/>
       <c r="L2" s="238"/>
       <c r="M2" s="238"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A3" s="275">
+      <c r="A3" s="276">
         <v>1</v>
       </c>
       <c r="B3" s="211">
@@ -31846,7 +31937,7 @@
       <c r="D3" s="209">
         <v>30000</v>
       </c>
-      <c r="E3" s="277">
+      <c r="E3" s="278">
         <f>D4-D3</f>
         <v>-30000</v>
       </c>
@@ -31867,11 +31958,11 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A4" s="276"/>
+      <c r="A4" s="277"/>
       <c r="B4" s="213"/>
       <c r="C4" s="214"/>
       <c r="D4" s="210"/>
-      <c r="E4" s="278"/>
+      <c r="E4" s="279"/>
       <c r="G4" s="230">
         <v>1</v>
       </c>
@@ -31907,7 +31998,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A6" s="275">
+      <c r="A6" s="276">
         <v>2</v>
       </c>
       <c r="B6" s="211">
@@ -31919,7 +32010,7 @@
       <c r="D6" s="209">
         <v>5000</v>
       </c>
-      <c r="E6" s="277">
+      <c r="E6" s="278">
         <f>D7-D6</f>
         <v>-5000</v>
       </c>
@@ -31940,11 +32031,11 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A7" s="276"/>
+      <c r="A7" s="277"/>
       <c r="B7" s="213"/>
       <c r="C7" s="214"/>
       <c r="D7" s="210"/>
-      <c r="E7" s="278"/>
+      <c r="E7" s="279"/>
       <c r="G7" s="230">
         <v>3</v>
       </c>
@@ -31980,7 +32071,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A9" s="275">
+      <c r="A9" s="276">
         <v>4</v>
       </c>
       <c r="B9" s="211">
@@ -31992,7 +32083,7 @@
       <c r="D9" s="209">
         <v>3070</v>
       </c>
-      <c r="E9" s="277">
+      <c r="E9" s="278">
         <f>D10-D9</f>
         <v>-3070</v>
       </c>
@@ -32013,11 +32104,11 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A10" s="276"/>
+      <c r="A10" s="277"/>
       <c r="B10" s="213"/>
       <c r="C10" s="214"/>
       <c r="D10" s="210"/>
-      <c r="E10" s="278"/>
+      <c r="E10" s="279"/>
       <c r="G10" s="230">
         <v>5</v>
       </c>
@@ -32057,7 +32148,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A12" s="275">
+      <c r="A12" s="276">
         <v>5</v>
       </c>
       <c r="B12" s="211">
@@ -32069,7 +32160,7 @@
       <c r="D12" s="209">
         <v>5000</v>
       </c>
-      <c r="E12" s="277">
+      <c r="E12" s="278">
         <f>D13-D12</f>
         <v>-5000</v>
       </c>
@@ -32090,11 +32181,11 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A13" s="276"/>
+      <c r="A13" s="277"/>
       <c r="B13" s="213"/>
       <c r="C13" s="214"/>
       <c r="D13" s="210"/>
-      <c r="E13" s="278"/>
+      <c r="E13" s="279"/>
       <c r="G13" s="1"/>
       <c r="H13" s="233"/>
       <c r="I13" s="1"/>
@@ -32118,7 +32209,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A15" s="275">
+      <c r="A15" s="276">
         <v>6</v>
       </c>
       <c r="B15" s="211">
@@ -32130,7 +32221,7 @@
       <c r="D15" s="209">
         <v>5000</v>
       </c>
-      <c r="E15" s="277">
+      <c r="E15" s="278">
         <f>D16-D15</f>
         <v>-5000</v>
       </c>
@@ -32143,11 +32234,11 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A16" s="276"/>
+      <c r="A16" s="277"/>
       <c r="B16" s="213"/>
       <c r="C16" s="214"/>
       <c r="D16" s="210"/>
-      <c r="E16" s="278"/>
+      <c r="E16" s="279"/>
       <c r="G16" s="1"/>
       <c r="H16" s="234"/>
       <c r="I16" s="1"/>
@@ -32171,7 +32262,7 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A18" s="275">
+      <c r="A18" s="276">
         <v>7</v>
       </c>
       <c r="B18" s="211">
@@ -32183,15 +32274,15 @@
       <c r="D18" s="209">
         <v>5000</v>
       </c>
-      <c r="E18" s="277">
+      <c r="E18" s="278">
         <f>D19-D18</f>
         <v>-5000</v>
       </c>
-      <c r="G18" s="268" t="s">
+      <c r="G18" s="269" t="s">
         <v>144</v>
       </c>
-      <c r="H18" s="269"/>
-      <c r="I18" s="269"/>
+      <c r="H18" s="270"/>
+      <c r="I18" s="270"/>
       <c r="J18" s="44">
         <f>SUM(J4:J17)</f>
         <v>0</v>
@@ -32201,11 +32292,11 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A19" s="276"/>
+      <c r="A19" s="277"/>
       <c r="B19" s="213"/>
       <c r="C19" s="214"/>
       <c r="D19" s="210"/>
-      <c r="E19" s="278"/>
+      <c r="E19" s="279"/>
       <c r="G19" s="55"/>
       <c r="H19" s="236"/>
       <c r="I19" s="55"/>
@@ -32220,18 +32311,18 @@
       <c r="C20" s="8"/>
       <c r="D20" s="240"/>
       <c r="E20" s="242"/>
-      <c r="G20" s="274" t="s">
+      <c r="G20" s="275" t="s">
         <v>411</v>
       </c>
-      <c r="H20" s="274"/>
-      <c r="I20" s="274"/>
-      <c r="J20" s="274"/>
+      <c r="H20" s="275"/>
+      <c r="I20" s="275"/>
+      <c r="J20" s="275"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A21" s="275">
+      <c r="A21" s="276">
         <v>8</v>
       </c>
       <c r="B21" s="211">
@@ -32243,7 +32334,7 @@
       <c r="D21" s="209">
         <v>600</v>
       </c>
-      <c r="E21" s="277">
+      <c r="E21" s="278">
         <f>D22-D21</f>
         <v>-600</v>
       </c>
@@ -32264,11 +32355,11 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A22" s="276"/>
+      <c r="A22" s="277"/>
       <c r="B22" s="213"/>
       <c r="C22" s="214"/>
       <c r="D22" s="210"/>
-      <c r="E22" s="278"/>
+      <c r="E22" s="279"/>
       <c r="G22" s="231">
         <v>1</v>
       </c>
@@ -32308,7 +32399,7 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A24" s="275">
+      <c r="A24" s="276">
         <v>9</v>
       </c>
       <c r="B24" s="211">
@@ -32320,7 +32411,7 @@
       <c r="D24" s="209">
         <v>5000</v>
       </c>
-      <c r="E24" s="277">
+      <c r="E24" s="278">
         <f>D25-D24</f>
         <v>-5000</v>
       </c>
@@ -32333,11 +32424,11 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A25" s="276"/>
+      <c r="A25" s="277"/>
       <c r="B25" s="213"/>
       <c r="C25" s="214"/>
       <c r="D25" s="210"/>
-      <c r="E25" s="278"/>
+      <c r="E25" s="279"/>
       <c r="G25" s="231"/>
       <c r="H25" s="234"/>
       <c r="I25" s="1"/>
@@ -32361,7 +32452,7 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A27" s="275">
+      <c r="A27" s="276">
         <v>10</v>
       </c>
       <c r="B27" s="211">
@@ -32373,7 +32464,7 @@
       <c r="D27" s="209">
         <v>5000</v>
       </c>
-      <c r="E27" s="277">
+      <c r="E27" s="278">
         <f>D28-D27</f>
         <v>-5000</v>
       </c>
@@ -32386,11 +32477,11 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A28" s="276"/>
+      <c r="A28" s="277"/>
       <c r="B28" s="213"/>
       <c r="C28" s="214"/>
       <c r="D28" s="210"/>
-      <c r="E28" s="278"/>
+      <c r="E28" s="279"/>
       <c r="G28" s="231"/>
       <c r="H28" s="234"/>
       <c r="I28" s="1"/>
@@ -32414,7 +32505,7 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A30" s="275">
+      <c r="A30" s="276">
         <v>11</v>
       </c>
       <c r="B30" s="211">
@@ -32426,7 +32517,7 @@
       <c r="D30" s="209">
         <v>5000</v>
       </c>
-      <c r="E30" s="277">
+      <c r="E30" s="278">
         <f>D31-D30</f>
         <v>-5000</v>
       </c>
@@ -32439,11 +32530,11 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="276"/>
+      <c r="A31" s="277"/>
       <c r="B31" s="213"/>
       <c r="C31" s="214"/>
       <c r="D31" s="210"/>
-      <c r="E31" s="278"/>
+      <c r="E31" s="279"/>
       <c r="G31" s="1"/>
       <c r="H31" s="233"/>
       <c r="I31" s="1"/>
@@ -32467,13 +32558,13 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A33" s="275">
+      <c r="A33" s="276">
         <v>12</v>
       </c>
       <c r="B33" s="211"/>
       <c r="C33" s="212"/>
       <c r="D33" s="209"/>
-      <c r="E33" s="277">
+      <c r="E33" s="278">
         <f>D34-D33</f>
         <v>0</v>
       </c>
@@ -32486,11 +32577,11 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A34" s="276"/>
+      <c r="A34" s="277"/>
       <c r="B34" s="213"/>
       <c r="C34" s="214"/>
       <c r="D34" s="210"/>
-      <c r="E34" s="278"/>
+      <c r="E34" s="279"/>
       <c r="G34" s="1"/>
       <c r="H34" s="234"/>
       <c r="I34" s="1"/>
@@ -32514,21 +32605,21 @@
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A36" s="275">
+      <c r="A36" s="276">
         <v>13</v>
       </c>
       <c r="B36" s="211"/>
       <c r="C36" s="212"/>
       <c r="D36" s="209"/>
-      <c r="E36" s="277">
+      <c r="E36" s="278">
         <f>D37-D36</f>
         <v>0</v>
       </c>
-      <c r="G36" s="268" t="s">
+      <c r="G36" s="269" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="269"/>
-      <c r="I36" s="269"/>
+      <c r="H36" s="270"/>
+      <c r="I36" s="270"/>
       <c r="J36" s="44">
         <f>SUM(J22:J35)</f>
         <v>0</v>
@@ -32538,11 +32629,11 @@
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A37" s="276"/>
+      <c r="A37" s="277"/>
       <c r="B37" s="213"/>
       <c r="C37" s="214"/>
       <c r="D37" s="210"/>
-      <c r="E37" s="278"/>
+      <c r="E37" s="279"/>
       <c r="G37" s="8"/>
       <c r="H37" s="241"/>
       <c r="I37" s="8"/>
@@ -32566,13 +32657,13 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A39" s="275">
+      <c r="A39" s="276">
         <v>14</v>
       </c>
       <c r="B39" s="211"/>
       <c r="C39" s="212"/>
       <c r="D39" s="209"/>
-      <c r="E39" s="277">
+      <c r="E39" s="278">
         <f>D40-D39</f>
         <v>0</v>
       </c>
@@ -32585,11 +32676,11 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A40" s="276"/>
+      <c r="A40" s="277"/>
       <c r="B40" s="213"/>
       <c r="C40" s="214"/>
       <c r="D40" s="210"/>
-      <c r="E40" s="278"/>
+      <c r="E40" s="279"/>
       <c r="G40" s="8"/>
       <c r="H40" s="241"/>
       <c r="I40" s="8"/>
@@ -32613,13 +32704,13 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A42" s="275">
+      <c r="A42" s="276">
         <v>15</v>
       </c>
       <c r="B42" s="211"/>
       <c r="C42" s="212"/>
       <c r="D42" s="209"/>
-      <c r="E42" s="277">
+      <c r="E42" s="278">
         <f>D43-D42</f>
         <v>0</v>
       </c>
@@ -32632,11 +32723,11 @@
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A43" s="276"/>
+      <c r="A43" s="277"/>
       <c r="B43" s="213"/>
       <c r="C43" s="214"/>
       <c r="D43" s="210"/>
-      <c r="E43" s="278"/>
+      <c r="E43" s="279"/>
       <c r="G43" s="8"/>
       <c r="H43" s="241"/>
       <c r="I43" s="8"/>
@@ -32660,12 +32751,12 @@
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:13" ht="29.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="284" t="s">
+      <c r="A45" s="285" t="s">
         <v>412</v>
       </c>
-      <c r="B45" s="285"/>
-      <c r="C45" s="285"/>
-      <c r="D45" s="286"/>
+      <c r="B45" s="286"/>
+      <c r="C45" s="286"/>
+      <c r="D45" s="287"/>
       <c r="E45" s="219">
         <f>SUM(E3:E44)</f>
         <v>-68670</v>
@@ -32682,8 +32773,8 @@
       <c r="A46" s="79"/>
       <c r="B46" s="239"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="283"/>
-      <c r="E46" s="283"/>
+      <c r="D46" s="284"/>
+      <c r="E46" s="284"/>
       <c r="G46" s="8"/>
       <c r="H46" s="241"/>
       <c r="I46" s="8"/>
@@ -32933,36 +33024,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="263" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="264"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="265"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="267"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="268"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="265" t="s">
+      <c r="F2" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="268"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -33191,21 +33282,21 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="268" t="s">
+      <c r="A11" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="269"/>
-      <c r="C11" s="269"/>
+      <c r="B11" s="270"/>
+      <c r="C11" s="270"/>
       <c r="D11" s="44">
         <f>SUM(D4:D10)</f>
         <v>371000</v>
       </c>
       <c r="E11" s="50"/>
-      <c r="F11" s="268" t="s">
+      <c r="F11" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="269"/>
-      <c r="H11" s="270"/>
+      <c r="G11" s="270"/>
+      <c r="H11" s="271"/>
       <c r="I11" s="44">
         <f>SUM(I4:I10)</f>
         <v>365000</v>
@@ -33321,36 +33412,36 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="33.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="262" t="s">
+      <c r="A18" s="263" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="263"/>
-      <c r="C18" s="263"/>
-      <c r="D18" s="263"/>
-      <c r="E18" s="263"/>
-      <c r="F18" s="263"/>
-      <c r="G18" s="263"/>
-      <c r="H18" s="263"/>
-      <c r="I18" s="264"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="264"/>
+      <c r="H18" s="264"/>
+      <c r="I18" s="265"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A19" s="265" t="s">
+      <c r="A19" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="266"/>
-      <c r="C19" s="266"/>
-      <c r="D19" s="267"/>
+      <c r="B19" s="267"/>
+      <c r="C19" s="267"/>
+      <c r="D19" s="268"/>
       <c r="E19" s="43"/>
-      <c r="F19" s="265" t="s">
+      <c r="F19" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="266"/>
-      <c r="H19" s="266"/>
-      <c r="I19" s="267"/>
+      <c r="G19" s="267"/>
+      <c r="H19" s="267"/>
+      <c r="I19" s="268"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -33629,21 +33720,21 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="268" t="s">
+      <c r="A31" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="269"/>
-      <c r="C31" s="269"/>
+      <c r="B31" s="270"/>
+      <c r="C31" s="270"/>
       <c r="D31" s="44">
         <f>SUM(D21:D30)</f>
         <v>163560</v>
       </c>
       <c r="E31" s="50"/>
-      <c r="F31" s="268" t="s">
+      <c r="F31" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="269"/>
-      <c r="H31" s="270"/>
+      <c r="G31" s="270"/>
+      <c r="H31" s="271"/>
       <c r="I31" s="44">
         <f>SUM(I21:I30)</f>
         <v>225060</v>
@@ -33758,36 +33849,36 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" ht="30.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="262" t="s">
+      <c r="A38" s="263" t="s">
         <v>185</v>
       </c>
-      <c r="B38" s="263"/>
-      <c r="C38" s="263"/>
-      <c r="D38" s="263"/>
-      <c r="E38" s="263"/>
-      <c r="F38" s="263"/>
-      <c r="G38" s="263"/>
-      <c r="H38" s="263"/>
-      <c r="I38" s="264"/>
+      <c r="B38" s="264"/>
+      <c r="C38" s="264"/>
+      <c r="D38" s="264"/>
+      <c r="E38" s="264"/>
+      <c r="F38" s="264"/>
+      <c r="G38" s="264"/>
+      <c r="H38" s="264"/>
+      <c r="I38" s="265"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A39" s="265" t="s">
+      <c r="A39" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="266"/>
-      <c r="C39" s="266"/>
-      <c r="D39" s="267"/>
+      <c r="B39" s="267"/>
+      <c r="C39" s="267"/>
+      <c r="D39" s="268"/>
       <c r="E39" s="43"/>
-      <c r="F39" s="265" t="s">
+      <c r="F39" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G39" s="266"/>
-      <c r="H39" s="266"/>
-      <c r="I39" s="267"/>
+      <c r="G39" s="267"/>
+      <c r="H39" s="267"/>
+      <c r="I39" s="268"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -34066,21 +34157,21 @@
       <c r="M50" s="8"/>
     </row>
     <row r="51" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="268" t="s">
+      <c r="A51" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="269"/>
-      <c r="C51" s="269"/>
+      <c r="B51" s="270"/>
+      <c r="C51" s="270"/>
       <c r="D51" s="44">
         <f>SUM(D41:D50)</f>
         <v>266150</v>
       </c>
       <c r="E51" s="50"/>
-      <c r="F51" s="268" t="s">
+      <c r="F51" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="G51" s="269"/>
-      <c r="H51" s="270"/>
+      <c r="G51" s="270"/>
+      <c r="H51" s="271"/>
       <c r="I51" s="44">
         <f>SUM(I41:I50)</f>
         <v>7850</v>
@@ -34196,36 +34287,36 @@
       <c r="M57" s="8"/>
     </row>
     <row r="58" spans="1:13" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="262" t="s">
+      <c r="A58" s="263" t="s">
         <v>282</v>
       </c>
-      <c r="B58" s="263"/>
-      <c r="C58" s="263"/>
-      <c r="D58" s="263"/>
-      <c r="E58" s="263"/>
-      <c r="F58" s="263"/>
-      <c r="G58" s="263"/>
-      <c r="H58" s="263"/>
-      <c r="I58" s="264"/>
+      <c r="B58" s="264"/>
+      <c r="C58" s="264"/>
+      <c r="D58" s="264"/>
+      <c r="E58" s="264"/>
+      <c r="F58" s="264"/>
+      <c r="G58" s="264"/>
+      <c r="H58" s="264"/>
+      <c r="I58" s="265"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A59" s="265" t="s">
+      <c r="A59" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="266"/>
-      <c r="C59" s="266"/>
-      <c r="D59" s="267"/>
+      <c r="B59" s="267"/>
+      <c r="C59" s="267"/>
+      <c r="D59" s="268"/>
       <c r="E59" s="43"/>
-      <c r="F59" s="265" t="s">
+      <c r="F59" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G59" s="266"/>
-      <c r="H59" s="266"/>
-      <c r="I59" s="267"/>
+      <c r="G59" s="267"/>
+      <c r="H59" s="267"/>
+      <c r="I59" s="268"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
@@ -34484,21 +34575,21 @@
       <c r="M70" s="8"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A71" s="268" t="s">
+      <c r="A71" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="269"/>
-      <c r="C71" s="269"/>
+      <c r="B71" s="270"/>
+      <c r="C71" s="270"/>
       <c r="D71" s="44">
         <f>SUM(D61:D70)</f>
         <v>288300</v>
       </c>
       <c r="E71" s="50"/>
-      <c r="F71" s="268" t="s">
+      <c r="F71" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="G71" s="269"/>
-      <c r="H71" s="270"/>
+      <c r="G71" s="270"/>
+      <c r="H71" s="271"/>
       <c r="I71" s="44">
         <f>SUM(I61:I70)</f>
         <v>48344</v>
@@ -34614,36 +34705,36 @@
       <c r="M77" s="8"/>
     </row>
     <row r="78" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="262" t="s">
+      <c r="A78" s="263" t="s">
         <v>347</v>
       </c>
-      <c r="B78" s="263"/>
-      <c r="C78" s="263"/>
-      <c r="D78" s="263"/>
-      <c r="E78" s="263"/>
-      <c r="F78" s="263"/>
-      <c r="G78" s="263"/>
-      <c r="H78" s="263"/>
-      <c r="I78" s="264"/>
+      <c r="B78" s="264"/>
+      <c r="C78" s="264"/>
+      <c r="D78" s="264"/>
+      <c r="E78" s="264"/>
+      <c r="F78" s="264"/>
+      <c r="G78" s="264"/>
+      <c r="H78" s="264"/>
+      <c r="I78" s="265"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
     </row>
     <row r="79" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="265" t="s">
+      <c r="A79" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="266"/>
-      <c r="C79" s="266"/>
-      <c r="D79" s="267"/>
+      <c r="B79" s="267"/>
+      <c r="C79" s="267"/>
+      <c r="D79" s="268"/>
       <c r="E79" s="43"/>
-      <c r="F79" s="265" t="s">
+      <c r="F79" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G79" s="266"/>
-      <c r="H79" s="266"/>
-      <c r="I79" s="267"/>
+      <c r="G79" s="267"/>
+      <c r="H79" s="267"/>
+      <c r="I79" s="268"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
@@ -34850,21 +34941,21 @@
       <c r="M90" s="8"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A91" s="268" t="s">
+      <c r="A91" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="269"/>
-      <c r="C91" s="269"/>
+      <c r="B91" s="270"/>
+      <c r="C91" s="270"/>
       <c r="D91" s="44">
         <f>SUM(D81:D90)</f>
         <v>239956</v>
       </c>
       <c r="E91" s="50"/>
-      <c r="F91" s="268" t="s">
+      <c r="F91" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="G91" s="269"/>
-      <c r="H91" s="270"/>
+      <c r="G91" s="270"/>
+      <c r="H91" s="271"/>
       <c r="I91" s="44">
         <f>SUM(I81:I90)</f>
         <v>239500</v>
@@ -35784,36 +35875,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="263" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="264"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="265"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="267"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="268"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="265" t="s">
+      <c r="F2" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="268"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -36204,21 +36295,21 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="287" t="s">
+      <c r="A19" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="288"/>
-      <c r="C19" s="288"/>
+      <c r="B19" s="289"/>
+      <c r="C19" s="289"/>
       <c r="D19" s="44">
         <f>SUM(D4:D18)</f>
         <v>717500</v>
       </c>
       <c r="E19" s="50"/>
-      <c r="F19" s="287" t="s">
+      <c r="F19" s="288" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="288"/>
-      <c r="H19" s="289"/>
+      <c r="G19" s="289"/>
+      <c r="H19" s="290"/>
       <c r="I19" s="44">
         <f>SUM(I4:I18)</f>
         <v>508500</v>
@@ -36844,36 +36935,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="263" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="264"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="265"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="267"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="268"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="265" t="s">
+      <c r="F2" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="268"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -37093,21 +37184,21 @@
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="287" t="s">
+      <c r="A14" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="288"/>
-      <c r="C14" s="288"/>
+      <c r="B14" s="289"/>
+      <c r="C14" s="289"/>
       <c r="D14" s="44">
         <f>SUM(D4:D13)</f>
         <v>120000</v>
       </c>
       <c r="E14" s="50"/>
-      <c r="F14" s="287" t="s">
+      <c r="F14" s="288" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="288"/>
-      <c r="H14" s="289"/>
+      <c r="G14" s="289"/>
+      <c r="H14" s="290"/>
       <c r="I14" s="44">
         <f>SUM(I4:I13)</f>
         <v>120000</v>
@@ -37732,36 +37823,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="263" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="264"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="265"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="267"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="268"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="265" t="s">
+      <c r="F2" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="268"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -37966,21 +38057,21 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="287" t="s">
+      <c r="A13" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="288"/>
-      <c r="C13" s="288"/>
+      <c r="B13" s="289"/>
+      <c r="C13" s="289"/>
       <c r="D13" s="44">
         <f>SUM(D4:D12)</f>
         <v>260000</v>
       </c>
       <c r="E13" s="50"/>
-      <c r="F13" s="287" t="s">
+      <c r="F13" s="288" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="288"/>
-      <c r="H13" s="289"/>
+      <c r="G13" s="289"/>
+      <c r="H13" s="290"/>
       <c r="I13" s="44">
         <f>SUM(I4:I12)</f>
         <v>260000</v>
@@ -38096,36 +38187,36 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="262" t="s">
+      <c r="A20" s="263" t="s">
         <v>265</v>
       </c>
-      <c r="B20" s="263"/>
-      <c r="C20" s="263"/>
-      <c r="D20" s="263"/>
-      <c r="E20" s="263"/>
-      <c r="F20" s="263"/>
-      <c r="G20" s="263"/>
-      <c r="H20" s="263"/>
-      <c r="I20" s="264"/>
+      <c r="B20" s="264"/>
+      <c r="C20" s="264"/>
+      <c r="D20" s="264"/>
+      <c r="E20" s="264"/>
+      <c r="F20" s="264"/>
+      <c r="G20" s="264"/>
+      <c r="H20" s="264"/>
+      <c r="I20" s="265"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A21" s="265" t="s">
+      <c r="A21" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="266"/>
-      <c r="C21" s="266"/>
-      <c r="D21" s="267"/>
+      <c r="B21" s="267"/>
+      <c r="C21" s="267"/>
+      <c r="D21" s="268"/>
       <c r="E21" s="43"/>
-      <c r="F21" s="265" t="s">
+      <c r="F21" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="266"/>
-      <c r="H21" s="266"/>
-      <c r="I21" s="267"/>
+      <c r="G21" s="267"/>
+      <c r="H21" s="267"/>
+      <c r="I21" s="268"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -38341,21 +38432,21 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="287" t="s">
+      <c r="A31" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="288"/>
-      <c r="C31" s="288"/>
+      <c r="B31" s="289"/>
+      <c r="C31" s="289"/>
       <c r="D31" s="44">
         <f>SUM(D23:D30)</f>
         <v>413000</v>
       </c>
       <c r="E31" s="50"/>
-      <c r="F31" s="287" t="s">
+      <c r="F31" s="288" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="288"/>
-      <c r="H31" s="289"/>
+      <c r="G31" s="289"/>
+      <c r="H31" s="290"/>
       <c r="I31" s="44">
         <f>SUM(I23:I30)</f>
         <v>413000</v>
@@ -38500,36 +38591,36 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="262" t="s">
+      <c r="A40" s="263" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="263"/>
-      <c r="C40" s="263"/>
-      <c r="D40" s="263"/>
-      <c r="E40" s="263"/>
-      <c r="F40" s="263"/>
-      <c r="G40" s="263"/>
-      <c r="H40" s="263"/>
-      <c r="I40" s="264"/>
+      <c r="B40" s="264"/>
+      <c r="C40" s="264"/>
+      <c r="D40" s="264"/>
+      <c r="E40" s="264"/>
+      <c r="F40" s="264"/>
+      <c r="G40" s="264"/>
+      <c r="H40" s="264"/>
+      <c r="I40" s="265"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A41" s="265" t="s">
+      <c r="A41" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="266"/>
-      <c r="C41" s="266"/>
-      <c r="D41" s="267"/>
+      <c r="B41" s="267"/>
+      <c r="C41" s="267"/>
+      <c r="D41" s="268"/>
       <c r="E41" s="43"/>
-      <c r="F41" s="265" t="s">
+      <c r="F41" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G41" s="266"/>
-      <c r="H41" s="266"/>
-      <c r="I41" s="267"/>
+      <c r="G41" s="267"/>
+      <c r="H41" s="267"/>
+      <c r="I41" s="268"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -38795,21 +38886,21 @@
       <c r="M54" s="8"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A55" s="287" t="s">
+      <c r="A55" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="288"/>
-      <c r="C55" s="288"/>
+      <c r="B55" s="289"/>
+      <c r="C55" s="289"/>
       <c r="D55" s="44">
         <f>SUM(D43:D54)</f>
         <v>1203500</v>
       </c>
       <c r="E55" s="50"/>
-      <c r="F55" s="287" t="s">
+      <c r="F55" s="288" t="s">
         <v>105</v>
       </c>
-      <c r="G55" s="288"/>
-      <c r="H55" s="289"/>
+      <c r="G55" s="289"/>
+      <c r="H55" s="290"/>
       <c r="I55" s="44">
         <f>SUM(I43:I54)</f>
         <v>1203500</v>
@@ -38925,36 +39016,36 @@
       <c r="M61" s="8"/>
     </row>
     <row r="62" spans="1:13" ht="35.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="262" t="s">
+      <c r="A62" s="263" t="s">
         <v>292</v>
       </c>
-      <c r="B62" s="263"/>
-      <c r="C62" s="263"/>
-      <c r="D62" s="263"/>
-      <c r="E62" s="263"/>
-      <c r="F62" s="263"/>
-      <c r="G62" s="263"/>
-      <c r="H62" s="263"/>
-      <c r="I62" s="264"/>
+      <c r="B62" s="264"/>
+      <c r="C62" s="264"/>
+      <c r="D62" s="264"/>
+      <c r="E62" s="264"/>
+      <c r="F62" s="264"/>
+      <c r="G62" s="264"/>
+      <c r="H62" s="264"/>
+      <c r="I62" s="265"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A63" s="265" t="s">
+      <c r="A63" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="266"/>
-      <c r="C63" s="266"/>
-      <c r="D63" s="267"/>
+      <c r="B63" s="267"/>
+      <c r="C63" s="267"/>
+      <c r="D63" s="268"/>
       <c r="E63" s="43"/>
-      <c r="F63" s="265" t="s">
+      <c r="F63" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G63" s="266"/>
-      <c r="H63" s="266"/>
-      <c r="I63" s="267"/>
+      <c r="G63" s="267"/>
+      <c r="H63" s="267"/>
+      <c r="I63" s="268"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -39144,21 +39235,21 @@
       <c r="M72" s="8"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A73" s="287" t="s">
+      <c r="A73" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="288"/>
-      <c r="C73" s="288"/>
+      <c r="B73" s="289"/>
+      <c r="C73" s="289"/>
       <c r="D73" s="44">
         <f>SUM(D65:D72)</f>
         <v>103500</v>
       </c>
       <c r="E73" s="50"/>
-      <c r="F73" s="287" t="s">
+      <c r="F73" s="288" t="s">
         <v>105</v>
       </c>
-      <c r="G73" s="288"/>
-      <c r="H73" s="289"/>
+      <c r="G73" s="289"/>
+      <c r="H73" s="290"/>
       <c r="I73" s="44">
         <f>SUM(I65:I72)</f>
         <v>103500</v>
@@ -39274,36 +39365,36 @@
       <c r="M79" s="8"/>
     </row>
     <row r="80" spans="1:13" ht="32.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="262" t="s">
+      <c r="A80" s="263" t="s">
         <v>365</v>
       </c>
-      <c r="B80" s="263"/>
-      <c r="C80" s="263"/>
-      <c r="D80" s="263"/>
-      <c r="E80" s="263"/>
-      <c r="F80" s="263"/>
-      <c r="G80" s="263"/>
-      <c r="H80" s="263"/>
-      <c r="I80" s="264"/>
+      <c r="B80" s="264"/>
+      <c r="C80" s="264"/>
+      <c r="D80" s="264"/>
+      <c r="E80" s="264"/>
+      <c r="F80" s="264"/>
+      <c r="G80" s="264"/>
+      <c r="H80" s="264"/>
+      <c r="I80" s="265"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A81" s="265" t="s">
+      <c r="A81" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="266"/>
-      <c r="C81" s="266"/>
-      <c r="D81" s="267"/>
+      <c r="B81" s="267"/>
+      <c r="C81" s="267"/>
+      <c r="D81" s="268"/>
       <c r="E81" s="43"/>
-      <c r="F81" s="265" t="s">
+      <c r="F81" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G81" s="266"/>
-      <c r="H81" s="266"/>
-      <c r="I81" s="267"/>
+      <c r="G81" s="267"/>
+      <c r="H81" s="267"/>
+      <c r="I81" s="268"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
@@ -39493,21 +39584,21 @@
       <c r="M90" s="8"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A91" s="287" t="s">
+      <c r="A91" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="288"/>
-      <c r="C91" s="288"/>
+      <c r="B91" s="289"/>
+      <c r="C91" s="289"/>
       <c r="D91" s="44">
         <f>SUM(D83:D90)</f>
         <v>120000</v>
       </c>
       <c r="E91" s="50"/>
-      <c r="F91" s="287" t="s">
+      <c r="F91" s="288" t="s">
         <v>105</v>
       </c>
-      <c r="G91" s="288"/>
-      <c r="H91" s="289"/>
+      <c r="G91" s="289"/>
+      <c r="H91" s="290"/>
       <c r="I91" s="44">
         <f>SUM(I83:I90)</f>
         <v>120000</v>
@@ -39641,36 +39732,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="263" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="264"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="265"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="267"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="268"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="265" t="s">
+      <c r="F2" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="268"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -40062,21 +40153,21 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="287" t="s">
+      <c r="A18" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="288"/>
-      <c r="C18" s="288"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="289"/>
       <c r="D18" s="44">
         <f>SUM(D4:D17)</f>
         <v>15210</v>
       </c>
       <c r="E18" s="50"/>
-      <c r="F18" s="287" t="s">
+      <c r="F18" s="288" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="288"/>
-      <c r="H18" s="289"/>
+      <c r="G18" s="289"/>
+      <c r="H18" s="290"/>
       <c r="I18" s="44">
         <f>SUM(I4:I17)</f>
         <v>15210</v>
@@ -40702,36 +40793,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="263" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="264"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="265"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="267"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="268"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="265" t="s">
+      <c r="F2" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="268"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -40824,21 +40915,21 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="287" t="s">
+      <c r="A7" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="288"/>
-      <c r="C7" s="288"/>
+      <c r="B7" s="289"/>
+      <c r="C7" s="289"/>
       <c r="D7" s="44">
         <f>SUM(D4:D6)</f>
         <v>0</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="287" t="s">
+      <c r="F7" s="288" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="288"/>
-      <c r="H7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="44">
         <f>SUM(I4:I6)</f>
         <v>3000</v>

--- a/Office Statement Expense & Expenditure.xlsx
+++ b/Office Statement Expense & Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Najeeb Associates\000FFICE\Office Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0941E80C-DC06-4100-8D64-5AC2C603EDF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28DBE8A-9DB4-4D19-B0EE-5DE5F2031138}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="904" activeTab="15" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
   </bookViews>
@@ -2987,7 +2987,13 @@
     <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2996,13 +3002,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3014,18 +3026,6 @@
     <xf numFmtId="0" fontId="17" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3035,17 +3035,8 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3065,29 +3056,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3103,6 +3088,21 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14799,37 +14799,37 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="A140:I140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="F163:H163"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="F56:H56"/>
     <mergeCell ref="A62:I62"/>
     <mergeCell ref="A63:I63"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="F64:I64"/>
     <mergeCell ref="A79:C79"/>
     <mergeCell ref="F79:H79"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="A140:I140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="F163:H163"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="F105:H105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="53" orientation="portrait" r:id="rId1"/>
@@ -14859,18 +14859,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="298" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
       <c r="D1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="306" t="s">
+      <c r="E1" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="306"/>
+      <c r="F1" s="291"/>
       <c r="G1" s="14">
         <v>50000</v>
       </c>
@@ -14989,17 +14989,17 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A5" s="309">
+      <c r="A5" s="304">
         <v>3</v>
       </c>
-      <c r="B5" s="310">
+      <c r="B5" s="305">
         <v>44063</v>
       </c>
-      <c r="C5" s="311" t="s">
+      <c r="C5" s="306" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="313"/>
+      <c r="D5" s="307"/>
+      <c r="E5" s="308"/>
       <c r="F5" s="4">
         <v>11640</v>
       </c>
@@ -15021,11 +15021,11 @@
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A6" s="309"/>
-      <c r="B6" s="310"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="312"/>
-      <c r="E6" s="313"/>
+      <c r="A6" s="304"/>
+      <c r="B6" s="305"/>
+      <c r="C6" s="306"/>
+      <c r="D6" s="307"/>
+      <c r="E6" s="308"/>
       <c r="F6" s="4">
         <v>1700</v>
       </c>
@@ -15047,10 +15047,10 @@
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A7" s="309">
+      <c r="A7" s="304">
         <v>4</v>
       </c>
-      <c r="B7" s="310">
+      <c r="B7" s="305">
         <v>44064</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -15079,8 +15079,8 @@
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A8" s="309"/>
-      <c r="B8" s="310"/>
+      <c r="A8" s="304"/>
+      <c r="B8" s="305"/>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -15141,10 +15141,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A10" s="309">
+      <c r="A10" s="304">
         <v>6</v>
       </c>
-      <c r="B10" s="310">
+      <c r="B10" s="305">
         <v>44066</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -15173,8 +15173,8 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A11" s="309"/>
-      <c r="B11" s="310"/>
+      <c r="A11" s="304"/>
+      <c r="B11" s="305"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -15206,7 +15206,7 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="310">
+      <c r="B12" s="305">
         <v>44067</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -15238,7 +15238,7 @@
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="310"/>
+      <c r="B13" s="305"/>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
@@ -15331,12 +15331,12 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="291" t="s">
+      <c r="A16" s="300" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="291"/>
-      <c r="C16" s="291"/>
-      <c r="D16" s="292"/>
+      <c r="B16" s="300"/>
+      <c r="C16" s="300"/>
+      <c r="D16" s="301"/>
       <c r="E16" s="16">
         <f>SUM(E3:E15)</f>
         <v>0</v>
@@ -15363,10 +15363,10 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="293"/>
-      <c r="B17" s="293"/>
-      <c r="C17" s="293"/>
-      <c r="D17" s="294"/>
+      <c r="A17" s="302"/>
+      <c r="B17" s="302"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="303"/>
       <c r="E17" s="17" t="s">
         <v>61</v>
       </c>
@@ -15411,18 +15411,18 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" ht="29.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="304" t="s">
+      <c r="A19" s="298" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="305"/>
-      <c r="C19" s="305"/>
+      <c r="B19" s="299"/>
+      <c r="C19" s="299"/>
       <c r="D19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="306" t="s">
+      <c r="E19" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="306"/>
+      <c r="F19" s="291"/>
       <c r="G19" s="14">
         <v>31780</v>
       </c>
@@ -15507,10 +15507,10 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A22" s="298">
+      <c r="A22" s="295">
         <v>12</v>
       </c>
-      <c r="B22" s="295">
+      <c r="B22" s="292">
         <v>44076</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -15539,8 +15539,8 @@
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A23" s="299"/>
-      <c r="B23" s="296"/>
+      <c r="A23" s="296"/>
+      <c r="B23" s="293"/>
       <c r="C23" s="21" t="s">
         <v>21</v>
       </c>
@@ -15567,8 +15567,8 @@
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A24" s="300"/>
-      <c r="B24" s="297"/>
+      <c r="A24" s="297"/>
+      <c r="B24" s="294"/>
       <c r="C24" s="21" t="s">
         <v>22</v>
       </c>
@@ -15597,10 +15597,10 @@
       <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A25" s="298">
+      <c r="A25" s="295">
         <v>13</v>
       </c>
-      <c r="B25" s="295">
+      <c r="B25" s="292">
         <v>44077</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -15631,8 +15631,8 @@
       <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A26" s="300"/>
-      <c r="B26" s="297"/>
+      <c r="A26" s="297"/>
+      <c r="B26" s="294"/>
       <c r="C26" s="21" t="s">
         <v>26</v>
       </c>
@@ -15661,10 +15661,10 @@
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A27" s="298">
+      <c r="A27" s="295">
         <v>14</v>
       </c>
-      <c r="B27" s="295">
+      <c r="B27" s="292">
         <v>44078</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -15693,8 +15693,8 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A28" s="300"/>
-      <c r="B28" s="297"/>
+      <c r="A28" s="297"/>
+      <c r="B28" s="294"/>
       <c r="C28" s="21" t="s">
         <v>28</v>
       </c>
@@ -15723,10 +15723,10 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A29" s="298">
+      <c r="A29" s="295">
         <v>15</v>
       </c>
-      <c r="B29" s="295">
+      <c r="B29" s="292">
         <v>44079</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -15755,8 +15755,8 @@
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A30" s="299"/>
-      <c r="B30" s="296"/>
+      <c r="A30" s="296"/>
+      <c r="B30" s="293"/>
       <c r="C30" s="21" t="s">
         <v>30</v>
       </c>
@@ -15785,8 +15785,8 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A31" s="299"/>
-      <c r="B31" s="296"/>
+      <c r="A31" s="296"/>
+      <c r="B31" s="293"/>
       <c r="C31" s="21" t="s">
         <v>60</v>
       </c>
@@ -15813,8 +15813,8 @@
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A32" s="300"/>
-      <c r="B32" s="297"/>
+      <c r="A32" s="297"/>
+      <c r="B32" s="294"/>
       <c r="C32" s="23" t="s">
         <v>31</v>
       </c>
@@ -15841,10 +15841,10 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A33" s="298">
+      <c r="A33" s="295">
         <v>16</v>
       </c>
-      <c r="B33" s="295">
+      <c r="B33" s="292">
         <v>44080</v>
       </c>
       <c r="C33" s="21" t="s">
@@ -15875,8 +15875,8 @@
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A34" s="299"/>
-      <c r="B34" s="296"/>
+      <c r="A34" s="296"/>
+      <c r="B34" s="293"/>
       <c r="C34" s="21" t="s">
         <v>33</v>
       </c>
@@ -15905,8 +15905,8 @@
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A35" s="299"/>
-      <c r="B35" s="296"/>
+      <c r="A35" s="296"/>
+      <c r="B35" s="293"/>
       <c r="C35" s="21" t="s">
         <v>36</v>
       </c>
@@ -15935,8 +15935,8 @@
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A36" s="299"/>
-      <c r="B36" s="296"/>
+      <c r="A36" s="296"/>
+      <c r="B36" s="293"/>
       <c r="C36" s="21" t="s">
         <v>37</v>
       </c>
@@ -15965,8 +15965,8 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A37" s="300"/>
-      <c r="B37" s="297"/>
+      <c r="A37" s="297"/>
+      <c r="B37" s="294"/>
       <c r="C37" s="21" t="s">
         <v>39</v>
       </c>
@@ -15993,10 +15993,10 @@
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A38" s="298">
+      <c r="A38" s="295">
         <v>17</v>
       </c>
-      <c r="B38" s="295">
+      <c r="B38" s="292">
         <v>44081</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -16025,8 +16025,8 @@
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A39" s="299"/>
-      <c r="B39" s="296"/>
+      <c r="A39" s="296"/>
+      <c r="B39" s="293"/>
       <c r="C39" s="21" t="s">
         <v>28</v>
       </c>
@@ -16053,8 +16053,8 @@
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A40" s="300"/>
-      <c r="B40" s="297"/>
+      <c r="A40" s="297"/>
+      <c r="B40" s="294"/>
       <c r="C40" s="21" t="s">
         <v>40</v>
       </c>
@@ -16083,10 +16083,10 @@
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A41" s="298">
+      <c r="A41" s="295">
         <v>18</v>
       </c>
-      <c r="B41" s="295">
+      <c r="B41" s="292">
         <v>44082</v>
       </c>
       <c r="C41" s="21" t="s">
@@ -16115,8 +16115,8 @@
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A42" s="300"/>
-      <c r="B42" s="297"/>
+      <c r="A42" s="297"/>
+      <c r="B42" s="294"/>
       <c r="C42" s="21" t="s">
         <v>42</v>
       </c>
@@ -16143,10 +16143,10 @@
       <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A43" s="298">
+      <c r="A43" s="295">
         <v>19</v>
       </c>
-      <c r="B43" s="295">
+      <c r="B43" s="292">
         <v>44083</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -16175,8 +16175,8 @@
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A44" s="300"/>
-      <c r="B44" s="297"/>
+      <c r="A44" s="297"/>
+      <c r="B44" s="294"/>
       <c r="C44" s="21" t="s">
         <v>44</v>
       </c>
@@ -16203,10 +16203,10 @@
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A45" s="298">
+      <c r="A45" s="295">
         <v>20</v>
       </c>
-      <c r="B45" s="295">
+      <c r="B45" s="292">
         <v>44084</v>
       </c>
       <c r="C45" s="21" t="s">
@@ -16235,8 +16235,8 @@
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A46" s="300"/>
-      <c r="B46" s="297"/>
+      <c r="A46" s="297"/>
+      <c r="B46" s="294"/>
       <c r="C46" s="21" t="s">
         <v>45</v>
       </c>
@@ -16263,10 +16263,10 @@
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A47" s="298">
+      <c r="A47" s="295">
         <v>21</v>
       </c>
-      <c r="B47" s="295">
+      <c r="B47" s="292">
         <v>44085</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -16295,8 +16295,8 @@
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A48" s="299"/>
-      <c r="B48" s="296"/>
+      <c r="A48" s="296"/>
+      <c r="B48" s="293"/>
       <c r="C48" s="21" t="s">
         <v>46</v>
       </c>
@@ -16323,8 +16323,8 @@
       <c r="S48" s="8"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A49" s="299"/>
-      <c r="B49" s="296"/>
+      <c r="A49" s="296"/>
+      <c r="B49" s="293"/>
       <c r="C49" s="21" t="s">
         <v>47</v>
       </c>
@@ -16351,8 +16351,8 @@
       <c r="S49" s="8"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A50" s="299"/>
-      <c r="B50" s="296"/>
+      <c r="A50" s="296"/>
+      <c r="B50" s="293"/>
       <c r="C50" s="23" t="s">
         <v>31</v>
       </c>
@@ -16379,8 +16379,8 @@
       <c r="S50" s="8"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A51" s="300"/>
-      <c r="B51" s="297"/>
+      <c r="A51" s="297"/>
+      <c r="B51" s="294"/>
       <c r="C51" s="21" t="s">
         <v>44</v>
       </c>
@@ -16409,10 +16409,10 @@
       <c r="S51" s="8"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A52" s="298">
+      <c r="A52" s="295">
         <v>22</v>
       </c>
-      <c r="B52" s="295">
+      <c r="B52" s="292">
         <v>44086</v>
       </c>
       <c r="C52" s="21" t="s">
@@ -16443,8 +16443,8 @@
       <c r="S52" s="8"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A53" s="300"/>
-      <c r="B53" s="297"/>
+      <c r="A53" s="297"/>
+      <c r="B53" s="294"/>
       <c r="C53" s="21" t="s">
         <v>50</v>
       </c>
@@ -16471,10 +16471,10 @@
       <c r="S53" s="8"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A54" s="298">
+      <c r="A54" s="295">
         <v>23</v>
       </c>
-      <c r="B54" s="295">
+      <c r="B54" s="292">
         <v>44087</v>
       </c>
       <c r="C54" s="21" t="s">
@@ -16503,8 +16503,8 @@
       <c r="S54" s="8"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A55" s="299"/>
-      <c r="B55" s="296"/>
+      <c r="A55" s="296"/>
+      <c r="B55" s="293"/>
       <c r="C55" s="21" t="s">
         <v>28</v>
       </c>
@@ -16531,8 +16531,8 @@
       <c r="S55" s="8"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A56" s="299"/>
-      <c r="B56" s="296"/>
+      <c r="A56" s="296"/>
+      <c r="B56" s="293"/>
       <c r="C56" s="21" t="s">
         <v>51</v>
       </c>
@@ -16559,8 +16559,8 @@
       <c r="S56" s="8"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A57" s="299"/>
-      <c r="B57" s="296"/>
+      <c r="A57" s="296"/>
+      <c r="B57" s="293"/>
       <c r="C57" s="23" t="s">
         <v>31</v>
       </c>
@@ -16685,10 +16685,10 @@
       <c r="S60" s="8"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A61" s="298">
+      <c r="A61" s="295">
         <v>27</v>
       </c>
-      <c r="B61" s="295">
+      <c r="B61" s="292">
         <v>44091</v>
       </c>
       <c r="C61" s="21" t="s">
@@ -16717,8 +16717,8 @@
       <c r="S61" s="8"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A62" s="300"/>
-      <c r="B62" s="297"/>
+      <c r="A62" s="297"/>
+      <c r="B62" s="294"/>
       <c r="C62" s="21" t="s">
         <v>44</v>
       </c>
@@ -16777,10 +16777,10 @@
       <c r="S63" s="8"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A64" s="298">
+      <c r="A64" s="295">
         <v>29</v>
       </c>
-      <c r="B64" s="295">
+      <c r="B64" s="292">
         <v>44093</v>
       </c>
       <c r="C64" s="21" t="s">
@@ -16809,8 +16809,8 @@
       <c r="S64" s="8"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A65" s="300"/>
-      <c r="B65" s="297"/>
+      <c r="A65" s="297"/>
+      <c r="B65" s="294"/>
       <c r="C65" s="21" t="s">
         <v>18</v>
       </c>
@@ -17005,10 +17005,10 @@
       <c r="B71" s="28">
         <v>44101</v>
       </c>
-      <c r="C71" s="307" t="s">
+      <c r="C71" s="309" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="308"/>
+      <c r="D71" s="310"/>
       <c r="E71" s="26">
         <v>0</v>
       </c>
@@ -17033,10 +17033,10 @@
       <c r="S71" s="8"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A72" s="298">
+      <c r="A72" s="295">
         <v>37</v>
       </c>
-      <c r="B72" s="295">
+      <c r="B72" s="292">
         <v>44103</v>
       </c>
       <c r="C72" s="21" t="s">
@@ -17065,12 +17065,12 @@
       <c r="S72" s="8"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A73" s="300"/>
-      <c r="B73" s="297"/>
-      <c r="C73" s="307" t="s">
+      <c r="A73" s="297"/>
+      <c r="B73" s="294"/>
+      <c r="C73" s="309" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="308"/>
+      <c r="D73" s="310"/>
       <c r="E73" s="6">
         <v>100000</v>
       </c>
@@ -17127,12 +17127,12 @@
       <c r="S74" s="8"/>
     </row>
     <row r="75" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="291" t="s">
+      <c r="A75" s="300" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="291"/>
-      <c r="C75" s="291"/>
-      <c r="D75" s="292"/>
+      <c r="B75" s="300"/>
+      <c r="C75" s="300"/>
+      <c r="D75" s="301"/>
       <c r="E75" s="16">
         <f>SUM(E21:E74)</f>
         <v>132000</v>
@@ -17159,10 +17159,10 @@
       <c r="S75" s="8"/>
     </row>
     <row r="76" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="293"/>
-      <c r="B76" s="293"/>
-      <c r="C76" s="293"/>
-      <c r="D76" s="294"/>
+      <c r="A76" s="302"/>
+      <c r="B76" s="302"/>
+      <c r="C76" s="302"/>
+      <c r="D76" s="303"/>
       <c r="E76" s="17" t="s">
         <v>61</v>
       </c>
@@ -17207,18 +17207,18 @@
       <c r="S77" s="8"/>
     </row>
     <row r="78" spans="1:19" ht="27.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="304" t="s">
+      <c r="A78" s="298" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="305"/>
-      <c r="C78" s="305"/>
+      <c r="B78" s="299"/>
+      <c r="C78" s="299"/>
       <c r="D78" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E78" s="306" t="s">
+      <c r="E78" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="F78" s="306"/>
+      <c r="F78" s="291"/>
       <c r="G78" s="14">
         <f>G75</f>
         <v>137640</v>
@@ -17272,10 +17272,10 @@
       <c r="S79" s="8"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A80" s="298">
+      <c r="A80" s="295">
         <v>39</v>
       </c>
-      <c r="B80" s="295">
+      <c r="B80" s="292">
         <v>44105</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -17304,8 +17304,8 @@
       <c r="S80" s="8"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A81" s="299"/>
-      <c r="B81" s="296"/>
+      <c r="A81" s="296"/>
+      <c r="B81" s="293"/>
       <c r="C81" s="1" t="s">
         <v>70</v>
       </c>
@@ -17332,8 +17332,8 @@
       <c r="S81" s="8"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A82" s="299"/>
-      <c r="B82" s="296"/>
+      <c r="A82" s="296"/>
+      <c r="B82" s="293"/>
       <c r="C82" s="34" t="s">
         <v>76</v>
       </c>
@@ -17362,9 +17362,9 @@
       <c r="S82" s="8"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A83" s="299"/>
-      <c r="B83" s="296"/>
-      <c r="C83" s="301" t="s">
+      <c r="A83" s="296"/>
+      <c r="B83" s="293"/>
+      <c r="C83" s="311" t="s">
         <v>77</v>
       </c>
       <c r="D83" s="32" t="s">
@@ -17392,9 +17392,9 @@
       <c r="S83" s="8"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A84" s="299"/>
-      <c r="B84" s="296"/>
-      <c r="C84" s="302"/>
+      <c r="A84" s="296"/>
+      <c r="B84" s="293"/>
+      <c r="C84" s="312"/>
       <c r="D84" s="32" t="s">
         <v>71</v>
       </c>
@@ -17420,9 +17420,9 @@
       <c r="S84" s="8"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A85" s="299"/>
-      <c r="B85" s="296"/>
-      <c r="C85" s="302"/>
+      <c r="A85" s="296"/>
+      <c r="B85" s="293"/>
+      <c r="C85" s="312"/>
       <c r="D85" s="32" t="s">
         <v>73</v>
       </c>
@@ -17448,9 +17448,9 @@
       <c r="S85" s="8"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A86" s="300"/>
-      <c r="B86" s="297"/>
-      <c r="C86" s="303"/>
+      <c r="A86" s="297"/>
+      <c r="B86" s="294"/>
+      <c r="C86" s="313"/>
       <c r="D86" s="32" t="s">
         <v>74</v>
       </c>
@@ -17508,10 +17508,10 @@
       <c r="S87" s="8"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A88" s="298">
+      <c r="A88" s="295">
         <v>41</v>
       </c>
-      <c r="B88" s="295">
+      <c r="B88" s="292">
         <v>44108</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -17540,8 +17540,8 @@
       <c r="S88" s="8"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A89" s="300"/>
-      <c r="B89" s="297"/>
+      <c r="A89" s="297"/>
+      <c r="B89" s="294"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="4"/>
@@ -17630,10 +17630,10 @@
       <c r="S91" s="8"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A92" s="298">
+      <c r="A92" s="295">
         <v>44</v>
       </c>
-      <c r="B92" s="295">
+      <c r="B92" s="292">
         <v>44112</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -17662,8 +17662,8 @@
       <c r="S92" s="8"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A93" s="299"/>
-      <c r="B93" s="296"/>
+      <c r="A93" s="296"/>
+      <c r="B93" s="293"/>
       <c r="C93" s="1" t="s">
         <v>113</v>
       </c>
@@ -17690,8 +17690,8 @@
       <c r="S93" s="8"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A94" s="299"/>
-      <c r="B94" s="296"/>
+      <c r="A94" s="296"/>
+      <c r="B94" s="293"/>
       <c r="C94" s="1" t="s">
         <v>98</v>
       </c>
@@ -17720,8 +17720,8 @@
       <c r="S94" s="8"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A95" s="300"/>
-      <c r="B95" s="297"/>
+      <c r="A95" s="297"/>
+      <c r="B95" s="294"/>
       <c r="C95" s="1" t="s">
         <v>111</v>
       </c>
@@ -18180,12 +18180,12 @@
       <c r="S113" s="8"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A114" s="291" t="s">
+      <c r="A114" s="300" t="s">
         <v>57</v>
       </c>
-      <c r="B114" s="291"/>
-      <c r="C114" s="291"/>
-      <c r="D114" s="292"/>
+      <c r="B114" s="300"/>
+      <c r="C114" s="300"/>
+      <c r="D114" s="301"/>
       <c r="E114" s="16">
         <f>SUM(E80:E113)</f>
         <v>600000</v>
@@ -18212,10 +18212,10 @@
       <c r="S114" s="8"/>
     </row>
     <row r="115" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="293"/>
-      <c r="B115" s="293"/>
-      <c r="C115" s="293"/>
-      <c r="D115" s="294"/>
+      <c r="A115" s="302"/>
+      <c r="B115" s="302"/>
+      <c r="C115" s="302"/>
+      <c r="D115" s="303"/>
       <c r="E115" s="17" t="s">
         <v>61</v>
       </c>
@@ -21397,50 +21397,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C73:D73"/>
     <mergeCell ref="A114:D115"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="A38:A40"/>
@@ -21455,6 +21411,50 @@
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="B92:B95"/>
     <mergeCell ref="A92:A95"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A37"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="73" orientation="portrait" r:id="rId1"/>
@@ -24408,7 +24408,7 @@
   <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -31880,19 +31880,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="281" t="s">
+      <c r="A1" s="285" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="283"/>
-      <c r="G1" s="280" t="s">
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="287"/>
+      <c r="G1" s="283" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
+      <c r="H1" s="283"/>
+      <c r="I1" s="283"/>
+      <c r="J1" s="283"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -31914,18 +31914,18 @@
         <v>4</v>
       </c>
       <c r="F2" s="238"/>
-      <c r="G2" s="275" t="s">
+      <c r="G2" s="284" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
+      <c r="H2" s="284"/>
+      <c r="I2" s="284"/>
+      <c r="J2" s="284"/>
       <c r="K2" s="238"/>
       <c r="L2" s="238"/>
       <c r="M2" s="238"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A3" s="276">
+      <c r="A3" s="278">
         <v>1</v>
       </c>
       <c r="B3" s="211">
@@ -31937,7 +31937,7 @@
       <c r="D3" s="209">
         <v>30000</v>
       </c>
-      <c r="E3" s="278">
+      <c r="E3" s="276">
         <f>D4-D3</f>
         <v>-30000</v>
       </c>
@@ -31958,11 +31958,11 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A4" s="277"/>
+      <c r="A4" s="279"/>
       <c r="B4" s="213"/>
       <c r="C4" s="214"/>
       <c r="D4" s="210"/>
-      <c r="E4" s="279"/>
+      <c r="E4" s="277"/>
       <c r="G4" s="230">
         <v>1</v>
       </c>
@@ -31998,7 +31998,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A6" s="276">
+      <c r="A6" s="278">
         <v>2</v>
       </c>
       <c r="B6" s="211">
@@ -32010,7 +32010,7 @@
       <c r="D6" s="209">
         <v>5000</v>
       </c>
-      <c r="E6" s="278">
+      <c r="E6" s="276">
         <f>D7-D6</f>
         <v>-5000</v>
       </c>
@@ -32031,11 +32031,11 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A7" s="277"/>
+      <c r="A7" s="279"/>
       <c r="B7" s="213"/>
       <c r="C7" s="214"/>
       <c r="D7" s="210"/>
-      <c r="E7" s="279"/>
+      <c r="E7" s="277"/>
       <c r="G7" s="230">
         <v>3</v>
       </c>
@@ -32071,7 +32071,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A9" s="276">
+      <c r="A9" s="278">
         <v>4</v>
       </c>
       <c r="B9" s="211">
@@ -32083,7 +32083,7 @@
       <c r="D9" s="209">
         <v>3070</v>
       </c>
-      <c r="E9" s="278">
+      <c r="E9" s="276">
         <f>D10-D9</f>
         <v>-3070</v>
       </c>
@@ -32104,11 +32104,11 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A10" s="277"/>
+      <c r="A10" s="279"/>
       <c r="B10" s="213"/>
       <c r="C10" s="214"/>
       <c r="D10" s="210"/>
-      <c r="E10" s="279"/>
+      <c r="E10" s="277"/>
       <c r="G10" s="230">
         <v>5</v>
       </c>
@@ -32148,7 +32148,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A12" s="276">
+      <c r="A12" s="278">
         <v>5</v>
       </c>
       <c r="B12" s="211">
@@ -32160,7 +32160,7 @@
       <c r="D12" s="209">
         <v>5000</v>
       </c>
-      <c r="E12" s="278">
+      <c r="E12" s="276">
         <f>D13-D12</f>
         <v>-5000</v>
       </c>
@@ -32181,11 +32181,11 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A13" s="277"/>
+      <c r="A13" s="279"/>
       <c r="B13" s="213"/>
       <c r="C13" s="214"/>
       <c r="D13" s="210"/>
-      <c r="E13" s="279"/>
+      <c r="E13" s="277"/>
       <c r="G13" s="1"/>
       <c r="H13" s="233"/>
       <c r="I13" s="1"/>
@@ -32209,7 +32209,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A15" s="276">
+      <c r="A15" s="278">
         <v>6</v>
       </c>
       <c r="B15" s="211">
@@ -32221,7 +32221,7 @@
       <c r="D15" s="209">
         <v>5000</v>
       </c>
-      <c r="E15" s="278">
+      <c r="E15" s="276">
         <f>D16-D15</f>
         <v>-5000</v>
       </c>
@@ -32234,11 +32234,11 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A16" s="277"/>
+      <c r="A16" s="279"/>
       <c r="B16" s="213"/>
       <c r="C16" s="214"/>
       <c r="D16" s="210"/>
-      <c r="E16" s="279"/>
+      <c r="E16" s="277"/>
       <c r="G16" s="1"/>
       <c r="H16" s="234"/>
       <c r="I16" s="1"/>
@@ -32262,7 +32262,7 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A18" s="276">
+      <c r="A18" s="278">
         <v>7</v>
       </c>
       <c r="B18" s="211">
@@ -32274,7 +32274,7 @@
       <c r="D18" s="209">
         <v>5000</v>
       </c>
-      <c r="E18" s="278">
+      <c r="E18" s="276">
         <f>D19-D18</f>
         <v>-5000</v>
       </c>
@@ -32292,11 +32292,11 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A19" s="277"/>
+      <c r="A19" s="279"/>
       <c r="B19" s="213"/>
       <c r="C19" s="214"/>
       <c r="D19" s="210"/>
-      <c r="E19" s="279"/>
+      <c r="E19" s="277"/>
       <c r="G19" s="55"/>
       <c r="H19" s="236"/>
       <c r="I19" s="55"/>
@@ -32311,18 +32311,18 @@
       <c r="C20" s="8"/>
       <c r="D20" s="240"/>
       <c r="E20" s="242"/>
-      <c r="G20" s="275" t="s">
+      <c r="G20" s="284" t="s">
         <v>411</v>
       </c>
-      <c r="H20" s="275"/>
-      <c r="I20" s="275"/>
-      <c r="J20" s="275"/>
+      <c r="H20" s="284"/>
+      <c r="I20" s="284"/>
+      <c r="J20" s="284"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A21" s="276">
+      <c r="A21" s="278">
         <v>8</v>
       </c>
       <c r="B21" s="211">
@@ -32334,7 +32334,7 @@
       <c r="D21" s="209">
         <v>600</v>
       </c>
-      <c r="E21" s="278">
+      <c r="E21" s="276">
         <f>D22-D21</f>
         <v>-600</v>
       </c>
@@ -32355,11 +32355,11 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A22" s="277"/>
+      <c r="A22" s="279"/>
       <c r="B22" s="213"/>
       <c r="C22" s="214"/>
       <c r="D22" s="210"/>
-      <c r="E22" s="279"/>
+      <c r="E22" s="277"/>
       <c r="G22" s="231">
         <v>1</v>
       </c>
@@ -32399,7 +32399,7 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A24" s="276">
+      <c r="A24" s="278">
         <v>9</v>
       </c>
       <c r="B24" s="211">
@@ -32411,7 +32411,7 @@
       <c r="D24" s="209">
         <v>5000</v>
       </c>
-      <c r="E24" s="278">
+      <c r="E24" s="276">
         <f>D25-D24</f>
         <v>-5000</v>
       </c>
@@ -32424,11 +32424,11 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A25" s="277"/>
+      <c r="A25" s="279"/>
       <c r="B25" s="213"/>
       <c r="C25" s="214"/>
       <c r="D25" s="210"/>
-      <c r="E25" s="279"/>
+      <c r="E25" s="277"/>
       <c r="G25" s="231"/>
       <c r="H25" s="234"/>
       <c r="I25" s="1"/>
@@ -32452,7 +32452,7 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A27" s="276">
+      <c r="A27" s="278">
         <v>10</v>
       </c>
       <c r="B27" s="211">
@@ -32464,7 +32464,7 @@
       <c r="D27" s="209">
         <v>5000</v>
       </c>
-      <c r="E27" s="278">
+      <c r="E27" s="276">
         <f>D28-D27</f>
         <v>-5000</v>
       </c>
@@ -32477,11 +32477,11 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A28" s="277"/>
+      <c r="A28" s="279"/>
       <c r="B28" s="213"/>
       <c r="C28" s="214"/>
       <c r="D28" s="210"/>
-      <c r="E28" s="279"/>
+      <c r="E28" s="277"/>
       <c r="G28" s="231"/>
       <c r="H28" s="234"/>
       <c r="I28" s="1"/>
@@ -32505,7 +32505,7 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A30" s="276">
+      <c r="A30" s="278">
         <v>11</v>
       </c>
       <c r="B30" s="211">
@@ -32517,7 +32517,7 @@
       <c r="D30" s="209">
         <v>5000</v>
       </c>
-      <c r="E30" s="278">
+      <c r="E30" s="276">
         <f>D31-D30</f>
         <v>-5000</v>
       </c>
@@ -32530,11 +32530,11 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="277"/>
+      <c r="A31" s="279"/>
       <c r="B31" s="213"/>
       <c r="C31" s="214"/>
       <c r="D31" s="210"/>
-      <c r="E31" s="279"/>
+      <c r="E31" s="277"/>
       <c r="G31" s="1"/>
       <c r="H31" s="233"/>
       <c r="I31" s="1"/>
@@ -32558,13 +32558,13 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A33" s="276">
+      <c r="A33" s="278">
         <v>12</v>
       </c>
       <c r="B33" s="211"/>
       <c r="C33" s="212"/>
       <c r="D33" s="209"/>
-      <c r="E33" s="278">
+      <c r="E33" s="276">
         <f>D34-D33</f>
         <v>0</v>
       </c>
@@ -32577,11 +32577,11 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A34" s="277"/>
+      <c r="A34" s="279"/>
       <c r="B34" s="213"/>
       <c r="C34" s="214"/>
       <c r="D34" s="210"/>
-      <c r="E34" s="279"/>
+      <c r="E34" s="277"/>
       <c r="G34" s="1"/>
       <c r="H34" s="234"/>
       <c r="I34" s="1"/>
@@ -32605,13 +32605,13 @@
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A36" s="276">
+      <c r="A36" s="278">
         <v>13</v>
       </c>
       <c r="B36" s="211"/>
       <c r="C36" s="212"/>
       <c r="D36" s="209"/>
-      <c r="E36" s="278">
+      <c r="E36" s="276">
         <f>D37-D36</f>
         <v>0</v>
       </c>
@@ -32629,11 +32629,11 @@
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A37" s="277"/>
+      <c r="A37" s="279"/>
       <c r="B37" s="213"/>
       <c r="C37" s="214"/>
       <c r="D37" s="210"/>
-      <c r="E37" s="279"/>
+      <c r="E37" s="277"/>
       <c r="G37" s="8"/>
       <c r="H37" s="241"/>
       <c r="I37" s="8"/>
@@ -32657,13 +32657,13 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A39" s="276">
+      <c r="A39" s="278">
         <v>14</v>
       </c>
       <c r="B39" s="211"/>
       <c r="C39" s="212"/>
       <c r="D39" s="209"/>
-      <c r="E39" s="278">
+      <c r="E39" s="276">
         <f>D40-D39</f>
         <v>0</v>
       </c>
@@ -32676,11 +32676,11 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A40" s="277"/>
+      <c r="A40" s="279"/>
       <c r="B40" s="213"/>
       <c r="C40" s="214"/>
       <c r="D40" s="210"/>
-      <c r="E40" s="279"/>
+      <c r="E40" s="277"/>
       <c r="G40" s="8"/>
       <c r="H40" s="241"/>
       <c r="I40" s="8"/>
@@ -32704,13 +32704,13 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A42" s="276">
+      <c r="A42" s="278">
         <v>15</v>
       </c>
       <c r="B42" s="211"/>
       <c r="C42" s="212"/>
       <c r="D42" s="209"/>
-      <c r="E42" s="278">
+      <c r="E42" s="276">
         <f>D43-D42</f>
         <v>0</v>
       </c>
@@ -32723,11 +32723,11 @@
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A43" s="277"/>
+      <c r="A43" s="279"/>
       <c r="B43" s="213"/>
       <c r="C43" s="214"/>
       <c r="D43" s="210"/>
-      <c r="E43" s="279"/>
+      <c r="E43" s="277"/>
       <c r="G43" s="8"/>
       <c r="H43" s="241"/>
       <c r="I43" s="8"/>
@@ -32751,12 +32751,12 @@
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:13" ht="29.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="285" t="s">
+      <c r="A45" s="280" t="s">
         <v>412</v>
       </c>
-      <c r="B45" s="286"/>
-      <c r="C45" s="286"/>
-      <c r="D45" s="287"/>
+      <c r="B45" s="281"/>
+      <c r="C45" s="281"/>
+      <c r="D45" s="282"/>
       <c r="E45" s="219">
         <f>SUM(E3:E44)</f>
         <v>-68670</v>
@@ -32773,8 +32773,8 @@
       <c r="A46" s="79"/>
       <c r="B46" s="239"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="284"/>
-      <c r="E46" s="284"/>
+      <c r="D46" s="275"/>
+      <c r="E46" s="275"/>
       <c r="G46" s="8"/>
       <c r="H46" s="241"/>
       <c r="I46" s="8"/>
@@ -32959,15 +32959,17 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G18:I18"/>
@@ -32984,17 +32986,15 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35822,11 +35822,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="F91:H91"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="F39:I39"/>
     <mergeCell ref="A51:C51"/>
@@ -35842,11 +35842,11 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A78:I78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="F71:H71"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -39680,31 +39680,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="F73:H73"/>
     <mergeCell ref="A80:I80"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="F81:I81"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="F91:H91"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="F55:H55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Office Statement Expense & Expenditure.xlsx
+++ b/Office Statement Expense & Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Najeeb Associates\000FFICE\Office Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F4988E-AC2C-420A-8C1B-168B9BA76BEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEAA58B-E5A6-44C1-8CC0-290AC054FFFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="820" activeTab="16" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
   </bookViews>
@@ -3526,8 +3526,8 @@
   </sheetPr>
   <dimension ref="A1:N897"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" zoomScale="133" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H199" sqref="H199"/>
+    <sheetView topLeftCell="A165" zoomScale="133" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -7620,12 +7620,14 @@
         <v>1</v>
       </c>
       <c r="B176" s="39">
-        <v>44295</v>
+        <v>44297</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D176" s="263"/>
+      <c r="D176" s="263">
+        <v>600</v>
+      </c>
       <c r="E176" s="38"/>
       <c r="F176" s="273"/>
       <c r="G176" s="39"/>
@@ -8001,7 +8003,7 @@
       <c r="C197" s="283"/>
       <c r="D197" s="44">
         <f>SUM(D175:D196)</f>
-        <v>1446419</v>
+        <v>1447019</v>
       </c>
       <c r="E197" s="50"/>
       <c r="F197" s="282" t="s">
@@ -8043,7 +8045,7 @@
       </c>
       <c r="D199" s="58">
         <f>D197</f>
-        <v>1446419</v>
+        <v>1447019</v>
       </c>
       <c r="E199" s="8"/>
       <c r="F199" s="53"/>
@@ -8101,7 +8103,7 @@
       </c>
       <c r="D202" s="62">
         <f>D199-D200</f>
-        <v>1439579</v>
+        <v>1440179</v>
       </c>
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
@@ -25459,7 +25461,7 @@
   <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -25722,7 +25724,7 @@
   <dimension ref="E4:P34"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -25780,14 +25782,14 @@
         <v>431</v>
       </c>
       <c r="L6" s="72">
-        <v>450000</v>
+        <v>50000</v>
       </c>
       <c r="N6" t="s">
         <v>442</v>
       </c>
       <c r="O6" s="179">
         <f>O4-L19</f>
-        <v>320000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="7" spans="5:15" x14ac:dyDescent="0.5">
@@ -25858,9 +25860,7 @@
       <c r="K14" t="s">
         <v>444</v>
       </c>
-      <c r="L14" s="72">
-        <v>50000</v>
-      </c>
+      <c r="L14" s="72"/>
     </row>
     <row r="15" spans="5:15" x14ac:dyDescent="0.5">
       <c r="L15" s="179"/>
@@ -25880,7 +25880,7 @@
     <row r="19" spans="11:16" x14ac:dyDescent="0.5">
       <c r="L19" s="72">
         <f>SUM(L6:L18)</f>
-        <v>880000</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="27" spans="11:16" x14ac:dyDescent="0.5">

--- a/Office Statement Expense & Expenditure.xlsx
+++ b/Office Statement Expense & Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Najeeb Associates\000FFICE\Office Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEAA58B-E5A6-44C1-8CC0-290AC054FFFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720C3FF1-C181-45F7-BEEA-DA8B508498F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="820" activeTab="16" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
   </bookViews>
@@ -45,6 +45,35 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Azan Laptop Store</author>
+  </authors>
+  <commentList>
+    <comment ref="H184" authorId="0" shapeId="0" xr:uid="{C8619189-472A-4C64-90E9-FF84EEF8303D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Waheed
+Mazdoor ko dena hai 1200 
+mere pas srf 400 the
+mai ne kaha or office mai hai dedon
+us ne kaha nahe
+400 dediye phir</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Azan Laptop Store</author>
@@ -147,7 +176,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Azan Laptop Store</author>
@@ -177,7 +206,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CoDemented</author>
@@ -211,7 +240,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Azan Laptop Store</author>
@@ -236,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="476">
   <si>
     <t>Opning Balance</t>
   </si>
@@ -1564,9 +1593,6 @@
     <t>Waqas Taken - by hand of Najeeb 151k</t>
   </si>
   <si>
-    <t>Loan</t>
-  </si>
-  <si>
     <t>2x BWC 7marla</t>
   </si>
   <si>
@@ -1609,9 +1635,6 @@
     <t>Mazhar taken for short return</t>
   </si>
   <si>
-    <t>Veh</t>
-  </si>
-  <si>
     <t>Handovered 58k Remaining from 209k of sunny - cleared</t>
   </si>
   <si>
@@ -1646,6 +1669,30 @@
   </si>
   <si>
     <t>3x More Tea + 2x Kawa</t>
+  </si>
+  <si>
+    <t>Guests Anwar Lala</t>
+  </si>
+  <si>
+    <t>Remain</t>
+  </si>
+  <si>
+    <t>Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waheed - for Mazdoor </t>
+  </si>
+  <si>
+    <t>Waheed Told - Nimo and Roti for aftari</t>
+  </si>
+  <si>
+    <t>Taken 17k</t>
+  </si>
+  <si>
+    <t>Purchased Greenachre Forms - to close</t>
+  </si>
+  <si>
+    <t>Nestle Water for sab</t>
   </si>
 </sst>
 </file>
@@ -2328,7 +2375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3207,6 +3254,13 @@
     <xf numFmtId="166" fontId="4" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3520,14 +3574,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942AB6B1-7572-4AD5-BCB7-B7AFCF6BF6D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942AB6B1-7572-4AD5-BCB7-B7AFCF6BF6D1}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N897"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" zoomScale="133" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView topLeftCell="A179" zoomScale="133" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -7300,7 +7354,7 @@
         <v>44278</v>
       </c>
       <c r="H161" s="70" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I161" s="71">
         <v>180</v>
@@ -7324,7 +7378,7 @@
         <v>44285</v>
       </c>
       <c r="H162" s="70" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I162" s="71">
         <v>360</v>
@@ -7348,7 +7402,7 @@
         <v>44286</v>
       </c>
       <c r="H163" s="70" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I163" s="71">
         <v>120</v>
@@ -7514,7 +7568,7 @@
     </row>
     <row r="172" spans="1:14" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A172" s="276" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B172" s="277"/>
       <c r="C172" s="277"/>
@@ -7632,7 +7686,7 @@
       <c r="F176" s="273"/>
       <c r="G176" s="39"/>
       <c r="H176" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I176" s="40">
         <v>120</v>
@@ -7656,7 +7710,7 @@
         <v>44292</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I177" s="40">
         <v>200</v>
@@ -7676,7 +7730,7 @@
       <c r="F178" s="275"/>
       <c r="G178" s="39"/>
       <c r="H178" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I178" s="40">
         <v>90</v>
@@ -7724,7 +7778,7 @@
         <v>44297</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I180" s="40">
         <v>60</v>
@@ -7744,7 +7798,7 @@
       <c r="F181" s="261"/>
       <c r="G181" s="39"/>
       <c r="H181" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I181" s="40">
         <v>150</v>
@@ -7761,10 +7815,18 @@
       <c r="C182" s="1"/>
       <c r="D182" s="40"/>
       <c r="E182" s="38"/>
-      <c r="F182" s="261"/>
-      <c r="G182" s="39"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="40"/>
+      <c r="F182" s="261">
+        <v>5</v>
+      </c>
+      <c r="G182" s="39">
+        <v>44298</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I182" s="40">
+        <v>90</v>
+      </c>
       <c r="J182" s="8"/>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
@@ -7777,10 +7839,18 @@
       <c r="C183" s="1"/>
       <c r="D183" s="40"/>
       <c r="E183" s="38"/>
-      <c r="F183" s="261"/>
-      <c r="G183" s="39"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="40"/>
+      <c r="F183" s="261">
+        <v>6</v>
+      </c>
+      <c r="G183" s="39">
+        <v>44299</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I183" s="40">
+        <v>120</v>
+      </c>
       <c r="J183" s="8"/>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
@@ -7793,10 +7863,18 @@
       <c r="C184" s="1"/>
       <c r="D184" s="40"/>
       <c r="E184" s="38"/>
-      <c r="F184" s="261"/>
-      <c r="G184" s="39"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="40"/>
+      <c r="F184" s="261">
+        <v>7</v>
+      </c>
+      <c r="G184" s="39">
+        <v>44308</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I184" s="40">
+        <v>400</v>
+      </c>
       <c r="J184" s="8"/>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
@@ -7809,10 +7887,18 @@
       <c r="C185" s="1"/>
       <c r="D185" s="40"/>
       <c r="E185" s="38"/>
-      <c r="F185" s="261"/>
-      <c r="G185" s="39"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="40"/>
+      <c r="F185" s="261">
+        <v>8</v>
+      </c>
+      <c r="G185" s="39">
+        <v>44309</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I185" s="40">
+        <v>220</v>
+      </c>
       <c r="J185" s="8"/>
       <c r="K185" s="8"/>
       <c r="L185" s="8"/>
@@ -7825,10 +7911,18 @@
       <c r="C186" s="1"/>
       <c r="D186" s="40"/>
       <c r="E186" s="38"/>
-      <c r="F186" s="261"/>
-      <c r="G186" s="39"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="40"/>
+      <c r="F186" s="332">
+        <v>9</v>
+      </c>
+      <c r="G186" s="333">
+        <v>44309</v>
+      </c>
+      <c r="H186" s="334" t="s">
+        <v>474</v>
+      </c>
+      <c r="I186" s="136">
+        <v>36000</v>
+      </c>
       <c r="J186" s="8"/>
       <c r="K186" s="8"/>
       <c r="L186" s="8"/>
@@ -7843,8 +7937,12 @@
       <c r="E187" s="38"/>
       <c r="F187" s="261"/>
       <c r="G187" s="39"/>
-      <c r="H187" s="68"/>
-      <c r="I187" s="40"/>
+      <c r="H187" s="68" t="s">
+        <v>475</v>
+      </c>
+      <c r="I187" s="40">
+        <v>60</v>
+      </c>
       <c r="J187" s="8"/>
       <c r="K187" s="8"/>
       <c r="L187" s="8"/>
@@ -8013,7 +8111,7 @@
       <c r="H197" s="284"/>
       <c r="I197" s="44">
         <f>SUM(I175:I196)</f>
-        <v>6840</v>
+        <v>43730</v>
       </c>
       <c r="J197" s="8"/>
       <c r="K197" s="8"/>
@@ -8066,7 +8164,7 @@
       </c>
       <c r="D200" s="58">
         <f>I197</f>
-        <v>6840</v>
+        <v>43730</v>
       </c>
       <c r="E200" s="8"/>
       <c r="F200" s="53"/>
@@ -8103,7 +8201,7 @@
       </c>
       <c r="D202" s="62">
         <f>D199-D200</f>
-        <v>1440179</v>
+        <v>1403289</v>
       </c>
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
@@ -15102,6 +15200,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="53" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -25461,7 +25560,7 @@
   <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -25485,14 +25584,14 @@
         <v>31</v>
       </c>
       <c r="C2" s="179">
-        <f>BOFC!D170</f>
-        <v>1446419</v>
+        <f>BOFC!D202</f>
+        <v>1403289</v>
       </c>
       <c r="E2" t="s">
         <v>309</v>
       </c>
       <c r="F2" s="72">
-        <v>934000</v>
+        <v>530000</v>
       </c>
       <c r="H2" s="72"/>
     </row>
@@ -25508,7 +25607,7 @@
         <v>178</v>
       </c>
       <c r="F3" s="72">
-        <v>55000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.5">
@@ -25523,12 +25622,12 @@
         <v>260</v>
       </c>
       <c r="F4" s="72">
-        <v>800</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B5" s="84" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C5" s="179">
         <f>UlemaAsmat!D20</f>
@@ -25571,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F9" s="72">
         <v>117000</v>
@@ -25585,7 +25684,7 @@
       </c>
       <c r="C10" s="72">
         <f>Kamil!D78</f>
-        <v>0</v>
+        <v>-17000</v>
       </c>
       <c r="E10" t="s">
         <v>440</v>
@@ -25644,7 +25743,7 @@
       </c>
       <c r="I14" s="181">
         <f>C19-F19</f>
-        <v>141390</v>
+        <v>507360</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.5">
@@ -25692,7 +25791,7 @@
       </c>
       <c r="C19" s="253">
         <f>SUM(C2:C18)</f>
-        <v>3166190</v>
+        <v>3106060</v>
       </c>
       <c r="D19" s="252"/>
       <c r="E19" s="252" t="s">
@@ -25700,7 +25799,7 @@
       </c>
       <c r="F19" s="253">
         <f>SUM(F2:F18)</f>
-        <v>3024800</v>
+        <v>2598700</v>
       </c>
       <c r="K19" s="72">
         <v>956</v>
@@ -25721,10 +25820,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BA9BFA-17B0-4682-BC89-677BD0B4C364}">
-  <dimension ref="E4:P34"/>
+  <dimension ref="E4:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="B1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -25752,14 +25851,13 @@
         <v>480000</v>
       </c>
       <c r="K4" s="84"/>
-      <c r="L4" s="179"/>
+      <c r="L4" s="179">
+        <f>'GT Calc'!I14</f>
+        <v>507360</v>
+      </c>
       <c r="M4" s="84"/>
-      <c r="N4" s="84" t="s">
-        <v>457</v>
-      </c>
-      <c r="O4" s="179">
-        <v>1200000</v>
-      </c>
+      <c r="N4" s="84"/>
+      <c r="O4" s="179"/>
     </row>
     <row r="5" spans="5:15" x14ac:dyDescent="0.5">
       <c r="E5" t="s">
@@ -25782,15 +25880,9 @@
         <v>431</v>
       </c>
       <c r="L6" s="72">
-        <v>50000</v>
-      </c>
-      <c r="N6" t="s">
-        <v>442</v>
-      </c>
-      <c r="O6" s="179">
-        <f>O4-L19</f>
-        <v>770000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O6" s="179"/>
     </row>
     <row r="7" spans="5:15" x14ac:dyDescent="0.5">
       <c r="H7">
@@ -25858,9 +25950,11 @@
     </row>
     <row r="14" spans="5:15" x14ac:dyDescent="0.5">
       <c r="K14" t="s">
-        <v>444</v>
-      </c>
-      <c r="L14" s="72"/>
+        <v>443</v>
+      </c>
+      <c r="L14" s="72">
+        <v>20000</v>
+      </c>
     </row>
     <row r="15" spans="5:15" x14ac:dyDescent="0.5">
       <c r="L15" s="179"/>
@@ -25870,7 +25964,7 @@
     </row>
     <row r="17" spans="11:16" x14ac:dyDescent="0.5">
       <c r="K17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L17" s="72"/>
     </row>
@@ -25878,36 +25972,48 @@
       <c r="L18" s="72"/>
     </row>
     <row r="19" spans="11:16" x14ac:dyDescent="0.5">
-      <c r="L19" s="72">
+      <c r="K19" s="84" t="s">
+        <v>470</v>
+      </c>
+      <c r="L19" s="179">
         <f>SUM(L6:L18)</f>
-        <v>430000</v>
-      </c>
-    </row>
-    <row r="27" spans="11:16" x14ac:dyDescent="0.5">
-      <c r="N27" s="39">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="20" spans="11:16" x14ac:dyDescent="0.5">
+      <c r="K20" s="84" t="s">
+        <v>469</v>
+      </c>
+      <c r="L20" s="179">
+        <f>L4-L19</f>
+        <v>107360</v>
+      </c>
+    </row>
+    <row r="23" spans="11:16" x14ac:dyDescent="0.5">
+      <c r="N23" s="39">
         <v>44291</v>
       </c>
-      <c r="O27" t="s">
-        <v>461</v>
-      </c>
-      <c r="P27">
+      <c r="O23" t="s">
+        <v>459</v>
+      </c>
+      <c r="P23">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="11:16" x14ac:dyDescent="0.5">
-      <c r="N28" s="39">
+    <row r="24" spans="11:16" x14ac:dyDescent="0.5">
+      <c r="N24" s="39">
         <v>44292</v>
       </c>
-      <c r="O28" t="s">
-        <v>462</v>
-      </c>
-      <c r="P28">
+      <c r="O24" t="s">
+        <v>460</v>
+      </c>
+      <c r="P24">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.5">
-      <c r="P34">
-        <f>SUM(P27:P33)</f>
+    <row r="30" spans="11:16" x14ac:dyDescent="0.5">
+      <c r="P30">
+        <f>SUM(P23:P29)</f>
         <v>170</v>
       </c>
     </row>
@@ -29476,7 +29582,7 @@
         <v>44293</v>
       </c>
       <c r="C33" s="212" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D33" s="209">
         <v>2063</v>
@@ -29499,7 +29605,7 @@
         <v>44294</v>
       </c>
       <c r="C34" s="214" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D34" s="210">
         <v>2063</v>
@@ -36956,7 +37062,7 @@
   <dimension ref="A1:J771"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -36970,7 +37076,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="276" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B1" s="277"/>
       <c r="C1" s="277"/>
@@ -37044,7 +37150,7 @@
         <v>44288</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D5" s="40">
         <v>42000</v>
@@ -43961,14 +44067,14 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="4.52734375" style="80" customWidth="1"/>
     <col min="2" max="2" width="9.1171875" customWidth="1"/>
-    <col min="3" max="3" width="42.87890625" customWidth="1"/>
+    <col min="3" max="3" width="46.234375" customWidth="1"/>
     <col min="4" max="4" width="9.29296875" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="4.703125" customWidth="1"/>
@@ -44301,7 +44407,7 @@
         <v>44288</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D13" s="40">
         <v>20000</v>
@@ -44381,7 +44487,7 @@
         <v>44286</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I16" s="40">
         <v>20000</v>
@@ -44404,7 +44510,7 @@
         <v>44289</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I17" s="40">
         <v>58000</v>
@@ -45101,7 +45207,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="276" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B1" s="277"/>
       <c r="C1" s="277"/>
@@ -45389,7 +45495,7 @@
         <v>44294</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D11" s="40">
         <v>1100</v>
@@ -45448,7 +45554,7 @@
         <v>44288</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I13" s="40">
         <v>200</v>
@@ -45471,7 +45577,7 @@
         <v>44289</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I14" s="40">
         <v>700</v>
@@ -47023,8 +47129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03DA68B-CB4E-4FFC-8AF2-E82A88309945}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63:I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -47573,7 +47679,9 @@
         <v>3000</v>
       </c>
       <c r="E26" s="38"/>
-      <c r="F26" s="173"/>
+      <c r="F26" s="173">
+        <v>4</v>
+      </c>
       <c r="G26" s="39">
         <v>44228</v>
       </c>
@@ -47594,7 +47702,9 @@
       <c r="C27" s="1"/>
       <c r="D27" s="40"/>
       <c r="E27" s="38"/>
-      <c r="F27" s="173"/>
+      <c r="F27" s="173">
+        <v>5</v>
+      </c>
       <c r="G27" s="39"/>
       <c r="H27" s="1"/>
       <c r="I27" s="40"/>
@@ -48367,10 +48477,18 @@
       <c r="C67" s="1"/>
       <c r="D67" s="40"/>
       <c r="E67" s="38"/>
-      <c r="F67" s="170"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="40"/>
+      <c r="F67" s="170">
+        <v>3</v>
+      </c>
+      <c r="G67" s="39">
+        <v>44309</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I67" s="40">
+        <v>17000</v>
+      </c>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
@@ -48469,7 +48587,7 @@
       <c r="H73" s="298"/>
       <c r="I73" s="44">
         <f>SUM(I65:I72)</f>
-        <v>103500</v>
+        <v>120500</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -48519,7 +48637,7 @@
       </c>
       <c r="D76" s="58">
         <f>I73</f>
-        <v>103500</v>
+        <v>120500</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="53"/>
@@ -48554,7 +48672,7 @@
       </c>
       <c r="D78" s="62">
         <f>D75-D76</f>
-        <v>0</v>
+        <v>-17000</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="53"/>

--- a/Office Statement Expense & Expenditure.xlsx
+++ b/Office Statement Expense & Expenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Najeeb Associates\000FFICE\Office Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F906A30D-FF66-4932-A14B-CF80BB62D47C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A69FD8-4A26-4ECC-8AB8-01B0957E1066}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="820" activeTab="15" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
   </bookViews>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="471">
   <si>
     <t>Opning Balance</t>
   </si>
@@ -1675,6 +1675,9 @@
   <si>
     <t>Hanovered 5k to Ibtesam - he said Kamil told</t>
   </si>
+  <si>
+    <t>Received Cash Back 17k taken for a short while now cleared</t>
+  </si>
 </sst>
 </file>
 
@@ -3052,16 +3055,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3088,35 +3103,14 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3136,29 +3130,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3174,6 +3162,21 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15108,42 +15111,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A172:I172"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="F173:I173"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="F197:H197"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="A140:I140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="F56:H56"/>
     <mergeCell ref="A62:I62"/>
     <mergeCell ref="A63:I63"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="F64:I64"/>
     <mergeCell ref="A79:C79"/>
     <mergeCell ref="F79:H79"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="A140:I140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="A172:I172"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="F173:I173"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="F197:H197"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="53" orientation="portrait" r:id="rId1"/>
@@ -15594,21 +15597,21 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="283" t="s">
+      <c r="A18" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="284"/>
-      <c r="C18" s="284"/>
+      <c r="B18" s="288"/>
+      <c r="C18" s="288"/>
       <c r="D18" s="44">
         <f>SUM(D4:D17)</f>
         <v>15210</v>
       </c>
       <c r="E18" s="50"/>
-      <c r="F18" s="283" t="s">
+      <c r="F18" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="284"/>
-      <c r="H18" s="285"/>
+      <c r="G18" s="288"/>
+      <c r="H18" s="289"/>
       <c r="I18" s="44">
         <f>SUM(I4:I17)</f>
         <v>15210</v>
@@ -16356,21 +16359,21 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="283" t="s">
+      <c r="A7" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="284"/>
-      <c r="C7" s="284"/>
+      <c r="B7" s="288"/>
+      <c r="C7" s="288"/>
       <c r="D7" s="44">
         <f>SUM(D4:D6)</f>
         <v>0</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="283" t="s">
+      <c r="F7" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="284"/>
-      <c r="H7" s="285"/>
+      <c r="G7" s="288"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="44">
         <f>SUM(I4:I6)</f>
         <v>3000</v>
@@ -16997,18 +17000,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
       <c r="D1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="310" t="s">
+      <c r="E1" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="310"/>
+      <c r="F1" s="295"/>
       <c r="G1" s="14">
         <v>50000</v>
       </c>
@@ -17127,17 +17130,17 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A5" s="313">
+      <c r="A5" s="308">
         <v>3</v>
       </c>
-      <c r="B5" s="314">
+      <c r="B5" s="309">
         <v>44063</v>
       </c>
-      <c r="C5" s="315" t="s">
+      <c r="C5" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="316"/>
-      <c r="E5" s="317"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="312"/>
       <c r="F5" s="4">
         <v>11640</v>
       </c>
@@ -17159,11 +17162,11 @@
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A6" s="313"/>
-      <c r="B6" s="314"/>
-      <c r="C6" s="315"/>
-      <c r="D6" s="316"/>
-      <c r="E6" s="317"/>
+      <c r="A6" s="308"/>
+      <c r="B6" s="309"/>
+      <c r="C6" s="310"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="312"/>
       <c r="F6" s="4">
         <v>1700</v>
       </c>
@@ -17185,10 +17188,10 @@
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A7" s="313">
+      <c r="A7" s="308">
         <v>4</v>
       </c>
-      <c r="B7" s="314">
+      <c r="B7" s="309">
         <v>44064</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -17217,8 +17220,8 @@
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A8" s="313"/>
-      <c r="B8" s="314"/>
+      <c r="A8" s="308"/>
+      <c r="B8" s="309"/>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -17279,10 +17282,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A10" s="313">
+      <c r="A10" s="308">
         <v>6</v>
       </c>
-      <c r="B10" s="314">
+      <c r="B10" s="309">
         <v>44066</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -17311,8 +17314,8 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A11" s="313"/>
-      <c r="B11" s="314"/>
+      <c r="A11" s="308"/>
+      <c r="B11" s="309"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -17344,7 +17347,7 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="314">
+      <c r="B12" s="309">
         <v>44067</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -17376,7 +17379,7 @@
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="314"/>
+      <c r="B13" s="309"/>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
@@ -17469,12 +17472,12 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="295" t="s">
+      <c r="A16" s="304" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="295"/>
-      <c r="C16" s="295"/>
-      <c r="D16" s="296"/>
+      <c r="B16" s="304"/>
+      <c r="C16" s="304"/>
+      <c r="D16" s="305"/>
       <c r="E16" s="16">
         <f>SUM(E3:E15)</f>
         <v>0</v>
@@ -17501,10 +17504,10 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="297"/>
-      <c r="B17" s="297"/>
-      <c r="C17" s="297"/>
-      <c r="D17" s="298"/>
+      <c r="A17" s="306"/>
+      <c r="B17" s="306"/>
+      <c r="C17" s="306"/>
+      <c r="D17" s="307"/>
       <c r="E17" s="17" t="s">
         <v>61</v>
       </c>
@@ -17549,18 +17552,18 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" ht="29.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="308" t="s">
+      <c r="A19" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="309"/>
-      <c r="C19" s="309"/>
+      <c r="B19" s="303"/>
+      <c r="C19" s="303"/>
       <c r="D19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="310" t="s">
+      <c r="E19" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="310"/>
+      <c r="F19" s="295"/>
       <c r="G19" s="14">
         <v>31780</v>
       </c>
@@ -17645,10 +17648,10 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A22" s="302">
+      <c r="A22" s="299">
         <v>12</v>
       </c>
-      <c r="B22" s="299">
+      <c r="B22" s="296">
         <v>44076</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -17677,8 +17680,8 @@
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A23" s="303"/>
-      <c r="B23" s="300"/>
+      <c r="A23" s="300"/>
+      <c r="B23" s="297"/>
       <c r="C23" s="21" t="s">
         <v>21</v>
       </c>
@@ -17705,8 +17708,8 @@
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A24" s="304"/>
-      <c r="B24" s="301"/>
+      <c r="A24" s="301"/>
+      <c r="B24" s="298"/>
       <c r="C24" s="21" t="s">
         <v>22</v>
       </c>
@@ -17735,10 +17738,10 @@
       <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A25" s="302">
+      <c r="A25" s="299">
         <v>13</v>
       </c>
-      <c r="B25" s="299">
+      <c r="B25" s="296">
         <v>44077</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -17769,8 +17772,8 @@
       <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A26" s="304"/>
-      <c r="B26" s="301"/>
+      <c r="A26" s="301"/>
+      <c r="B26" s="298"/>
       <c r="C26" s="21" t="s">
         <v>26</v>
       </c>
@@ -17799,10 +17802,10 @@
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A27" s="302">
+      <c r="A27" s="299">
         <v>14</v>
       </c>
-      <c r="B27" s="299">
+      <c r="B27" s="296">
         <v>44078</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -17831,8 +17834,8 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A28" s="304"/>
-      <c r="B28" s="301"/>
+      <c r="A28" s="301"/>
+      <c r="B28" s="298"/>
       <c r="C28" s="21" t="s">
         <v>28</v>
       </c>
@@ -17861,10 +17864,10 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A29" s="302">
+      <c r="A29" s="299">
         <v>15</v>
       </c>
-      <c r="B29" s="299">
+      <c r="B29" s="296">
         <v>44079</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -17893,8 +17896,8 @@
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A30" s="303"/>
-      <c r="B30" s="300"/>
+      <c r="A30" s="300"/>
+      <c r="B30" s="297"/>
       <c r="C30" s="21" t="s">
         <v>30</v>
       </c>
@@ -17923,8 +17926,8 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A31" s="303"/>
-      <c r="B31" s="300"/>
+      <c r="A31" s="300"/>
+      <c r="B31" s="297"/>
       <c r="C31" s="21" t="s">
         <v>60</v>
       </c>
@@ -17951,8 +17954,8 @@
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A32" s="304"/>
-      <c r="B32" s="301"/>
+      <c r="A32" s="301"/>
+      <c r="B32" s="298"/>
       <c r="C32" s="23" t="s">
         <v>31</v>
       </c>
@@ -17979,10 +17982,10 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A33" s="302">
+      <c r="A33" s="299">
         <v>16</v>
       </c>
-      <c r="B33" s="299">
+      <c r="B33" s="296">
         <v>44080</v>
       </c>
       <c r="C33" s="21" t="s">
@@ -18013,8 +18016,8 @@
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A34" s="303"/>
-      <c r="B34" s="300"/>
+      <c r="A34" s="300"/>
+      <c r="B34" s="297"/>
       <c r="C34" s="21" t="s">
         <v>33</v>
       </c>
@@ -18043,8 +18046,8 @@
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A35" s="303"/>
-      <c r="B35" s="300"/>
+      <c r="A35" s="300"/>
+      <c r="B35" s="297"/>
       <c r="C35" s="21" t="s">
         <v>36</v>
       </c>
@@ -18073,8 +18076,8 @@
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A36" s="303"/>
-      <c r="B36" s="300"/>
+      <c r="A36" s="300"/>
+      <c r="B36" s="297"/>
       <c r="C36" s="21" t="s">
         <v>37</v>
       </c>
@@ -18103,8 +18106,8 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A37" s="304"/>
-      <c r="B37" s="301"/>
+      <c r="A37" s="301"/>
+      <c r="B37" s="298"/>
       <c r="C37" s="21" t="s">
         <v>39</v>
       </c>
@@ -18131,10 +18134,10 @@
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A38" s="302">
+      <c r="A38" s="299">
         <v>17</v>
       </c>
-      <c r="B38" s="299">
+      <c r="B38" s="296">
         <v>44081</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -18163,8 +18166,8 @@
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A39" s="303"/>
-      <c r="B39" s="300"/>
+      <c r="A39" s="300"/>
+      <c r="B39" s="297"/>
       <c r="C39" s="21" t="s">
         <v>28</v>
       </c>
@@ -18191,8 +18194,8 @@
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A40" s="304"/>
-      <c r="B40" s="301"/>
+      <c r="A40" s="301"/>
+      <c r="B40" s="298"/>
       <c r="C40" s="21" t="s">
         <v>40</v>
       </c>
@@ -18221,10 +18224,10 @@
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A41" s="302">
+      <c r="A41" s="299">
         <v>18</v>
       </c>
-      <c r="B41" s="299">
+      <c r="B41" s="296">
         <v>44082</v>
       </c>
       <c r="C41" s="21" t="s">
@@ -18253,8 +18256,8 @@
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A42" s="304"/>
-      <c r="B42" s="301"/>
+      <c r="A42" s="301"/>
+      <c r="B42" s="298"/>
       <c r="C42" s="21" t="s">
         <v>42</v>
       </c>
@@ -18281,10 +18284,10 @@
       <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A43" s="302">
+      <c r="A43" s="299">
         <v>19</v>
       </c>
-      <c r="B43" s="299">
+      <c r="B43" s="296">
         <v>44083</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -18313,8 +18316,8 @@
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A44" s="304"/>
-      <c r="B44" s="301"/>
+      <c r="A44" s="301"/>
+      <c r="B44" s="298"/>
       <c r="C44" s="21" t="s">
         <v>44</v>
       </c>
@@ -18341,10 +18344,10 @@
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A45" s="302">
+      <c r="A45" s="299">
         <v>20</v>
       </c>
-      <c r="B45" s="299">
+      <c r="B45" s="296">
         <v>44084</v>
       </c>
       <c r="C45" s="21" t="s">
@@ -18373,8 +18376,8 @@
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A46" s="304"/>
-      <c r="B46" s="301"/>
+      <c r="A46" s="301"/>
+      <c r="B46" s="298"/>
       <c r="C46" s="21" t="s">
         <v>45</v>
       </c>
@@ -18401,10 +18404,10 @@
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A47" s="302">
+      <c r="A47" s="299">
         <v>21</v>
       </c>
-      <c r="B47" s="299">
+      <c r="B47" s="296">
         <v>44085</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -18433,8 +18436,8 @@
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A48" s="303"/>
-      <c r="B48" s="300"/>
+      <c r="A48" s="300"/>
+      <c r="B48" s="297"/>
       <c r="C48" s="21" t="s">
         <v>46</v>
       </c>
@@ -18461,8 +18464,8 @@
       <c r="S48" s="8"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A49" s="303"/>
-      <c r="B49" s="300"/>
+      <c r="A49" s="300"/>
+      <c r="B49" s="297"/>
       <c r="C49" s="21" t="s">
         <v>47</v>
       </c>
@@ -18489,8 +18492,8 @@
       <c r="S49" s="8"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A50" s="303"/>
-      <c r="B50" s="300"/>
+      <c r="A50" s="300"/>
+      <c r="B50" s="297"/>
       <c r="C50" s="23" t="s">
         <v>31</v>
       </c>
@@ -18517,8 +18520,8 @@
       <c r="S50" s="8"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A51" s="304"/>
-      <c r="B51" s="301"/>
+      <c r="A51" s="301"/>
+      <c r="B51" s="298"/>
       <c r="C51" s="21" t="s">
         <v>44</v>
       </c>
@@ -18547,10 +18550,10 @@
       <c r="S51" s="8"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A52" s="302">
+      <c r="A52" s="299">
         <v>22</v>
       </c>
-      <c r="B52" s="299">
+      <c r="B52" s="296">
         <v>44086</v>
       </c>
       <c r="C52" s="21" t="s">
@@ -18581,8 +18584,8 @@
       <c r="S52" s="8"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A53" s="304"/>
-      <c r="B53" s="301"/>
+      <c r="A53" s="301"/>
+      <c r="B53" s="298"/>
       <c r="C53" s="21" t="s">
         <v>50</v>
       </c>
@@ -18609,10 +18612,10 @@
       <c r="S53" s="8"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A54" s="302">
+      <c r="A54" s="299">
         <v>23</v>
       </c>
-      <c r="B54" s="299">
+      <c r="B54" s="296">
         <v>44087</v>
       </c>
       <c r="C54" s="21" t="s">
@@ -18641,8 +18644,8 @@
       <c r="S54" s="8"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A55" s="303"/>
-      <c r="B55" s="300"/>
+      <c r="A55" s="300"/>
+      <c r="B55" s="297"/>
       <c r="C55" s="21" t="s">
         <v>28</v>
       </c>
@@ -18669,8 +18672,8 @@
       <c r="S55" s="8"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A56" s="303"/>
-      <c r="B56" s="300"/>
+      <c r="A56" s="300"/>
+      <c r="B56" s="297"/>
       <c r="C56" s="21" t="s">
         <v>51</v>
       </c>
@@ -18697,8 +18700,8 @@
       <c r="S56" s="8"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A57" s="303"/>
-      <c r="B57" s="300"/>
+      <c r="A57" s="300"/>
+      <c r="B57" s="297"/>
       <c r="C57" s="23" t="s">
         <v>31</v>
       </c>
@@ -18823,10 +18826,10 @@
       <c r="S60" s="8"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A61" s="302">
+      <c r="A61" s="299">
         <v>27</v>
       </c>
-      <c r="B61" s="299">
+      <c r="B61" s="296">
         <v>44091</v>
       </c>
       <c r="C61" s="21" t="s">
@@ -18855,8 +18858,8 @@
       <c r="S61" s="8"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A62" s="304"/>
-      <c r="B62" s="301"/>
+      <c r="A62" s="301"/>
+      <c r="B62" s="298"/>
       <c r="C62" s="21" t="s">
         <v>44</v>
       </c>
@@ -18915,10 +18918,10 @@
       <c r="S63" s="8"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A64" s="302">
+      <c r="A64" s="299">
         <v>29</v>
       </c>
-      <c r="B64" s="299">
+      <c r="B64" s="296">
         <v>44093</v>
       </c>
       <c r="C64" s="21" t="s">
@@ -18947,8 +18950,8 @@
       <c r="S64" s="8"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A65" s="304"/>
-      <c r="B65" s="301"/>
+      <c r="A65" s="301"/>
+      <c r="B65" s="298"/>
       <c r="C65" s="21" t="s">
         <v>18</v>
       </c>
@@ -19143,10 +19146,10 @@
       <c r="B71" s="28">
         <v>44101</v>
       </c>
-      <c r="C71" s="311" t="s">
+      <c r="C71" s="313" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="312"/>
+      <c r="D71" s="314"/>
       <c r="E71" s="26">
         <v>0</v>
       </c>
@@ -19171,10 +19174,10 @@
       <c r="S71" s="8"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A72" s="302">
+      <c r="A72" s="299">
         <v>37</v>
       </c>
-      <c r="B72" s="299">
+      <c r="B72" s="296">
         <v>44103</v>
       </c>
       <c r="C72" s="21" t="s">
@@ -19203,12 +19206,12 @@
       <c r="S72" s="8"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A73" s="304"/>
-      <c r="B73" s="301"/>
-      <c r="C73" s="311" t="s">
+      <c r="A73" s="301"/>
+      <c r="B73" s="298"/>
+      <c r="C73" s="313" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="312"/>
+      <c r="D73" s="314"/>
       <c r="E73" s="6">
         <v>100000</v>
       </c>
@@ -19265,12 +19268,12 @@
       <c r="S74" s="8"/>
     </row>
     <row r="75" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="295" t="s">
+      <c r="A75" s="304" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="295"/>
-      <c r="C75" s="295"/>
-      <c r="D75" s="296"/>
+      <c r="B75" s="304"/>
+      <c r="C75" s="304"/>
+      <c r="D75" s="305"/>
       <c r="E75" s="16">
         <f>SUM(E21:E74)</f>
         <v>132000</v>
@@ -19297,10 +19300,10 @@
       <c r="S75" s="8"/>
     </row>
     <row r="76" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="297"/>
-      <c r="B76" s="297"/>
-      <c r="C76" s="297"/>
-      <c r="D76" s="298"/>
+      <c r="A76" s="306"/>
+      <c r="B76" s="306"/>
+      <c r="C76" s="306"/>
+      <c r="D76" s="307"/>
       <c r="E76" s="17" t="s">
         <v>61</v>
       </c>
@@ -19345,18 +19348,18 @@
       <c r="S77" s="8"/>
     </row>
     <row r="78" spans="1:19" ht="27.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="308" t="s">
+      <c r="A78" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="309"/>
-      <c r="C78" s="309"/>
+      <c r="B78" s="303"/>
+      <c r="C78" s="303"/>
       <c r="D78" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E78" s="310" t="s">
+      <c r="E78" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="F78" s="310"/>
+      <c r="F78" s="295"/>
       <c r="G78" s="14">
         <f>G75</f>
         <v>137640</v>
@@ -19410,10 +19413,10 @@
       <c r="S79" s="8"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A80" s="302">
+      <c r="A80" s="299">
         <v>39</v>
       </c>
-      <c r="B80" s="299">
+      <c r="B80" s="296">
         <v>44105</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -19442,8 +19445,8 @@
       <c r="S80" s="8"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A81" s="303"/>
-      <c r="B81" s="300"/>
+      <c r="A81" s="300"/>
+      <c r="B81" s="297"/>
       <c r="C81" s="1" t="s">
         <v>70</v>
       </c>
@@ -19470,8 +19473,8 @@
       <c r="S81" s="8"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A82" s="303"/>
-      <c r="B82" s="300"/>
+      <c r="A82" s="300"/>
+      <c r="B82" s="297"/>
       <c r="C82" s="34" t="s">
         <v>76</v>
       </c>
@@ -19500,9 +19503,9 @@
       <c r="S82" s="8"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A83" s="303"/>
-      <c r="B83" s="300"/>
-      <c r="C83" s="305" t="s">
+      <c r="A83" s="300"/>
+      <c r="B83" s="297"/>
+      <c r="C83" s="315" t="s">
         <v>77</v>
       </c>
       <c r="D83" s="32" t="s">
@@ -19530,9 +19533,9 @@
       <c r="S83" s="8"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A84" s="303"/>
-      <c r="B84" s="300"/>
-      <c r="C84" s="306"/>
+      <c r="A84" s="300"/>
+      <c r="B84" s="297"/>
+      <c r="C84" s="316"/>
       <c r="D84" s="32" t="s">
         <v>71</v>
       </c>
@@ -19558,9 +19561,9 @@
       <c r="S84" s="8"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A85" s="303"/>
-      <c r="B85" s="300"/>
-      <c r="C85" s="306"/>
+      <c r="A85" s="300"/>
+      <c r="B85" s="297"/>
+      <c r="C85" s="316"/>
       <c r="D85" s="32" t="s">
         <v>73</v>
       </c>
@@ -19586,9 +19589,9 @@
       <c r="S85" s="8"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A86" s="304"/>
-      <c r="B86" s="301"/>
-      <c r="C86" s="307"/>
+      <c r="A86" s="301"/>
+      <c r="B86" s="298"/>
+      <c r="C86" s="317"/>
       <c r="D86" s="32" t="s">
         <v>74</v>
       </c>
@@ -19646,10 +19649,10 @@
       <c r="S87" s="8"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A88" s="302">
+      <c r="A88" s="299">
         <v>41</v>
       </c>
-      <c r="B88" s="299">
+      <c r="B88" s="296">
         <v>44108</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -19678,8 +19681,8 @@
       <c r="S88" s="8"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A89" s="304"/>
-      <c r="B89" s="301"/>
+      <c r="A89" s="301"/>
+      <c r="B89" s="298"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="4"/>
@@ -19768,10 +19771,10 @@
       <c r="S91" s="8"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A92" s="302">
+      <c r="A92" s="299">
         <v>44</v>
       </c>
-      <c r="B92" s="299">
+      <c r="B92" s="296">
         <v>44112</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -19800,8 +19803,8 @@
       <c r="S92" s="8"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A93" s="303"/>
-      <c r="B93" s="300"/>
+      <c r="A93" s="300"/>
+      <c r="B93" s="297"/>
       <c r="C93" s="1" t="s">
         <v>113</v>
       </c>
@@ -19828,8 +19831,8 @@
       <c r="S93" s="8"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A94" s="303"/>
-      <c r="B94" s="300"/>
+      <c r="A94" s="300"/>
+      <c r="B94" s="297"/>
       <c r="C94" s="1" t="s">
         <v>98</v>
       </c>
@@ -19858,8 +19861,8 @@
       <c r="S94" s="8"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A95" s="304"/>
-      <c r="B95" s="301"/>
+      <c r="A95" s="301"/>
+      <c r="B95" s="298"/>
       <c r="C95" s="1" t="s">
         <v>111</v>
       </c>
@@ -20318,12 +20321,12 @@
       <c r="S113" s="8"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A114" s="295" t="s">
+      <c r="A114" s="304" t="s">
         <v>57</v>
       </c>
-      <c r="B114" s="295"/>
-      <c r="C114" s="295"/>
-      <c r="D114" s="296"/>
+      <c r="B114" s="304"/>
+      <c r="C114" s="304"/>
+      <c r="D114" s="305"/>
       <c r="E114" s="16">
         <f>SUM(E80:E113)</f>
         <v>600000</v>
@@ -20350,10 +20353,10 @@
       <c r="S114" s="8"/>
     </row>
     <row r="115" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="297"/>
-      <c r="B115" s="297"/>
-      <c r="C115" s="297"/>
-      <c r="D115" s="298"/>
+      <c r="A115" s="306"/>
+      <c r="B115" s="306"/>
+      <c r="C115" s="306"/>
+      <c r="D115" s="307"/>
       <c r="E115" s="17" t="s">
         <v>61</v>
       </c>
@@ -23535,50 +23538,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C73:D73"/>
     <mergeCell ref="A114:D115"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="A38:A40"/>
@@ -23593,6 +23552,50 @@
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="B92:B95"/>
     <mergeCell ref="A92:A95"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A37"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="73" orientation="portrait" r:id="rId1"/>
@@ -24421,21 +24424,21 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="283" t="s">
+      <c r="A7" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="284"/>
-      <c r="C7" s="284"/>
+      <c r="B7" s="288"/>
+      <c r="C7" s="288"/>
       <c r="D7" s="44">
         <f>SUM(D4:D6)</f>
         <v>50000</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="283" t="s">
+      <c r="F7" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="284"/>
-      <c r="H7" s="285"/>
+      <c r="G7" s="288"/>
+      <c r="H7" s="289"/>
       <c r="I7" s="44">
         <f>SUM(I4:I6)</f>
         <v>50000</v>
@@ -25044,7 +25047,7 @@
   <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -25075,7 +25078,7 @@
         <v>307</v>
       </c>
       <c r="F2" s="72">
-        <v>425000</v>
+        <v>440000</v>
       </c>
       <c r="H2" s="72"/>
     </row>
@@ -25106,7 +25109,7 @@
         <v>258</v>
       </c>
       <c r="F4" s="72">
-        <v>2850</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.5">
@@ -25174,7 +25177,7 @@
       </c>
       <c r="C10" s="72">
         <f>Kamil!D78</f>
-        <v>-17000</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>428</v>
@@ -25233,7 +25236,7 @@
       </c>
       <c r="I14" s="181">
         <f>C19-F19</f>
-        <v>507960</v>
+        <v>508010</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.5">
@@ -25281,7 +25284,7 @@
       </c>
       <c r="C19" s="242">
         <f>SUM(C2:C18)</f>
-        <v>3012810</v>
+        <v>3029810</v>
       </c>
       <c r="D19" s="241"/>
       <c r="E19" s="241" t="s">
@@ -25289,7 +25292,7 @@
       </c>
       <c r="F19" s="242">
         <f>SUM(F2:F18)</f>
-        <v>2504850</v>
+        <v>2521800</v>
       </c>
       <c r="K19" s="72">
         <v>956</v>
@@ -25313,7 +25316,7 @@
   <dimension ref="D4:I30"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -25329,7 +25332,7 @@
       </c>
       <c r="E4" s="179">
         <f>'GT Calc'!I14</f>
-        <v>507960</v>
+        <v>508010</v>
       </c>
       <c r="F4" s="84"/>
       <c r="G4" s="84"/>
@@ -25402,9 +25405,7 @@
       <c r="D14" t="s">
         <v>431</v>
       </c>
-      <c r="E14" s="72">
-        <v>20000</v>
-      </c>
+      <c r="E14" s="72"/>
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.5">
       <c r="E15" s="179"/>
@@ -25427,7 +25428,7 @@
       </c>
       <c r="E19" s="179">
         <f>SUM(E6:E18)</f>
-        <v>400000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.5">
@@ -25436,7 +25437,7 @@
       </c>
       <c r="E20" s="179">
         <f>E4-E19</f>
-        <v>107960</v>
+        <v>128010</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.5">
@@ -28293,11 +28294,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="F91:H91"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="F39:I39"/>
     <mergeCell ref="A51:C51"/>
@@ -28313,11 +28314,11 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A78:I78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="F71:H71"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -28347,19 +28348,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="290" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="288"/>
-      <c r="G1" s="281" t="s">
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="292"/>
+      <c r="G1" s="285" t="s">
         <v>411</v>
       </c>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -28381,18 +28382,18 @@
         <v>4</v>
       </c>
       <c r="F2" s="227"/>
-      <c r="G2" s="282" t="s">
+      <c r="G2" s="286" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
       <c r="K2" s="227"/>
       <c r="L2" s="227"/>
       <c r="M2" s="227"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A3" s="277">
+      <c r="A3" s="280">
         <v>1</v>
       </c>
       <c r="B3" s="200">
@@ -28404,7 +28405,7 @@
       <c r="D3" s="198">
         <v>30000</v>
       </c>
-      <c r="E3" s="279">
+      <c r="E3" s="278">
         <f>D4-D3</f>
         <v>-30000</v>
       </c>
@@ -28425,11 +28426,11 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A4" s="278"/>
+      <c r="A4" s="281"/>
       <c r="B4" s="202"/>
       <c r="C4" s="203"/>
       <c r="D4" s="199"/>
-      <c r="E4" s="280"/>
+      <c r="E4" s="279"/>
       <c r="G4" s="219">
         <v>1</v>
       </c>
@@ -28465,7 +28466,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A6" s="277">
+      <c r="A6" s="280">
         <v>2</v>
       </c>
       <c r="B6" s="200">
@@ -28477,7 +28478,7 @@
       <c r="D6" s="198">
         <v>5000</v>
       </c>
-      <c r="E6" s="279">
+      <c r="E6" s="278">
         <f>D7-D6</f>
         <v>-5000</v>
       </c>
@@ -28498,11 +28499,11 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A7" s="278"/>
+      <c r="A7" s="281"/>
       <c r="B7" s="202"/>
       <c r="C7" s="203"/>
       <c r="D7" s="199"/>
-      <c r="E7" s="280"/>
+      <c r="E7" s="279"/>
       <c r="G7" s="219">
         <v>3</v>
       </c>
@@ -28538,7 +28539,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A9" s="277">
+      <c r="A9" s="280">
         <v>4</v>
       </c>
       <c r="B9" s="200">
@@ -28550,7 +28551,7 @@
       <c r="D9" s="198">
         <v>3070</v>
       </c>
-      <c r="E9" s="279">
+      <c r="E9" s="278">
         <f>D10-D9</f>
         <v>-3070</v>
       </c>
@@ -28571,11 +28572,11 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A10" s="278"/>
+      <c r="A10" s="281"/>
       <c r="B10" s="202"/>
       <c r="C10" s="203"/>
       <c r="D10" s="199"/>
-      <c r="E10" s="280"/>
+      <c r="E10" s="279"/>
       <c r="G10" s="219">
         <v>5</v>
       </c>
@@ -28615,7 +28616,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A12" s="277">
+      <c r="A12" s="280">
         <v>5</v>
       </c>
       <c r="B12" s="200">
@@ -28627,7 +28628,7 @@
       <c r="D12" s="198">
         <v>5000</v>
       </c>
-      <c r="E12" s="279">
+      <c r="E12" s="278">
         <f>D13-D12</f>
         <v>-5000</v>
       </c>
@@ -28648,11 +28649,11 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A13" s="278"/>
+      <c r="A13" s="281"/>
       <c r="B13" s="202"/>
       <c r="C13" s="203"/>
       <c r="D13" s="199"/>
-      <c r="E13" s="280"/>
+      <c r="E13" s="279"/>
       <c r="G13" s="1"/>
       <c r="H13" s="222"/>
       <c r="I13" s="1"/>
@@ -28676,7 +28677,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A15" s="277">
+      <c r="A15" s="280">
         <v>6</v>
       </c>
       <c r="B15" s="200">
@@ -28688,7 +28689,7 @@
       <c r="D15" s="198">
         <v>5000</v>
       </c>
-      <c r="E15" s="279">
+      <c r="E15" s="278">
         <f>D16-D15</f>
         <v>-5000</v>
       </c>
@@ -28701,11 +28702,11 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A16" s="278"/>
+      <c r="A16" s="281"/>
       <c r="B16" s="202"/>
       <c r="C16" s="203"/>
       <c r="D16" s="199"/>
-      <c r="E16" s="280"/>
+      <c r="E16" s="279"/>
       <c r="G16" s="1"/>
       <c r="H16" s="223"/>
       <c r="I16" s="1"/>
@@ -28729,7 +28730,7 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A18" s="277">
+      <c r="A18" s="280">
         <v>7</v>
       </c>
       <c r="B18" s="200">
@@ -28741,15 +28742,15 @@
       <c r="D18" s="198">
         <v>5000</v>
       </c>
-      <c r="E18" s="279">
+      <c r="E18" s="278">
         <f>D19-D18</f>
         <v>-5000</v>
       </c>
-      <c r="G18" s="283" t="s">
+      <c r="G18" s="287" t="s">
         <v>144</v>
       </c>
-      <c r="H18" s="284"/>
-      <c r="I18" s="285"/>
+      <c r="H18" s="288"/>
+      <c r="I18" s="289"/>
       <c r="J18" s="44">
         <f>SUM(J4:J17)</f>
         <v>0</v>
@@ -28759,11 +28760,11 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A19" s="278"/>
+      <c r="A19" s="281"/>
       <c r="B19" s="202"/>
       <c r="C19" s="203"/>
       <c r="D19" s="199"/>
-      <c r="E19" s="280"/>
+      <c r="E19" s="279"/>
       <c r="G19" s="55"/>
       <c r="H19" s="225"/>
       <c r="I19" s="55"/>
@@ -28789,7 +28790,7 @@
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A21" s="277">
+      <c r="A21" s="280">
         <v>8</v>
       </c>
       <c r="B21" s="200">
@@ -28801,7 +28802,7 @@
       <c r="D21" s="198">
         <v>600</v>
       </c>
-      <c r="E21" s="279">
+      <c r="E21" s="278">
         <f>D22-D21</f>
         <v>-600</v>
       </c>
@@ -28822,11 +28823,11 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A22" s="278"/>
+      <c r="A22" s="281"/>
       <c r="B22" s="202"/>
       <c r="C22" s="203"/>
       <c r="D22" s="199"/>
-      <c r="E22" s="280"/>
+      <c r="E22" s="279"/>
       <c r="G22" s="220">
         <v>1</v>
       </c>
@@ -28866,7 +28867,7 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A24" s="277">
+      <c r="A24" s="280">
         <v>9</v>
       </c>
       <c r="B24" s="200">
@@ -28878,7 +28879,7 @@
       <c r="D24" s="198">
         <v>5000</v>
       </c>
-      <c r="E24" s="279">
+      <c r="E24" s="278">
         <f>D25-D24</f>
         <v>-5000</v>
       </c>
@@ -28891,11 +28892,11 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A25" s="278"/>
+      <c r="A25" s="281"/>
       <c r="B25" s="202"/>
       <c r="C25" s="203"/>
       <c r="D25" s="199"/>
-      <c r="E25" s="280"/>
+      <c r="E25" s="279"/>
       <c r="G25" s="220"/>
       <c r="H25" s="223"/>
       <c r="I25" s="1"/>
@@ -28919,7 +28920,7 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A27" s="277">
+      <c r="A27" s="280">
         <v>10</v>
       </c>
       <c r="B27" s="200">
@@ -28931,7 +28932,7 @@
       <c r="D27" s="198">
         <v>5000</v>
       </c>
-      <c r="E27" s="279">
+      <c r="E27" s="278">
         <f>D28-D27</f>
         <v>-5000</v>
       </c>
@@ -28944,11 +28945,11 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A28" s="278"/>
+      <c r="A28" s="281"/>
       <c r="B28" s="202"/>
       <c r="C28" s="203"/>
       <c r="D28" s="199"/>
-      <c r="E28" s="280"/>
+      <c r="E28" s="279"/>
       <c r="G28" s="220"/>
       <c r="H28" s="223"/>
       <c r="I28" s="1"/>
@@ -28972,7 +28973,7 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A30" s="277">
+      <c r="A30" s="280">
         <v>11</v>
       </c>
       <c r="B30" s="200">
@@ -28984,7 +28985,7 @@
       <c r="D30" s="198">
         <v>5000</v>
       </c>
-      <c r="E30" s="279">
+      <c r="E30" s="278">
         <f>D31-D30</f>
         <v>-5000</v>
       </c>
@@ -28997,11 +28998,11 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="278"/>
+      <c r="A31" s="281"/>
       <c r="B31" s="202"/>
       <c r="C31" s="203"/>
       <c r="D31" s="199"/>
-      <c r="E31" s="280"/>
+      <c r="E31" s="279"/>
       <c r="G31" s="1"/>
       <c r="H31" s="222"/>
       <c r="I31" s="1"/>
@@ -29025,7 +29026,7 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A33" s="277">
+      <c r="A33" s="280">
         <v>12</v>
       </c>
       <c r="B33" s="200">
@@ -29037,7 +29038,7 @@
       <c r="D33" s="198">
         <v>2063</v>
       </c>
-      <c r="E33" s="279">
+      <c r="E33" s="278">
         <f>D34-D33</f>
         <v>0</v>
       </c>
@@ -29050,7 +29051,7 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A34" s="278"/>
+      <c r="A34" s="281"/>
       <c r="B34" s="202">
         <v>44294</v>
       </c>
@@ -29060,7 +29061,7 @@
       <c r="D34" s="199">
         <v>2063</v>
       </c>
-      <c r="E34" s="280"/>
+      <c r="E34" s="279"/>
       <c r="G34" s="1"/>
       <c r="H34" s="223"/>
       <c r="I34" s="1"/>
@@ -29084,13 +29085,13 @@
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A36" s="277">
+      <c r="A36" s="280">
         <v>13</v>
       </c>
       <c r="B36" s="200"/>
       <c r="C36" s="201"/>
       <c r="D36" s="198"/>
-      <c r="E36" s="279">
+      <c r="E36" s="278">
         <f>D37-D36</f>
         <v>0</v>
       </c>
@@ -29108,11 +29109,11 @@
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A37" s="278"/>
+      <c r="A37" s="281"/>
       <c r="B37" s="202"/>
       <c r="C37" s="203"/>
       <c r="D37" s="199"/>
-      <c r="E37" s="280"/>
+      <c r="E37" s="279"/>
       <c r="G37" s="8"/>
       <c r="H37" s="230"/>
       <c r="I37" s="8"/>
@@ -29136,13 +29137,13 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A39" s="277">
+      <c r="A39" s="280">
         <v>14</v>
       </c>
       <c r="B39" s="200"/>
       <c r="C39" s="201"/>
       <c r="D39" s="198"/>
-      <c r="E39" s="279">
+      <c r="E39" s="278">
         <f>D40-D39</f>
         <v>0</v>
       </c>
@@ -29155,11 +29156,11 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A40" s="278"/>
+      <c r="A40" s="281"/>
       <c r="B40" s="202"/>
       <c r="C40" s="203"/>
       <c r="D40" s="199"/>
-      <c r="E40" s="280"/>
+      <c r="E40" s="279"/>
       <c r="G40" s="8"/>
       <c r="H40" s="230"/>
       <c r="I40" s="8"/>
@@ -29183,13 +29184,13 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A42" s="277">
+      <c r="A42" s="280">
         <v>15</v>
       </c>
       <c r="B42" s="200"/>
       <c r="C42" s="201"/>
       <c r="D42" s="198"/>
-      <c r="E42" s="279">
+      <c r="E42" s="278">
         <f>D43-D42</f>
         <v>0</v>
       </c>
@@ -29202,11 +29203,11 @@
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A43" s="278"/>
+      <c r="A43" s="281"/>
       <c r="B43" s="202"/>
       <c r="C43" s="203"/>
       <c r="D43" s="199"/>
-      <c r="E43" s="280"/>
+      <c r="E43" s="279"/>
       <c r="G43" s="8"/>
       <c r="H43" s="230"/>
       <c r="I43" s="8"/>
@@ -29230,12 +29231,12 @@
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:13" ht="29.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="290" t="s">
+      <c r="A45" s="282" t="s">
         <v>396</v>
       </c>
-      <c r="B45" s="291"/>
-      <c r="C45" s="291"/>
-      <c r="D45" s="292"/>
+      <c r="B45" s="283"/>
+      <c r="C45" s="283"/>
+      <c r="D45" s="284"/>
       <c r="E45" s="208">
         <f>SUM(E3:E44)</f>
         <v>-68670</v>
@@ -29252,8 +29253,8 @@
       <c r="A46" s="79"/>
       <c r="B46" s="228"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="289"/>
-      <c r="E46" s="289"/>
+      <c r="D46" s="277"/>
+      <c r="E46" s="277"/>
       <c r="G46" s="8"/>
       <c r="H46" s="230"/>
       <c r="I46" s="8"/>
@@ -29438,15 +29439,17 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G18:I18"/>
@@ -29463,17 +29466,15 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -44016,21 +44017,21 @@
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="283" t="s">
+      <c r="A21" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="284"/>
-      <c r="C21" s="284"/>
+      <c r="B21" s="288"/>
+      <c r="C21" s="288"/>
       <c r="D21" s="44">
         <f>SUM(D4:D20)</f>
         <v>737500</v>
       </c>
       <c r="E21" s="50"/>
-      <c r="F21" s="283" t="s">
+      <c r="F21" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="284"/>
-      <c r="H21" s="285"/>
+      <c r="G21" s="288"/>
+      <c r="H21" s="289"/>
       <c r="I21" s="44">
         <f>SUM(I4:I20)</f>
         <v>737500</v>
@@ -45068,21 +45069,21 @@
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="283" t="s">
+      <c r="A17" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="284"/>
-      <c r="C17" s="284"/>
+      <c r="B17" s="288"/>
+      <c r="C17" s="288"/>
       <c r="D17" s="44">
         <f>SUM(D4:D16)</f>
         <v>284100</v>
       </c>
       <c r="E17" s="50"/>
-      <c r="F17" s="283" t="s">
+      <c r="F17" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="284"/>
-      <c r="H17" s="285"/>
+      <c r="G17" s="288"/>
+      <c r="H17" s="289"/>
       <c r="I17" s="44">
         <f>SUM(I4:I16)</f>
         <v>284115</v>
@@ -45957,21 +45958,21 @@
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="283" t="s">
+      <c r="A14" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="284"/>
-      <c r="C14" s="284"/>
+      <c r="B14" s="288"/>
+      <c r="C14" s="288"/>
       <c r="D14" s="44">
         <f>SUM(D4:D13)</f>
         <v>120000</v>
       </c>
       <c r="E14" s="50"/>
-      <c r="F14" s="283" t="s">
+      <c r="F14" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="284"/>
-      <c r="H14" s="285"/>
+      <c r="G14" s="288"/>
+      <c r="H14" s="289"/>
       <c r="I14" s="44">
         <f>SUM(I4:I13)</f>
         <v>120000</v>
@@ -46579,8 +46580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03DA68B-CB4E-4FFC-8AF2-E82A88309945}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -46830,21 +46831,21 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="283" t="s">
+      <c r="A13" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="284"/>
-      <c r="C13" s="284"/>
+      <c r="B13" s="288"/>
+      <c r="C13" s="288"/>
       <c r="D13" s="44">
         <f>SUM(D4:D12)</f>
         <v>260000</v>
       </c>
       <c r="E13" s="50"/>
-      <c r="F13" s="283" t="s">
+      <c r="F13" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="284"/>
-      <c r="H13" s="285"/>
+      <c r="G13" s="288"/>
+      <c r="H13" s="289"/>
       <c r="I13" s="44">
         <f>SUM(I4:I12)</f>
         <v>260000</v>
@@ -47209,21 +47210,21 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="283" t="s">
+      <c r="A31" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="284"/>
-      <c r="C31" s="284"/>
+      <c r="B31" s="288"/>
+      <c r="C31" s="288"/>
       <c r="D31" s="44">
         <f>SUM(D23:D30)</f>
         <v>413000</v>
       </c>
       <c r="E31" s="50"/>
-      <c r="F31" s="283" t="s">
+      <c r="F31" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="284"/>
-      <c r="H31" s="285"/>
+      <c r="G31" s="288"/>
+      <c r="H31" s="289"/>
       <c r="I31" s="44">
         <f>SUM(I23:I30)</f>
         <v>413000</v>
@@ -47671,21 +47672,21 @@
       <c r="M54" s="8"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A55" s="283" t="s">
+      <c r="A55" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="284"/>
-      <c r="C55" s="284"/>
+      <c r="B55" s="288"/>
+      <c r="C55" s="288"/>
       <c r="D55" s="44">
         <f>SUM(D43:D54)</f>
         <v>1203500</v>
       </c>
       <c r="E55" s="50"/>
-      <c r="F55" s="283" t="s">
+      <c r="F55" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G55" s="284"/>
-      <c r="H55" s="285"/>
+      <c r="G55" s="288"/>
+      <c r="H55" s="289"/>
       <c r="I55" s="44">
         <f>SUM(I43:I54)</f>
         <v>1208500</v>
@@ -47930,10 +47931,18 @@
       <c r="M66" s="8"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A67" s="170"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="40"/>
+      <c r="A67" s="170">
+        <v>3</v>
+      </c>
+      <c r="B67" s="39">
+        <v>44312</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D67" s="40">
+        <v>17000</v>
+      </c>
       <c r="E67" s="38"/>
       <c r="F67" s="170">
         <v>3</v>
@@ -48028,21 +48037,21 @@
       <c r="M72" s="8"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A73" s="283" t="s">
+      <c r="A73" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="284"/>
-      <c r="C73" s="284"/>
+      <c r="B73" s="288"/>
+      <c r="C73" s="288"/>
       <c r="D73" s="44">
         <f>SUM(D65:D72)</f>
-        <v>103500</v>
+        <v>120500</v>
       </c>
       <c r="E73" s="50"/>
-      <c r="F73" s="283" t="s">
+      <c r="F73" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G73" s="284"/>
-      <c r="H73" s="285"/>
+      <c r="G73" s="288"/>
+      <c r="H73" s="289"/>
       <c r="I73" s="44">
         <f>SUM(I65:I72)</f>
         <v>120500</v>
@@ -48075,7 +48084,7 @@
       </c>
       <c r="D75" s="58">
         <f>D73</f>
-        <v>103500</v>
+        <v>120500</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="53"/>
@@ -48130,7 +48139,7 @@
       </c>
       <c r="D78" s="62">
         <f>D75-D76</f>
-        <v>-17000</v>
+        <v>0</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="53"/>
@@ -48377,21 +48386,21 @@
       <c r="M90" s="8"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A91" s="283" t="s">
+      <c r="A91" s="287" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="284"/>
-      <c r="C91" s="284"/>
+      <c r="B91" s="288"/>
+      <c r="C91" s="288"/>
       <c r="D91" s="44">
         <f>SUM(D83:D90)</f>
         <v>120000</v>
       </c>
       <c r="E91" s="50"/>
-      <c r="F91" s="283" t="s">
+      <c r="F91" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="G91" s="284"/>
-      <c r="H91" s="285"/>
+      <c r="G91" s="288"/>
+      <c r="H91" s="289"/>
       <c r="I91" s="44">
         <f>SUM(I83:I90)</f>
         <v>120000</v>
@@ -48473,31 +48482,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="F73:H73"/>
     <mergeCell ref="A80:I80"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="F81:I81"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="F91:H91"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="F55:H55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Office Statement Expense & Expenditure.xlsx
+++ b/Office Statement Expense & Expenditure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Najeeb Associates\000FFICE\Office Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0949F352-8114-416B-A6C8-288E7F17F4FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8B9691-258E-4B59-BF3E-7248F1656AE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="820" activeTab="15" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="820" activeTab="16" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
   </bookViews>
   <sheets>
     <sheet name="BOFC" sheetId="4" r:id="rId1"/>
@@ -1583,9 +1583,6 @@
     <t>Handovered 58k Remaining from 209k of sunny - cleared</t>
   </si>
   <si>
-    <t>New Project</t>
-  </si>
-  <si>
     <t>Drinking water Office - 2 Canes</t>
   </si>
   <si>
@@ -1683,6 +1680,9 @@
   </si>
   <si>
     <t>Farooq - Going home, was ill</t>
+  </si>
+  <si>
+    <t>2 files sunny k pas hai</t>
   </si>
 </sst>
 </file>
@@ -3061,28 +3061,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3109,14 +3097,35 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3136,23 +3145,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3168,21 +3183,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4120,7 +4120,7 @@
         <v>44127</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I25" s="40">
         <v>3000</v>
@@ -4252,7 +4252,7 @@
         <v>44132</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I31" s="40">
         <v>180</v>
@@ -5256,7 +5256,7 @@
         <v>44191</v>
       </c>
       <c r="H75" s="68" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I75" s="69">
         <v>7000</v>
@@ -7572,7 +7572,7 @@
       <c r="F173" s="258"/>
       <c r="G173" s="39"/>
       <c r="H173" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I173" s="40">
         <v>120</v>
@@ -7604,7 +7604,7 @@
         <v>44292</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I174" s="40">
         <v>200</v>
@@ -7624,7 +7624,7 @@
       <c r="F175" s="260"/>
       <c r="G175" s="39"/>
       <c r="H175" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I175" s="40">
         <v>90</v>
@@ -7672,7 +7672,7 @@
         <v>44297</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I177" s="40">
         <v>60</v>
@@ -7692,7 +7692,7 @@
       <c r="F178" s="246"/>
       <c r="G178" s="39"/>
       <c r="H178" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I178" s="40">
         <v>150</v>
@@ -7740,7 +7740,7 @@
         <v>44299</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I180" s="40">
         <v>120</v>
@@ -7764,7 +7764,7 @@
         <v>44308</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I181" s="40">
         <v>400</v>
@@ -7788,7 +7788,7 @@
         <v>44309</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I182" s="40">
         <v>230</v>
@@ -7808,7 +7808,7 @@
       <c r="F183" s="261"/>
       <c r="G183" s="39"/>
       <c r="H183" s="262" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I183" s="134">
         <v>24000</v>
@@ -7828,7 +7828,7 @@
       <c r="F184" s="263"/>
       <c r="G184" s="39"/>
       <c r="H184" s="66" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I184" s="40">
         <v>280</v>
@@ -7852,7 +7852,7 @@
         <v>44310</v>
       </c>
       <c r="H185" s="66" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I185" s="40">
         <v>50000</v>
@@ -7876,7 +7876,7 @@
         <v>44311</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I186" s="40">
         <v>50000</v>
@@ -7900,7 +7900,7 @@
         <v>44313</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I187" s="40">
         <v>980</v>
@@ -8066,7 +8066,7 @@
     </row>
     <row r="196" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A196" s="267" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B196" s="268"/>
       <c r="C196" s="268"/>
@@ -8175,7 +8175,7 @@
         <v>44324</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D200" s="248">
         <v>100000</v>
@@ -8184,7 +8184,7 @@
       <c r="F200" s="264"/>
       <c r="G200" s="39"/>
       <c r="H200" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I200" s="40">
         <v>1582</v>
@@ -8208,7 +8208,7 @@
         <v>44321</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I201" s="40">
         <v>3650</v>
@@ -8228,7 +8228,7 @@
       <c r="F202" s="264"/>
       <c r="G202" s="39"/>
       <c r="H202" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I202" s="40">
         <v>4572</v>
@@ -15083,47 +15083,47 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A138:I138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="F139:I139"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="F162:H162"/>
-    <mergeCell ref="A110:I110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A196:I196"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="F197:I197"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="F216:H216"/>
+    <mergeCell ref="A169:I169"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="F170:I170"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="F189:H189"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="F103:H103"/>
     <mergeCell ref="A61:I61"/>
     <mergeCell ref="A62:I62"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="F63:I63"/>
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="F77:H77"/>
-    <mergeCell ref="A84:I84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="A169:I169"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="F170:I170"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="F189:H189"/>
-    <mergeCell ref="A196:I196"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="F197:I197"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="F216:H216"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A110:I110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="A138:I138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="F139:I139"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="F162:H162"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="10" orientation="portrait" r:id="rId1"/>
@@ -15541,7 +15541,7 @@
         <v>43954</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I15" s="40">
         <v>500</v>
@@ -15582,21 +15582,21 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="287" t="s">
+      <c r="A18" s="283" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="288"/>
-      <c r="C18" s="288"/>
+      <c r="B18" s="284"/>
+      <c r="C18" s="284"/>
       <c r="D18" s="44">
         <f>SUM(D4:D17)</f>
         <v>15210</v>
       </c>
       <c r="E18" s="50"/>
-      <c r="F18" s="287" t="s">
+      <c r="F18" s="283" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="288"/>
-      <c r="H18" s="289"/>
+      <c r="G18" s="284"/>
+      <c r="H18" s="285"/>
       <c r="I18" s="44">
         <f>SUM(I4:I17)</f>
         <v>15710</v>
@@ -16342,21 +16342,21 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="287" t="s">
+      <c r="A7" s="283" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="288"/>
-      <c r="C7" s="288"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="284"/>
       <c r="D7" s="44">
         <f>SUM(D4:D6)</f>
         <v>0</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="287" t="s">
+      <c r="F7" s="283" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="288"/>
-      <c r="H7" s="289"/>
+      <c r="G7" s="284"/>
+      <c r="H7" s="285"/>
       <c r="I7" s="44">
         <f>SUM(I4:I6)</f>
         <v>0</v>
@@ -16983,18 +16983,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="308" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="303"/>
-      <c r="C1" s="303"/>
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
       <c r="D1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="295" t="s">
+      <c r="E1" s="310" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="295"/>
+      <c r="F1" s="310"/>
       <c r="G1" s="14">
         <v>50000</v>
       </c>
@@ -17113,17 +17113,17 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A5" s="308">
+      <c r="A5" s="313">
         <v>3</v>
       </c>
-      <c r="B5" s="309">
+      <c r="B5" s="314">
         <v>44063</v>
       </c>
-      <c r="C5" s="310" t="s">
+      <c r="C5" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="311"/>
-      <c r="E5" s="312"/>
+      <c r="D5" s="316"/>
+      <c r="E5" s="317"/>
       <c r="F5" s="4">
         <v>11640</v>
       </c>
@@ -17145,11 +17145,11 @@
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A6" s="308"/>
-      <c r="B6" s="309"/>
-      <c r="C6" s="310"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="312"/>
+      <c r="A6" s="313"/>
+      <c r="B6" s="314"/>
+      <c r="C6" s="315"/>
+      <c r="D6" s="316"/>
+      <c r="E6" s="317"/>
       <c r="F6" s="4">
         <v>1700</v>
       </c>
@@ -17171,10 +17171,10 @@
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A7" s="308">
+      <c r="A7" s="313">
         <v>4</v>
       </c>
-      <c r="B7" s="309">
+      <c r="B7" s="314">
         <v>44064</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -17203,8 +17203,8 @@
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A8" s="308"/>
-      <c r="B8" s="309"/>
+      <c r="A8" s="313"/>
+      <c r="B8" s="314"/>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -17265,10 +17265,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A10" s="308">
+      <c r="A10" s="313">
         <v>6</v>
       </c>
-      <c r="B10" s="309">
+      <c r="B10" s="314">
         <v>44066</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -17297,8 +17297,8 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A11" s="308"/>
-      <c r="B11" s="309"/>
+      <c r="A11" s="313"/>
+      <c r="B11" s="314"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -17330,7 +17330,7 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="309">
+      <c r="B12" s="314">
         <v>44067</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -17362,7 +17362,7 @@
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="309"/>
+      <c r="B13" s="314"/>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
@@ -17455,12 +17455,12 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="304" t="s">
+      <c r="A16" s="295" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="304"/>
-      <c r="C16" s="304"/>
-      <c r="D16" s="305"/>
+      <c r="B16" s="295"/>
+      <c r="C16" s="295"/>
+      <c r="D16" s="296"/>
       <c r="E16" s="16">
         <f>SUM(E3:E15)</f>
         <v>0</v>
@@ -17487,10 +17487,10 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="306"/>
-      <c r="B17" s="306"/>
-      <c r="C17" s="306"/>
-      <c r="D17" s="307"/>
+      <c r="A17" s="297"/>
+      <c r="B17" s="297"/>
+      <c r="C17" s="297"/>
+      <c r="D17" s="298"/>
       <c r="E17" s="17" t="s">
         <v>61</v>
       </c>
@@ -17535,18 +17535,18 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" ht="29.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="302" t="s">
+      <c r="A19" s="308" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="303"/>
-      <c r="C19" s="303"/>
+      <c r="B19" s="309"/>
+      <c r="C19" s="309"/>
       <c r="D19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="295" t="s">
+      <c r="E19" s="310" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="295"/>
+      <c r="F19" s="310"/>
       <c r="G19" s="14">
         <v>31780</v>
       </c>
@@ -17631,10 +17631,10 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A22" s="299">
+      <c r="A22" s="302">
         <v>12</v>
       </c>
-      <c r="B22" s="296">
+      <c r="B22" s="299">
         <v>44076</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -17663,8 +17663,8 @@
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A23" s="300"/>
-      <c r="B23" s="297"/>
+      <c r="A23" s="303"/>
+      <c r="B23" s="300"/>
       <c r="C23" s="21" t="s">
         <v>21</v>
       </c>
@@ -17691,8 +17691,8 @@
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A24" s="301"/>
-      <c r="B24" s="298"/>
+      <c r="A24" s="304"/>
+      <c r="B24" s="301"/>
       <c r="C24" s="21" t="s">
         <v>22</v>
       </c>
@@ -17721,10 +17721,10 @@
       <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A25" s="299">
+      <c r="A25" s="302">
         <v>13</v>
       </c>
-      <c r="B25" s="296">
+      <c r="B25" s="299">
         <v>44077</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -17755,8 +17755,8 @@
       <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A26" s="301"/>
-      <c r="B26" s="298"/>
+      <c r="A26" s="304"/>
+      <c r="B26" s="301"/>
       <c r="C26" s="21" t="s">
         <v>26</v>
       </c>
@@ -17785,10 +17785,10 @@
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A27" s="299">
+      <c r="A27" s="302">
         <v>14</v>
       </c>
-      <c r="B27" s="296">
+      <c r="B27" s="299">
         <v>44078</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -17817,8 +17817,8 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A28" s="301"/>
-      <c r="B28" s="298"/>
+      <c r="A28" s="304"/>
+      <c r="B28" s="301"/>
       <c r="C28" s="21" t="s">
         <v>28</v>
       </c>
@@ -17847,10 +17847,10 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A29" s="299">
+      <c r="A29" s="302">
         <v>15</v>
       </c>
-      <c r="B29" s="296">
+      <c r="B29" s="299">
         <v>44079</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -17879,8 +17879,8 @@
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A30" s="300"/>
-      <c r="B30" s="297"/>
+      <c r="A30" s="303"/>
+      <c r="B30" s="300"/>
       <c r="C30" s="21" t="s">
         <v>30</v>
       </c>
@@ -17909,8 +17909,8 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A31" s="300"/>
-      <c r="B31" s="297"/>
+      <c r="A31" s="303"/>
+      <c r="B31" s="300"/>
       <c r="C31" s="21" t="s">
         <v>60</v>
       </c>
@@ -17937,8 +17937,8 @@
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A32" s="301"/>
-      <c r="B32" s="298"/>
+      <c r="A32" s="304"/>
+      <c r="B32" s="301"/>
       <c r="C32" s="23" t="s">
         <v>31</v>
       </c>
@@ -17965,10 +17965,10 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A33" s="299">
+      <c r="A33" s="302">
         <v>16</v>
       </c>
-      <c r="B33" s="296">
+      <c r="B33" s="299">
         <v>44080</v>
       </c>
       <c r="C33" s="21" t="s">
@@ -17999,8 +17999,8 @@
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A34" s="300"/>
-      <c r="B34" s="297"/>
+      <c r="A34" s="303"/>
+      <c r="B34" s="300"/>
       <c r="C34" s="21" t="s">
         <v>33</v>
       </c>
@@ -18029,8 +18029,8 @@
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A35" s="300"/>
-      <c r="B35" s="297"/>
+      <c r="A35" s="303"/>
+      <c r="B35" s="300"/>
       <c r="C35" s="21" t="s">
         <v>36</v>
       </c>
@@ -18059,8 +18059,8 @@
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A36" s="300"/>
-      <c r="B36" s="297"/>
+      <c r="A36" s="303"/>
+      <c r="B36" s="300"/>
       <c r="C36" s="21" t="s">
         <v>37</v>
       </c>
@@ -18089,8 +18089,8 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A37" s="301"/>
-      <c r="B37" s="298"/>
+      <c r="A37" s="304"/>
+      <c r="B37" s="301"/>
       <c r="C37" s="21" t="s">
         <v>39</v>
       </c>
@@ -18117,10 +18117,10 @@
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A38" s="299">
+      <c r="A38" s="302">
         <v>17</v>
       </c>
-      <c r="B38" s="296">
+      <c r="B38" s="299">
         <v>44081</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -18149,8 +18149,8 @@
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A39" s="300"/>
-      <c r="B39" s="297"/>
+      <c r="A39" s="303"/>
+      <c r="B39" s="300"/>
       <c r="C39" s="21" t="s">
         <v>28</v>
       </c>
@@ -18177,8 +18177,8 @@
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A40" s="301"/>
-      <c r="B40" s="298"/>
+      <c r="A40" s="304"/>
+      <c r="B40" s="301"/>
       <c r="C40" s="21" t="s">
         <v>40</v>
       </c>
@@ -18207,10 +18207,10 @@
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A41" s="299">
+      <c r="A41" s="302">
         <v>18</v>
       </c>
-      <c r="B41" s="296">
+      <c r="B41" s="299">
         <v>44082</v>
       </c>
       <c r="C41" s="21" t="s">
@@ -18239,8 +18239,8 @@
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A42" s="301"/>
-      <c r="B42" s="298"/>
+      <c r="A42" s="304"/>
+      <c r="B42" s="301"/>
       <c r="C42" s="21" t="s">
         <v>42</v>
       </c>
@@ -18267,10 +18267,10 @@
       <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A43" s="299">
+      <c r="A43" s="302">
         <v>19</v>
       </c>
-      <c r="B43" s="296">
+      <c r="B43" s="299">
         <v>44083</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -18299,8 +18299,8 @@
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A44" s="301"/>
-      <c r="B44" s="298"/>
+      <c r="A44" s="304"/>
+      <c r="B44" s="301"/>
       <c r="C44" s="21" t="s">
         <v>44</v>
       </c>
@@ -18327,10 +18327,10 @@
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A45" s="299">
+      <c r="A45" s="302">
         <v>20</v>
       </c>
-      <c r="B45" s="296">
+      <c r="B45" s="299">
         <v>44084</v>
       </c>
       <c r="C45" s="21" t="s">
@@ -18359,8 +18359,8 @@
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A46" s="301"/>
-      <c r="B46" s="298"/>
+      <c r="A46" s="304"/>
+      <c r="B46" s="301"/>
       <c r="C46" s="21" t="s">
         <v>45</v>
       </c>
@@ -18387,10 +18387,10 @@
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A47" s="299">
+      <c r="A47" s="302">
         <v>21</v>
       </c>
-      <c r="B47" s="296">
+      <c r="B47" s="299">
         <v>44085</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -18419,8 +18419,8 @@
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A48" s="300"/>
-      <c r="B48" s="297"/>
+      <c r="A48" s="303"/>
+      <c r="B48" s="300"/>
       <c r="C48" s="21" t="s">
         <v>46</v>
       </c>
@@ -18447,8 +18447,8 @@
       <c r="S48" s="8"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A49" s="300"/>
-      <c r="B49" s="297"/>
+      <c r="A49" s="303"/>
+      <c r="B49" s="300"/>
       <c r="C49" s="21" t="s">
         <v>47</v>
       </c>
@@ -18475,8 +18475,8 @@
       <c r="S49" s="8"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A50" s="300"/>
-      <c r="B50" s="297"/>
+      <c r="A50" s="303"/>
+      <c r="B50" s="300"/>
       <c r="C50" s="23" t="s">
         <v>31</v>
       </c>
@@ -18503,8 +18503,8 @@
       <c r="S50" s="8"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A51" s="301"/>
-      <c r="B51" s="298"/>
+      <c r="A51" s="304"/>
+      <c r="B51" s="301"/>
       <c r="C51" s="21" t="s">
         <v>44</v>
       </c>
@@ -18533,10 +18533,10 @@
       <c r="S51" s="8"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A52" s="299">
+      <c r="A52" s="302">
         <v>22</v>
       </c>
-      <c r="B52" s="296">
+      <c r="B52" s="299">
         <v>44086</v>
       </c>
       <c r="C52" s="21" t="s">
@@ -18567,8 +18567,8 @@
       <c r="S52" s="8"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A53" s="301"/>
-      <c r="B53" s="298"/>
+      <c r="A53" s="304"/>
+      <c r="B53" s="301"/>
       <c r="C53" s="21" t="s">
         <v>50</v>
       </c>
@@ -18595,10 +18595,10 @@
       <c r="S53" s="8"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A54" s="299">
+      <c r="A54" s="302">
         <v>23</v>
       </c>
-      <c r="B54" s="296">
+      <c r="B54" s="299">
         <v>44087</v>
       </c>
       <c r="C54" s="21" t="s">
@@ -18627,8 +18627,8 @@
       <c r="S54" s="8"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A55" s="300"/>
-      <c r="B55" s="297"/>
+      <c r="A55" s="303"/>
+      <c r="B55" s="300"/>
       <c r="C55" s="21" t="s">
         <v>28</v>
       </c>
@@ -18655,8 +18655,8 @@
       <c r="S55" s="8"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A56" s="300"/>
-      <c r="B56" s="297"/>
+      <c r="A56" s="303"/>
+      <c r="B56" s="300"/>
       <c r="C56" s="21" t="s">
         <v>51</v>
       </c>
@@ -18683,8 +18683,8 @@
       <c r="S56" s="8"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A57" s="300"/>
-      <c r="B57" s="297"/>
+      <c r="A57" s="303"/>
+      <c r="B57" s="300"/>
       <c r="C57" s="23" t="s">
         <v>31</v>
       </c>
@@ -18809,10 +18809,10 @@
       <c r="S60" s="8"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A61" s="299">
+      <c r="A61" s="302">
         <v>27</v>
       </c>
-      <c r="B61" s="296">
+      <c r="B61" s="299">
         <v>44091</v>
       </c>
       <c r="C61" s="21" t="s">
@@ -18841,8 +18841,8 @@
       <c r="S61" s="8"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A62" s="301"/>
-      <c r="B62" s="298"/>
+      <c r="A62" s="304"/>
+      <c r="B62" s="301"/>
       <c r="C62" s="21" t="s">
         <v>44</v>
       </c>
@@ -18901,10 +18901,10 @@
       <c r="S63" s="8"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A64" s="299">
+      <c r="A64" s="302">
         <v>29</v>
       </c>
-      <c r="B64" s="296">
+      <c r="B64" s="299">
         <v>44093</v>
       </c>
       <c r="C64" s="21" t="s">
@@ -18933,8 +18933,8 @@
       <c r="S64" s="8"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A65" s="301"/>
-      <c r="B65" s="298"/>
+      <c r="A65" s="304"/>
+      <c r="B65" s="301"/>
       <c r="C65" s="21" t="s">
         <v>18</v>
       </c>
@@ -19129,10 +19129,10 @@
       <c r="B71" s="28">
         <v>44101</v>
       </c>
-      <c r="C71" s="313" t="s">
+      <c r="C71" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="314"/>
+      <c r="D71" s="312"/>
       <c r="E71" s="26">
         <v>0</v>
       </c>
@@ -19157,10 +19157,10 @@
       <c r="S71" s="8"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A72" s="299">
+      <c r="A72" s="302">
         <v>37</v>
       </c>
-      <c r="B72" s="296">
+      <c r="B72" s="299">
         <v>44103</v>
       </c>
       <c r="C72" s="21" t="s">
@@ -19189,12 +19189,12 @@
       <c r="S72" s="8"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A73" s="301"/>
-      <c r="B73" s="298"/>
-      <c r="C73" s="313" t="s">
+      <c r="A73" s="304"/>
+      <c r="B73" s="301"/>
+      <c r="C73" s="311" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="314"/>
+      <c r="D73" s="312"/>
       <c r="E73" s="6">
         <v>100000</v>
       </c>
@@ -19251,12 +19251,12 @@
       <c r="S74" s="8"/>
     </row>
     <row r="75" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="304" t="s">
+      <c r="A75" s="295" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="304"/>
-      <c r="C75" s="304"/>
-      <c r="D75" s="305"/>
+      <c r="B75" s="295"/>
+      <c r="C75" s="295"/>
+      <c r="D75" s="296"/>
       <c r="E75" s="16">
         <f>SUM(E21:E74)</f>
         <v>132000</v>
@@ -19283,10 +19283,10 @@
       <c r="S75" s="8"/>
     </row>
     <row r="76" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="306"/>
-      <c r="B76" s="306"/>
-      <c r="C76" s="306"/>
-      <c r="D76" s="307"/>
+      <c r="A76" s="297"/>
+      <c r="B76" s="297"/>
+      <c r="C76" s="297"/>
+      <c r="D76" s="298"/>
       <c r="E76" s="17" t="s">
         <v>61</v>
       </c>
@@ -19331,18 +19331,18 @@
       <c r="S77" s="8"/>
     </row>
     <row r="78" spans="1:19" ht="27.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="302" t="s">
+      <c r="A78" s="308" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="303"/>
-      <c r="C78" s="303"/>
+      <c r="B78" s="309"/>
+      <c r="C78" s="309"/>
       <c r="D78" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E78" s="295" t="s">
+      <c r="E78" s="310" t="s">
         <v>0</v>
       </c>
-      <c r="F78" s="295"/>
+      <c r="F78" s="310"/>
       <c r="G78" s="14">
         <f>G75</f>
         <v>137640</v>
@@ -19396,10 +19396,10 @@
       <c r="S79" s="8"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A80" s="299">
+      <c r="A80" s="302">
         <v>39</v>
       </c>
-      <c r="B80" s="296">
+      <c r="B80" s="299">
         <v>44105</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -19428,8 +19428,8 @@
       <c r="S80" s="8"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A81" s="300"/>
-      <c r="B81" s="297"/>
+      <c r="A81" s="303"/>
+      <c r="B81" s="300"/>
       <c r="C81" s="1" t="s">
         <v>70</v>
       </c>
@@ -19456,8 +19456,8 @@
       <c r="S81" s="8"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A82" s="300"/>
-      <c r="B82" s="297"/>
+      <c r="A82" s="303"/>
+      <c r="B82" s="300"/>
       <c r="C82" s="34" t="s">
         <v>76</v>
       </c>
@@ -19486,9 +19486,9 @@
       <c r="S82" s="8"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A83" s="300"/>
-      <c r="B83" s="297"/>
-      <c r="C83" s="315" t="s">
+      <c r="A83" s="303"/>
+      <c r="B83" s="300"/>
+      <c r="C83" s="305" t="s">
         <v>77</v>
       </c>
       <c r="D83" s="32" t="s">
@@ -19516,9 +19516,9 @@
       <c r="S83" s="8"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A84" s="300"/>
-      <c r="B84" s="297"/>
-      <c r="C84" s="316"/>
+      <c r="A84" s="303"/>
+      <c r="B84" s="300"/>
+      <c r="C84" s="306"/>
       <c r="D84" s="32" t="s">
         <v>71</v>
       </c>
@@ -19544,9 +19544,9 @@
       <c r="S84" s="8"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A85" s="300"/>
-      <c r="B85" s="297"/>
-      <c r="C85" s="316"/>
+      <c r="A85" s="303"/>
+      <c r="B85" s="300"/>
+      <c r="C85" s="306"/>
       <c r="D85" s="32" t="s">
         <v>73</v>
       </c>
@@ -19572,9 +19572,9 @@
       <c r="S85" s="8"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A86" s="301"/>
-      <c r="B86" s="298"/>
-      <c r="C86" s="317"/>
+      <c r="A86" s="304"/>
+      <c r="B86" s="301"/>
+      <c r="C86" s="307"/>
       <c r="D86" s="32" t="s">
         <v>74</v>
       </c>
@@ -19632,10 +19632,10 @@
       <c r="S87" s="8"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A88" s="299">
+      <c r="A88" s="302">
         <v>41</v>
       </c>
-      <c r="B88" s="296">
+      <c r="B88" s="299">
         <v>44108</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -19664,8 +19664,8 @@
       <c r="S88" s="8"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A89" s="301"/>
-      <c r="B89" s="298"/>
+      <c r="A89" s="304"/>
+      <c r="B89" s="301"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="4"/>
@@ -19754,10 +19754,10 @@
       <c r="S91" s="8"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A92" s="299">
+      <c r="A92" s="302">
         <v>44</v>
       </c>
-      <c r="B92" s="296">
+      <c r="B92" s="299">
         <v>44112</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -19786,8 +19786,8 @@
       <c r="S92" s="8"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A93" s="300"/>
-      <c r="B93" s="297"/>
+      <c r="A93" s="303"/>
+      <c r="B93" s="300"/>
       <c r="C93" s="1" t="s">
         <v>113</v>
       </c>
@@ -19814,8 +19814,8 @@
       <c r="S93" s="8"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A94" s="300"/>
-      <c r="B94" s="297"/>
+      <c r="A94" s="303"/>
+      <c r="B94" s="300"/>
       <c r="C94" s="1" t="s">
         <v>98</v>
       </c>
@@ -19844,8 +19844,8 @@
       <c r="S94" s="8"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A95" s="301"/>
-      <c r="B95" s="298"/>
+      <c r="A95" s="304"/>
+      <c r="B95" s="301"/>
       <c r="C95" s="1" t="s">
         <v>111</v>
       </c>
@@ -20304,12 +20304,12 @@
       <c r="S113" s="8"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A114" s="304" t="s">
+      <c r="A114" s="295" t="s">
         <v>57</v>
       </c>
-      <c r="B114" s="304"/>
-      <c r="C114" s="304"/>
-      <c r="D114" s="305"/>
+      <c r="B114" s="295"/>
+      <c r="C114" s="295"/>
+      <c r="D114" s="296"/>
       <c r="E114" s="16">
         <f>SUM(E80:E113)</f>
         <v>600000</v>
@@ -20336,10 +20336,10 @@
       <c r="S114" s="8"/>
     </row>
     <row r="115" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="306"/>
-      <c r="B115" s="306"/>
-      <c r="C115" s="306"/>
-      <c r="D115" s="307"/>
+      <c r="A115" s="297"/>
+      <c r="B115" s="297"/>
+      <c r="C115" s="297"/>
+      <c r="D115" s="298"/>
       <c r="E115" s="17" t="s">
         <v>61</v>
       </c>
@@ -23521,6 +23521,50 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C73:D73"/>
     <mergeCell ref="A114:D115"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="A38:A40"/>
@@ -23535,50 +23579,6 @@
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="B92:B95"/>
     <mergeCell ref="A92:A95"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A37"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="73" orientation="portrait" r:id="rId1"/>
@@ -24407,21 +24407,21 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="287" t="s">
+      <c r="A7" s="283" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="288"/>
-      <c r="C7" s="288"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="284"/>
       <c r="D7" s="44">
         <f>SUM(D4:D6)</f>
         <v>50000</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="287" t="s">
+      <c r="F7" s="283" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="288"/>
-      <c r="H7" s="289"/>
+      <c r="G7" s="284"/>
+      <c r="H7" s="285"/>
       <c r="I7" s="44">
         <f>SUM(I4:I6)</f>
         <v>50000</v>
@@ -25029,8 +25029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8095CE61-3623-466A-A99B-F028ACAC31F9}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -25077,7 +25077,7 @@
         <v>177</v>
       </c>
       <c r="F3" s="70">
-        <v>9900</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.5">
@@ -25151,10 +25151,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F10" s="70">
         <v>348000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.5">
@@ -25185,7 +25188,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.5">
       <c r="E13" s="70" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J13" s="185"/>
       <c r="K13" s="70">
@@ -25205,7 +25208,7 @@
       </c>
       <c r="I14" s="177">
         <f>C19-F19</f>
-        <v>551286</v>
+        <v>553286</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.5">
@@ -25261,7 +25264,7 @@
       </c>
       <c r="F19" s="238">
         <f>SUM(F2:F18)</f>
-        <v>2572900</v>
+        <v>2570900</v>
       </c>
       <c r="K19" s="70">
         <v>956</v>
@@ -25284,8 +25287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BA9BFA-17B0-4682-BC89-677BD0B4C364}">
   <dimension ref="D4:I30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -25297,11 +25300,11 @@
   <sheetData>
     <row r="4" spans="4:8" x14ac:dyDescent="0.5">
       <c r="D4" s="82" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E4" s="175">
         <f>'GT Calc'!I14</f>
-        <v>551286</v>
+        <v>553286</v>
       </c>
       <c r="F4" s="82"/>
       <c r="G4" s="82"/>
@@ -25383,32 +25386,27 @@
       <c r="E16" s="70"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.5">
-      <c r="D17" t="s">
-        <v>439</v>
-      </c>
-      <c r="E17" s="70">
-        <v>30000</v>
-      </c>
+      <c r="E17" s="70"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.5">
       <c r="E18" s="70"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.5">
       <c r="D19" s="82" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E19" s="175">
         <f>SUM(E6:E18)</f>
-        <v>410000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.5">
       <c r="D20" s="82" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E20" s="175">
         <f>E4-E19</f>
-        <v>141286</v>
+        <v>173286</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.5">
@@ -28249,11 +28247,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A78:I78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="F71:H71"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="F39:I39"/>
     <mergeCell ref="A51:C51"/>
@@ -28269,11 +28267,11 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="F91:H91"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -28303,19 +28301,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="286" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="292"/>
-      <c r="G1" s="285" t="s">
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="288"/>
+      <c r="G1" s="281" t="s">
         <v>407</v>
       </c>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -28337,18 +28335,18 @@
         <v>4</v>
       </c>
       <c r="F2" s="223"/>
-      <c r="G2" s="286" t="s">
+      <c r="G2" s="282" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
+      <c r="H2" s="282"/>
+      <c r="I2" s="282"/>
+      <c r="J2" s="282"/>
       <c r="K2" s="223"/>
       <c r="L2" s="223"/>
       <c r="M2" s="223"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A3" s="280">
+      <c r="A3" s="277">
         <v>1</v>
       </c>
       <c r="B3" s="196">
@@ -28360,7 +28358,7 @@
       <c r="D3" s="194">
         <v>30000</v>
       </c>
-      <c r="E3" s="278">
+      <c r="E3" s="279">
         <f>D4-D3</f>
         <v>-30000</v>
       </c>
@@ -28381,11 +28379,11 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A4" s="281"/>
+      <c r="A4" s="278"/>
       <c r="B4" s="198"/>
       <c r="C4" s="199"/>
       <c r="D4" s="195"/>
-      <c r="E4" s="279"/>
+      <c r="E4" s="280"/>
       <c r="G4" s="215">
         <v>1</v>
       </c>
@@ -28421,7 +28419,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A6" s="280">
+      <c r="A6" s="277">
         <v>2</v>
       </c>
       <c r="B6" s="196">
@@ -28433,7 +28431,7 @@
       <c r="D6" s="194">
         <v>5000</v>
       </c>
-      <c r="E6" s="278">
+      <c r="E6" s="279">
         <f>D7-D6</f>
         <v>-5000</v>
       </c>
@@ -28454,11 +28452,11 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A7" s="281"/>
+      <c r="A7" s="278"/>
       <c r="B7" s="198"/>
       <c r="C7" s="199"/>
       <c r="D7" s="195"/>
-      <c r="E7" s="279"/>
+      <c r="E7" s="280"/>
       <c r="G7" s="215">
         <v>3</v>
       </c>
@@ -28494,7 +28492,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A9" s="280">
+      <c r="A9" s="277">
         <v>4</v>
       </c>
       <c r="B9" s="196">
@@ -28506,7 +28504,7 @@
       <c r="D9" s="194">
         <v>3070</v>
       </c>
-      <c r="E9" s="278">
+      <c r="E9" s="279">
         <f>D10-D9</f>
         <v>-3070</v>
       </c>
@@ -28527,11 +28525,11 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A10" s="281"/>
+      <c r="A10" s="278"/>
       <c r="B10" s="198"/>
       <c r="C10" s="199"/>
       <c r="D10" s="195"/>
-      <c r="E10" s="279"/>
+      <c r="E10" s="280"/>
       <c r="G10" s="215">
         <v>5</v>
       </c>
@@ -28571,7 +28569,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A12" s="280">
+      <c r="A12" s="277">
         <v>5</v>
       </c>
       <c r="B12" s="196">
@@ -28583,7 +28581,7 @@
       <c r="D12" s="194">
         <v>5000</v>
       </c>
-      <c r="E12" s="278">
+      <c r="E12" s="279">
         <f>D13-D12</f>
         <v>-5000</v>
       </c>
@@ -28604,11 +28602,11 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A13" s="281"/>
+      <c r="A13" s="278"/>
       <c r="B13" s="198"/>
       <c r="C13" s="199"/>
       <c r="D13" s="195"/>
-      <c r="E13" s="279"/>
+      <c r="E13" s="280"/>
       <c r="G13" s="1"/>
       <c r="H13" s="218"/>
       <c r="I13" s="1"/>
@@ -28632,7 +28630,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A15" s="280">
+      <c r="A15" s="277">
         <v>6</v>
       </c>
       <c r="B15" s="196">
@@ -28644,7 +28642,7 @@
       <c r="D15" s="194">
         <v>5000</v>
       </c>
-      <c r="E15" s="278">
+      <c r="E15" s="279">
         <f>D16-D15</f>
         <v>-5000</v>
       </c>
@@ -28657,11 +28655,11 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A16" s="281"/>
+      <c r="A16" s="278"/>
       <c r="B16" s="198"/>
       <c r="C16" s="199"/>
       <c r="D16" s="195"/>
-      <c r="E16" s="279"/>
+      <c r="E16" s="280"/>
       <c r="G16" s="1"/>
       <c r="H16" s="219"/>
       <c r="I16" s="1"/>
@@ -28685,7 +28683,7 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A18" s="280">
+      <c r="A18" s="277">
         <v>7</v>
       </c>
       <c r="B18" s="196">
@@ -28697,15 +28695,15 @@
       <c r="D18" s="194">
         <v>5000</v>
       </c>
-      <c r="E18" s="278">
+      <c r="E18" s="279">
         <f>D19-D18</f>
         <v>-5000</v>
       </c>
-      <c r="G18" s="287" t="s">
+      <c r="G18" s="283" t="s">
         <v>143</v>
       </c>
-      <c r="H18" s="288"/>
-      <c r="I18" s="289"/>
+      <c r="H18" s="284"/>
+      <c r="I18" s="285"/>
       <c r="J18" s="44">
         <f>SUM(J4:J17)</f>
         <v>0</v>
@@ -28715,11 +28713,11 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A19" s="281"/>
+      <c r="A19" s="278"/>
       <c r="B19" s="198"/>
       <c r="C19" s="199"/>
       <c r="D19" s="195"/>
-      <c r="E19" s="279"/>
+      <c r="E19" s="280"/>
       <c r="G19" s="55"/>
       <c r="H19" s="221"/>
       <c r="I19" s="55"/>
@@ -28745,7 +28743,7 @@
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A21" s="280">
+      <c r="A21" s="277">
         <v>8</v>
       </c>
       <c r="B21" s="196">
@@ -28757,7 +28755,7 @@
       <c r="D21" s="194">
         <v>600</v>
       </c>
-      <c r="E21" s="278">
+      <c r="E21" s="279">
         <f>D22-D21</f>
         <v>-600</v>
       </c>
@@ -28778,11 +28776,11 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A22" s="281"/>
+      <c r="A22" s="278"/>
       <c r="B22" s="198"/>
       <c r="C22" s="199"/>
       <c r="D22" s="195"/>
-      <c r="E22" s="279"/>
+      <c r="E22" s="280"/>
       <c r="G22" s="216">
         <v>1</v>
       </c>
@@ -28822,7 +28820,7 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A24" s="280">
+      <c r="A24" s="277">
         <v>9</v>
       </c>
       <c r="B24" s="196">
@@ -28834,7 +28832,7 @@
       <c r="D24" s="194">
         <v>5000</v>
       </c>
-      <c r="E24" s="278">
+      <c r="E24" s="279">
         <f>D25-D24</f>
         <v>-5000</v>
       </c>
@@ -28847,11 +28845,11 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A25" s="281"/>
+      <c r="A25" s="278"/>
       <c r="B25" s="198"/>
       <c r="C25" s="199"/>
       <c r="D25" s="195"/>
-      <c r="E25" s="279"/>
+      <c r="E25" s="280"/>
       <c r="G25" s="216"/>
       <c r="H25" s="219"/>
       <c r="I25" s="1"/>
@@ -28875,7 +28873,7 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A27" s="280">
+      <c r="A27" s="277">
         <v>10</v>
       </c>
       <c r="B27" s="196">
@@ -28887,7 +28885,7 @@
       <c r="D27" s="194">
         <v>5000</v>
       </c>
-      <c r="E27" s="278">
+      <c r="E27" s="279">
         <f>D28-D27</f>
         <v>-5000</v>
       </c>
@@ -28900,11 +28898,11 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A28" s="281"/>
+      <c r="A28" s="278"/>
       <c r="B28" s="198"/>
       <c r="C28" s="199"/>
       <c r="D28" s="195"/>
-      <c r="E28" s="279"/>
+      <c r="E28" s="280"/>
       <c r="G28" s="216"/>
       <c r="H28" s="219"/>
       <c r="I28" s="1"/>
@@ -28928,7 +28926,7 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A30" s="280">
+      <c r="A30" s="277">
         <v>11</v>
       </c>
       <c r="B30" s="196">
@@ -28940,7 +28938,7 @@
       <c r="D30" s="194">
         <v>5000</v>
       </c>
-      <c r="E30" s="278">
+      <c r="E30" s="279">
         <f>D31-D30</f>
         <v>-5000</v>
       </c>
@@ -28953,11 +28951,11 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="281"/>
+      <c r="A31" s="278"/>
       <c r="B31" s="198"/>
       <c r="C31" s="199"/>
       <c r="D31" s="195"/>
-      <c r="E31" s="279"/>
+      <c r="E31" s="280"/>
       <c r="G31" s="1"/>
       <c r="H31" s="218"/>
       <c r="I31" s="1"/>
@@ -28981,19 +28979,19 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A33" s="280">
+      <c r="A33" s="277">
         <v>12</v>
       </c>
       <c r="B33" s="196">
         <v>44293</v>
       </c>
       <c r="C33" s="197" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D33" s="194">
         <v>2063</v>
       </c>
-      <c r="E33" s="278">
+      <c r="E33" s="279">
         <f>D34-D33</f>
         <v>0</v>
       </c>
@@ -29006,17 +29004,17 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A34" s="281"/>
+      <c r="A34" s="278"/>
       <c r="B34" s="198">
         <v>44294</v>
       </c>
       <c r="C34" s="199" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D34" s="195">
         <v>2063</v>
       </c>
-      <c r="E34" s="279"/>
+      <c r="E34" s="280"/>
       <c r="G34" s="1"/>
       <c r="H34" s="219"/>
       <c r="I34" s="1"/>
@@ -29040,13 +29038,13 @@
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A36" s="280">
+      <c r="A36" s="277">
         <v>13</v>
       </c>
       <c r="B36" s="196"/>
       <c r="C36" s="197"/>
       <c r="D36" s="194"/>
-      <c r="E36" s="278">
+      <c r="E36" s="279">
         <f>D37-D36</f>
         <v>0</v>
       </c>
@@ -29064,11 +29062,11 @@
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A37" s="281"/>
+      <c r="A37" s="278"/>
       <c r="B37" s="198"/>
       <c r="C37" s="199"/>
       <c r="D37" s="195"/>
-      <c r="E37" s="279"/>
+      <c r="E37" s="280"/>
       <c r="G37" s="8"/>
       <c r="H37" s="226"/>
       <c r="I37" s="8"/>
@@ -29092,13 +29090,13 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A39" s="280">
+      <c r="A39" s="277">
         <v>14</v>
       </c>
       <c r="B39" s="196"/>
       <c r="C39" s="197"/>
       <c r="D39" s="194"/>
-      <c r="E39" s="278">
+      <c r="E39" s="279">
         <f>D40-D39</f>
         <v>0</v>
       </c>
@@ -29111,11 +29109,11 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A40" s="281"/>
+      <c r="A40" s="278"/>
       <c r="B40" s="198"/>
       <c r="C40" s="199"/>
       <c r="D40" s="195"/>
-      <c r="E40" s="279"/>
+      <c r="E40" s="280"/>
       <c r="G40" s="8"/>
       <c r="H40" s="226"/>
       <c r="I40" s="8"/>
@@ -29139,13 +29137,13 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A42" s="280">
+      <c r="A42" s="277">
         <v>15</v>
       </c>
       <c r="B42" s="196"/>
       <c r="C42" s="197"/>
       <c r="D42" s="194"/>
-      <c r="E42" s="278">
+      <c r="E42" s="279">
         <f>D43-D42</f>
         <v>0</v>
       </c>
@@ -29158,11 +29156,11 @@
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A43" s="281"/>
+      <c r="A43" s="278"/>
       <c r="B43" s="198"/>
       <c r="C43" s="199"/>
       <c r="D43" s="195"/>
-      <c r="E43" s="279"/>
+      <c r="E43" s="280"/>
       <c r="G43" s="8"/>
       <c r="H43" s="226"/>
       <c r="I43" s="8"/>
@@ -29186,12 +29184,12 @@
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:13" ht="29.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="282" t="s">
+      <c r="A45" s="290" t="s">
         <v>392</v>
       </c>
-      <c r="B45" s="283"/>
-      <c r="C45" s="283"/>
-      <c r="D45" s="284"/>
+      <c r="B45" s="291"/>
+      <c r="C45" s="291"/>
+      <c r="D45" s="292"/>
       <c r="E45" s="204">
         <f>SUM(E3:E44)</f>
         <v>-68670</v>
@@ -29208,8 +29206,8 @@
       <c r="A46" s="77"/>
       <c r="B46" s="224"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="277"/>
-      <c r="E46" s="277"/>
+      <c r="D46" s="289"/>
+      <c r="E46" s="289"/>
       <c r="G46" s="8"/>
       <c r="H46" s="226"/>
       <c r="I46" s="8"/>
@@ -29394,17 +29392,15 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G18:I18"/>
@@ -29421,15 +29417,17 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43972,21 +43970,21 @@
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="287" t="s">
+      <c r="A21" s="283" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="288"/>
-      <c r="C21" s="288"/>
+      <c r="B21" s="284"/>
+      <c r="C21" s="284"/>
       <c r="D21" s="44">
         <f>SUM(D4:D20)</f>
         <v>737500</v>
       </c>
       <c r="E21" s="50"/>
-      <c r="F21" s="287" t="s">
+      <c r="F21" s="283" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="288"/>
-      <c r="H21" s="289"/>
+      <c r="G21" s="284"/>
+      <c r="H21" s="285"/>
       <c r="I21" s="44">
         <f>SUM(I4:I20)</f>
         <v>737500</v>
@@ -44901,7 +44899,7 @@
         <v>44294</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D11" s="40">
         <v>1100</v>
@@ -45024,21 +45022,21 @@
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="287" t="s">
+      <c r="A17" s="283" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="288"/>
-      <c r="C17" s="288"/>
+      <c r="B17" s="284"/>
+      <c r="C17" s="284"/>
       <c r="D17" s="44">
         <f>SUM(D4:D16)</f>
         <v>284100</v>
       </c>
       <c r="E17" s="50"/>
-      <c r="F17" s="287" t="s">
+      <c r="F17" s="283" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="288"/>
-      <c r="H17" s="289"/>
+      <c r="G17" s="284"/>
+      <c r="H17" s="285"/>
       <c r="I17" s="44">
         <f>SUM(I4:I16)</f>
         <v>284115</v>
@@ -45913,21 +45911,21 @@
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="287" t="s">
+      <c r="A14" s="283" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="288"/>
-      <c r="C14" s="288"/>
+      <c r="B14" s="284"/>
+      <c r="C14" s="284"/>
       <c r="D14" s="44">
         <f>SUM(D4:D13)</f>
         <v>120000</v>
       </c>
       <c r="E14" s="50"/>
-      <c r="F14" s="287" t="s">
+      <c r="F14" s="283" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="288"/>
-      <c r="H14" s="289"/>
+      <c r="G14" s="284"/>
+      <c r="H14" s="285"/>
       <c r="I14" s="44">
         <f>SUM(I4:I13)</f>
         <v>120000</v>
@@ -46786,21 +46784,21 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="287" t="s">
+      <c r="A13" s="283" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="288"/>
-      <c r="C13" s="288"/>
+      <c r="B13" s="284"/>
+      <c r="C13" s="284"/>
       <c r="D13" s="44">
         <f>SUM(D4:D12)</f>
         <v>260000</v>
       </c>
       <c r="E13" s="50"/>
-      <c r="F13" s="287" t="s">
+      <c r="F13" s="283" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="288"/>
-      <c r="H13" s="289"/>
+      <c r="G13" s="284"/>
+      <c r="H13" s="285"/>
       <c r="I13" s="44">
         <f>SUM(I4:I12)</f>
         <v>260000</v>
@@ -47165,21 +47163,21 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="287" t="s">
+      <c r="A31" s="283" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="288"/>
-      <c r="C31" s="288"/>
+      <c r="B31" s="284"/>
+      <c r="C31" s="284"/>
       <c r="D31" s="44">
         <f>SUM(D23:D30)</f>
         <v>413000</v>
       </c>
       <c r="E31" s="50"/>
-      <c r="F31" s="287" t="s">
+      <c r="F31" s="283" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="288"/>
-      <c r="H31" s="289"/>
+      <c r="G31" s="284"/>
+      <c r="H31" s="285"/>
       <c r="I31" s="44">
         <f>SUM(I23:I30)</f>
         <v>413000</v>
@@ -47511,7 +47509,7 @@
         <v>44310</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I47" s="40">
         <v>5000</v>
@@ -47627,21 +47625,21 @@
       <c r="M54" s="8"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A55" s="287" t="s">
+      <c r="A55" s="283" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="288"/>
-      <c r="C55" s="288"/>
+      <c r="B55" s="284"/>
+      <c r="C55" s="284"/>
       <c r="D55" s="44">
         <f>SUM(D43:D54)</f>
         <v>1203500</v>
       </c>
       <c r="E55" s="50"/>
-      <c r="F55" s="287" t="s">
+      <c r="F55" s="283" t="s">
         <v>105</v>
       </c>
-      <c r="G55" s="288"/>
-      <c r="H55" s="289"/>
+      <c r="G55" s="284"/>
+      <c r="H55" s="285"/>
       <c r="I55" s="44">
         <f>SUM(I43:I54)</f>
         <v>1208500</v>
@@ -47893,7 +47891,7 @@
         <v>44312</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D67" s="40">
         <v>17000</v>
@@ -47906,7 +47904,7 @@
         <v>44309</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I67" s="40">
         <v>17000</v>
@@ -47992,21 +47990,21 @@
       <c r="M72" s="8"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A73" s="287" t="s">
+      <c r="A73" s="283" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="288"/>
-      <c r="C73" s="288"/>
+      <c r="B73" s="284"/>
+      <c r="C73" s="284"/>
       <c r="D73" s="44">
         <f>SUM(D65:D72)</f>
         <v>120500</v>
       </c>
       <c r="E73" s="50"/>
-      <c r="F73" s="287" t="s">
+      <c r="F73" s="283" t="s">
         <v>105</v>
       </c>
-      <c r="G73" s="288"/>
-      <c r="H73" s="289"/>
+      <c r="G73" s="284"/>
+      <c r="H73" s="285"/>
       <c r="I73" s="44">
         <f>SUM(I65:I72)</f>
         <v>120500</v>
@@ -48341,21 +48339,21 @@
       <c r="M90" s="8"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A91" s="287" t="s">
+      <c r="A91" s="283" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="288"/>
-      <c r="C91" s="288"/>
+      <c r="B91" s="284"/>
+      <c r="C91" s="284"/>
       <c r="D91" s="44">
         <f>SUM(D83:D90)</f>
         <v>120000</v>
       </c>
       <c r="E91" s="50"/>
-      <c r="F91" s="287" t="s">
+      <c r="F91" s="283" t="s">
         <v>105</v>
       </c>
-      <c r="G91" s="288"/>
-      <c r="H91" s="289"/>
+      <c r="G91" s="284"/>
+      <c r="H91" s="285"/>
       <c r="I91" s="44">
         <f>SUM(I83:I90)</f>
         <v>120000</v>
@@ -48437,31 +48435,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A80:I80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="F31:H31"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="F41:I41"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="F55:H55"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="A80:I80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="F91:H91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Office Statement Expense & Expenditure.xlsx
+++ b/Office Statement Expense & Expenditure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Najeeb Associates\000FFICE\Office Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8B9691-258E-4B59-BF3E-7248F1656AE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19CC399-B37A-4543-8F82-36254FD3A448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="820" activeTab="16" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="820" activeTab="3" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
   </bookViews>
   <sheets>
     <sheet name="BOFC" sheetId="4" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Mehboob Boobi" sheetId="18" r:id="rId15"/>
     <sheet name="GT Calc" sheetId="24" r:id="rId16"/>
     <sheet name="MyCal" sheetId="29" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="31" r:id="rId18"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'Old Record'!$A$78:$G$115</definedName>
@@ -264,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="517">
   <si>
     <t>Opning Balance</t>
   </si>
@@ -1541,9 +1543,6 @@
     <t>Waqas Taken - by hand of Najeeb 151k</t>
   </si>
   <si>
-    <t>EID + Salary</t>
-  </si>
-  <si>
     <t>Tea + cake biscuit for Rizwan - came for envelope - Amir Bhai</t>
   </si>
   <si>
@@ -1649,9 +1648,6 @@
     <t>Motocycle Maintanance - 150Fuel, 350 Oil, 100 Filter 350 Labour</t>
   </si>
   <si>
-    <t>Najeeb</t>
-  </si>
-  <si>
     <t>Shehzad Taken for short while</t>
   </si>
   <si>
@@ -1676,26 +1672,165 @@
     <t>Received the 100k amount taken for G16 Kid's joolas</t>
   </si>
   <si>
-    <t>7m old 6x</t>
-  </si>
-  <si>
     <t>Farooq - Going home, was ill</t>
   </si>
   <si>
-    <t>2 files sunny k pas hai</t>
+    <t>Handovered 214k to saddam to purchase 7m file 4x for sunny - he is in home pew</t>
+  </si>
+  <si>
+    <t>Banda aaya or 14k legaya - naveed ne call ki ti dene k liye</t>
+  </si>
+  <si>
+    <t>Received in Meezan bank</t>
+  </si>
+  <si>
+    <t>Received his amount to adjust 214k from Saddam</t>
+  </si>
+  <si>
+    <t>Transfered BWC 7Marla Overseas Plot 1x file</t>
+  </si>
+  <si>
+    <t>Drinking Water Office 2 Canes</t>
+  </si>
+  <si>
+    <t>Saddam tekn 10k for short while</t>
+  </si>
+  <si>
+    <t>Received 95k from Saddam</t>
+  </si>
+  <si>
+    <t>Sunny Sent in Meezan Bank - Cleared</t>
+  </si>
+  <si>
+    <t>Taken from saddam - my amount was with him</t>
+  </si>
+  <si>
+    <t>Handovered to sunny</t>
+  </si>
+  <si>
+    <t>Taken 24k in office to purchase 3marla file</t>
+  </si>
+  <si>
+    <t>Taken 20k 9pm</t>
+  </si>
+  <si>
+    <t>Juice for KhanJee Kamil Sunny + Cells for office watch</t>
+  </si>
+  <si>
+    <t>S.N</t>
+  </si>
+  <si>
+    <t>G.TOTAL</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
+  </si>
+  <si>
+    <t>Received 34k in office</t>
+  </si>
+  <si>
+    <t>Najeeb Ullah</t>
+  </si>
+  <si>
+    <t>Najeeb Ullah - New</t>
+  </si>
+  <si>
+    <t>DEBIT</t>
+  </si>
+  <si>
+    <t>DOCTOR-SIS</t>
+  </si>
+  <si>
+    <t>UllemaAsmat</t>
+  </si>
+  <si>
+    <t>Jhangir</t>
+  </si>
+  <si>
+    <t>Naveed Shah</t>
+  </si>
+  <si>
+    <t>Taimoor - Temy</t>
+  </si>
+  <si>
+    <t>Ali - Kamil Office</t>
+  </si>
+  <si>
+    <t>Shehzad - Chootu</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received form saddam's brother </t>
+  </si>
+  <si>
+    <t>Records from: 1-06-21</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>5MARLA</t>
+  </si>
+  <si>
+    <t>3MARLA</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Paid by Sunny Juice &amp; tea for Khanjee Guests - 300 juice, 90 gaviscon serap for muneer</t>
+  </si>
+  <si>
+    <t>Merged 4x 7m old 58k, taken from Mazhar, and 1x 24k 3m</t>
+  </si>
+  <si>
+    <t>Hair Cut Bill</t>
+  </si>
+  <si>
+    <t>Roti for home - kamil ali night</t>
+  </si>
+  <si>
+    <t>Greenacre</t>
+  </si>
+  <si>
+    <t>5marla 990 2x 28600</t>
+  </si>
+  <si>
+    <t>STATEMENT SHOWING INCOME &amp; EXPENDITURE OF OFFICE - June, 2021</t>
+  </si>
+  <si>
+    <t>Bwc Trade</t>
+  </si>
+  <si>
+    <t>7marla old 58k x2</t>
+  </si>
+  <si>
+    <t>7marla old 58k x4</t>
+  </si>
+  <si>
+    <t>3marla 3x 24k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$PKR]\ #,##0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-420]dddd\,\ dd\ mmmm\,\ yyyy;@"/>
     <numFmt numFmtId="167" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="168" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1831,6 +1966,37 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2347,7 +2513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3031,6 +3197,84 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="19" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3198,6 +3442,39 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3516,10 +3793,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N889"/>
+  <dimension ref="A1:N885"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A169" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3536,17 +3813,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="269"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="305"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -3554,19 +3831,19 @@
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="272"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="308"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="270" t="s">
+      <c r="F2" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="272"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="308"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -4120,7 +4397,7 @@
         <v>44127</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I25" s="40">
         <v>3000</v>
@@ -4252,7 +4529,7 @@
         <v>44132</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I31" s="40">
         <v>180</v>
@@ -4280,21 +4557,21 @@
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="273" t="s">
+      <c r="A33" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="274"/>
-      <c r="C33" s="274"/>
+      <c r="B33" s="310"/>
+      <c r="C33" s="310"/>
       <c r="D33" s="44">
         <f>SUM(D4:D32)</f>
         <v>457640</v>
       </c>
       <c r="E33" s="50"/>
-      <c r="F33" s="273" t="s">
+      <c r="F33" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="274"/>
-      <c r="H33" s="275"/>
+      <c r="G33" s="310"/>
+      <c r="H33" s="311"/>
       <c r="I33" s="44">
         <f>SUM(I4:I32)</f>
         <v>178595</v>
@@ -4417,17 +4694,17 @@
       <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" ht="34.450000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="267" t="s">
+      <c r="A40" s="303" t="s">
         <v>148</v>
       </c>
-      <c r="B40" s="268"/>
-      <c r="C40" s="268"/>
-      <c r="D40" s="268"/>
-      <c r="E40" s="268"/>
-      <c r="F40" s="268"/>
-      <c r="G40" s="268"/>
-      <c r="H40" s="268"/>
-      <c r="I40" s="269"/>
+      <c r="B40" s="304"/>
+      <c r="C40" s="304"/>
+      <c r="D40" s="304"/>
+      <c r="E40" s="304"/>
+      <c r="F40" s="304"/>
+      <c r="G40" s="304"/>
+      <c r="H40" s="304"/>
+      <c r="I40" s="305"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
@@ -4435,19 +4712,19 @@
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A41" s="270" t="s">
+      <c r="A41" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="271"/>
-      <c r="C41" s="271"/>
-      <c r="D41" s="272"/>
+      <c r="B41" s="307"/>
+      <c r="C41" s="307"/>
+      <c r="D41" s="308"/>
       <c r="E41" s="43"/>
-      <c r="F41" s="270" t="s">
+      <c r="F41" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G41" s="271"/>
-      <c r="H41" s="271"/>
-      <c r="I41" s="272"/>
+      <c r="G41" s="307"/>
+      <c r="H41" s="307"/>
+      <c r="I41" s="308"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4776,21 +5053,21 @@
       <c r="N54" s="8"/>
     </row>
     <row r="55" spans="1:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="273" t="s">
+      <c r="A55" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="274"/>
-      <c r="C55" s="274"/>
+      <c r="B55" s="310"/>
+      <c r="C55" s="310"/>
       <c r="D55" s="44">
         <f>SUM(D43:D54)</f>
         <v>299045</v>
       </c>
       <c r="E55" s="50"/>
-      <c r="F55" s="273" t="s">
+      <c r="F55" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="G55" s="274"/>
-      <c r="H55" s="275"/>
+      <c r="G55" s="310"/>
+      <c r="H55" s="311"/>
       <c r="I55" s="44">
         <f>SUM(I43:I54)</f>
         <v>8700</v>
@@ -4897,15 +5174,15 @@
       <c r="N60" s="8"/>
     </row>
     <row r="61" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="276"/>
-      <c r="B61" s="276"/>
-      <c r="C61" s="276"/>
-      <c r="D61" s="276"/>
-      <c r="E61" s="276"/>
-      <c r="F61" s="276"/>
-      <c r="G61" s="276"/>
-      <c r="H61" s="276"/>
-      <c r="I61" s="276"/>
+      <c r="A61" s="312"/>
+      <c r="B61" s="312"/>
+      <c r="C61" s="312"/>
+      <c r="D61" s="312"/>
+      <c r="E61" s="312"/>
+      <c r="F61" s="312"/>
+      <c r="G61" s="312"/>
+      <c r="H61" s="312"/>
+      <c r="I61" s="312"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
@@ -4913,17 +5190,17 @@
       <c r="N61" s="8"/>
     </row>
     <row r="62" spans="1:14" ht="34.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="267" t="s">
+      <c r="A62" s="303" t="s">
         <v>183</v>
       </c>
-      <c r="B62" s="268"/>
-      <c r="C62" s="268"/>
-      <c r="D62" s="268"/>
-      <c r="E62" s="268"/>
-      <c r="F62" s="268"/>
-      <c r="G62" s="268"/>
-      <c r="H62" s="268"/>
-      <c r="I62" s="269"/>
+      <c r="B62" s="304"/>
+      <c r="C62" s="304"/>
+      <c r="D62" s="304"/>
+      <c r="E62" s="304"/>
+      <c r="F62" s="304"/>
+      <c r="G62" s="304"/>
+      <c r="H62" s="304"/>
+      <c r="I62" s="305"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
@@ -4931,19 +5208,19 @@
       <c r="N62" s="8"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A63" s="270" t="s">
+      <c r="A63" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="271"/>
-      <c r="C63" s="271"/>
-      <c r="D63" s="272"/>
+      <c r="B63" s="307"/>
+      <c r="C63" s="307"/>
+      <c r="D63" s="308"/>
       <c r="E63" s="43"/>
-      <c r="F63" s="270" t="s">
+      <c r="F63" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G63" s="271"/>
-      <c r="H63" s="271"/>
-      <c r="I63" s="272"/>
+      <c r="G63" s="307"/>
+      <c r="H63" s="307"/>
+      <c r="I63" s="308"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -5256,7 +5533,7 @@
         <v>44191</v>
       </c>
       <c r="H75" s="68" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I75" s="69">
         <v>7000</v>
@@ -5284,21 +5561,21 @@
       <c r="N76" s="8"/>
     </row>
     <row r="77" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="273" t="s">
+      <c r="A77" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="274"/>
-      <c r="C77" s="274"/>
+      <c r="B77" s="310"/>
+      <c r="C77" s="310"/>
       <c r="D77" s="44">
         <f>SUM(D65:D76)</f>
         <v>655345</v>
       </c>
       <c r="E77" s="50"/>
-      <c r="F77" s="273" t="s">
+      <c r="F77" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="G77" s="274"/>
-      <c r="H77" s="275"/>
+      <c r="G77" s="310"/>
+      <c r="H77" s="311"/>
       <c r="I77" s="44">
         <f>SUM(I65:I76)</f>
         <v>73520</v>
@@ -5421,17 +5698,17 @@
       <c r="N83" s="8"/>
     </row>
     <row r="84" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="267" t="s">
+      <c r="A84" s="303" t="s">
         <v>277</v>
       </c>
-      <c r="B84" s="268"/>
-      <c r="C84" s="268"/>
-      <c r="D84" s="268"/>
-      <c r="E84" s="268"/>
-      <c r="F84" s="268"/>
-      <c r="G84" s="268"/>
-      <c r="H84" s="268"/>
-      <c r="I84" s="269"/>
+      <c r="B84" s="304"/>
+      <c r="C84" s="304"/>
+      <c r="D84" s="304"/>
+      <c r="E84" s="304"/>
+      <c r="F84" s="304"/>
+      <c r="G84" s="304"/>
+      <c r="H84" s="304"/>
+      <c r="I84" s="305"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
@@ -5439,19 +5716,19 @@
       <c r="N84" s="8"/>
     </row>
     <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="270" t="s">
+      <c r="A85" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B85" s="271"/>
-      <c r="C85" s="271"/>
-      <c r="D85" s="272"/>
+      <c r="B85" s="307"/>
+      <c r="C85" s="307"/>
+      <c r="D85" s="308"/>
       <c r="E85" s="43"/>
-      <c r="F85" s="270" t="s">
+      <c r="F85" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G85" s="271"/>
-      <c r="H85" s="271"/>
-      <c r="I85" s="272"/>
+      <c r="G85" s="307"/>
+      <c r="H85" s="307"/>
+      <c r="I85" s="308"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
@@ -5890,21 +6167,21 @@
       <c r="N102" s="8"/>
     </row>
     <row r="103" spans="1:14" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="273" t="s">
+      <c r="A103" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="B103" s="274"/>
-      <c r="C103" s="274"/>
+      <c r="B103" s="310"/>
+      <c r="C103" s="310"/>
       <c r="D103" s="44">
         <f>SUM(D87:D102)</f>
         <v>931825</v>
       </c>
       <c r="E103" s="50"/>
-      <c r="F103" s="273" t="s">
+      <c r="F103" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="G103" s="274"/>
-      <c r="H103" s="275"/>
+      <c r="G103" s="310"/>
+      <c r="H103" s="311"/>
       <c r="I103" s="44">
         <f>SUM(I87:I102)</f>
         <v>14707</v>
@@ -6027,17 +6304,17 @@
       <c r="N109" s="8"/>
     </row>
     <row r="110" spans="1:14" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A110" s="267" t="s">
+      <c r="A110" s="303" t="s">
         <v>334</v>
       </c>
-      <c r="B110" s="268"/>
-      <c r="C110" s="268"/>
-      <c r="D110" s="268"/>
-      <c r="E110" s="268"/>
-      <c r="F110" s="268"/>
-      <c r="G110" s="268"/>
-      <c r="H110" s="268"/>
-      <c r="I110" s="269"/>
+      <c r="B110" s="304"/>
+      <c r="C110" s="304"/>
+      <c r="D110" s="304"/>
+      <c r="E110" s="304"/>
+      <c r="F110" s="304"/>
+      <c r="G110" s="304"/>
+      <c r="H110" s="304"/>
+      <c r="I110" s="305"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
@@ -6045,19 +6322,19 @@
       <c r="N110" s="8"/>
     </row>
     <row r="111" spans="1:14" ht="19.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A111" s="270" t="s">
+      <c r="A111" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B111" s="271"/>
-      <c r="C111" s="271"/>
-      <c r="D111" s="272"/>
+      <c r="B111" s="307"/>
+      <c r="C111" s="307"/>
+      <c r="D111" s="308"/>
       <c r="E111" s="43"/>
-      <c r="F111" s="270" t="s">
+      <c r="F111" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G111" s="271"/>
-      <c r="H111" s="271"/>
-      <c r="I111" s="272"/>
+      <c r="G111" s="307"/>
+      <c r="H111" s="307"/>
+      <c r="I111" s="308"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
@@ -6562,21 +6839,21 @@
       <c r="N130" s="8"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A131" s="273" t="s">
+      <c r="A131" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="B131" s="274"/>
-      <c r="C131" s="274"/>
+      <c r="B131" s="310"/>
+      <c r="C131" s="310"/>
       <c r="D131" s="44">
         <f>SUM(D113:D130)</f>
         <v>1430418</v>
       </c>
       <c r="E131" s="50"/>
-      <c r="F131" s="273" t="s">
+      <c r="F131" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="G131" s="274"/>
-      <c r="H131" s="275"/>
+      <c r="G131" s="310"/>
+      <c r="H131" s="311"/>
       <c r="I131" s="44">
         <f>SUM(I113:I130)</f>
         <v>2100</v>
@@ -6699,17 +6976,17 @@
       <c r="N137" s="8"/>
     </row>
     <row r="138" spans="1:14" ht="36.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A138" s="267" t="s">
+      <c r="A138" s="303" t="s">
         <v>377</v>
       </c>
-      <c r="B138" s="268"/>
-      <c r="C138" s="268"/>
-      <c r="D138" s="268"/>
-      <c r="E138" s="268"/>
-      <c r="F138" s="268"/>
-      <c r="G138" s="268"/>
-      <c r="H138" s="268"/>
-      <c r="I138" s="269"/>
+      <c r="B138" s="304"/>
+      <c r="C138" s="304"/>
+      <c r="D138" s="304"/>
+      <c r="E138" s="304"/>
+      <c r="F138" s="304"/>
+      <c r="G138" s="304"/>
+      <c r="H138" s="304"/>
+      <c r="I138" s="305"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
@@ -6717,19 +6994,19 @@
       <c r="N138" s="8"/>
     </row>
     <row r="139" spans="1:14" ht="19.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="270" t="s">
+      <c r="A139" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B139" s="271"/>
-      <c r="C139" s="271"/>
-      <c r="D139" s="272"/>
+      <c r="B139" s="307"/>
+      <c r="C139" s="307"/>
+      <c r="D139" s="308"/>
       <c r="E139" s="43"/>
-      <c r="F139" s="270" t="s">
+      <c r="F139" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G139" s="271"/>
-      <c r="H139" s="271"/>
-      <c r="I139" s="272"/>
+      <c r="G139" s="307"/>
+      <c r="H139" s="307"/>
+      <c r="I139" s="308"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
@@ -7240,7 +7517,7 @@
         <v>44280</v>
       </c>
       <c r="H158" s="68" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I158" s="69">
         <v>180</v>
@@ -7264,7 +7541,7 @@
         <v>44285</v>
       </c>
       <c r="H159" s="68" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I159" s="69">
         <v>360</v>
@@ -7288,7 +7565,7 @@
         <v>44286</v>
       </c>
       <c r="H160" s="68" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I160" s="69">
         <v>120</v>
@@ -7316,21 +7593,21 @@
       <c r="N161" s="8"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A162" s="273" t="s">
+      <c r="A162" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="B162" s="274"/>
-      <c r="C162" s="274"/>
+      <c r="B162" s="310"/>
+      <c r="C162" s="310"/>
       <c r="D162" s="44">
         <f>SUM(D141:D161)</f>
         <v>1445318</v>
       </c>
       <c r="E162" s="50"/>
-      <c r="F162" s="273" t="s">
+      <c r="F162" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="G162" s="274"/>
-      <c r="H162" s="275"/>
+      <c r="G162" s="310"/>
+      <c r="H162" s="311"/>
       <c r="I162" s="44">
         <f>SUM(I141:I161)</f>
         <v>2479</v>
@@ -7453,17 +7730,17 @@
       <c r="N168" s="8"/>
     </row>
     <row r="169" spans="1:14" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A169" s="267" t="s">
-        <v>430</v>
-      </c>
-      <c r="B169" s="268"/>
-      <c r="C169" s="268"/>
-      <c r="D169" s="268"/>
-      <c r="E169" s="268"/>
-      <c r="F169" s="268"/>
-      <c r="G169" s="268"/>
-      <c r="H169" s="268"/>
-      <c r="I169" s="269"/>
+      <c r="A169" s="303" t="s">
+        <v>429</v>
+      </c>
+      <c r="B169" s="304"/>
+      <c r="C169" s="304"/>
+      <c r="D169" s="304"/>
+      <c r="E169" s="304"/>
+      <c r="F169" s="304"/>
+      <c r="G169" s="304"/>
+      <c r="H169" s="304"/>
+      <c r="I169" s="305"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
@@ -7471,19 +7748,19 @@
       <c r="N169" s="8"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A170" s="270" t="s">
+      <c r="A170" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B170" s="271"/>
-      <c r="C170" s="271"/>
-      <c r="D170" s="272"/>
+      <c r="B170" s="307"/>
+      <c r="C170" s="307"/>
+      <c r="D170" s="308"/>
       <c r="E170" s="43"/>
-      <c r="F170" s="270" t="s">
+      <c r="F170" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G170" s="271"/>
-      <c r="H170" s="271"/>
-      <c r="I170" s="272"/>
+      <c r="G170" s="307"/>
+      <c r="H170" s="307"/>
+      <c r="I170" s="308"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
@@ -7572,7 +7849,7 @@
       <c r="F173" s="258"/>
       <c r="G173" s="39"/>
       <c r="H173" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I173" s="40">
         <v>120</v>
@@ -7594,7 +7871,7 @@
         <v>335</v>
       </c>
       <c r="D174" s="248">
-        <v>7200</v>
+        <v>6200</v>
       </c>
       <c r="E174" s="38"/>
       <c r="F174" s="260">
@@ -7604,7 +7881,7 @@
         <v>44292</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I174" s="40">
         <v>200</v>
@@ -7624,7 +7901,7 @@
       <c r="F175" s="260"/>
       <c r="G175" s="39"/>
       <c r="H175" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I175" s="40">
         <v>90</v>
@@ -7672,7 +7949,7 @@
         <v>44297</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I177" s="40">
         <v>60</v>
@@ -7692,7 +7969,7 @@
       <c r="F178" s="246"/>
       <c r="G178" s="39"/>
       <c r="H178" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I178" s="40">
         <v>150</v>
@@ -7740,7 +8017,7 @@
         <v>44299</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I180" s="40">
         <v>120</v>
@@ -7764,7 +8041,7 @@
         <v>44308</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I181" s="40">
         <v>400</v>
@@ -7788,7 +8065,7 @@
         <v>44309</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I182" s="40">
         <v>230</v>
@@ -7808,7 +8085,7 @@
       <c r="F183" s="261"/>
       <c r="G183" s="39"/>
       <c r="H183" s="262" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I183" s="134">
         <v>24000</v>
@@ -7828,7 +8105,7 @@
       <c r="F184" s="263"/>
       <c r="G184" s="39"/>
       <c r="H184" s="66" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I184" s="40">
         <v>280</v>
@@ -7852,7 +8129,7 @@
         <v>44310</v>
       </c>
       <c r="H185" s="66" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I185" s="40">
         <v>50000</v>
@@ -7876,7 +8153,7 @@
         <v>44311</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I186" s="40">
         <v>50000</v>
@@ -7900,7 +8177,7 @@
         <v>44313</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I187" s="40">
         <v>980</v>
@@ -7928,21 +8205,21 @@
       <c r="N188" s="8"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A189" s="273" t="s">
+      <c r="A189" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="B189" s="274"/>
-      <c r="C189" s="274"/>
+      <c r="B189" s="310"/>
+      <c r="C189" s="310"/>
       <c r="D189" s="44">
         <f>SUM(D172:D188)</f>
-        <v>1450639</v>
+        <v>1449639</v>
       </c>
       <c r="E189" s="50"/>
-      <c r="F189" s="273" t="s">
+      <c r="F189" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="G189" s="274"/>
-      <c r="H189" s="275"/>
+      <c r="G189" s="310"/>
+      <c r="H189" s="311"/>
       <c r="I189" s="44">
         <f>SUM(I172:I188)</f>
         <v>132940</v>
@@ -7977,7 +8254,7 @@
       </c>
       <c r="D191" s="58">
         <f>D189</f>
-        <v>1450639</v>
+        <v>1449639</v>
       </c>
       <c r="E191" s="8"/>
       <c r="F191" s="53"/>
@@ -8035,7 +8312,7 @@
       </c>
       <c r="D194" s="62">
         <f>D191-D192</f>
-        <v>1317699</v>
+        <v>1316699</v>
       </c>
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
@@ -8065,17 +8342,17 @@
       <c r="N195" s="8"/>
     </row>
     <row r="196" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A196" s="267" t="s">
-        <v>463</v>
-      </c>
-      <c r="B196" s="268"/>
-      <c r="C196" s="268"/>
-      <c r="D196" s="268"/>
-      <c r="E196" s="268"/>
-      <c r="F196" s="268"/>
-      <c r="G196" s="268"/>
-      <c r="H196" s="268"/>
-      <c r="I196" s="269"/>
+      <c r="A196" s="303" t="s">
+        <v>461</v>
+      </c>
+      <c r="B196" s="304"/>
+      <c r="C196" s="304"/>
+      <c r="D196" s="304"/>
+      <c r="E196" s="304"/>
+      <c r="F196" s="304"/>
+      <c r="G196" s="304"/>
+      <c r="H196" s="304"/>
+      <c r="I196" s="305"/>
       <c r="J196" s="8"/>
       <c r="K196" s="8"/>
       <c r="L196" s="8"/>
@@ -8083,19 +8360,19 @@
       <c r="N196" s="8"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A197" s="270" t="s">
+      <c r="A197" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B197" s="271"/>
-      <c r="C197" s="271"/>
-      <c r="D197" s="272"/>
+      <c r="B197" s="307"/>
+      <c r="C197" s="307"/>
+      <c r="D197" s="308"/>
       <c r="E197" s="43"/>
-      <c r="F197" s="270" t="s">
+      <c r="F197" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G197" s="271"/>
-      <c r="H197" s="271"/>
-      <c r="I197" s="272"/>
+      <c r="G197" s="307"/>
+      <c r="H197" s="307"/>
+      <c r="I197" s="308"/>
       <c r="J197" s="8"/>
       <c r="K197" s="8"/>
       <c r="L197" s="8"/>
@@ -8139,14 +8416,14 @@
         <v>0</v>
       </c>
       <c r="B199" s="132">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="C199" s="133" t="s">
         <v>185</v>
       </c>
       <c r="D199" s="134">
         <f>D194</f>
-        <v>1317699</v>
+        <v>1316699</v>
       </c>
       <c r="E199" s="38"/>
       <c r="F199" s="264">
@@ -8175,7 +8452,7 @@
         <v>44324</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D200" s="248">
         <v>100000</v>
@@ -8184,7 +8461,7 @@
       <c r="F200" s="264"/>
       <c r="G200" s="39"/>
       <c r="H200" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I200" s="40">
         <v>1582</v>
@@ -8196,10 +8473,18 @@
       <c r="N200" s="8"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A201" s="264"/>
-      <c r="B201" s="39"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="248"/>
+      <c r="A201" s="264">
+        <v>2</v>
+      </c>
+      <c r="B201" s="39">
+        <v>44341</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D201" s="248">
+        <v>800</v>
+      </c>
       <c r="E201" s="38"/>
       <c r="F201" s="264">
         <v>2</v>
@@ -8208,7 +8493,7 @@
         <v>44321</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I201" s="40">
         <v>3650</v>
@@ -8220,15 +8505,23 @@
       <c r="N201" s="8"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A202" s="264"/>
-      <c r="B202" s="39"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="248"/>
+      <c r="A202" s="264">
+        <v>3</v>
+      </c>
+      <c r="B202" s="39">
+        <v>44345</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D202" s="248">
+        <v>500</v>
+      </c>
       <c r="E202" s="38"/>
       <c r="F202" s="264"/>
       <c r="G202" s="39"/>
       <c r="H202" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I202" s="40">
         <v>4572</v>
@@ -8240,15 +8533,31 @@
       <c r="N202" s="8"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A203" s="264"/>
-      <c r="B203" s="39"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="248"/>
+      <c r="A203" s="264">
+        <v>4</v>
+      </c>
+      <c r="B203" s="39">
+        <v>44347</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D203" s="248">
+        <v>1500</v>
+      </c>
       <c r="E203" s="38"/>
-      <c r="F203" s="264"/>
-      <c r="G203" s="39"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="40"/>
+      <c r="F203" s="264">
+        <v>3</v>
+      </c>
+      <c r="G203" s="39">
+        <v>44339</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I203" s="40">
+        <v>67000</v>
+      </c>
       <c r="J203" s="8"/>
       <c r="K203" s="8"/>
       <c r="L203" s="8"/>
@@ -8261,10 +8570,18 @@
       <c r="C204" s="1"/>
       <c r="D204" s="248"/>
       <c r="E204" s="38"/>
-      <c r="F204" s="264"/>
-      <c r="G204" s="39"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="40"/>
+      <c r="F204" s="264">
+        <v>4</v>
+      </c>
+      <c r="G204" s="39">
+        <v>44340</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I204" s="40">
+        <v>200</v>
+      </c>
       <c r="J204" s="8"/>
       <c r="K204" s="8"/>
       <c r="L204" s="8"/>
@@ -8277,10 +8594,18 @@
       <c r="C205" s="1"/>
       <c r="D205" s="40"/>
       <c r="E205" s="38"/>
-      <c r="F205" s="264"/>
-      <c r="G205" s="39"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="40"/>
+      <c r="F205" s="264">
+        <v>5</v>
+      </c>
+      <c r="G205" s="39">
+        <v>44342</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I205" s="40">
+        <v>440</v>
+      </c>
       <c r="J205" s="8"/>
       <c r="K205" s="8"/>
       <c r="L205" s="8"/>
@@ -8293,10 +8618,18 @@
       <c r="C206" s="1"/>
       <c r="D206" s="40"/>
       <c r="E206" s="38"/>
-      <c r="F206" s="264"/>
-      <c r="G206" s="39"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="40"/>
+      <c r="F206" s="264">
+        <v>6</v>
+      </c>
+      <c r="G206" s="39">
+        <v>44344</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I206" s="40">
+        <v>390</v>
+      </c>
       <c r="J206" s="8"/>
       <c r="K206" s="8"/>
       <c r="L206" s="8"/>
@@ -8309,10 +8642,18 @@
       <c r="C207" s="1"/>
       <c r="D207" s="40"/>
       <c r="E207" s="38"/>
-      <c r="F207" s="264"/>
-      <c r="G207" s="39"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="40"/>
+      <c r="F207" s="264">
+        <v>7</v>
+      </c>
+      <c r="G207" s="39">
+        <v>44346</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I207" s="40">
+        <v>200</v>
+      </c>
       <c r="J207" s="8"/>
       <c r="K207" s="8"/>
       <c r="L207" s="8"/>
@@ -8325,10 +8666,16 @@
       <c r="C208" s="1"/>
       <c r="D208" s="40"/>
       <c r="E208" s="38"/>
-      <c r="F208" s="264"/>
+      <c r="F208" s="264">
+        <v>8</v>
+      </c>
       <c r="G208" s="39"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="40"/>
+      <c r="H208" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I208" s="40">
+        <v>100</v>
+      </c>
       <c r="J208" s="8"/>
       <c r="K208" s="8"/>
       <c r="L208" s="8"/>
@@ -8341,10 +8688,18 @@
       <c r="C209" s="1"/>
       <c r="D209" s="40"/>
       <c r="E209" s="38"/>
-      <c r="F209" s="264"/>
-      <c r="G209" s="39"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="40"/>
+      <c r="F209" s="300">
+        <v>9</v>
+      </c>
+      <c r="G209" s="39">
+        <v>44347</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I209" s="40">
+        <v>256000</v>
+      </c>
       <c r="J209" s="8"/>
       <c r="K209" s="8"/>
       <c r="L209" s="8"/>
@@ -8368,14 +8723,14 @@
       <c r="N210" s="8"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="40"/>
+      <c r="A211" s="68"/>
+      <c r="B211" s="68"/>
+      <c r="C211" s="68"/>
+      <c r="D211" s="69"/>
       <c r="E211" s="38"/>
-      <c r="F211" s="264"/>
+      <c r="F211" s="170"/>
       <c r="G211" s="39"/>
-      <c r="H211" s="66"/>
+      <c r="H211" s="1"/>
       <c r="I211" s="40"/>
       <c r="J211" s="8"/>
       <c r="K211" s="8"/>
@@ -8384,15 +8739,25 @@
       <c r="N211" s="8"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="40"/>
-      <c r="E212" s="38"/>
-      <c r="F212" s="264"/>
-      <c r="G212" s="39"/>
-      <c r="H212" s="66"/>
-      <c r="I212" s="40"/>
+      <c r="A212" s="309" t="s">
+        <v>106</v>
+      </c>
+      <c r="B212" s="310"/>
+      <c r="C212" s="310"/>
+      <c r="D212" s="44">
+        <f>SUM(D199:D211)</f>
+        <v>1419499</v>
+      </c>
+      <c r="E212" s="50"/>
+      <c r="F212" s="309" t="s">
+        <v>105</v>
+      </c>
+      <c r="G212" s="310"/>
+      <c r="H212" s="311"/>
+      <c r="I212" s="44">
+        <f>SUM(I199:I211)</f>
+        <v>335114</v>
+      </c>
       <c r="J212" s="8"/>
       <c r="K212" s="8"/>
       <c r="L212" s="8"/>
@@ -8400,15 +8765,15 @@
       <c r="N212" s="8"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="40"/>
-      <c r="E213" s="38"/>
-      <c r="F213" s="264"/>
-      <c r="G213" s="39"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="40"/>
+      <c r="A213" s="55"/>
+      <c r="B213" s="55"/>
+      <c r="C213" s="55"/>
+      <c r="D213" s="56"/>
+      <c r="E213" s="8"/>
+      <c r="F213" s="55"/>
+      <c r="G213" s="55"/>
+      <c r="H213" s="55"/>
+      <c r="I213" s="56"/>
       <c r="J213" s="8"/>
       <c r="K213" s="8"/>
       <c r="L213" s="8"/>
@@ -8416,15 +8781,20 @@
       <c r="N213" s="8"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="40"/>
-      <c r="E214" s="38"/>
-      <c r="F214" s="170"/>
-      <c r="G214" s="39"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="40"/>
+      <c r="A214" s="53"/>
+      <c r="B214" s="53"/>
+      <c r="C214" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D214" s="58">
+        <f>D212</f>
+        <v>1419499</v>
+      </c>
+      <c r="E214" s="8"/>
+      <c r="F214" s="53"/>
+      <c r="G214" s="53"/>
+      <c r="H214" s="53"/>
+      <c r="I214" s="53"/>
       <c r="J214" s="8"/>
       <c r="K214" s="8"/>
       <c r="L214" s="8"/>
@@ -8432,41 +8802,36 @@
       <c r="N214" s="8"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A215" s="68"/>
-      <c r="B215" s="68"/>
-      <c r="C215" s="68"/>
-      <c r="D215" s="69"/>
-      <c r="E215" s="38"/>
-      <c r="F215" s="170"/>
-      <c r="G215" s="39"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="40"/>
+      <c r="A215" s="53"/>
+      <c r="B215" s="53"/>
+      <c r="C215" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D215" s="58">
+        <f>I212</f>
+        <v>335114</v>
+      </c>
+      <c r="E215" s="8"/>
+      <c r="F215" s="53"/>
+      <c r="G215" s="53"/>
+      <c r="H215" s="53"/>
+      <c r="I215" s="53"/>
       <c r="J215" s="8"/>
       <c r="K215" s="8"/>
       <c r="L215" s="8"/>
       <c r="M215" s="8"/>
       <c r="N215" s="8"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A216" s="273" t="s">
-        <v>106</v>
-      </c>
-      <c r="B216" s="274"/>
-      <c r="C216" s="274"/>
-      <c r="D216" s="44">
-        <f>SUM(D199:D215)</f>
-        <v>1417699</v>
-      </c>
-      <c r="E216" s="50"/>
-      <c r="F216" s="273" t="s">
-        <v>105</v>
-      </c>
-      <c r="G216" s="274"/>
-      <c r="H216" s="275"/>
-      <c r="I216" s="44">
-        <f>SUM(I199:I215)</f>
-        <v>10784</v>
-      </c>
+    <row r="216" spans="1:14" ht="11.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="59"/>
+      <c r="D216" s="60"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
+      <c r="H216" s="8"/>
+      <c r="I216" s="8"/>
       <c r="J216" s="8"/>
       <c r="K216" s="8"/>
       <c r="L216" s="8"/>
@@ -8474,73 +8839,74 @@
       <c r="N216" s="8"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A217" s="55"/>
-      <c r="B217" s="55"/>
-      <c r="C217" s="55"/>
-      <c r="D217" s="56"/>
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D217" s="62">
+        <f>D214-D215</f>
+        <v>1084385</v>
+      </c>
       <c r="E217" s="8"/>
-      <c r="F217" s="55"/>
-      <c r="G217" s="55"/>
-      <c r="H217" s="55"/>
-      <c r="I217" s="56"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8"/>
+      <c r="H217" s="8"/>
+      <c r="I217" s="8"/>
       <c r="J217" s="8"/>
       <c r="K217" s="8"/>
       <c r="L217" s="8"/>
       <c r="M217" s="8"/>
       <c r="N217" s="8"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A218" s="53"/>
-      <c r="B218" s="53"/>
-      <c r="C218" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D218" s="58">
-        <f>D216</f>
-        <v>1417699</v>
-      </c>
+    <row r="218" spans="1:14" ht="60.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
+      <c r="D218" s="8"/>
       <c r="E218" s="8"/>
-      <c r="F218" s="53"/>
-      <c r="G218" s="53"/>
-      <c r="H218" s="53"/>
-      <c r="I218" s="53"/>
+      <c r="F218" s="8"/>
+      <c r="G218" s="8"/>
+      <c r="H218" s="8"/>
+      <c r="I218" s="8"/>
       <c r="J218" s="8"/>
       <c r="K218" s="8"/>
       <c r="L218" s="8"/>
       <c r="M218" s="8"/>
       <c r="N218" s="8"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A219" s="53"/>
-      <c r="B219" s="53"/>
-      <c r="C219" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="D219" s="58">
-        <f>I216</f>
-        <v>10784</v>
-      </c>
-      <c r="E219" s="8"/>
-      <c r="F219" s="53"/>
-      <c r="G219" s="53"/>
-      <c r="H219" s="53"/>
-      <c r="I219" s="53"/>
+    <row r="219" spans="1:14" ht="34.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A219" s="303" t="s">
+        <v>512</v>
+      </c>
+      <c r="B219" s="304"/>
+      <c r="C219" s="304"/>
+      <c r="D219" s="304"/>
+      <c r="E219" s="304"/>
+      <c r="F219" s="304"/>
+      <c r="G219" s="304"/>
+      <c r="H219" s="304"/>
+      <c r="I219" s="305"/>
       <c r="J219" s="8"/>
       <c r="K219" s="8"/>
       <c r="L219" s="8"/>
       <c r="M219" s="8"/>
       <c r="N219" s="8"/>
     </row>
-    <row r="220" spans="1:14" ht="11.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A220" s="8"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="59"/>
-      <c r="D220" s="60"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
-      <c r="H220" s="8"/>
-      <c r="I220" s="8"/>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A220" s="306" t="s">
+        <v>81</v>
+      </c>
+      <c r="B220" s="307"/>
+      <c r="C220" s="307"/>
+      <c r="D220" s="308"/>
+      <c r="E220" s="43"/>
+      <c r="F220" s="306" t="s">
+        <v>82</v>
+      </c>
+      <c r="G220" s="307"/>
+      <c r="H220" s="307"/>
+      <c r="I220" s="308"/>
       <c r="J220" s="8"/>
       <c r="K220" s="8"/>
       <c r="L220" s="8"/>
@@ -8548,20 +8914,31 @@
       <c r="N220" s="8"/>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A221" s="8"/>
-      <c r="B221" s="8"/>
-      <c r="C221" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D221" s="62">
-        <f>D218-D219</f>
-        <v>1406915</v>
-      </c>
-      <c r="E221" s="8"/>
-      <c r="F221" s="8"/>
-      <c r="G221" s="8"/>
-      <c r="H221" s="8"/>
-      <c r="I221" s="8"/>
+      <c r="A221" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D221" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E221" s="48"/>
+      <c r="F221" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G221" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H221" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="I221" s="47" t="s">
+        <v>84</v>
+      </c>
       <c r="J221" s="8"/>
       <c r="K221" s="8"/>
       <c r="L221" s="8"/>
@@ -8569,15 +8946,24 @@
       <c r="N221" s="8"/>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A222" s="8"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="8"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
-      <c r="H222" s="8"/>
-      <c r="I222" s="8"/>
+      <c r="A222" s="131">
+        <v>0</v>
+      </c>
+      <c r="B222" s="132">
+        <v>44317</v>
+      </c>
+      <c r="C222" s="133" t="s">
+        <v>185</v>
+      </c>
+      <c r="D222" s="134">
+        <f>D217</f>
+        <v>1084385</v>
+      </c>
+      <c r="E222" s="38"/>
+      <c r="F222" s="301"/>
+      <c r="G222" s="39"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="40"/>
       <c r="J222" s="8"/>
       <c r="K222" s="8"/>
       <c r="L222" s="8"/>
@@ -8585,15 +8971,23 @@
       <c r="N222" s="8"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A223" s="8"/>
-      <c r="B223" s="8"/>
-      <c r="C223" s="8"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
-      <c r="F223" s="8"/>
-      <c r="G223" s="8"/>
-      <c r="H223" s="8"/>
-      <c r="I223" s="8"/>
+      <c r="A223" s="301">
+        <v>1</v>
+      </c>
+      <c r="B223" s="39">
+        <v>44348</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D223" s="248">
+        <v>2000</v>
+      </c>
+      <c r="E223" s="38"/>
+      <c r="F223" s="301"/>
+      <c r="G223" s="39"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="40"/>
       <c r="J223" s="8"/>
       <c r="K223" s="8"/>
       <c r="L223" s="8"/>
@@ -8601,15 +8995,19 @@
       <c r="N223" s="8"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A224" s="8"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="8"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
-      <c r="F224" s="8"/>
-      <c r="G224" s="8"/>
-      <c r="H224" s="8"/>
-      <c r="I224" s="8"/>
+      <c r="A224" s="301"/>
+      <c r="B224" s="39"/>
+      <c r="C224" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D224" s="248">
+        <v>4300</v>
+      </c>
+      <c r="E224" s="38"/>
+      <c r="F224" s="301"/>
+      <c r="G224" s="39"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="40"/>
       <c r="J224" s="8"/>
       <c r="K224" s="8"/>
       <c r="L224" s="8"/>
@@ -8617,15 +9015,15 @@
       <c r="N224" s="8"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A225" s="8"/>
-      <c r="B225" s="8"/>
-      <c r="C225" s="8"/>
-      <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
-      <c r="F225" s="8"/>
-      <c r="G225" s="8"/>
-      <c r="H225" s="8"/>
-      <c r="I225" s="8"/>
+      <c r="A225" s="301"/>
+      <c r="B225" s="39"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="248"/>
+      <c r="E225" s="38"/>
+      <c r="F225" s="301"/>
+      <c r="G225" s="39"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="40"/>
       <c r="J225" s="8"/>
       <c r="K225" s="8"/>
       <c r="L225" s="8"/>
@@ -8633,15 +9031,15 @@
       <c r="N225" s="8"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A226" s="8"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="8"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
-      <c r="F226" s="8"/>
-      <c r="G226" s="8"/>
-      <c r="H226" s="8"/>
-      <c r="I226" s="8"/>
+      <c r="A226" s="301"/>
+      <c r="B226" s="39"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="248"/>
+      <c r="E226" s="38"/>
+      <c r="F226" s="301"/>
+      <c r="G226" s="39"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="40"/>
       <c r="J226" s="8"/>
       <c r="K226" s="8"/>
       <c r="L226" s="8"/>
@@ -8649,15 +9047,15 @@
       <c r="N226" s="8"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A227" s="8"/>
-      <c r="B227" s="8"/>
-      <c r="C227" s="8"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="8"/>
-      <c r="G227" s="8"/>
-      <c r="H227" s="8"/>
-      <c r="I227" s="8"/>
+      <c r="A227" s="301"/>
+      <c r="B227" s="39"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="248"/>
+      <c r="E227" s="38"/>
+      <c r="F227" s="301"/>
+      <c r="G227" s="39"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="40"/>
       <c r="J227" s="8"/>
       <c r="K227" s="8"/>
       <c r="L227" s="8"/>
@@ -8665,15 +9063,15 @@
       <c r="N227" s="8"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A228" s="8"/>
-      <c r="B228" s="8"/>
-      <c r="C228" s="8"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="8"/>
-      <c r="G228" s="8"/>
-      <c r="H228" s="8"/>
-      <c r="I228" s="8"/>
+      <c r="A228" s="301"/>
+      <c r="B228" s="39"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="40"/>
+      <c r="E228" s="38"/>
+      <c r="F228" s="301"/>
+      <c r="G228" s="39"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="40"/>
       <c r="J228" s="8"/>
       <c r="K228" s="8"/>
       <c r="L228" s="8"/>
@@ -8681,15 +9079,15 @@
       <c r="N228" s="8"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
-      <c r="C229" s="8"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
-      <c r="F229" s="8"/>
-      <c r="G229" s="8"/>
-      <c r="H229" s="8"/>
-      <c r="I229" s="8"/>
+      <c r="A229" s="301"/>
+      <c r="B229" s="39"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="40"/>
+      <c r="E229" s="38"/>
+      <c r="F229" s="301"/>
+      <c r="G229" s="39"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="40"/>
       <c r="J229" s="8"/>
       <c r="K229" s="8"/>
       <c r="L229" s="8"/>
@@ -8697,15 +9095,15 @@
       <c r="N229" s="8"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A230" s="8"/>
-      <c r="B230" s="8"/>
-      <c r="C230" s="8"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
-      <c r="F230" s="8"/>
-      <c r="G230" s="8"/>
-      <c r="H230" s="8"/>
-      <c r="I230" s="8"/>
+      <c r="A230" s="301"/>
+      <c r="B230" s="39"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="40"/>
+      <c r="E230" s="38"/>
+      <c r="F230" s="301"/>
+      <c r="G230" s="39"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="40"/>
       <c r="J230" s="8"/>
       <c r="K230" s="8"/>
       <c r="L230" s="8"/>
@@ -8713,15 +9111,15 @@
       <c r="N230" s="8"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A231" s="8"/>
-      <c r="B231" s="8"/>
-      <c r="C231" s="8"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
-      <c r="F231" s="8"/>
-      <c r="G231" s="8"/>
-      <c r="H231" s="8"/>
-      <c r="I231" s="8"/>
+      <c r="A231" s="301"/>
+      <c r="B231" s="39"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="40"/>
+      <c r="E231" s="38"/>
+      <c r="F231" s="301"/>
+      <c r="G231" s="39"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="40"/>
       <c r="J231" s="8"/>
       <c r="K231" s="8"/>
       <c r="L231" s="8"/>
@@ -8729,15 +9127,15 @@
       <c r="N231" s="8"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A232" s="8"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="8"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
-      <c r="F232" s="8"/>
-      <c r="G232" s="8"/>
-      <c r="H232" s="8"/>
-      <c r="I232" s="8"/>
+      <c r="A232" s="301"/>
+      <c r="B232" s="39"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="40"/>
+      <c r="E232" s="38"/>
+      <c r="F232" s="301"/>
+      <c r="G232" s="39"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="40"/>
       <c r="J232" s="8"/>
       <c r="K232" s="8"/>
       <c r="L232" s="8"/>
@@ -8745,15 +9143,15 @@
       <c r="N232" s="8"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A233" s="8"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
-      <c r="F233" s="8"/>
-      <c r="G233" s="8"/>
-      <c r="H233" s="8"/>
-      <c r="I233" s="8"/>
+      <c r="A233" s="301"/>
+      <c r="B233" s="39"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="40"/>
+      <c r="E233" s="38"/>
+      <c r="F233" s="301"/>
+      <c r="G233" s="39"/>
+      <c r="H233" s="262"/>
+      <c r="I233" s="134"/>
       <c r="J233" s="8"/>
       <c r="K233" s="8"/>
       <c r="L233" s="8"/>
@@ -8761,15 +9159,15 @@
       <c r="N233" s="8"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A234" s="8"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="8"/>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="8"/>
-      <c r="G234" s="8"/>
-      <c r="H234" s="8"/>
-      <c r="I234" s="8"/>
+      <c r="A234" s="68"/>
+      <c r="B234" s="68"/>
+      <c r="C234" s="68"/>
+      <c r="D234" s="69"/>
+      <c r="E234" s="38"/>
+      <c r="F234" s="170"/>
+      <c r="G234" s="39"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="40"/>
       <c r="J234" s="8"/>
       <c r="K234" s="8"/>
       <c r="L234" s="8"/>
@@ -8777,15 +9175,25 @@
       <c r="N234" s="8"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A235" s="8"/>
-      <c r="B235" s="8"/>
-      <c r="C235" s="8"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
-      <c r="F235" s="8"/>
-      <c r="G235" s="8"/>
-      <c r="H235" s="8"/>
-      <c r="I235" s="8"/>
+      <c r="A235" s="309" t="s">
+        <v>106</v>
+      </c>
+      <c r="B235" s="310"/>
+      <c r="C235" s="310"/>
+      <c r="D235" s="44">
+        <f>SUM(D222:D234)</f>
+        <v>1090685</v>
+      </c>
+      <c r="E235" s="50"/>
+      <c r="F235" s="309" t="s">
+        <v>105</v>
+      </c>
+      <c r="G235" s="310"/>
+      <c r="H235" s="311"/>
+      <c r="I235" s="44">
+        <f>SUM(I222:I234)</f>
+        <v>0</v>
+      </c>
       <c r="J235" s="8"/>
       <c r="K235" s="8"/>
       <c r="L235" s="8"/>
@@ -8793,15 +9201,15 @@
       <c r="N235" s="8"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A236" s="8"/>
-      <c r="B236" s="8"/>
-      <c r="C236" s="8"/>
-      <c r="D236" s="8"/>
+      <c r="A236" s="55"/>
+      <c r="B236" s="55"/>
+      <c r="C236" s="55"/>
+      <c r="D236" s="56"/>
       <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
-      <c r="G236" s="8"/>
-      <c r="H236" s="8"/>
-      <c r="I236" s="8"/>
+      <c r="F236" s="55"/>
+      <c r="G236" s="55"/>
+      <c r="H236" s="55"/>
+      <c r="I236" s="56"/>
       <c r="J236" s="8"/>
       <c r="K236" s="8"/>
       <c r="L236" s="8"/>
@@ -8809,15 +9217,20 @@
       <c r="N236" s="8"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A237" s="8"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
-      <c r="D237" s="8"/>
+      <c r="A237" s="53"/>
+      <c r="B237" s="53"/>
+      <c r="C237" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D237" s="58">
+        <f>D235</f>
+        <v>1090685</v>
+      </c>
       <c r="E237" s="8"/>
-      <c r="F237" s="8"/>
-      <c r="G237" s="8"/>
-      <c r="H237" s="8"/>
-      <c r="I237" s="8"/>
+      <c r="F237" s="53"/>
+      <c r="G237" s="53"/>
+      <c r="H237" s="53"/>
+      <c r="I237" s="53"/>
       <c r="J237" s="8"/>
       <c r="K237" s="8"/>
       <c r="L237" s="8"/>
@@ -8825,26 +9238,31 @@
       <c r="N237" s="8"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A238" s="8"/>
-      <c r="B238" s="8"/>
-      <c r="C238" s="8"/>
-      <c r="D238" s="8"/>
+      <c r="A238" s="53"/>
+      <c r="B238" s="53"/>
+      <c r="C238" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D238" s="58">
+        <f>I235</f>
+        <v>0</v>
+      </c>
       <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
-      <c r="G238" s="8"/>
-      <c r="H238" s="8"/>
-      <c r="I238" s="8"/>
+      <c r="F238" s="53"/>
+      <c r="G238" s="53"/>
+      <c r="H238" s="53"/>
+      <c r="I238" s="53"/>
       <c r="J238" s="8"/>
       <c r="K238" s="8"/>
       <c r="L238" s="8"/>
       <c r="M238" s="8"/>
       <c r="N238" s="8"/>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="8"/>
       <c r="B239" s="8"/>
-      <c r="C239" s="8"/>
-      <c r="D239" s="8"/>
+      <c r="C239" s="59"/>
+      <c r="D239" s="60"/>
       <c r="E239" s="8"/>
       <c r="F239" s="8"/>
       <c r="G239" s="8"/>
@@ -8859,8 +9277,13 @@
     <row r="240" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
-      <c r="C240" s="8"/>
-      <c r="D240" s="8"/>
+      <c r="C240" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D240" s="62">
+        <f>D237-D238</f>
+        <v>1090685</v>
+      </c>
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
       <c r="G240" s="8"/>
@@ -11770,14 +12193,6 @@
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A422" s="8"/>
-      <c r="B422" s="8"/>
-      <c r="C422" s="8"/>
-      <c r="D422" s="8"/>
-      <c r="E422" s="8"/>
-      <c r="F422" s="8"/>
-      <c r="G422" s="8"/>
-      <c r="H422" s="8"/>
-      <c r="I422" s="8"/>
       <c r="J422" s="8"/>
       <c r="K422" s="8"/>
       <c r="L422" s="8"/>
@@ -11785,15 +12200,6 @@
       <c r="N422" s="8"/>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A423" s="8"/>
-      <c r="B423" s="8"/>
-      <c r="C423" s="8"/>
-      <c r="D423" s="8"/>
-      <c r="E423" s="8"/>
-      <c r="F423" s="8"/>
-      <c r="G423" s="8"/>
-      <c r="H423" s="8"/>
-      <c r="I423" s="8"/>
       <c r="J423" s="8"/>
       <c r="K423" s="8"/>
       <c r="L423" s="8"/>
@@ -11801,15 +12207,6 @@
       <c r="N423" s="8"/>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A424" s="8"/>
-      <c r="B424" s="8"/>
-      <c r="C424" s="8"/>
-      <c r="D424" s="8"/>
-      <c r="E424" s="8"/>
-      <c r="F424" s="8"/>
-      <c r="G424" s="8"/>
-      <c r="H424" s="8"/>
-      <c r="I424" s="8"/>
       <c r="J424" s="8"/>
       <c r="K424" s="8"/>
       <c r="L424" s="8"/>
@@ -11817,15 +12214,6 @@
       <c r="N424" s="8"/>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A425" s="8"/>
-      <c r="B425" s="8"/>
-      <c r="C425" s="8"/>
-      <c r="D425" s="8"/>
-      <c r="E425" s="8"/>
-      <c r="F425" s="8"/>
-      <c r="G425" s="8"/>
-      <c r="H425" s="8"/>
-      <c r="I425" s="8"/>
       <c r="J425" s="8"/>
       <c r="K425" s="8"/>
       <c r="L425" s="8"/>
@@ -11833,7 +12221,6 @@
       <c r="N425" s="8"/>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A426" s="8"/>
       <c r="J426" s="8"/>
       <c r="K426" s="8"/>
       <c r="L426" s="8"/>
@@ -15053,41 +15440,18 @@
       <c r="M885" s="8"/>
       <c r="N885" s="8"/>
     </row>
-    <row r="886" spans="10:14" x14ac:dyDescent="0.5">
-      <c r="J886" s="8"/>
-      <c r="K886" s="8"/>
-      <c r="L886" s="8"/>
-      <c r="M886" s="8"/>
-      <c r="N886" s="8"/>
-    </row>
-    <row r="887" spans="10:14" x14ac:dyDescent="0.5">
-      <c r="J887" s="8"/>
-      <c r="K887" s="8"/>
-      <c r="L887" s="8"/>
-      <c r="M887" s="8"/>
-      <c r="N887" s="8"/>
-    </row>
-    <row r="888" spans="10:14" x14ac:dyDescent="0.5">
-      <c r="J888" s="8"/>
-      <c r="K888" s="8"/>
-      <c r="L888" s="8"/>
-      <c r="M888" s="8"/>
-      <c r="N888" s="8"/>
-    </row>
-    <row r="889" spans="10:14" x14ac:dyDescent="0.5">
-      <c r="J889" s="8"/>
-      <c r="K889" s="8"/>
-      <c r="L889" s="8"/>
-      <c r="M889" s="8"/>
-      <c r="N889" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="46">
+    <mergeCell ref="A219:I219"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="F220:I220"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="F235:H235"/>
     <mergeCell ref="A196:I196"/>
     <mergeCell ref="A197:D197"/>
     <mergeCell ref="F197:I197"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="F216:H216"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="F212:H212"/>
     <mergeCell ref="A169:I169"/>
     <mergeCell ref="A170:D170"/>
     <mergeCell ref="F170:I170"/>
@@ -15135,7 +15499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2523A0-3E49-4FC3-851C-AE2DE49C5923}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -15153,36 +15517,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="303" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="269"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="305"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="272"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="308"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="270" t="s">
+      <c r="F2" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="272"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="308"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -15541,7 +15905,7 @@
         <v>43954</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I15" s="40">
         <v>500</v>
@@ -15582,21 +15946,21 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="283" t="s">
+      <c r="A18" s="319" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="284"/>
-      <c r="C18" s="284"/>
+      <c r="B18" s="320"/>
+      <c r="C18" s="320"/>
       <c r="D18" s="44">
         <f>SUM(D4:D17)</f>
         <v>15210</v>
       </c>
       <c r="E18" s="50"/>
-      <c r="F18" s="283" t="s">
+      <c r="F18" s="319" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="284"/>
-      <c r="H18" s="285"/>
+      <c r="G18" s="320"/>
+      <c r="H18" s="321"/>
       <c r="I18" s="44">
         <f>SUM(I4:I17)</f>
         <v>15710</v>
@@ -16222,36 +16586,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="303" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="269"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="305"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="272"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="308"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="270" t="s">
+      <c r="F2" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="272"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="308"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -16342,21 +16706,21 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="283" t="s">
+      <c r="A7" s="319" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="284"/>
-      <c r="C7" s="284"/>
+      <c r="B7" s="320"/>
+      <c r="C7" s="320"/>
       <c r="D7" s="44">
         <f>SUM(D4:D6)</f>
         <v>0</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="283" t="s">
+      <c r="F7" s="319" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="284"/>
-      <c r="H7" s="285"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="321"/>
       <c r="I7" s="44">
         <f>SUM(I4:I6)</f>
         <v>0</v>
@@ -16983,18 +17347,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="344" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
+      <c r="B1" s="345"/>
+      <c r="C1" s="345"/>
       <c r="D1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="310" t="s">
+      <c r="E1" s="346" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="310"/>
+      <c r="F1" s="346"/>
       <c r="G1" s="14">
         <v>50000</v>
       </c>
@@ -17113,17 +17477,17 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A5" s="313">
+      <c r="A5" s="349">
         <v>3</v>
       </c>
-      <c r="B5" s="314">
+      <c r="B5" s="350">
         <v>44063</v>
       </c>
-      <c r="C5" s="315" t="s">
+      <c r="C5" s="351" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="316"/>
-      <c r="E5" s="317"/>
+      <c r="D5" s="352"/>
+      <c r="E5" s="353"/>
       <c r="F5" s="4">
         <v>11640</v>
       </c>
@@ -17145,11 +17509,11 @@
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A6" s="313"/>
-      <c r="B6" s="314"/>
-      <c r="C6" s="315"/>
-      <c r="D6" s="316"/>
-      <c r="E6" s="317"/>
+      <c r="A6" s="349"/>
+      <c r="B6" s="350"/>
+      <c r="C6" s="351"/>
+      <c r="D6" s="352"/>
+      <c r="E6" s="353"/>
       <c r="F6" s="4">
         <v>1700</v>
       </c>
@@ -17171,10 +17535,10 @@
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A7" s="313">
+      <c r="A7" s="349">
         <v>4</v>
       </c>
-      <c r="B7" s="314">
+      <c r="B7" s="350">
         <v>44064</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -17203,8 +17567,8 @@
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A8" s="313"/>
-      <c r="B8" s="314"/>
+      <c r="A8" s="349"/>
+      <c r="B8" s="350"/>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -17265,10 +17629,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A10" s="313">
+      <c r="A10" s="349">
         <v>6</v>
       </c>
-      <c r="B10" s="314">
+      <c r="B10" s="350">
         <v>44066</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -17297,8 +17661,8 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A11" s="313"/>
-      <c r="B11" s="314"/>
+      <c r="A11" s="349"/>
+      <c r="B11" s="350"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -17330,7 +17694,7 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="314">
+      <c r="B12" s="350">
         <v>44067</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -17362,7 +17726,7 @@
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="314"/>
+      <c r="B13" s="350"/>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
@@ -17455,12 +17819,12 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="295" t="s">
+      <c r="A16" s="331" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="295"/>
-      <c r="C16" s="295"/>
-      <c r="D16" s="296"/>
+      <c r="B16" s="331"/>
+      <c r="C16" s="331"/>
+      <c r="D16" s="332"/>
       <c r="E16" s="16">
         <f>SUM(E3:E15)</f>
         <v>0</v>
@@ -17487,10 +17851,10 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="297"/>
-      <c r="B17" s="297"/>
-      <c r="C17" s="297"/>
-      <c r="D17" s="298"/>
+      <c r="A17" s="333"/>
+      <c r="B17" s="333"/>
+      <c r="C17" s="333"/>
+      <c r="D17" s="334"/>
       <c r="E17" s="17" t="s">
         <v>61</v>
       </c>
@@ -17535,18 +17899,18 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" ht="29.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="308" t="s">
+      <c r="A19" s="344" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="309"/>
-      <c r="C19" s="309"/>
+      <c r="B19" s="345"/>
+      <c r="C19" s="345"/>
       <c r="D19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="310" t="s">
+      <c r="E19" s="346" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="310"/>
+      <c r="F19" s="346"/>
       <c r="G19" s="14">
         <v>31780</v>
       </c>
@@ -17631,10 +17995,10 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A22" s="302">
+      <c r="A22" s="338">
         <v>12</v>
       </c>
-      <c r="B22" s="299">
+      <c r="B22" s="335">
         <v>44076</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -17663,8 +18027,8 @@
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A23" s="303"/>
-      <c r="B23" s="300"/>
+      <c r="A23" s="339"/>
+      <c r="B23" s="336"/>
       <c r="C23" s="21" t="s">
         <v>21</v>
       </c>
@@ -17691,8 +18055,8 @@
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A24" s="304"/>
-      <c r="B24" s="301"/>
+      <c r="A24" s="340"/>
+      <c r="B24" s="337"/>
       <c r="C24" s="21" t="s">
         <v>22</v>
       </c>
@@ -17721,10 +18085,10 @@
       <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A25" s="302">
+      <c r="A25" s="338">
         <v>13</v>
       </c>
-      <c r="B25" s="299">
+      <c r="B25" s="335">
         <v>44077</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -17755,8 +18119,8 @@
       <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A26" s="304"/>
-      <c r="B26" s="301"/>
+      <c r="A26" s="340"/>
+      <c r="B26" s="337"/>
       <c r="C26" s="21" t="s">
         <v>26</v>
       </c>
@@ -17785,10 +18149,10 @@
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A27" s="302">
+      <c r="A27" s="338">
         <v>14</v>
       </c>
-      <c r="B27" s="299">
+      <c r="B27" s="335">
         <v>44078</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -17817,8 +18181,8 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A28" s="304"/>
-      <c r="B28" s="301"/>
+      <c r="A28" s="340"/>
+      <c r="B28" s="337"/>
       <c r="C28" s="21" t="s">
         <v>28</v>
       </c>
@@ -17847,10 +18211,10 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A29" s="302">
+      <c r="A29" s="338">
         <v>15</v>
       </c>
-      <c r="B29" s="299">
+      <c r="B29" s="335">
         <v>44079</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -17879,8 +18243,8 @@
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A30" s="303"/>
-      <c r="B30" s="300"/>
+      <c r="A30" s="339"/>
+      <c r="B30" s="336"/>
       <c r="C30" s="21" t="s">
         <v>30</v>
       </c>
@@ -17909,8 +18273,8 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A31" s="303"/>
-      <c r="B31" s="300"/>
+      <c r="A31" s="339"/>
+      <c r="B31" s="336"/>
       <c r="C31" s="21" t="s">
         <v>60</v>
       </c>
@@ -17937,8 +18301,8 @@
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A32" s="304"/>
-      <c r="B32" s="301"/>
+      <c r="A32" s="340"/>
+      <c r="B32" s="337"/>
       <c r="C32" s="23" t="s">
         <v>31</v>
       </c>
@@ -17965,10 +18329,10 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A33" s="302">
+      <c r="A33" s="338">
         <v>16</v>
       </c>
-      <c r="B33" s="299">
+      <c r="B33" s="335">
         <v>44080</v>
       </c>
       <c r="C33" s="21" t="s">
@@ -17999,8 +18363,8 @@
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A34" s="303"/>
-      <c r="B34" s="300"/>
+      <c r="A34" s="339"/>
+      <c r="B34" s="336"/>
       <c r="C34" s="21" t="s">
         <v>33</v>
       </c>
@@ -18029,8 +18393,8 @@
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A35" s="303"/>
-      <c r="B35" s="300"/>
+      <c r="A35" s="339"/>
+      <c r="B35" s="336"/>
       <c r="C35" s="21" t="s">
         <v>36</v>
       </c>
@@ -18059,8 +18423,8 @@
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A36" s="303"/>
-      <c r="B36" s="300"/>
+      <c r="A36" s="339"/>
+      <c r="B36" s="336"/>
       <c r="C36" s="21" t="s">
         <v>37</v>
       </c>
@@ -18089,8 +18453,8 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A37" s="304"/>
-      <c r="B37" s="301"/>
+      <c r="A37" s="340"/>
+      <c r="B37" s="337"/>
       <c r="C37" s="21" t="s">
         <v>39</v>
       </c>
@@ -18117,10 +18481,10 @@
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A38" s="302">
+      <c r="A38" s="338">
         <v>17</v>
       </c>
-      <c r="B38" s="299">
+      <c r="B38" s="335">
         <v>44081</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -18149,8 +18513,8 @@
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A39" s="303"/>
-      <c r="B39" s="300"/>
+      <c r="A39" s="339"/>
+      <c r="B39" s="336"/>
       <c r="C39" s="21" t="s">
         <v>28</v>
       </c>
@@ -18177,8 +18541,8 @@
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A40" s="304"/>
-      <c r="B40" s="301"/>
+      <c r="A40" s="340"/>
+      <c r="B40" s="337"/>
       <c r="C40" s="21" t="s">
         <v>40</v>
       </c>
@@ -18207,10 +18571,10 @@
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A41" s="302">
+      <c r="A41" s="338">
         <v>18</v>
       </c>
-      <c r="B41" s="299">
+      <c r="B41" s="335">
         <v>44082</v>
       </c>
       <c r="C41" s="21" t="s">
@@ -18239,8 +18603,8 @@
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A42" s="304"/>
-      <c r="B42" s="301"/>
+      <c r="A42" s="340"/>
+      <c r="B42" s="337"/>
       <c r="C42" s="21" t="s">
         <v>42</v>
       </c>
@@ -18267,10 +18631,10 @@
       <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A43" s="302">
+      <c r="A43" s="338">
         <v>19</v>
       </c>
-      <c r="B43" s="299">
+      <c r="B43" s="335">
         <v>44083</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -18299,8 +18663,8 @@
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A44" s="304"/>
-      <c r="B44" s="301"/>
+      <c r="A44" s="340"/>
+      <c r="B44" s="337"/>
       <c r="C44" s="21" t="s">
         <v>44</v>
       </c>
@@ -18327,10 +18691,10 @@
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A45" s="302">
+      <c r="A45" s="338">
         <v>20</v>
       </c>
-      <c r="B45" s="299">
+      <c r="B45" s="335">
         <v>44084</v>
       </c>
       <c r="C45" s="21" t="s">
@@ -18359,8 +18723,8 @@
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A46" s="304"/>
-      <c r="B46" s="301"/>
+      <c r="A46" s="340"/>
+      <c r="B46" s="337"/>
       <c r="C46" s="21" t="s">
         <v>45</v>
       </c>
@@ -18387,10 +18751,10 @@
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A47" s="302">
+      <c r="A47" s="338">
         <v>21</v>
       </c>
-      <c r="B47" s="299">
+      <c r="B47" s="335">
         <v>44085</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -18419,8 +18783,8 @@
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A48" s="303"/>
-      <c r="B48" s="300"/>
+      <c r="A48" s="339"/>
+      <c r="B48" s="336"/>
       <c r="C48" s="21" t="s">
         <v>46</v>
       </c>
@@ -18447,8 +18811,8 @@
       <c r="S48" s="8"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A49" s="303"/>
-      <c r="B49" s="300"/>
+      <c r="A49" s="339"/>
+      <c r="B49" s="336"/>
       <c r="C49" s="21" t="s">
         <v>47</v>
       </c>
@@ -18475,8 +18839,8 @@
       <c r="S49" s="8"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A50" s="303"/>
-      <c r="B50" s="300"/>
+      <c r="A50" s="339"/>
+      <c r="B50" s="336"/>
       <c r="C50" s="23" t="s">
         <v>31</v>
       </c>
@@ -18503,8 +18867,8 @@
       <c r="S50" s="8"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A51" s="304"/>
-      <c r="B51" s="301"/>
+      <c r="A51" s="340"/>
+      <c r="B51" s="337"/>
       <c r="C51" s="21" t="s">
         <v>44</v>
       </c>
@@ -18533,10 +18897,10 @@
       <c r="S51" s="8"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A52" s="302">
+      <c r="A52" s="338">
         <v>22</v>
       </c>
-      <c r="B52" s="299">
+      <c r="B52" s="335">
         <v>44086</v>
       </c>
       <c r="C52" s="21" t="s">
@@ -18567,8 +18931,8 @@
       <c r="S52" s="8"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A53" s="304"/>
-      <c r="B53" s="301"/>
+      <c r="A53" s="340"/>
+      <c r="B53" s="337"/>
       <c r="C53" s="21" t="s">
         <v>50</v>
       </c>
@@ -18595,10 +18959,10 @@
       <c r="S53" s="8"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A54" s="302">
+      <c r="A54" s="338">
         <v>23</v>
       </c>
-      <c r="B54" s="299">
+      <c r="B54" s="335">
         <v>44087</v>
       </c>
       <c r="C54" s="21" t="s">
@@ -18627,8 +18991,8 @@
       <c r="S54" s="8"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A55" s="303"/>
-      <c r="B55" s="300"/>
+      <c r="A55" s="339"/>
+      <c r="B55" s="336"/>
       <c r="C55" s="21" t="s">
         <v>28</v>
       </c>
@@ -18655,8 +19019,8 @@
       <c r="S55" s="8"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A56" s="303"/>
-      <c r="B56" s="300"/>
+      <c r="A56" s="339"/>
+      <c r="B56" s="336"/>
       <c r="C56" s="21" t="s">
         <v>51</v>
       </c>
@@ -18683,8 +19047,8 @@
       <c r="S56" s="8"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A57" s="303"/>
-      <c r="B57" s="300"/>
+      <c r="A57" s="339"/>
+      <c r="B57" s="336"/>
       <c r="C57" s="23" t="s">
         <v>31</v>
       </c>
@@ -18809,10 +19173,10 @@
       <c r="S60" s="8"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A61" s="302">
+      <c r="A61" s="338">
         <v>27</v>
       </c>
-      <c r="B61" s="299">
+      <c r="B61" s="335">
         <v>44091</v>
       </c>
       <c r="C61" s="21" t="s">
@@ -18841,8 +19205,8 @@
       <c r="S61" s="8"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A62" s="304"/>
-      <c r="B62" s="301"/>
+      <c r="A62" s="340"/>
+      <c r="B62" s="337"/>
       <c r="C62" s="21" t="s">
         <v>44</v>
       </c>
@@ -18901,10 +19265,10 @@
       <c r="S63" s="8"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A64" s="302">
+      <c r="A64" s="338">
         <v>29</v>
       </c>
-      <c r="B64" s="299">
+      <c r="B64" s="335">
         <v>44093</v>
       </c>
       <c r="C64" s="21" t="s">
@@ -18933,8 +19297,8 @@
       <c r="S64" s="8"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A65" s="304"/>
-      <c r="B65" s="301"/>
+      <c r="A65" s="340"/>
+      <c r="B65" s="337"/>
       <c r="C65" s="21" t="s">
         <v>18</v>
       </c>
@@ -19129,10 +19493,10 @@
       <c r="B71" s="28">
         <v>44101</v>
       </c>
-      <c r="C71" s="311" t="s">
+      <c r="C71" s="347" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="312"/>
+      <c r="D71" s="348"/>
       <c r="E71" s="26">
         <v>0</v>
       </c>
@@ -19157,10 +19521,10 @@
       <c r="S71" s="8"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A72" s="302">
+      <c r="A72" s="338">
         <v>37</v>
       </c>
-      <c r="B72" s="299">
+      <c r="B72" s="335">
         <v>44103</v>
       </c>
       <c r="C72" s="21" t="s">
@@ -19189,12 +19553,12 @@
       <c r="S72" s="8"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A73" s="304"/>
-      <c r="B73" s="301"/>
-      <c r="C73" s="311" t="s">
+      <c r="A73" s="340"/>
+      <c r="B73" s="337"/>
+      <c r="C73" s="347" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="312"/>
+      <c r="D73" s="348"/>
       <c r="E73" s="6">
         <v>100000</v>
       </c>
@@ -19251,12 +19615,12 @@
       <c r="S74" s="8"/>
     </row>
     <row r="75" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="295" t="s">
+      <c r="A75" s="331" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="295"/>
-      <c r="C75" s="295"/>
-      <c r="D75" s="296"/>
+      <c r="B75" s="331"/>
+      <c r="C75" s="331"/>
+      <c r="D75" s="332"/>
       <c r="E75" s="16">
         <f>SUM(E21:E74)</f>
         <v>132000</v>
@@ -19283,10 +19647,10 @@
       <c r="S75" s="8"/>
     </row>
     <row r="76" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="297"/>
-      <c r="B76" s="297"/>
-      <c r="C76" s="297"/>
-      <c r="D76" s="298"/>
+      <c r="A76" s="333"/>
+      <c r="B76" s="333"/>
+      <c r="C76" s="333"/>
+      <c r="D76" s="334"/>
       <c r="E76" s="17" t="s">
         <v>61</v>
       </c>
@@ -19331,18 +19695,18 @@
       <c r="S77" s="8"/>
     </row>
     <row r="78" spans="1:19" ht="27.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="308" t="s">
+      <c r="A78" s="344" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="309"/>
-      <c r="C78" s="309"/>
+      <c r="B78" s="345"/>
+      <c r="C78" s="345"/>
       <c r="D78" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E78" s="310" t="s">
+      <c r="E78" s="346" t="s">
         <v>0</v>
       </c>
-      <c r="F78" s="310"/>
+      <c r="F78" s="346"/>
       <c r="G78" s="14">
         <f>G75</f>
         <v>137640</v>
@@ -19396,10 +19760,10 @@
       <c r="S79" s="8"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A80" s="302">
+      <c r="A80" s="338">
         <v>39</v>
       </c>
-      <c r="B80" s="299">
+      <c r="B80" s="335">
         <v>44105</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -19428,8 +19792,8 @@
       <c r="S80" s="8"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A81" s="303"/>
-      <c r="B81" s="300"/>
+      <c r="A81" s="339"/>
+      <c r="B81" s="336"/>
       <c r="C81" s="1" t="s">
         <v>70</v>
       </c>
@@ -19456,8 +19820,8 @@
       <c r="S81" s="8"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A82" s="303"/>
-      <c r="B82" s="300"/>
+      <c r="A82" s="339"/>
+      <c r="B82" s="336"/>
       <c r="C82" s="34" t="s">
         <v>76</v>
       </c>
@@ -19486,9 +19850,9 @@
       <c r="S82" s="8"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A83" s="303"/>
-      <c r="B83" s="300"/>
-      <c r="C83" s="305" t="s">
+      <c r="A83" s="339"/>
+      <c r="B83" s="336"/>
+      <c r="C83" s="341" t="s">
         <v>77</v>
       </c>
       <c r="D83" s="32" t="s">
@@ -19516,9 +19880,9 @@
       <c r="S83" s="8"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A84" s="303"/>
-      <c r="B84" s="300"/>
-      <c r="C84" s="306"/>
+      <c r="A84" s="339"/>
+      <c r="B84" s="336"/>
+      <c r="C84" s="342"/>
       <c r="D84" s="32" t="s">
         <v>71</v>
       </c>
@@ -19544,9 +19908,9 @@
       <c r="S84" s="8"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A85" s="303"/>
-      <c r="B85" s="300"/>
-      <c r="C85" s="306"/>
+      <c r="A85" s="339"/>
+      <c r="B85" s="336"/>
+      <c r="C85" s="342"/>
       <c r="D85" s="32" t="s">
         <v>73</v>
       </c>
@@ -19572,9 +19936,9 @@
       <c r="S85" s="8"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A86" s="304"/>
-      <c r="B86" s="301"/>
-      <c r="C86" s="307"/>
+      <c r="A86" s="340"/>
+      <c r="B86" s="337"/>
+      <c r="C86" s="343"/>
       <c r="D86" s="32" t="s">
         <v>74</v>
       </c>
@@ -19632,10 +19996,10 @@
       <c r="S87" s="8"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A88" s="302">
+      <c r="A88" s="338">
         <v>41</v>
       </c>
-      <c r="B88" s="299">
+      <c r="B88" s="335">
         <v>44108</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -19664,8 +20028,8 @@
       <c r="S88" s="8"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A89" s="304"/>
-      <c r="B89" s="301"/>
+      <c r="A89" s="340"/>
+      <c r="B89" s="337"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="4"/>
@@ -19754,10 +20118,10 @@
       <c r="S91" s="8"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A92" s="302">
+      <c r="A92" s="338">
         <v>44</v>
       </c>
-      <c r="B92" s="299">
+      <c r="B92" s="335">
         <v>44112</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -19786,8 +20150,8 @@
       <c r="S92" s="8"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A93" s="303"/>
-      <c r="B93" s="300"/>
+      <c r="A93" s="339"/>
+      <c r="B93" s="336"/>
       <c r="C93" s="1" t="s">
         <v>113</v>
       </c>
@@ -19814,8 +20178,8 @@
       <c r="S93" s="8"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A94" s="303"/>
-      <c r="B94" s="300"/>
+      <c r="A94" s="339"/>
+      <c r="B94" s="336"/>
       <c r="C94" s="1" t="s">
         <v>98</v>
       </c>
@@ -19844,8 +20208,8 @@
       <c r="S94" s="8"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A95" s="304"/>
-      <c r="B95" s="301"/>
+      <c r="A95" s="340"/>
+      <c r="B95" s="337"/>
       <c r="C95" s="1" t="s">
         <v>111</v>
       </c>
@@ -20304,12 +20668,12 @@
       <c r="S113" s="8"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A114" s="295" t="s">
+      <c r="A114" s="331" t="s">
         <v>57</v>
       </c>
-      <c r="B114" s="295"/>
-      <c r="C114" s="295"/>
-      <c r="D114" s="296"/>
+      <c r="B114" s="331"/>
+      <c r="C114" s="331"/>
+      <c r="D114" s="332"/>
       <c r="E114" s="16">
         <f>SUM(E80:E113)</f>
         <v>600000</v>
@@ -20336,10 +20700,10 @@
       <c r="S114" s="8"/>
     </row>
     <row r="115" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="297"/>
-      <c r="B115" s="297"/>
-      <c r="C115" s="297"/>
-      <c r="D115" s="298"/>
+      <c r="A115" s="333"/>
+      <c r="B115" s="333"/>
+      <c r="C115" s="333"/>
+      <c r="D115" s="334"/>
       <c r="E115" s="17" t="s">
         <v>61</v>
       </c>
@@ -23603,12 +23967,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="354" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
+      <c r="B1" s="354"/>
+      <c r="C1" s="354"/>
+      <c r="D1" s="354"/>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="143" t="s">
@@ -23850,7 +24214,7 @@
       <c r="A3" s="105">
         <v>1</v>
       </c>
-      <c r="B3" s="319">
+      <c r="B3" s="355">
         <v>44123</v>
       </c>
       <c r="C3" s="106"/>
@@ -23860,7 +24224,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="108"/>
-      <c r="B4" s="320"/>
+      <c r="B4" s="356"/>
       <c r="C4" s="109"/>
       <c r="D4" s="110" t="s">
         <v>199</v>
@@ -23868,7 +24232,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="108"/>
-      <c r="B5" s="320"/>
+      <c r="B5" s="356"/>
       <c r="C5" s="109"/>
       <c r="D5" s="111" t="s">
         <v>200</v>
@@ -23876,7 +24240,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="108"/>
-      <c r="B6" s="320"/>
+      <c r="B6" s="356"/>
       <c r="C6" s="109"/>
       <c r="D6" s="111" t="s">
         <v>201</v>
@@ -23884,7 +24248,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="108"/>
-      <c r="B7" s="320"/>
+      <c r="B7" s="356"/>
       <c r="C7" s="109"/>
       <c r="D7" s="111" t="s">
         <v>202</v>
@@ -23892,7 +24256,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="108"/>
-      <c r="B8" s="320"/>
+      <c r="B8" s="356"/>
       <c r="C8" s="109"/>
       <c r="D8" s="111" t="s">
         <v>203</v>
@@ -23900,7 +24264,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="108"/>
-      <c r="B9" s="320"/>
+      <c r="B9" s="356"/>
       <c r="C9" s="109"/>
       <c r="D9" s="111" t="s">
         <v>204</v>
@@ -23908,7 +24272,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="108"/>
-      <c r="B10" s="320"/>
+      <c r="B10" s="356"/>
       <c r="C10" s="109"/>
       <c r="D10" s="111" t="s">
         <v>205</v>
@@ -23916,7 +24280,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="108"/>
-      <c r="B11" s="320"/>
+      <c r="B11" s="356"/>
       <c r="C11" s="109"/>
       <c r="D11" s="111" t="s">
         <v>206</v>
@@ -23964,7 +24328,7 @@
       <c r="A17" s="119">
         <v>2</v>
       </c>
-      <c r="B17" s="321">
+      <c r="B17" s="357">
         <v>44124</v>
       </c>
       <c r="C17" s="106"/>
@@ -23974,7 +24338,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="121"/>
-      <c r="B18" s="321"/>
+      <c r="B18" s="357"/>
       <c r="C18" s="122"/>
       <c r="D18" s="123" t="s">
         <v>210</v>
@@ -23982,7 +24346,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="121"/>
-      <c r="B19" s="321"/>
+      <c r="B19" s="357"/>
       <c r="C19" s="122"/>
       <c r="D19" s="123" t="s">
         <v>211</v>
@@ -23990,7 +24354,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="121"/>
-      <c r="B20" s="321"/>
+      <c r="B20" s="357"/>
       <c r="C20" s="122"/>
       <c r="D20" s="123" t="s">
         <v>212</v>
@@ -23998,7 +24362,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="121"/>
-      <c r="B21" s="321"/>
+      <c r="B21" s="357"/>
       <c r="C21" s="122"/>
       <c r="D21" s="123" t="s">
         <v>202</v>
@@ -24006,7 +24370,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="121"/>
-      <c r="B22" s="321"/>
+      <c r="B22" s="357"/>
       <c r="C22" s="122"/>
       <c r="D22" s="123" t="s">
         <v>213</v>
@@ -24014,7 +24378,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="121"/>
-      <c r="B23" s="321"/>
+      <c r="B23" s="357"/>
       <c r="C23" s="122"/>
       <c r="D23" s="123" t="s">
         <v>214</v>
@@ -24022,7 +24386,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="121"/>
-      <c r="B24" s="321"/>
+      <c r="B24" s="357"/>
       <c r="C24" s="122"/>
       <c r="D24" s="123" t="s">
         <v>215</v>
@@ -24064,7 +24428,7 @@
       <c r="A29" s="119">
         <v>3</v>
       </c>
-      <c r="B29" s="322">
+      <c r="B29" s="358">
         <v>44126</v>
       </c>
       <c r="C29" s="106"/>
@@ -24074,7 +24438,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="121"/>
-      <c r="B30" s="321"/>
+      <c r="B30" s="357"/>
       <c r="C30" s="122"/>
       <c r="D30" s="123" t="s">
         <v>220</v>
@@ -24082,7 +24446,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="121"/>
-      <c r="B31" s="321"/>
+      <c r="B31" s="357"/>
       <c r="C31" s="122"/>
       <c r="D31" s="123" t="s">
         <v>221</v>
@@ -24090,7 +24454,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="121"/>
-      <c r="B32" s="321"/>
+      <c r="B32" s="357"/>
       <c r="C32" s="122"/>
       <c r="D32" s="123" t="s">
         <v>222</v>
@@ -24098,7 +24462,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="121"/>
-      <c r="B33" s="321"/>
+      <c r="B33" s="357"/>
       <c r="C33" s="122"/>
       <c r="D33" s="123" t="s">
         <v>223</v>
@@ -24106,7 +24470,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="121"/>
-      <c r="B34" s="321"/>
+      <c r="B34" s="357"/>
       <c r="C34" s="122"/>
       <c r="D34" s="123" t="s">
         <v>224</v>
@@ -24114,7 +24478,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="121"/>
-      <c r="B35" s="321"/>
+      <c r="B35" s="357"/>
       <c r="C35" s="122"/>
       <c r="D35" s="123" t="s">
         <v>225</v>
@@ -24130,43 +24494,43 @@
       <c r="A37" s="119">
         <v>3</v>
       </c>
-      <c r="B37" s="322"/>
+      <c r="B37" s="358"/>
       <c r="C37" s="106"/>
       <c r="D37" s="120"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="121"/>
-      <c r="B38" s="321"/>
+      <c r="B38" s="357"/>
       <c r="C38" s="122"/>
       <c r="D38" s="123"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="121"/>
-      <c r="B39" s="321"/>
+      <c r="B39" s="357"/>
       <c r="C39" s="122"/>
       <c r="D39" s="123"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="121"/>
-      <c r="B40" s="321"/>
+      <c r="B40" s="357"/>
       <c r="C40" s="122"/>
       <c r="D40" s="123"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="121"/>
-      <c r="B41" s="321"/>
+      <c r="B41" s="357"/>
       <c r="C41" s="122"/>
       <c r="D41" s="123"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="121"/>
-      <c r="B42" s="321"/>
+      <c r="B42" s="357"/>
       <c r="C42" s="122"/>
       <c r="D42" s="123"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="121"/>
-      <c r="B43" s="321"/>
+      <c r="B43" s="357"/>
       <c r="C43" s="122"/>
       <c r="D43" s="123"/>
     </row>
@@ -24271,36 +24635,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="303" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="269"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="305"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="272"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="308"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="270" t="s">
+      <c r="F2" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="272"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="308"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -24407,21 +24771,21 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="283" t="s">
+      <c r="A7" s="319" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="284"/>
-      <c r="C7" s="284"/>
+      <c r="B7" s="320"/>
+      <c r="C7" s="320"/>
       <c r="D7" s="44">
         <f>SUM(D4:D6)</f>
         <v>50000</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="283" t="s">
+      <c r="F7" s="319" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="284"/>
-      <c r="H7" s="285"/>
+      <c r="G7" s="320"/>
+      <c r="H7" s="321"/>
       <c r="I7" s="44">
         <f>SUM(I4:I6)</f>
         <v>50000</v>
@@ -25030,7 +25394,7 @@
   <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -25038,9 +25402,9 @@
     <col min="2" max="2" width="13.703125" customWidth="1"/>
     <col min="3" max="3" width="10.9375" style="70" customWidth="1"/>
     <col min="4" max="4" width="12.5859375" customWidth="1"/>
-    <col min="5" max="5" width="16.76171875" customWidth="1"/>
+    <col min="5" max="5" width="27.5859375" customWidth="1"/>
     <col min="6" max="6" width="13.703125" style="70" customWidth="1"/>
-    <col min="7" max="7" width="2.703125" customWidth="1"/>
+    <col min="7" max="7" width="7.05859375" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="9.17578125" customWidth="1"/>
     <col min="10" max="10" width="8.9375" style="70"/>
@@ -25054,14 +25418,14 @@
         <v>31</v>
       </c>
       <c r="C2" s="175">
-        <f>BOFC!D221</f>
-        <v>1406915</v>
+        <f>BOFC!D240</f>
+        <v>1090685</v>
       </c>
       <c r="E2" t="s">
         <v>305</v>
       </c>
       <c r="F2" s="70">
-        <v>1350000</v>
+        <v>885000</v>
       </c>
       <c r="H2" s="70"/>
     </row>
@@ -25077,7 +25441,7 @@
         <v>177</v>
       </c>
       <c r="F3" s="70">
-        <v>7900</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.5">
@@ -25092,12 +25456,12 @@
         <v>256</v>
       </c>
       <c r="F4" s="70">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B5" s="82" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C5" s="175">
         <f>UlemaAsmat!D20</f>
@@ -25109,8 +25473,14 @@
         <v>273</v>
       </c>
       <c r="C6" s="70">
-        <f>'Sunny Babar'!D26</f>
+        <f>'Sunny Babar'!D28</f>
         <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>515</v>
+      </c>
+      <c r="F6" s="70">
+        <v>216000</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.5">
@@ -25119,7 +25489,13 @@
       </c>
       <c r="C7" s="70">
         <f>Kamil!D36</f>
-        <v>0</v>
+        <v>-2500</v>
+      </c>
+      <c r="E7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F7" s="70">
+        <v>116000</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.5">
@@ -25128,8 +25504,9 @@
       </c>
       <c r="C8" s="70">
         <f>Kamil!D18</f>
-        <v>0</v>
-      </c>
+        <v>-14000</v>
+      </c>
+      <c r="E8" s="302"/>
     </row>
     <row r="9" spans="2:14" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
@@ -25139,6 +25516,7 @@
         <f>Kamil!D60</f>
         <v>-5000</v>
       </c>
+      <c r="E9" s="302"/>
       <c r="H9" s="176"/>
       <c r="I9" s="177"/>
     </row>
@@ -25150,15 +25528,6 @@
         <f>Kamil!D78</f>
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>470</v>
-      </c>
-      <c r="F10" s="70">
-        <v>348000</v>
-      </c>
-      <c r="H10" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
@@ -25168,6 +25537,12 @@
         <f>Shehzad!D23</f>
         <v>-500</v>
       </c>
+      <c r="E11" t="s">
+        <v>516</v>
+      </c>
+      <c r="F11" s="70">
+        <v>72000</v>
+      </c>
       <c r="K11" s="70">
         <v>507</v>
       </c>
@@ -25181,15 +25556,18 @@
         <f>Kamil!D96</f>
         <v>0</v>
       </c>
+      <c r="E12" t="s">
+        <v>511</v>
+      </c>
+      <c r="F12" s="70">
+        <v>57200</v>
+      </c>
       <c r="J12" s="185"/>
       <c r="K12" s="70">
         <v>493</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="E13" s="70" t="s">
-        <v>461</v>
-      </c>
       <c r="J13" s="185"/>
       <c r="K13" s="70">
         <v>720</v>
@@ -25208,7 +25586,7 @@
       </c>
       <c r="I14" s="177">
         <f>C19-F19</f>
-        <v>553286</v>
+        <v>532256</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.5">
@@ -25219,6 +25597,7 @@
         <f>Farooq!D12</f>
         <v>0</v>
       </c>
+      <c r="E15" s="70"/>
       <c r="K15" s="70">
         <v>572</v>
       </c>
@@ -25241,14 +25620,20 @@
         <v>-68670</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>358</v>
+        <v>510</v>
       </c>
       <c r="F17" s="175">
-        <v>865000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.5">
       <c r="C18" s="228"/>
+      <c r="E18" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="F18" s="175">
+        <v>865000</v>
+      </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B19" s="237" t="s">
@@ -25256,7 +25641,7 @@
       </c>
       <c r="C19" s="238">
         <f>SUM(C2:C18)</f>
-        <v>3124186</v>
+        <v>2791456</v>
       </c>
       <c r="D19" s="237"/>
       <c r="E19" s="237" t="s">
@@ -25264,7 +25649,7 @@
       </c>
       <c r="F19" s="238">
         <f>SUM(F2:F18)</f>
-        <v>2570900</v>
+        <v>2259200</v>
       </c>
       <c r="K19" s="70">
         <v>956</v>
@@ -25287,8 +25672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BA9BFA-17B0-4682-BC89-677BD0B4C364}">
   <dimension ref="D4:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -25300,11 +25685,11 @@
   <sheetData>
     <row r="4" spans="4:8" x14ac:dyDescent="0.5">
       <c r="D4" s="82" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E4" s="175">
         <f>'GT Calc'!I14</f>
-        <v>553286</v>
+        <v>532256</v>
       </c>
       <c r="F4" s="82"/>
       <c r="G4" s="82"/>
@@ -25317,9 +25702,7 @@
       <c r="D6" t="s">
         <v>415</v>
       </c>
-      <c r="E6" s="70">
-        <v>0</v>
-      </c>
+      <c r="E6" s="70"/>
       <c r="H6" s="175"/>
     </row>
     <row r="7" spans="4:8" x14ac:dyDescent="0.5">
@@ -25359,7 +25742,7 @@
         <v>410</v>
       </c>
       <c r="E11" s="70">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.5">
@@ -25367,16 +25750,13 @@
         <v>409</v>
       </c>
       <c r="E12" s="70">
-        <v>33000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.5">
       <c r="E13" s="70"/>
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.5">
-      <c r="D14" t="s">
-        <v>425</v>
-      </c>
       <c r="E14" s="70"/>
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.5">
@@ -25393,20 +25773,20 @@
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.5">
       <c r="D19" s="82" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E19" s="175">
         <f>SUM(E6:E18)</f>
-        <v>380000</v>
+        <v>402000</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.5">
       <c r="D20" s="82" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E20" s="175">
         <f>E4-E19</f>
-        <v>173286</v>
+        <v>130256</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.5">
@@ -25424,6 +25804,1452 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FB4AAC-39FA-47DF-AE06-5095737674D6}">
+  <dimension ref="A1:F152"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="5.3515625" customWidth="1"/>
+    <col min="2" max="2" width="10.8203125" style="274" customWidth="1"/>
+    <col min="3" max="3" width="32.87890625" customWidth="1"/>
+    <col min="4" max="4" width="13.05859375" style="272" customWidth="1"/>
+    <col min="5" max="6" width="13.9375" style="272" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="366"/>
+      <c r="B1" s="366"/>
+      <c r="C1" s="366"/>
+      <c r="D1" s="367" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1" s="367"/>
+      <c r="F1" s="277"/>
+    </row>
+    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="275" t="s">
+        <v>483</v>
+      </c>
+      <c r="B2" s="292" t="s">
+        <v>485</v>
+      </c>
+      <c r="C2" s="275" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="276" t="s">
+        <v>486</v>
+      </c>
+      <c r="E2" s="276" t="s">
+        <v>490</v>
+      </c>
+      <c r="F2" s="293" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="268">
+        <v>1</v>
+      </c>
+      <c r="B3" s="273">
+        <v>44248</v>
+      </c>
+      <c r="C3" s="269"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="294"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="268"/>
+      <c r="B4" s="273"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="270"/>
+      <c r="E4" s="270"/>
+      <c r="F4" s="294"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="268"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="270">
+        <v>44</v>
+      </c>
+      <c r="F5" s="294"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="268"/>
+      <c r="B6" s="273"/>
+      <c r="C6" s="269"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="270"/>
+      <c r="F6" s="294"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="268"/>
+      <c r="B7" s="273"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="270"/>
+      <c r="E7" s="270">
+        <v>3</v>
+      </c>
+      <c r="F7" s="294"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="268"/>
+      <c r="B8" s="273"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="270"/>
+      <c r="E8" s="270"/>
+      <c r="F8" s="294"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="268"/>
+      <c r="B9" s="273"/>
+      <c r="C9" s="269"/>
+      <c r="D9" s="270"/>
+      <c r="E9" s="270">
+        <v>3</v>
+      </c>
+      <c r="F9" s="294"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="268"/>
+      <c r="B10" s="273"/>
+      <c r="C10" s="269"/>
+      <c r="D10" s="270"/>
+      <c r="E10" s="270">
+        <v>33</v>
+      </c>
+      <c r="F10" s="294"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="268"/>
+      <c r="B11" s="273"/>
+      <c r="C11" s="269"/>
+      <c r="D11" s="270"/>
+      <c r="E11" s="270">
+        <v>33</v>
+      </c>
+      <c r="F11" s="294"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="268"/>
+      <c r="B12" s="273"/>
+      <c r="C12" s="269"/>
+      <c r="D12" s="270"/>
+      <c r="E12" s="270">
+        <v>33</v>
+      </c>
+      <c r="F12" s="294"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="278"/>
+      <c r="B13" s="279"/>
+      <c r="C13" s="280"/>
+      <c r="D13" s="281"/>
+      <c r="E13" s="281">
+        <v>3</v>
+      </c>
+      <c r="F13" s="294"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="286"/>
+      <c r="B14" s="368" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" s="368"/>
+      <c r="D14" s="287"/>
+      <c r="E14" s="288"/>
+      <c r="F14" s="295"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="289"/>
+      <c r="B15" s="369"/>
+      <c r="C15" s="369"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="291"/>
+      <c r="F15" s="295"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="282"/>
+      <c r="B16" s="283"/>
+      <c r="C16" s="284"/>
+      <c r="D16" s="285"/>
+      <c r="E16" s="285"/>
+      <c r="F16" s="294"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" s="268"/>
+      <c r="B17" s="273"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="270"/>
+      <c r="E17" s="270"/>
+      <c r="F17" s="294"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18" s="268"/>
+      <c r="B18" s="273"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="270"/>
+      <c r="F18" s="294"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" s="268"/>
+      <c r="B19" s="273"/>
+      <c r="C19" s="269"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="270"/>
+      <c r="F19" s="294"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="268"/>
+      <c r="B20" s="273"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="270"/>
+      <c r="E20" s="270"/>
+      <c r="F20" s="294"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" s="268"/>
+      <c r="B21" s="273"/>
+      <c r="C21" s="269"/>
+      <c r="D21" s="270"/>
+      <c r="E21" s="270"/>
+      <c r="F21" s="294"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" s="268"/>
+      <c r="B22" s="273"/>
+      <c r="C22" s="269"/>
+      <c r="D22" s="270"/>
+      <c r="E22" s="270"/>
+      <c r="F22" s="294"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" s="286"/>
+      <c r="B23" s="368" t="s">
+        <v>489</v>
+      </c>
+      <c r="C23" s="368"/>
+      <c r="D23" s="287"/>
+      <c r="E23" s="288"/>
+      <c r="F23" s="295"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="289"/>
+      <c r="B24" s="369"/>
+      <c r="C24" s="369"/>
+      <c r="D24" s="290"/>
+      <c r="E24" s="291"/>
+      <c r="F24" s="295"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A25" s="268"/>
+      <c r="B25" s="273"/>
+      <c r="C25" s="269"/>
+      <c r="D25" s="270"/>
+      <c r="E25" s="270"/>
+      <c r="F25" s="294"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A26" s="268"/>
+      <c r="B26" s="273"/>
+      <c r="C26" s="269"/>
+      <c r="D26" s="270"/>
+      <c r="E26" s="270"/>
+      <c r="F26" s="294"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" s="268"/>
+      <c r="B27" s="273"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="270"/>
+      <c r="E27" s="270"/>
+      <c r="F27" s="294"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A28" s="268"/>
+      <c r="B28" s="273"/>
+      <c r="C28" s="269"/>
+      <c r="D28" s="270"/>
+      <c r="E28" s="270"/>
+      <c r="F28" s="294"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A29" s="268"/>
+      <c r="B29" s="273"/>
+      <c r="C29" s="269"/>
+      <c r="D29" s="270"/>
+      <c r="E29" s="270"/>
+      <c r="F29" s="294"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A30" s="268"/>
+      <c r="B30" s="273"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="270"/>
+      <c r="E30" s="270"/>
+      <c r="F30" s="294"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A31" s="286"/>
+      <c r="B31" s="368" t="s">
+        <v>491</v>
+      </c>
+      <c r="C31" s="368"/>
+      <c r="D31" s="287"/>
+      <c r="E31" s="288"/>
+      <c r="F31" s="295"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A32" s="289"/>
+      <c r="B32" s="369"/>
+      <c r="C32" s="369"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="291"/>
+      <c r="F32" s="295"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A33" s="268"/>
+      <c r="B33" s="273"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="270"/>
+      <c r="E33" s="270"/>
+      <c r="F33" s="294"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A34" s="268"/>
+      <c r="B34" s="273"/>
+      <c r="C34" s="269"/>
+      <c r="D34" s="270"/>
+      <c r="E34" s="270"/>
+      <c r="F34" s="294"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A35" s="268"/>
+      <c r="B35" s="273"/>
+      <c r="C35" s="269"/>
+      <c r="D35" s="270"/>
+      <c r="E35" s="270"/>
+      <c r="F35" s="294"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A36" s="268"/>
+      <c r="B36" s="273"/>
+      <c r="C36" s="269"/>
+      <c r="D36" s="270"/>
+      <c r="E36" s="270"/>
+      <c r="F36" s="294"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A37" s="268"/>
+      <c r="B37" s="273"/>
+      <c r="C37" s="269"/>
+      <c r="D37" s="270"/>
+      <c r="E37" s="270"/>
+      <c r="F37" s="294"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38" s="268"/>
+      <c r="B38" s="273"/>
+      <c r="C38" s="269"/>
+      <c r="D38" s="270"/>
+      <c r="E38" s="270"/>
+      <c r="F38" s="294"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A39" s="268"/>
+      <c r="B39" s="273"/>
+      <c r="C39" s="269"/>
+      <c r="D39" s="270"/>
+      <c r="E39" s="270"/>
+      <c r="F39" s="294"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A40" s="286"/>
+      <c r="B40" s="368" t="s">
+        <v>492</v>
+      </c>
+      <c r="C40" s="368"/>
+      <c r="D40" s="287"/>
+      <c r="E40" s="288"/>
+      <c r="F40" s="295"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A41" s="289"/>
+      <c r="B41" s="369"/>
+      <c r="C41" s="369"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="291"/>
+      <c r="F41" s="295"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A42" s="268"/>
+      <c r="B42" s="273"/>
+      <c r="C42" s="269"/>
+      <c r="D42" s="270"/>
+      <c r="E42" s="270"/>
+      <c r="F42" s="294"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A43" s="268"/>
+      <c r="B43" s="273"/>
+      <c r="C43" s="269"/>
+      <c r="D43" s="270"/>
+      <c r="E43" s="270"/>
+      <c r="F43" s="294"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A44" s="268"/>
+      <c r="B44" s="273"/>
+      <c r="C44" s="269"/>
+      <c r="D44" s="270"/>
+      <c r="E44" s="270"/>
+      <c r="F44" s="294"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A45" s="268"/>
+      <c r="B45" s="273"/>
+      <c r="C45" s="269"/>
+      <c r="D45" s="270"/>
+      <c r="E45" s="270"/>
+      <c r="F45" s="294"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A46" s="268"/>
+      <c r="B46" s="273"/>
+      <c r="C46" s="269"/>
+      <c r="D46" s="270"/>
+      <c r="E46" s="270"/>
+      <c r="F46" s="294"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A47" s="268"/>
+      <c r="B47" s="273"/>
+      <c r="C47" s="269"/>
+      <c r="D47" s="270"/>
+      <c r="E47" s="270"/>
+      <c r="F47" s="294"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A48" s="286"/>
+      <c r="B48" s="368" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" s="368"/>
+      <c r="D48" s="287"/>
+      <c r="E48" s="288"/>
+      <c r="F48" s="295"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A49" s="289"/>
+      <c r="B49" s="369"/>
+      <c r="C49" s="369"/>
+      <c r="D49" s="290"/>
+      <c r="E49" s="291"/>
+      <c r="F49" s="295"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A50" s="268"/>
+      <c r="B50" s="273"/>
+      <c r="C50" s="269"/>
+      <c r="D50" s="270"/>
+      <c r="E50" s="270"/>
+      <c r="F50" s="294"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A51" s="268"/>
+      <c r="B51" s="273"/>
+      <c r="C51" s="269"/>
+      <c r="D51" s="270"/>
+      <c r="E51" s="270"/>
+      <c r="F51" s="294"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A52" s="268"/>
+      <c r="B52" s="273"/>
+      <c r="C52" s="269"/>
+      <c r="D52" s="270"/>
+      <c r="E52" s="270"/>
+      <c r="F52" s="294"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A53" s="268"/>
+      <c r="B53" s="273"/>
+      <c r="C53" s="269"/>
+      <c r="D53" s="270"/>
+      <c r="E53" s="270"/>
+      <c r="F53" s="294"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A54" s="268"/>
+      <c r="B54" s="273"/>
+      <c r="C54" s="269"/>
+      <c r="D54" s="270"/>
+      <c r="E54" s="270"/>
+      <c r="F54" s="294"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A55" s="268"/>
+      <c r="B55" s="273"/>
+      <c r="C55" s="269"/>
+      <c r="D55" s="270"/>
+      <c r="E55" s="270"/>
+      <c r="F55" s="294"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A56" s="268"/>
+      <c r="B56" s="273"/>
+      <c r="C56" s="269"/>
+      <c r="D56" s="270"/>
+      <c r="E56" s="270"/>
+      <c r="F56" s="294"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A57" s="286"/>
+      <c r="B57" s="368" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="368"/>
+      <c r="D57" s="287"/>
+      <c r="E57" s="288"/>
+      <c r="F57" s="295"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A58" s="289"/>
+      <c r="B58" s="369"/>
+      <c r="C58" s="369"/>
+      <c r="D58" s="290"/>
+      <c r="E58" s="291"/>
+      <c r="F58" s="295"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A59" s="268"/>
+      <c r="B59" s="273"/>
+      <c r="C59" s="269"/>
+      <c r="D59" s="270"/>
+      <c r="E59" s="270"/>
+      <c r="F59" s="294"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A60" s="268"/>
+      <c r="B60" s="273"/>
+      <c r="C60" s="269"/>
+      <c r="D60" s="270"/>
+      <c r="E60" s="270"/>
+      <c r="F60" s="294"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A61" s="268"/>
+      <c r="B61" s="273"/>
+      <c r="C61" s="269"/>
+      <c r="D61" s="270"/>
+      <c r="E61" s="270"/>
+      <c r="F61" s="294"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A62" s="268"/>
+      <c r="B62" s="273"/>
+      <c r="C62" s="269"/>
+      <c r="D62" s="270"/>
+      <c r="E62" s="270"/>
+      <c r="F62" s="294"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A63" s="268"/>
+      <c r="B63" s="273"/>
+      <c r="C63" s="269"/>
+      <c r="D63" s="270"/>
+      <c r="E63" s="270"/>
+      <c r="F63" s="294"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A64" s="268"/>
+      <c r="B64" s="273"/>
+      <c r="C64" s="269"/>
+      <c r="D64" s="270"/>
+      <c r="E64" s="270"/>
+      <c r="F64" s="294"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A65" s="268"/>
+      <c r="B65" s="273"/>
+      <c r="C65" s="269"/>
+      <c r="D65" s="270"/>
+      <c r="E65" s="270"/>
+      <c r="F65" s="294"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A66" s="286"/>
+      <c r="B66" s="368" t="s">
+        <v>493</v>
+      </c>
+      <c r="C66" s="368"/>
+      <c r="D66" s="287"/>
+      <c r="E66" s="288"/>
+      <c r="F66" s="295"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A67" s="289"/>
+      <c r="B67" s="369"/>
+      <c r="C67" s="369"/>
+      <c r="D67" s="290"/>
+      <c r="E67" s="291"/>
+      <c r="F67" s="295"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A68" s="268"/>
+      <c r="B68" s="273"/>
+      <c r="C68" s="269"/>
+      <c r="D68" s="270"/>
+      <c r="E68" s="270"/>
+      <c r="F68" s="294"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A69" s="268"/>
+      <c r="B69" s="273"/>
+      <c r="C69" s="269"/>
+      <c r="D69" s="270"/>
+      <c r="E69" s="270"/>
+      <c r="F69" s="294"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A70" s="268"/>
+      <c r="B70" s="273"/>
+      <c r="C70" s="269"/>
+      <c r="D70" s="270"/>
+      <c r="E70" s="270"/>
+      <c r="F70" s="294"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A71" s="268"/>
+      <c r="B71" s="273"/>
+      <c r="C71" s="269"/>
+      <c r="D71" s="270"/>
+      <c r="E71" s="270"/>
+      <c r="F71" s="294"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A72" s="268"/>
+      <c r="B72" s="273"/>
+      <c r="C72" s="269"/>
+      <c r="D72" s="270"/>
+      <c r="E72" s="270"/>
+      <c r="F72" s="294"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A73" s="268"/>
+      <c r="B73" s="273"/>
+      <c r="C73" s="269"/>
+      <c r="D73" s="270"/>
+      <c r="E73" s="270"/>
+      <c r="F73" s="294"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A74" s="268"/>
+      <c r="B74" s="273"/>
+      <c r="C74" s="269"/>
+      <c r="D74" s="270"/>
+      <c r="E74" s="270"/>
+      <c r="F74" s="294"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A75" s="268"/>
+      <c r="B75" s="273"/>
+      <c r="C75" s="269"/>
+      <c r="D75" s="270"/>
+      <c r="E75" s="270"/>
+      <c r="F75" s="294"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A76" s="286"/>
+      <c r="B76" s="368" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" s="368"/>
+      <c r="D76" s="287"/>
+      <c r="E76" s="288"/>
+      <c r="F76" s="295"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A77" s="289"/>
+      <c r="B77" s="369"/>
+      <c r="C77" s="369"/>
+      <c r="D77" s="290"/>
+      <c r="E77" s="291"/>
+      <c r="F77" s="295"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A78" s="268"/>
+      <c r="B78" s="273"/>
+      <c r="C78" s="269"/>
+      <c r="D78" s="270"/>
+      <c r="E78" s="270"/>
+      <c r="F78" s="294"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A79" s="268"/>
+      <c r="B79" s="273"/>
+      <c r="C79" s="269"/>
+      <c r="D79" s="270"/>
+      <c r="E79" s="270"/>
+      <c r="F79" s="294"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A80" s="268"/>
+      <c r="B80" s="273"/>
+      <c r="C80" s="269"/>
+      <c r="D80" s="270"/>
+      <c r="E80" s="270"/>
+      <c r="F80" s="294"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A81" s="268"/>
+      <c r="B81" s="273"/>
+      <c r="C81" s="269"/>
+      <c r="D81" s="270"/>
+      <c r="E81" s="270"/>
+      <c r="F81" s="294"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A82" s="268"/>
+      <c r="B82" s="273"/>
+      <c r="C82" s="269"/>
+      <c r="D82" s="270"/>
+      <c r="E82" s="270"/>
+      <c r="F82" s="294"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A83" s="268"/>
+      <c r="B83" s="273"/>
+      <c r="C83" s="269"/>
+      <c r="D83" s="270"/>
+      <c r="E83" s="270"/>
+      <c r="F83" s="294"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A84" s="286"/>
+      <c r="B84" s="368" t="s">
+        <v>269</v>
+      </c>
+      <c r="C84" s="368"/>
+      <c r="D84" s="287"/>
+      <c r="E84" s="288"/>
+      <c r="F84" s="295"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A85" s="289"/>
+      <c r="B85" s="369"/>
+      <c r="C85" s="369"/>
+      <c r="D85" s="290"/>
+      <c r="E85" s="291"/>
+      <c r="F85" s="295"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A86" s="268"/>
+      <c r="B86" s="273"/>
+      <c r="C86" s="269"/>
+      <c r="D86" s="270"/>
+      <c r="E86" s="270"/>
+      <c r="F86" s="294"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A87" s="268"/>
+      <c r="B87" s="273"/>
+      <c r="C87" s="269"/>
+      <c r="D87" s="270"/>
+      <c r="E87" s="270"/>
+      <c r="F87" s="294"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A88" s="268"/>
+      <c r="B88" s="273"/>
+      <c r="C88" s="269"/>
+      <c r="D88" s="270"/>
+      <c r="E88" s="270"/>
+      <c r="F88" s="294"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A89" s="268"/>
+      <c r="B89" s="273"/>
+      <c r="C89" s="269"/>
+      <c r="D89" s="270"/>
+      <c r="E89" s="270"/>
+      <c r="F89" s="294"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A90" s="268"/>
+      <c r="B90" s="273"/>
+      <c r="C90" s="269"/>
+      <c r="D90" s="270"/>
+      <c r="E90" s="270"/>
+      <c r="F90" s="294"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A91" s="268"/>
+      <c r="B91" s="273"/>
+      <c r="C91" s="269"/>
+      <c r="D91" s="270"/>
+      <c r="E91" s="270"/>
+      <c r="F91" s="294"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A92" s="268"/>
+      <c r="B92" s="273"/>
+      <c r="C92" s="269"/>
+      <c r="D92" s="270"/>
+      <c r="E92" s="270"/>
+      <c r="F92" s="294"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A93" s="286"/>
+      <c r="B93" s="368" t="s">
+        <v>494</v>
+      </c>
+      <c r="C93" s="368"/>
+      <c r="D93" s="287"/>
+      <c r="E93" s="288"/>
+      <c r="F93" s="295"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A94" s="289"/>
+      <c r="B94" s="369"/>
+      <c r="C94" s="369"/>
+      <c r="D94" s="290"/>
+      <c r="E94" s="291"/>
+      <c r="F94" s="295"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A95" s="268"/>
+      <c r="B95" s="273"/>
+      <c r="C95" s="269"/>
+      <c r="D95" s="270"/>
+      <c r="E95" s="270"/>
+      <c r="F95" s="294"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A96" s="268"/>
+      <c r="B96" s="273"/>
+      <c r="C96" s="269"/>
+      <c r="D96" s="270"/>
+      <c r="E96" s="270"/>
+      <c r="F96" s="294"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A97" s="268"/>
+      <c r="B97" s="273"/>
+      <c r="C97" s="269"/>
+      <c r="D97" s="270"/>
+      <c r="E97" s="270"/>
+      <c r="F97" s="294"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A98" s="268"/>
+      <c r="B98" s="273"/>
+      <c r="C98" s="269"/>
+      <c r="D98" s="270"/>
+      <c r="E98" s="270"/>
+      <c r="F98" s="294"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A99" s="268"/>
+      <c r="B99" s="273"/>
+      <c r="C99" s="269"/>
+      <c r="D99" s="270"/>
+      <c r="E99" s="270"/>
+      <c r="F99" s="294"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A100" s="268"/>
+      <c r="B100" s="273"/>
+      <c r="C100" s="269"/>
+      <c r="D100" s="270"/>
+      <c r="E100" s="270"/>
+      <c r="F100" s="294"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A101" s="268"/>
+      <c r="B101" s="273"/>
+      <c r="C101" s="269"/>
+      <c r="D101" s="270"/>
+      <c r="E101" s="270"/>
+      <c r="F101" s="294"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A102" s="286"/>
+      <c r="B102" s="368" t="s">
+        <v>314</v>
+      </c>
+      <c r="C102" s="368"/>
+      <c r="D102" s="287"/>
+      <c r="E102" s="288"/>
+      <c r="F102" s="295"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A103" s="289"/>
+      <c r="B103" s="369"/>
+      <c r="C103" s="369"/>
+      <c r="D103" s="290"/>
+      <c r="E103" s="291"/>
+      <c r="F103" s="295"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A104" s="268"/>
+      <c r="B104" s="273"/>
+      <c r="C104" s="269"/>
+      <c r="D104" s="270"/>
+      <c r="E104" s="270"/>
+      <c r="F104" s="294"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A105" s="268"/>
+      <c r="B105" s="273"/>
+      <c r="C105" s="269"/>
+      <c r="D105" s="270"/>
+      <c r="E105" s="270"/>
+      <c r="F105" s="294"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A106" s="268"/>
+      <c r="B106" s="273"/>
+      <c r="C106" s="269"/>
+      <c r="D106" s="270"/>
+      <c r="E106" s="270"/>
+      <c r="F106" s="294"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A107" s="268"/>
+      <c r="B107" s="273"/>
+      <c r="C107" s="269"/>
+      <c r="D107" s="270"/>
+      <c r="E107" s="270"/>
+      <c r="F107" s="294"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A108" s="268"/>
+      <c r="B108" s="273"/>
+      <c r="C108" s="269"/>
+      <c r="D108" s="270"/>
+      <c r="E108" s="270"/>
+      <c r="F108" s="294"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A109" s="268"/>
+      <c r="B109" s="273"/>
+      <c r="C109" s="269"/>
+      <c r="D109" s="270"/>
+      <c r="E109" s="270"/>
+      <c r="F109" s="294"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A110" s="268"/>
+      <c r="B110" s="273"/>
+      <c r="C110" s="269"/>
+      <c r="D110" s="270"/>
+      <c r="E110" s="270"/>
+      <c r="F110" s="294"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A111" s="286"/>
+      <c r="B111" s="368" t="s">
+        <v>303</v>
+      </c>
+      <c r="C111" s="368"/>
+      <c r="D111" s="287"/>
+      <c r="E111" s="288"/>
+      <c r="F111" s="295"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A112" s="289"/>
+      <c r="B112" s="369"/>
+      <c r="C112" s="369"/>
+      <c r="D112" s="290"/>
+      <c r="E112" s="291"/>
+      <c r="F112" s="295"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A113" s="268"/>
+      <c r="B113" s="273"/>
+      <c r="C113" s="269"/>
+      <c r="D113" s="270"/>
+      <c r="E113" s="270"/>
+      <c r="F113" s="294"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A114" s="268"/>
+      <c r="B114" s="273"/>
+      <c r="C114" s="269"/>
+      <c r="D114" s="270"/>
+      <c r="E114" s="270"/>
+      <c r="F114" s="294"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A115" s="268"/>
+      <c r="B115" s="273"/>
+      <c r="C115" s="269"/>
+      <c r="D115" s="270"/>
+      <c r="E115" s="270"/>
+      <c r="F115" s="294"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A116" s="268"/>
+      <c r="B116" s="273"/>
+      <c r="C116" s="269"/>
+      <c r="D116" s="270"/>
+      <c r="E116" s="270"/>
+      <c r="F116" s="294"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A117" s="268"/>
+      <c r="B117" s="273"/>
+      <c r="C117" s="269"/>
+      <c r="D117" s="270"/>
+      <c r="E117" s="270"/>
+      <c r="F117" s="294"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A118" s="268"/>
+      <c r="B118" s="273"/>
+      <c r="C118" s="269"/>
+      <c r="D118" s="270"/>
+      <c r="E118" s="270"/>
+      <c r="F118" s="294"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A119" s="286"/>
+      <c r="B119" s="368" t="s">
+        <v>496</v>
+      </c>
+      <c r="C119" s="368"/>
+      <c r="D119" s="287"/>
+      <c r="E119" s="288"/>
+      <c r="F119" s="295"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A120" s="289"/>
+      <c r="B120" s="369"/>
+      <c r="C120" s="369"/>
+      <c r="D120" s="290"/>
+      <c r="E120" s="291"/>
+      <c r="F120" s="295"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A121" s="268"/>
+      <c r="B121" s="273"/>
+      <c r="C121" s="269"/>
+      <c r="D121" s="270"/>
+      <c r="E121" s="270"/>
+      <c r="F121" s="294"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A122" s="268"/>
+      <c r="B122" s="273"/>
+      <c r="C122" s="269"/>
+      <c r="D122" s="270"/>
+      <c r="E122" s="270"/>
+      <c r="F122" s="294"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A123" s="268"/>
+      <c r="B123" s="273"/>
+      <c r="C123" s="269"/>
+      <c r="D123" s="270"/>
+      <c r="E123" s="270"/>
+      <c r="F123" s="294"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A124" s="268"/>
+      <c r="B124" s="273"/>
+      <c r="C124" s="269"/>
+      <c r="D124" s="270"/>
+      <c r="E124" s="270"/>
+      <c r="F124" s="294"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A125" s="268"/>
+      <c r="B125" s="273"/>
+      <c r="C125" s="269"/>
+      <c r="D125" s="270"/>
+      <c r="E125" s="270"/>
+      <c r="F125" s="294"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A126" s="268"/>
+      <c r="B126" s="273"/>
+      <c r="C126" s="269"/>
+      <c r="D126" s="270"/>
+      <c r="E126" s="270"/>
+      <c r="F126" s="294"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A127" s="286"/>
+      <c r="B127" s="368" t="s">
+        <v>497</v>
+      </c>
+      <c r="C127" s="368"/>
+      <c r="D127" s="287"/>
+      <c r="E127" s="288"/>
+      <c r="F127" s="295"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A128" s="289"/>
+      <c r="B128" s="369"/>
+      <c r="C128" s="369"/>
+      <c r="D128" s="290"/>
+      <c r="E128" s="291"/>
+      <c r="F128" s="295"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A129" s="268"/>
+      <c r="B129" s="273"/>
+      <c r="C129" s="269"/>
+      <c r="D129" s="270"/>
+      <c r="E129" s="270"/>
+      <c r="F129" s="294"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A130" s="268"/>
+      <c r="B130" s="273"/>
+      <c r="C130" s="269"/>
+      <c r="D130" s="270"/>
+      <c r="E130" s="270"/>
+      <c r="F130" s="294"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A131" s="268"/>
+      <c r="B131" s="273"/>
+      <c r="C131" s="269"/>
+      <c r="D131" s="270"/>
+      <c r="E131" s="270"/>
+      <c r="F131" s="294"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A132" s="268"/>
+      <c r="B132" s="273"/>
+      <c r="C132" s="269"/>
+      <c r="D132" s="270"/>
+      <c r="E132" s="270"/>
+      <c r="F132" s="294"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A133" s="268"/>
+      <c r="B133" s="273"/>
+      <c r="C133" s="269"/>
+      <c r="D133" s="270"/>
+      <c r="E133" s="270"/>
+      <c r="F133" s="294"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A134" s="268"/>
+      <c r="B134" s="273"/>
+      <c r="C134" s="269"/>
+      <c r="D134" s="270"/>
+      <c r="E134" s="270"/>
+      <c r="F134" s="294"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A135" s="268"/>
+      <c r="B135" s="273"/>
+      <c r="C135" s="269"/>
+      <c r="D135" s="270"/>
+      <c r="E135" s="270"/>
+      <c r="F135" s="294"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A136" s="286"/>
+      <c r="B136" s="368" t="s">
+        <v>495</v>
+      </c>
+      <c r="C136" s="368"/>
+      <c r="D136" s="287"/>
+      <c r="E136" s="288"/>
+      <c r="F136" s="295"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A137" s="289"/>
+      <c r="B137" s="369"/>
+      <c r="C137" s="369"/>
+      <c r="D137" s="290"/>
+      <c r="E137" s="291"/>
+      <c r="F137" s="295"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A138" s="268"/>
+      <c r="B138" s="273"/>
+      <c r="C138" s="269"/>
+      <c r="D138" s="270"/>
+      <c r="E138" s="270"/>
+      <c r="F138" s="294"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A139" s="268"/>
+      <c r="B139" s="273"/>
+      <c r="C139" s="269"/>
+      <c r="D139" s="270"/>
+      <c r="E139" s="270"/>
+      <c r="F139" s="294"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A140" s="268"/>
+      <c r="B140" s="273"/>
+      <c r="C140" s="269"/>
+      <c r="D140" s="270"/>
+      <c r="E140" s="270"/>
+      <c r="F140" s="294"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A141" s="268"/>
+      <c r="B141" s="273"/>
+      <c r="C141" s="269"/>
+      <c r="D141" s="270"/>
+      <c r="E141" s="270"/>
+      <c r="F141" s="294"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A142" s="268"/>
+      <c r="B142" s="273"/>
+      <c r="C142" s="269"/>
+      <c r="D142" s="270"/>
+      <c r="E142" s="270"/>
+      <c r="F142" s="294"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A143" s="268"/>
+      <c r="B143" s="273"/>
+      <c r="C143" s="269"/>
+      <c r="D143" s="270"/>
+      <c r="E143" s="270"/>
+      <c r="F143" s="294"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A144" s="268"/>
+      <c r="B144" s="273"/>
+      <c r="C144" s="269"/>
+      <c r="D144" s="270"/>
+      <c r="E144" s="270"/>
+      <c r="F144" s="294"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A145" s="286"/>
+      <c r="B145" s="368" t="s">
+        <v>498</v>
+      </c>
+      <c r="C145" s="368"/>
+      <c r="D145" s="287"/>
+      <c r="E145" s="288"/>
+      <c r="F145" s="295"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A146" s="289"/>
+      <c r="B146" s="369"/>
+      <c r="C146" s="369"/>
+      <c r="D146" s="290"/>
+      <c r="E146" s="291"/>
+      <c r="F146" s="295"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A147" s="268"/>
+      <c r="B147" s="273"/>
+      <c r="C147" s="269"/>
+      <c r="D147" s="270"/>
+      <c r="E147" s="270"/>
+      <c r="F147" s="294"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A148" s="268"/>
+      <c r="B148" s="273"/>
+      <c r="C148" s="269"/>
+      <c r="D148" s="270"/>
+      <c r="E148" s="270"/>
+      <c r="F148" s="294"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A149" s="268"/>
+      <c r="B149" s="273"/>
+      <c r="C149" s="269"/>
+      <c r="D149" s="270"/>
+      <c r="E149" s="270"/>
+      <c r="F149" s="294"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A150" s="268"/>
+      <c r="B150" s="273"/>
+      <c r="C150" s="269"/>
+      <c r="D150" s="270"/>
+      <c r="E150" s="270"/>
+      <c r="F150" s="294"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A151" s="363" t="s">
+        <v>57</v>
+      </c>
+      <c r="B151" s="364"/>
+      <c r="C151" s="365"/>
+      <c r="D151" s="271">
+        <f>SUM(D3:D150)</f>
+        <v>0</v>
+      </c>
+      <c r="E151" s="271">
+        <f>SUM(E3:E150)</f>
+        <v>152</v>
+      </c>
+      <c r="F151" s="296"/>
+    </row>
+    <row r="152" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A152" s="361" t="s">
+        <v>484</v>
+      </c>
+      <c r="B152" s="362"/>
+      <c r="C152" s="360"/>
+      <c r="D152" s="359">
+        <f>D151+E151</f>
+        <v>152</v>
+      </c>
+      <c r="E152" s="360"/>
+      <c r="F152" s="297"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B102:C103"/>
+    <mergeCell ref="B111:C112"/>
+    <mergeCell ref="B119:C120"/>
+    <mergeCell ref="B127:C128"/>
+    <mergeCell ref="B136:C137"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="B57:C58"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="B76:C77"/>
+    <mergeCell ref="B84:C85"/>
+    <mergeCell ref="B93:C94"/>
+    <mergeCell ref="B145:C146"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AFD940-4DD8-43C1-AE6C-3D4EA926C234}">
+  <dimension ref="C1:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="4" max="8" width="8.9375" style="70"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="D1" s="70">
+        <v>1350000</v>
+      </c>
+      <c r="E1" s="70">
+        <f>D1/2</f>
+        <v>675000</v>
+      </c>
+      <c r="F1" s="175">
+        <f>E1-135000</f>
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C2" s="298"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299" t="s">
+        <v>504</v>
+      </c>
+      <c r="H2" s="299" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D3" s="185">
+        <v>4</v>
+      </c>
+      <c r="E3" s="185">
+        <v>128000</v>
+      </c>
+      <c r="F3" s="185">
+        <v>54000</v>
+      </c>
+      <c r="G3" s="185">
+        <f>E3*D3</f>
+        <v>512000</v>
+      </c>
+      <c r="H3" s="185">
+        <f>F3*D3</f>
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="C4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" s="185">
+        <v>1</v>
+      </c>
+      <c r="E4" s="185">
+        <v>54400</v>
+      </c>
+      <c r="F4" s="185">
+        <v>24000</v>
+      </c>
+      <c r="G4" s="185">
+        <f>E4*D4</f>
+        <v>54400</v>
+      </c>
+      <c r="H4" s="185">
+        <f>F4*D4</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185">
+        <f>SUM(G3:G5)</f>
+        <v>566400</v>
+      </c>
+      <c r="H6" s="185">
+        <f>SUM(H3:H5)</f>
+        <v>240000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -25431,7 +27257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533ABBF4-0524-4B6F-AA13-C5EE7868F167}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A75" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
@@ -25449,36 +27275,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="269"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="305"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="272"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="308"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="270" t="s">
+      <c r="F2" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="272"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="308"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -25707,21 +27533,21 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="273" t="s">
+      <c r="A11" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="274"/>
-      <c r="C11" s="274"/>
+      <c r="B11" s="310"/>
+      <c r="C11" s="310"/>
       <c r="D11" s="44">
         <f>SUM(D4:D10)</f>
         <v>371000</v>
       </c>
       <c r="E11" s="50"/>
-      <c r="F11" s="273" t="s">
+      <c r="F11" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="274"/>
-      <c r="H11" s="275"/>
+      <c r="G11" s="310"/>
+      <c r="H11" s="311"/>
       <c r="I11" s="44">
         <f>SUM(I4:I10)</f>
         <v>365000</v>
@@ -25837,36 +27663,36 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="33.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="267" t="s">
+      <c r="A18" s="303" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="268"/>
-      <c r="C18" s="268"/>
-      <c r="D18" s="268"/>
-      <c r="E18" s="268"/>
-      <c r="F18" s="268"/>
-      <c r="G18" s="268"/>
-      <c r="H18" s="268"/>
-      <c r="I18" s="269"/>
+      <c r="B18" s="304"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="304"/>
+      <c r="F18" s="304"/>
+      <c r="G18" s="304"/>
+      <c r="H18" s="304"/>
+      <c r="I18" s="305"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A19" s="270" t="s">
+      <c r="A19" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="271"/>
-      <c r="C19" s="271"/>
-      <c r="D19" s="272"/>
+      <c r="B19" s="307"/>
+      <c r="C19" s="307"/>
+      <c r="D19" s="308"/>
       <c r="E19" s="43"/>
-      <c r="F19" s="270" t="s">
+      <c r="F19" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="271"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="272"/>
+      <c r="G19" s="307"/>
+      <c r="H19" s="307"/>
+      <c r="I19" s="308"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -26145,21 +27971,21 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="273" t="s">
+      <c r="A31" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="274"/>
-      <c r="C31" s="274"/>
+      <c r="B31" s="310"/>
+      <c r="C31" s="310"/>
       <c r="D31" s="44">
         <f>SUM(D21:D30)</f>
         <v>163560</v>
       </c>
       <c r="E31" s="50"/>
-      <c r="F31" s="273" t="s">
+      <c r="F31" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="274"/>
-      <c r="H31" s="275"/>
+      <c r="G31" s="310"/>
+      <c r="H31" s="311"/>
       <c r="I31" s="44">
         <f>SUM(I21:I30)</f>
         <v>225060</v>
@@ -26274,36 +28100,36 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" ht="30.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="267" t="s">
+      <c r="A38" s="303" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="268"/>
-      <c r="C38" s="268"/>
-      <c r="D38" s="268"/>
-      <c r="E38" s="268"/>
-      <c r="F38" s="268"/>
-      <c r="G38" s="268"/>
-      <c r="H38" s="268"/>
-      <c r="I38" s="269"/>
+      <c r="B38" s="304"/>
+      <c r="C38" s="304"/>
+      <c r="D38" s="304"/>
+      <c r="E38" s="304"/>
+      <c r="F38" s="304"/>
+      <c r="G38" s="304"/>
+      <c r="H38" s="304"/>
+      <c r="I38" s="305"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A39" s="270" t="s">
+      <c r="A39" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="271"/>
-      <c r="C39" s="271"/>
-      <c r="D39" s="272"/>
+      <c r="B39" s="307"/>
+      <c r="C39" s="307"/>
+      <c r="D39" s="308"/>
       <c r="E39" s="43"/>
-      <c r="F39" s="270" t="s">
+      <c r="F39" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G39" s="271"/>
-      <c r="H39" s="271"/>
-      <c r="I39" s="272"/>
+      <c r="G39" s="307"/>
+      <c r="H39" s="307"/>
+      <c r="I39" s="308"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -26582,21 +28408,21 @@
       <c r="M50" s="8"/>
     </row>
     <row r="51" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="273" t="s">
+      <c r="A51" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="274"/>
-      <c r="C51" s="274"/>
+      <c r="B51" s="310"/>
+      <c r="C51" s="310"/>
       <c r="D51" s="44">
         <f>SUM(D41:D50)</f>
         <v>266150</v>
       </c>
       <c r="E51" s="50"/>
-      <c r="F51" s="273" t="s">
+      <c r="F51" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="G51" s="274"/>
-      <c r="H51" s="275"/>
+      <c r="G51" s="310"/>
+      <c r="H51" s="311"/>
       <c r="I51" s="44">
         <f>SUM(I41:I50)</f>
         <v>7850</v>
@@ -26712,36 +28538,36 @@
       <c r="M57" s="8"/>
     </row>
     <row r="58" spans="1:13" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="267" t="s">
+      <c r="A58" s="303" t="s">
         <v>277</v>
       </c>
-      <c r="B58" s="268"/>
-      <c r="C58" s="268"/>
-      <c r="D58" s="268"/>
-      <c r="E58" s="268"/>
-      <c r="F58" s="268"/>
-      <c r="G58" s="268"/>
-      <c r="H58" s="268"/>
-      <c r="I58" s="269"/>
+      <c r="B58" s="304"/>
+      <c r="C58" s="304"/>
+      <c r="D58" s="304"/>
+      <c r="E58" s="304"/>
+      <c r="F58" s="304"/>
+      <c r="G58" s="304"/>
+      <c r="H58" s="304"/>
+      <c r="I58" s="305"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A59" s="270" t="s">
+      <c r="A59" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="271"/>
-      <c r="C59" s="271"/>
-      <c r="D59" s="272"/>
+      <c r="B59" s="307"/>
+      <c r="C59" s="307"/>
+      <c r="D59" s="308"/>
       <c r="E59" s="43"/>
-      <c r="F59" s="270" t="s">
+      <c r="F59" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G59" s="271"/>
-      <c r="H59" s="271"/>
-      <c r="I59" s="272"/>
+      <c r="G59" s="307"/>
+      <c r="H59" s="307"/>
+      <c r="I59" s="308"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
@@ -27000,21 +28826,21 @@
       <c r="M70" s="8"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A71" s="273" t="s">
+      <c r="A71" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="274"/>
-      <c r="C71" s="274"/>
+      <c r="B71" s="310"/>
+      <c r="C71" s="310"/>
       <c r="D71" s="44">
         <f>SUM(D61:D70)</f>
         <v>288300</v>
       </c>
       <c r="E71" s="50"/>
-      <c r="F71" s="273" t="s">
+      <c r="F71" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="G71" s="274"/>
-      <c r="H71" s="275"/>
+      <c r="G71" s="310"/>
+      <c r="H71" s="311"/>
       <c r="I71" s="44">
         <f>SUM(I61:I70)</f>
         <v>48344</v>
@@ -27130,36 +28956,36 @@
       <c r="M77" s="8"/>
     </row>
     <row r="78" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="267" t="s">
+      <c r="A78" s="303" t="s">
         <v>334</v>
       </c>
-      <c r="B78" s="268"/>
-      <c r="C78" s="268"/>
-      <c r="D78" s="268"/>
-      <c r="E78" s="268"/>
-      <c r="F78" s="268"/>
-      <c r="G78" s="268"/>
-      <c r="H78" s="268"/>
-      <c r="I78" s="269"/>
+      <c r="B78" s="304"/>
+      <c r="C78" s="304"/>
+      <c r="D78" s="304"/>
+      <c r="E78" s="304"/>
+      <c r="F78" s="304"/>
+      <c r="G78" s="304"/>
+      <c r="H78" s="304"/>
+      <c r="I78" s="305"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
     </row>
     <row r="79" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="270" t="s">
+      <c r="A79" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="271"/>
-      <c r="C79" s="271"/>
-      <c r="D79" s="272"/>
+      <c r="B79" s="307"/>
+      <c r="C79" s="307"/>
+      <c r="D79" s="308"/>
       <c r="E79" s="43"/>
-      <c r="F79" s="270" t="s">
+      <c r="F79" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G79" s="271"/>
-      <c r="H79" s="271"/>
-      <c r="I79" s="272"/>
+      <c r="G79" s="307"/>
+      <c r="H79" s="307"/>
+      <c r="I79" s="308"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
@@ -27366,21 +29192,21 @@
       <c r="M90" s="8"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A91" s="273" t="s">
+      <c r="A91" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="274"/>
-      <c r="C91" s="274"/>
+      <c r="B91" s="310"/>
+      <c r="C91" s="310"/>
       <c r="D91" s="44">
         <f>SUM(D81:D90)</f>
         <v>239956</v>
       </c>
       <c r="E91" s="50"/>
-      <c r="F91" s="273" t="s">
+      <c r="F91" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="G91" s="274"/>
-      <c r="H91" s="275"/>
+      <c r="G91" s="310"/>
+      <c r="H91" s="311"/>
       <c r="I91" s="44">
         <f>SUM(I81:I90)</f>
         <v>239500</v>
@@ -28282,7 +30108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE5270A-1461-405D-B543-E3C5A2961C03}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -28301,19 +30127,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="322" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="288"/>
-      <c r="G1" s="281" t="s">
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="324"/>
+      <c r="G1" s="317" t="s">
         <v>407</v>
       </c>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
+      <c r="H1" s="317"/>
+      <c r="I1" s="317"/>
+      <c r="J1" s="317"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -28335,18 +30161,18 @@
         <v>4</v>
       </c>
       <c r="F2" s="223"/>
-      <c r="G2" s="282" t="s">
+      <c r="G2" s="318" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
       <c r="K2" s="223"/>
       <c r="L2" s="223"/>
       <c r="M2" s="223"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A3" s="277">
+      <c r="A3" s="313">
         <v>1</v>
       </c>
       <c r="B3" s="196">
@@ -28358,7 +30184,7 @@
       <c r="D3" s="194">
         <v>30000</v>
       </c>
-      <c r="E3" s="279">
+      <c r="E3" s="315">
         <f>D4-D3</f>
         <v>-30000</v>
       </c>
@@ -28379,11 +30205,11 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A4" s="278"/>
+      <c r="A4" s="314"/>
       <c r="B4" s="198"/>
       <c r="C4" s="199"/>
       <c r="D4" s="195"/>
-      <c r="E4" s="280"/>
+      <c r="E4" s="316"/>
       <c r="G4" s="215">
         <v>1</v>
       </c>
@@ -28419,7 +30245,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A6" s="277">
+      <c r="A6" s="313">
         <v>2</v>
       </c>
       <c r="B6" s="196">
@@ -28431,7 +30257,7 @@
       <c r="D6" s="194">
         <v>5000</v>
       </c>
-      <c r="E6" s="279">
+      <c r="E6" s="315">
         <f>D7-D6</f>
         <v>-5000</v>
       </c>
@@ -28452,11 +30278,11 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A7" s="278"/>
+      <c r="A7" s="314"/>
       <c r="B7" s="198"/>
       <c r="C7" s="199"/>
       <c r="D7" s="195"/>
-      <c r="E7" s="280"/>
+      <c r="E7" s="316"/>
       <c r="G7" s="215">
         <v>3</v>
       </c>
@@ -28492,7 +30318,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A9" s="277">
+      <c r="A9" s="313">
         <v>4</v>
       </c>
       <c r="B9" s="196">
@@ -28504,7 +30330,7 @@
       <c r="D9" s="194">
         <v>3070</v>
       </c>
-      <c r="E9" s="279">
+      <c r="E9" s="315">
         <f>D10-D9</f>
         <v>-3070</v>
       </c>
@@ -28525,11 +30351,11 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A10" s="278"/>
+      <c r="A10" s="314"/>
       <c r="B10" s="198"/>
       <c r="C10" s="199"/>
       <c r="D10" s="195"/>
-      <c r="E10" s="280"/>
+      <c r="E10" s="316"/>
       <c r="G10" s="215">
         <v>5</v>
       </c>
@@ -28569,7 +30395,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A12" s="277">
+      <c r="A12" s="313">
         <v>5</v>
       </c>
       <c r="B12" s="196">
@@ -28581,7 +30407,7 @@
       <c r="D12" s="194">
         <v>5000</v>
       </c>
-      <c r="E12" s="279">
+      <c r="E12" s="315">
         <f>D13-D12</f>
         <v>-5000</v>
       </c>
@@ -28602,11 +30428,11 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A13" s="278"/>
+      <c r="A13" s="314"/>
       <c r="B13" s="198"/>
       <c r="C13" s="199"/>
       <c r="D13" s="195"/>
-      <c r="E13" s="280"/>
+      <c r="E13" s="316"/>
       <c r="G13" s="1"/>
       <c r="H13" s="218"/>
       <c r="I13" s="1"/>
@@ -28630,7 +30456,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A15" s="277">
+      <c r="A15" s="313">
         <v>6</v>
       </c>
       <c r="B15" s="196">
@@ -28642,7 +30468,7 @@
       <c r="D15" s="194">
         <v>5000</v>
       </c>
-      <c r="E15" s="279">
+      <c r="E15" s="315">
         <f>D16-D15</f>
         <v>-5000</v>
       </c>
@@ -28655,11 +30481,11 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A16" s="278"/>
+      <c r="A16" s="314"/>
       <c r="B16" s="198"/>
       <c r="C16" s="199"/>
       <c r="D16" s="195"/>
-      <c r="E16" s="280"/>
+      <c r="E16" s="316"/>
       <c r="G16" s="1"/>
       <c r="H16" s="219"/>
       <c r="I16" s="1"/>
@@ -28683,7 +30509,7 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A18" s="277">
+      <c r="A18" s="313">
         <v>7</v>
       </c>
       <c r="B18" s="196">
@@ -28695,15 +30521,15 @@
       <c r="D18" s="194">
         <v>5000</v>
       </c>
-      <c r="E18" s="279">
+      <c r="E18" s="315">
         <f>D19-D18</f>
         <v>-5000</v>
       </c>
-      <c r="G18" s="283" t="s">
+      <c r="G18" s="319" t="s">
         <v>143</v>
       </c>
-      <c r="H18" s="284"/>
-      <c r="I18" s="285"/>
+      <c r="H18" s="320"/>
+      <c r="I18" s="321"/>
       <c r="J18" s="44">
         <f>SUM(J4:J17)</f>
         <v>0</v>
@@ -28713,11 +30539,11 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A19" s="278"/>
+      <c r="A19" s="314"/>
       <c r="B19" s="198"/>
       <c r="C19" s="199"/>
       <c r="D19" s="195"/>
-      <c r="E19" s="280"/>
+      <c r="E19" s="316"/>
       <c r="G19" s="55"/>
       <c r="H19" s="221"/>
       <c r="I19" s="55"/>
@@ -28732,18 +30558,18 @@
       <c r="C20" s="8"/>
       <c r="D20" s="225"/>
       <c r="E20" s="227"/>
-      <c r="G20" s="270" t="s">
+      <c r="G20" s="306" t="s">
         <v>391</v>
       </c>
-      <c r="H20" s="271"/>
-      <c r="I20" s="271"/>
-      <c r="J20" s="272"/>
+      <c r="H20" s="307"/>
+      <c r="I20" s="307"/>
+      <c r="J20" s="308"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A21" s="277">
+      <c r="A21" s="313">
         <v>8</v>
       </c>
       <c r="B21" s="196">
@@ -28755,7 +30581,7 @@
       <c r="D21" s="194">
         <v>600</v>
       </c>
-      <c r="E21" s="279">
+      <c r="E21" s="315">
         <f>D22-D21</f>
         <v>-600</v>
       </c>
@@ -28776,11 +30602,11 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A22" s="278"/>
+      <c r="A22" s="314"/>
       <c r="B22" s="198"/>
       <c r="C22" s="199"/>
       <c r="D22" s="195"/>
-      <c r="E22" s="280"/>
+      <c r="E22" s="316"/>
       <c r="G22" s="216">
         <v>1</v>
       </c>
@@ -28820,7 +30646,7 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A24" s="277">
+      <c r="A24" s="313">
         <v>9</v>
       </c>
       <c r="B24" s="196">
@@ -28832,7 +30658,7 @@
       <c r="D24" s="194">
         <v>5000</v>
       </c>
-      <c r="E24" s="279">
+      <c r="E24" s="315">
         <f>D25-D24</f>
         <v>-5000</v>
       </c>
@@ -28845,11 +30671,11 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A25" s="278"/>
+      <c r="A25" s="314"/>
       <c r="B25" s="198"/>
       <c r="C25" s="199"/>
       <c r="D25" s="195"/>
-      <c r="E25" s="280"/>
+      <c r="E25" s="316"/>
       <c r="G25" s="216"/>
       <c r="H25" s="219"/>
       <c r="I25" s="1"/>
@@ -28873,7 +30699,7 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A27" s="277">
+      <c r="A27" s="313">
         <v>10</v>
       </c>
       <c r="B27" s="196">
@@ -28885,7 +30711,7 @@
       <c r="D27" s="194">
         <v>5000</v>
       </c>
-      <c r="E27" s="279">
+      <c r="E27" s="315">
         <f>D28-D27</f>
         <v>-5000</v>
       </c>
@@ -28898,11 +30724,11 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A28" s="278"/>
+      <c r="A28" s="314"/>
       <c r="B28" s="198"/>
       <c r="C28" s="199"/>
       <c r="D28" s="195"/>
-      <c r="E28" s="280"/>
+      <c r="E28" s="316"/>
       <c r="G28" s="216"/>
       <c r="H28" s="219"/>
       <c r="I28" s="1"/>
@@ -28926,7 +30752,7 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A30" s="277">
+      <c r="A30" s="313">
         <v>11</v>
       </c>
       <c r="B30" s="196">
@@ -28938,7 +30764,7 @@
       <c r="D30" s="194">
         <v>5000</v>
       </c>
-      <c r="E30" s="279">
+      <c r="E30" s="315">
         <f>D31-D30</f>
         <v>-5000</v>
       </c>
@@ -28951,11 +30777,11 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="278"/>
+      <c r="A31" s="314"/>
       <c r="B31" s="198"/>
       <c r="C31" s="199"/>
       <c r="D31" s="195"/>
-      <c r="E31" s="280"/>
+      <c r="E31" s="316"/>
       <c r="G31" s="1"/>
       <c r="H31" s="218"/>
       <c r="I31" s="1"/>
@@ -28979,19 +30805,19 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A33" s="277">
+      <c r="A33" s="313">
         <v>12</v>
       </c>
       <c r="B33" s="196">
         <v>44293</v>
       </c>
       <c r="C33" s="197" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D33" s="194">
         <v>2063</v>
       </c>
-      <c r="E33" s="279">
+      <c r="E33" s="315">
         <f>D34-D33</f>
         <v>0</v>
       </c>
@@ -29004,17 +30830,17 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A34" s="278"/>
+      <c r="A34" s="314"/>
       <c r="B34" s="198">
         <v>44294</v>
       </c>
       <c r="C34" s="199" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D34" s="195">
         <v>2063</v>
       </c>
-      <c r="E34" s="280"/>
+      <c r="E34" s="316"/>
       <c r="G34" s="1"/>
       <c r="H34" s="219"/>
       <c r="I34" s="1"/>
@@ -29038,21 +30864,21 @@
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A36" s="277">
+      <c r="A36" s="313">
         <v>13</v>
       </c>
       <c r="B36" s="196"/>
       <c r="C36" s="197"/>
       <c r="D36" s="194"/>
-      <c r="E36" s="279">
+      <c r="E36" s="315">
         <f>D37-D36</f>
         <v>0</v>
       </c>
-      <c r="G36" s="273" t="s">
+      <c r="G36" s="309" t="s">
         <v>143</v>
       </c>
-      <c r="H36" s="274"/>
-      <c r="I36" s="274"/>
+      <c r="H36" s="310"/>
+      <c r="I36" s="310"/>
       <c r="J36" s="44">
         <f>SUM(J22:J35)</f>
         <v>0</v>
@@ -29062,11 +30888,11 @@
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A37" s="278"/>
+      <c r="A37" s="314"/>
       <c r="B37" s="198"/>
       <c r="C37" s="199"/>
       <c r="D37" s="195"/>
-      <c r="E37" s="280"/>
+      <c r="E37" s="316"/>
       <c r="G37" s="8"/>
       <c r="H37" s="226"/>
       <c r="I37" s="8"/>
@@ -29090,13 +30916,13 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A39" s="277">
+      <c r="A39" s="313">
         <v>14</v>
       </c>
       <c r="B39" s="196"/>
       <c r="C39" s="197"/>
       <c r="D39" s="194"/>
-      <c r="E39" s="279">
+      <c r="E39" s="315">
         <f>D40-D39</f>
         <v>0</v>
       </c>
@@ -29109,11 +30935,11 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A40" s="278"/>
+      <c r="A40" s="314"/>
       <c r="B40" s="198"/>
       <c r="C40" s="199"/>
       <c r="D40" s="195"/>
-      <c r="E40" s="280"/>
+      <c r="E40" s="316"/>
       <c r="G40" s="8"/>
       <c r="H40" s="226"/>
       <c r="I40" s="8"/>
@@ -29137,13 +30963,13 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A42" s="277">
+      <c r="A42" s="313">
         <v>15</v>
       </c>
       <c r="B42" s="196"/>
       <c r="C42" s="197"/>
       <c r="D42" s="194"/>
-      <c r="E42" s="279">
+      <c r="E42" s="315">
         <f>D43-D42</f>
         <v>0</v>
       </c>
@@ -29156,11 +30982,11 @@
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A43" s="278"/>
+      <c r="A43" s="314"/>
       <c r="B43" s="198"/>
       <c r="C43" s="199"/>
       <c r="D43" s="195"/>
-      <c r="E43" s="280"/>
+      <c r="E43" s="316"/>
       <c r="G43" s="8"/>
       <c r="H43" s="226"/>
       <c r="I43" s="8"/>
@@ -29184,12 +31010,12 @@
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:13" ht="29.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="290" t="s">
+      <c r="A45" s="326" t="s">
         <v>392</v>
       </c>
-      <c r="B45" s="291"/>
-      <c r="C45" s="291"/>
-      <c r="D45" s="292"/>
+      <c r="B45" s="327"/>
+      <c r="C45" s="327"/>
+      <c r="D45" s="328"/>
       <c r="E45" s="204">
         <f>SUM(E3:E44)</f>
         <v>-68670</v>
@@ -29206,8 +31032,8 @@
       <c r="A46" s="77"/>
       <c r="B46" s="224"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="289"/>
-      <c r="E46" s="289"/>
+      <c r="D46" s="325"/>
+      <c r="E46" s="325"/>
       <c r="G46" s="8"/>
       <c r="H46" s="226"/>
       <c r="I46" s="8"/>
@@ -29442,8 +31268,8 @@
   </sheetPr>
   <dimension ref="A1:J771"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -29456,13 +31282,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="303" t="s">
         <v>368</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -29470,11 +31296,11 @@
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="270"/>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="272"/>
+      <c r="A2" s="306"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="308"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -29586,7 +31412,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="207"/>
       <c r="B8" s="39"/>
-      <c r="C8" s="133"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
       <c r="F8" s="8"/>
@@ -29597,7 +31423,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="207"/>
-      <c r="B9" s="251"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="1"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -29704,11 +31530,11 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="273" t="s">
+      <c r="A18" s="309" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="274"/>
-      <c r="C18" s="274"/>
+      <c r="B18" s="310"/>
+      <c r="C18" s="310"/>
       <c r="D18" s="44">
         <f>SUM(D4:D17)</f>
         <v>682000</v>
@@ -29741,11 +31567,11 @@
       <c r="C20" s="209" t="s">
         <v>374</v>
       </c>
-      <c r="D20" s="294">
+      <c r="D20" s="330">
         <f>D18+E18</f>
         <v>696000</v>
       </c>
-      <c r="E20" s="294"/>
+      <c r="E20" s="330"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -29756,8 +31582,8 @@
       <c r="A21" s="8"/>
       <c r="B21" s="255"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="293"/>
-      <c r="E21" s="293"/>
+      <c r="D21" s="329"/>
+      <c r="E21" s="329"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -36466,7 +38292,7 @@
   <dimension ref="A1:J771"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -36479,13 +38305,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="267" t="s">
-        <v>432</v>
-      </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
+      <c r="A1" s="303" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -36493,11 +38319,11 @@
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="270"/>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="272"/>
+      <c r="A2" s="306"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="308"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -36554,7 +38380,7 @@
         <v>44288</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D5" s="40">
         <v>42000</v>
@@ -36711,11 +38537,11 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="273" t="s">
+      <c r="A18" s="309" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="274"/>
-      <c r="C18" s="274"/>
+      <c r="B18" s="310"/>
+      <c r="C18" s="310"/>
       <c r="D18" s="44">
         <f>SUM(D4:D17)</f>
         <v>1095000</v>
@@ -36748,11 +38574,11 @@
       <c r="C20" s="209" t="s">
         <v>374</v>
       </c>
-      <c r="D20" s="294">
+      <c r="D20" s="330">
         <f>D18+E18</f>
         <v>1095000</v>
       </c>
-      <c r="E20" s="294"/>
+      <c r="E20" s="330"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -36763,8 +38589,8 @@
       <c r="A21" s="8"/>
       <c r="B21" s="255"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="293"/>
-      <c r="E21" s="293"/>
+      <c r="D21" s="329"/>
+      <c r="E21" s="329"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -43468,10 +45294,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36649B9E-6B8C-4CFC-B0D1-394B711FF894}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -43488,36 +45314,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="303" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="269"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="305"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="272"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="308"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="270" t="s">
+      <c r="F2" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="272"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="308"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -43811,7 +45637,7 @@
         <v>44288</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D13" s="40">
         <v>20000</v>
@@ -43833,10 +45659,18 @@
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A14" s="244"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="40"/>
+      <c r="A14" s="244">
+        <v>9</v>
+      </c>
+      <c r="B14" s="39">
+        <v>44337</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D14" s="40">
+        <v>45000</v>
+      </c>
       <c r="E14" s="38"/>
       <c r="F14" s="72">
         <v>8</v>
@@ -43856,10 +45690,18 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A15" s="244"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="40"/>
+      <c r="A15" s="244">
+        <v>10</v>
+      </c>
+      <c r="B15" s="39">
+        <v>44338</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D15" s="40">
+        <v>50000</v>
+      </c>
       <c r="E15" s="38"/>
       <c r="F15" s="216">
         <v>9</v>
@@ -43879,10 +45721,18 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A16" s="244"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="40"/>
+      <c r="A16" s="244">
+        <v>11</v>
+      </c>
+      <c r="B16" s="39">
+        <v>44339</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D16" s="40">
+        <v>95000</v>
+      </c>
       <c r="E16" s="38"/>
       <c r="F16" s="216">
         <v>10</v>
@@ -43891,7 +45741,7 @@
         <v>44286</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I16" s="40">
         <v>20000</v>
@@ -43903,9 +45753,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17" s="244"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D17" s="40">
+        <v>24000</v>
+      </c>
       <c r="E17" s="38"/>
       <c r="F17" s="216">
         <v>11</v>
@@ -43914,7 +45768,7 @@
         <v>44289</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I17" s="40">
         <v>58000</v>
@@ -43925,135 +45779,162 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A18" s="257"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="40"/>
+      <c r="A18" s="257">
+        <v>12</v>
+      </c>
+      <c r="B18" s="39">
+        <v>44344</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D18" s="40">
+        <v>34000</v>
+      </c>
       <c r="E18" s="38"/>
-      <c r="F18" s="257"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="40"/>
+      <c r="F18" s="257">
+        <v>12</v>
+      </c>
+      <c r="G18" s="39">
+        <v>44337</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I18" s="40">
+        <v>214000</v>
+      </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A19" s="257"/>
+      <c r="A19" s="267"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="40"/>
       <c r="E19" s="38"/>
-      <c r="F19" s="257"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="40"/>
+      <c r="F19" s="267">
+        <v>13</v>
+      </c>
+      <c r="G19" s="39">
+        <v>44341</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I19" s="40">
+        <v>10000</v>
+      </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="244"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A20" s="267"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="40"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="40"/>
+      <c r="F20" s="267">
+        <v>14</v>
+      </c>
+      <c r="G20" s="39">
+        <v>44342</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I20" s="40">
+        <v>24000</v>
+      </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="283" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="284"/>
-      <c r="C21" s="284"/>
-      <c r="D21" s="44">
-        <f>SUM(D4:D20)</f>
-        <v>737500</v>
-      </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="283" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="284"/>
-      <c r="H21" s="285"/>
-      <c r="I21" s="44">
-        <f>SUM(I4:I20)</f>
-        <v>737500</v>
-      </c>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A21" s="257"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="257"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
+    <row r="22" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="244"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="76"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="58">
-        <f>D21</f>
-        <v>737500</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
+      <c r="A23" s="319" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="320"/>
+      <c r="C23" s="320"/>
+      <c r="D23" s="44">
+        <f>SUM(D4:D22)</f>
+        <v>985500</v>
+      </c>
+      <c r="E23" s="50"/>
+      <c r="F23" s="319" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="320"/>
+      <c r="H23" s="321"/>
+      <c r="I23" s="44">
+        <f>SUM(I4:I22)</f>
+        <v>985500</v>
+      </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="76"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="58">
-        <f>I21</f>
-        <v>737500</v>
-      </c>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="1:13" ht="9.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="76"/>
       <c r="B25" s="53"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
+      <c r="C25" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="58">
+        <f>D23</f>
+        <v>985500</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="53"/>
       <c r="G25" s="53"/>
@@ -44064,15 +45945,15 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="1:13" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="76"/>
       <c r="B26" s="53"/>
-      <c r="C26" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="62">
-        <f>D23-D24</f>
-        <v>0</v>
+      <c r="C26" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="58">
+        <f>I23</f>
+        <v>985500</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="53"/>
@@ -44084,31 +45965,36 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A27" s="77"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+    <row r="27" spans="1:13" ht="9.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="76"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A28" s="77"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+    <row r="28" spans="1:13" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="76"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="62">
+        <f>D25-D26</f>
+        <v>0</v>
+      </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -44310,6 +46196,7 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A42" s="77"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -44324,6 +46211,7 @@
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A43" s="77"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -44575,13 +46463,41 @@
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
     </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -44610,36 +46526,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="267" t="s">
-        <v>435</v>
-      </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="269"/>
+      <c r="A1" s="303" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="305"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="272"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="308"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="270" t="s">
+      <c r="F2" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="272"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="308"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -44899,7 +46815,7 @@
         <v>44294</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D11" s="40">
         <v>1100</v>
@@ -44958,7 +46874,7 @@
         <v>44288</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I13" s="40">
         <v>200</v>
@@ -44981,7 +46897,7 @@
         <v>44289</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I14" s="40">
         <v>700</v>
@@ -45022,21 +46938,21 @@
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="283" t="s">
+      <c r="A17" s="319" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="284"/>
-      <c r="C17" s="284"/>
+      <c r="B17" s="320"/>
+      <c r="C17" s="320"/>
       <c r="D17" s="44">
         <f>SUM(D4:D16)</f>
         <v>284100</v>
       </c>
       <c r="E17" s="50"/>
-      <c r="F17" s="283" t="s">
+      <c r="F17" s="319" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="284"/>
-      <c r="H17" s="285"/>
+      <c r="G17" s="320"/>
+      <c r="H17" s="321"/>
       <c r="I17" s="44">
         <f>SUM(I4:I16)</f>
         <v>284115</v>
@@ -45662,36 +47578,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="303" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="269"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="305"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="272"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="308"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="270" t="s">
+      <c r="F2" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="272"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="308"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -45911,21 +47827,21 @@
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="283" t="s">
+      <c r="A14" s="319" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="284"/>
-      <c r="C14" s="284"/>
+      <c r="B14" s="320"/>
+      <c r="C14" s="320"/>
       <c r="D14" s="44">
         <f>SUM(D4:D13)</f>
         <v>120000</v>
       </c>
       <c r="E14" s="50"/>
-      <c r="F14" s="283" t="s">
+      <c r="F14" s="319" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="284"/>
-      <c r="H14" s="285"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="321"/>
       <c r="I14" s="44">
         <f>SUM(I4:I13)</f>
         <v>120000</v>
@@ -46533,8 +48449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03DA68B-CB4E-4FFC-8AF2-E82A88309945}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -46550,36 +48466,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="303" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="269"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="305"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="272"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="308"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="270" t="s">
+      <c r="F2" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="272"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="308"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -46684,10 +48600,18 @@
       <c r="C6" s="1"/>
       <c r="D6" s="40"/>
       <c r="E6" s="38"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="40"/>
+      <c r="F6" s="210">
+        <v>3</v>
+      </c>
+      <c r="G6" s="39">
+        <v>44337</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I6" s="40">
+        <v>14000</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -46784,24 +48708,24 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="283" t="s">
+      <c r="A13" s="319" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="284"/>
-      <c r="C13" s="284"/>
+      <c r="B13" s="320"/>
+      <c r="C13" s="320"/>
       <c r="D13" s="44">
         <f>SUM(D4:D12)</f>
         <v>260000</v>
       </c>
       <c r="E13" s="50"/>
-      <c r="F13" s="283" t="s">
+      <c r="F13" s="319" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="284"/>
-      <c r="H13" s="285"/>
+      <c r="G13" s="320"/>
+      <c r="H13" s="321"/>
       <c r="I13" s="44">
         <f>SUM(I4:I12)</f>
-        <v>260000</v>
+        <v>274000</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -46851,7 +48775,7 @@
       </c>
       <c r="D16" s="58">
         <f>I13</f>
-        <v>260000</v>
+        <v>274000</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="53"/>
@@ -46886,7 +48810,7 @@
       </c>
       <c r="D18" s="62">
         <f>D15-D16</f>
-        <v>0</v>
+        <v>-14000</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="53"/>
@@ -46914,36 +48838,36 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="267" t="s">
+      <c r="A20" s="303" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="268"/>
-      <c r="C20" s="268"/>
-      <c r="D20" s="268"/>
-      <c r="E20" s="268"/>
-      <c r="F20" s="268"/>
-      <c r="G20" s="268"/>
-      <c r="H20" s="268"/>
-      <c r="I20" s="269"/>
+      <c r="B20" s="304"/>
+      <c r="C20" s="304"/>
+      <c r="D20" s="304"/>
+      <c r="E20" s="304"/>
+      <c r="F20" s="304"/>
+      <c r="G20" s="304"/>
+      <c r="H20" s="304"/>
+      <c r="I20" s="305"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A21" s="270" t="s">
+      <c r="A21" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="271"/>
-      <c r="C21" s="271"/>
-      <c r="D21" s="272"/>
+      <c r="B21" s="307"/>
+      <c r="C21" s="307"/>
+      <c r="D21" s="308"/>
       <c r="E21" s="43"/>
-      <c r="F21" s="270" t="s">
+      <c r="F21" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="271"/>
-      <c r="H21" s="271"/>
-      <c r="I21" s="272"/>
+      <c r="G21" s="307"/>
+      <c r="H21" s="307"/>
+      <c r="I21" s="308"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -47109,9 +49033,15 @@
       <c r="F27" s="169">
         <v>5</v>
       </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="40"/>
+      <c r="G27" s="39">
+        <v>44347</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I27" s="40">
+        <v>2500</v>
+      </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
@@ -47163,24 +49093,24 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="283" t="s">
+      <c r="A31" s="319" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="284"/>
-      <c r="C31" s="284"/>
+      <c r="B31" s="320"/>
+      <c r="C31" s="320"/>
       <c r="D31" s="44">
         <f>SUM(D23:D30)</f>
         <v>413000</v>
       </c>
       <c r="E31" s="50"/>
-      <c r="F31" s="283" t="s">
+      <c r="F31" s="319" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="284"/>
-      <c r="H31" s="285"/>
+      <c r="G31" s="320"/>
+      <c r="H31" s="321"/>
       <c r="I31" s="44">
         <f>SUM(I23:I30)</f>
-        <v>413000</v>
+        <v>415500</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -47230,7 +49160,7 @@
       </c>
       <c r="D34" s="58">
         <f>I31</f>
-        <v>413000</v>
+        <v>415500</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="53"/>
@@ -47265,7 +49195,7 @@
       </c>
       <c r="D36" s="62">
         <f>D33-D34</f>
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="53"/>
@@ -47322,36 +49252,36 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="267" t="s">
+      <c r="A40" s="303" t="s">
         <v>267</v>
       </c>
-      <c r="B40" s="268"/>
-      <c r="C40" s="268"/>
-      <c r="D40" s="268"/>
-      <c r="E40" s="268"/>
-      <c r="F40" s="268"/>
-      <c r="G40" s="268"/>
-      <c r="H40" s="268"/>
-      <c r="I40" s="269"/>
+      <c r="B40" s="304"/>
+      <c r="C40" s="304"/>
+      <c r="D40" s="304"/>
+      <c r="E40" s="304"/>
+      <c r="F40" s="304"/>
+      <c r="G40" s="304"/>
+      <c r="H40" s="304"/>
+      <c r="I40" s="305"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A41" s="270" t="s">
+      <c r="A41" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="271"/>
-      <c r="C41" s="271"/>
-      <c r="D41" s="272"/>
+      <c r="B41" s="307"/>
+      <c r="C41" s="307"/>
+      <c r="D41" s="308"/>
       <c r="E41" s="43"/>
-      <c r="F41" s="270" t="s">
+      <c r="F41" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G41" s="271"/>
-      <c r="H41" s="271"/>
-      <c r="I41" s="272"/>
+      <c r="G41" s="307"/>
+      <c r="H41" s="307"/>
+      <c r="I41" s="308"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -47509,7 +49439,7 @@
         <v>44310</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I47" s="40">
         <v>5000</v>
@@ -47625,21 +49555,21 @@
       <c r="M54" s="8"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A55" s="283" t="s">
+      <c r="A55" s="319" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="284"/>
-      <c r="C55" s="284"/>
+      <c r="B55" s="320"/>
+      <c r="C55" s="320"/>
       <c r="D55" s="44">
         <f>SUM(D43:D54)</f>
         <v>1203500</v>
       </c>
       <c r="E55" s="50"/>
-      <c r="F55" s="283" t="s">
+      <c r="F55" s="319" t="s">
         <v>105</v>
       </c>
-      <c r="G55" s="284"/>
-      <c r="H55" s="285"/>
+      <c r="G55" s="320"/>
+      <c r="H55" s="321"/>
       <c r="I55" s="44">
         <f>SUM(I43:I54)</f>
         <v>1208500</v>
@@ -47755,36 +49685,36 @@
       <c r="M61" s="8"/>
     </row>
     <row r="62" spans="1:13" ht="35.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="267" t="s">
+      <c r="A62" s="303" t="s">
         <v>287</v>
       </c>
-      <c r="B62" s="268"/>
-      <c r="C62" s="268"/>
-      <c r="D62" s="268"/>
-      <c r="E62" s="268"/>
-      <c r="F62" s="268"/>
-      <c r="G62" s="268"/>
-      <c r="H62" s="268"/>
-      <c r="I62" s="269"/>
+      <c r="B62" s="304"/>
+      <c r="C62" s="304"/>
+      <c r="D62" s="304"/>
+      <c r="E62" s="304"/>
+      <c r="F62" s="304"/>
+      <c r="G62" s="304"/>
+      <c r="H62" s="304"/>
+      <c r="I62" s="305"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A63" s="270" t="s">
+      <c r="A63" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="271"/>
-      <c r="C63" s="271"/>
-      <c r="D63" s="272"/>
+      <c r="B63" s="307"/>
+      <c r="C63" s="307"/>
+      <c r="D63" s="308"/>
       <c r="E63" s="43"/>
-      <c r="F63" s="270" t="s">
+      <c r="F63" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G63" s="271"/>
-      <c r="H63" s="271"/>
-      <c r="I63" s="272"/>
+      <c r="G63" s="307"/>
+      <c r="H63" s="307"/>
+      <c r="I63" s="308"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -47891,7 +49821,7 @@
         <v>44312</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D67" s="40">
         <v>17000</v>
@@ -47904,7 +49834,7 @@
         <v>44309</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I67" s="40">
         <v>17000</v>
@@ -47990,21 +49920,21 @@
       <c r="M72" s="8"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A73" s="283" t="s">
+      <c r="A73" s="319" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="284"/>
-      <c r="C73" s="284"/>
+      <c r="B73" s="320"/>
+      <c r="C73" s="320"/>
       <c r="D73" s="44">
         <f>SUM(D65:D72)</f>
         <v>120500</v>
       </c>
       <c r="E73" s="50"/>
-      <c r="F73" s="283" t="s">
+      <c r="F73" s="319" t="s">
         <v>105</v>
       </c>
-      <c r="G73" s="284"/>
-      <c r="H73" s="285"/>
+      <c r="G73" s="320"/>
+      <c r="H73" s="321"/>
       <c r="I73" s="44">
         <f>SUM(I65:I72)</f>
         <v>120500</v>
@@ -48120,36 +50050,36 @@
       <c r="M79" s="8"/>
     </row>
     <row r="80" spans="1:13" ht="32.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="267" t="s">
+      <c r="A80" s="303" t="s">
         <v>351</v>
       </c>
-      <c r="B80" s="268"/>
-      <c r="C80" s="268"/>
-      <c r="D80" s="268"/>
-      <c r="E80" s="268"/>
-      <c r="F80" s="268"/>
-      <c r="G80" s="268"/>
-      <c r="H80" s="268"/>
-      <c r="I80" s="269"/>
+      <c r="B80" s="304"/>
+      <c r="C80" s="304"/>
+      <c r="D80" s="304"/>
+      <c r="E80" s="304"/>
+      <c r="F80" s="304"/>
+      <c r="G80" s="304"/>
+      <c r="H80" s="304"/>
+      <c r="I80" s="305"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A81" s="270" t="s">
+      <c r="A81" s="306" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="271"/>
-      <c r="C81" s="271"/>
-      <c r="D81" s="272"/>
+      <c r="B81" s="307"/>
+      <c r="C81" s="307"/>
+      <c r="D81" s="308"/>
       <c r="E81" s="43"/>
-      <c r="F81" s="270" t="s">
+      <c r="F81" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="G81" s="271"/>
-      <c r="H81" s="271"/>
-      <c r="I81" s="272"/>
+      <c r="G81" s="307"/>
+      <c r="H81" s="307"/>
+      <c r="I81" s="308"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
@@ -48249,15 +50179,31 @@
       <c r="M84" s="8"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A85" s="179"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="40"/>
+      <c r="A85" s="179">
+        <v>3</v>
+      </c>
+      <c r="B85" s="39">
+        <v>44280</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D85" s="40">
+        <v>10000</v>
+      </c>
       <c r="E85" s="38"/>
-      <c r="F85" s="179"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="40"/>
+      <c r="F85" s="179">
+        <v>3</v>
+      </c>
+      <c r="G85" s="39">
+        <v>44339</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I85" s="40">
+        <v>10000</v>
+      </c>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
@@ -48266,13 +50212,25 @@
     <row r="86" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A86" s="179"/>
       <c r="B86" s="39"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="40"/>
+      <c r="C86" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D86" s="40">
+        <v>20000</v>
+      </c>
       <c r="E86" s="38"/>
-      <c r="F86" s="179"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="40"/>
+      <c r="F86" s="179">
+        <v>4</v>
+      </c>
+      <c r="G86" s="39">
+        <v>44342</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I86" s="40">
+        <v>20000</v>
+      </c>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
@@ -48339,24 +50297,24 @@
       <c r="M90" s="8"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A91" s="283" t="s">
+      <c r="A91" s="319" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="284"/>
-      <c r="C91" s="284"/>
+      <c r="B91" s="320"/>
+      <c r="C91" s="320"/>
       <c r="D91" s="44">
         <f>SUM(D83:D90)</f>
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="E91" s="50"/>
-      <c r="F91" s="283" t="s">
+      <c r="F91" s="319" t="s">
         <v>105</v>
       </c>
-      <c r="G91" s="284"/>
-      <c r="H91" s="285"/>
+      <c r="G91" s="320"/>
+      <c r="H91" s="321"/>
       <c r="I91" s="44">
         <f>SUM(I83:I90)</f>
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -48382,7 +50340,7 @@
       </c>
       <c r="D93" s="58">
         <f>D91</f>
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="53"/>
@@ -48398,7 +50356,7 @@
       </c>
       <c r="D94" s="58">
         <f>I91</f>
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="53"/>
